--- a/arranged_dataset/DIP-chloride.xlsx
+++ b/arranged_dataset/DIP-chloride.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>smiles</t>
   </si>
@@ -320,48 +320,6 @@
   </si>
   <si>
     <t>IQZLUWLMQNGTIW-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>Oc1ccccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>JECYUBVRTQDVAT-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>Oc1cccc(OC)c1C(=O)C</t>
-  </si>
-  <si>
-    <t>UENLHUMCIOWYQN-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>Oc1ccc(OC)cc1C(=O)C</t>
-  </si>
-  <si>
-    <t>MLIBGOFSXXWRIY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>Oc1ccc(C)cc1C(=O)C</t>
-  </si>
-  <si>
-    <t>YNPDFBFVMJNGKZ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>Oc1ccc(F)cc1C(=O)C</t>
-  </si>
-  <si>
-    <t>KOFFXZYMDLWRHX-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>Oc1c(Cl)cc(Cl)cc1C(=O)C</t>
-  </si>
-  <si>
-    <t>CJFYGRLJDKWMDI-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>Oc1cc(OC)cc(C(=O)OC)c1C(=O)C</t>
-  </si>
-  <si>
-    <t>WRYKPYJMRHQDBM-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>COc1cccc(OC)c1C(=O)C</t>
@@ -3111,272 +3069,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="85067775"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="Picture 69" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="86334600"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="Picture 70" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="87601425"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="Picture 71" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="88868250"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="Picture 72" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="90135075"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="Picture 73" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="91401900"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="Picture 74" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="92668725"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="Picture 75" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="93935550"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3674,7 +3366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4798,19 +4490,19 @@
         <v>103</v>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E49">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F49">
-        <v>1.716814035582576</v>
+        <v>0.2001051401535413</v>
       </c>
       <c r="G49">
-        <v>-2.679276531017972</v>
+        <v>-2.26778354843842</v>
       </c>
       <c r="H49">
-        <v>2.679276531017975</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="100" customHeight="1">
@@ -4821,19 +4513,19 @@
         <v>105</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>96.5</v>
       </c>
       <c r="E50">
-        <v>0.58307</v>
+        <v>0.54327</v>
       </c>
       <c r="F50">
-        <v>2.269203661219363</v>
+        <v>-1.801907092249079</v>
       </c>
       <c r="G50">
-        <v>-2.679276531017972</v>
+        <v>-2.496390760982615</v>
       </c>
       <c r="H50">
-        <v>2.679276531017975</v>
+        <v>2.496390760982619</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="100" customHeight="1">
@@ -4844,19 +4536,19 @@
         <v>107</v>
       </c>
       <c r="D51">
-        <v>9</v>
+        <v>97.5</v>
       </c>
       <c r="E51">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F51">
-        <v>1.34901111815735</v>
+        <v>-1.808040943597905</v>
       </c>
       <c r="G51">
-        <v>-2.679276531017972</v>
+        <v>-2.26778354843842</v>
       </c>
       <c r="H51">
-        <v>2.679276531017975</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="100" customHeight="1">
@@ -4867,19 +4559,19 @@
         <v>109</v>
       </c>
       <c r="D52">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="E52">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F52">
-        <v>1.34901111815735</v>
+        <v>-1.715524225407506</v>
       </c>
       <c r="G52">
-        <v>-2.679276531017972</v>
+        <v>-2.26778354843842</v>
       </c>
       <c r="H52">
-        <v>2.679276531017975</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="100" customHeight="1">
@@ -4890,19 +4582,19 @@
         <v>111</v>
       </c>
       <c r="D53">
-        <v>10.5</v>
+        <v>97</v>
       </c>
       <c r="E53">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F53">
-        <v>1.249439344048173</v>
+        <v>-1.715524225407506</v>
       </c>
       <c r="G53">
-        <v>-2.679276531017972</v>
+        <v>-2.26778354843842</v>
       </c>
       <c r="H53">
-        <v>2.679276531017975</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="100" customHeight="1">
@@ -4913,19 +4605,19 @@
         <v>113</v>
       </c>
       <c r="D54">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="E54">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F54">
-        <v>1.135836915731209</v>
+        <v>-0.2001051401535412</v>
       </c>
       <c r="G54">
-        <v>-2.496390760982615</v>
+        <v>-2.26778354843842</v>
       </c>
       <c r="H54">
-        <v>2.496390760982619</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="100" customHeight="1">
@@ -4936,13 +4628,13 @@
         <v>115</v>
       </c>
       <c r="D55">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="E55">
         <v>0.58307</v>
       </c>
       <c r="F55">
-        <v>1.716814035582576</v>
+        <v>-2.269203661219362</v>
       </c>
       <c r="G55">
         <v>-2.679276531017972</v>
@@ -4959,13 +4651,13 @@
         <v>117</v>
       </c>
       <c r="D56">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="E56">
         <v>0.49352</v>
       </c>
       <c r="F56">
-        <v>0.2001051401535413</v>
+        <v>-2.26778354843842</v>
       </c>
       <c r="G56">
         <v>-2.26778354843842</v>
@@ -4982,19 +4674,19 @@
         <v>119</v>
       </c>
       <c r="D57">
-        <v>96.5</v>
+        <v>92.5</v>
       </c>
       <c r="E57">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F57">
-        <v>-1.801907092249079</v>
+        <v>-1.239873071544692</v>
       </c>
       <c r="G57">
-        <v>-2.496390760982615</v>
+        <v>-2.26778354843842</v>
       </c>
       <c r="H57">
-        <v>2.496390760982619</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="100" customHeight="1">
@@ -5005,13 +4697,13 @@
         <v>121</v>
       </c>
       <c r="D58">
-        <v>97.5</v>
+        <v>88</v>
       </c>
       <c r="E58">
         <v>0.49352</v>
       </c>
       <c r="F58">
-        <v>-1.808040943597905</v>
+        <v>-0.9833041348779102</v>
       </c>
       <c r="G58">
         <v>-2.26778354843842</v>
@@ -5028,19 +4720,19 @@
         <v>123</v>
       </c>
       <c r="D59">
-        <v>97</v>
+        <v>2.5</v>
       </c>
       <c r="E59">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F59">
-        <v>-1.715524225407506</v>
+        <v>1.990303135492853</v>
       </c>
       <c r="G59">
-        <v>-2.26778354843842</v>
+        <v>-2.496390760982615</v>
       </c>
       <c r="H59">
-        <v>2.267783548438423</v>
+        <v>2.496390760982619</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="100" customHeight="1">
@@ -5051,19 +4743,19 @@
         <v>125</v>
       </c>
       <c r="D60">
-        <v>97</v>
+        <v>98.5</v>
       </c>
       <c r="E60">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F60">
-        <v>-1.715524225407506</v>
+        <v>-2.273362991646765</v>
       </c>
       <c r="G60">
-        <v>-2.26778354843842</v>
+        <v>-2.496390760982615</v>
       </c>
       <c r="H60">
-        <v>2.267783548438423</v>
+        <v>2.496390760982619</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="100" customHeight="1">
@@ -5074,19 +4766,19 @@
         <v>127</v>
       </c>
       <c r="D61">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="E61">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F61">
-        <v>-0.2001051401535412</v>
+        <v>-2.496390760982615</v>
       </c>
       <c r="G61">
-        <v>-2.26778354843842</v>
+        <v>-2.496390760982615</v>
       </c>
       <c r="H61">
-        <v>2.267783548438423</v>
+        <v>2.496390760982619</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="100" customHeight="1">
@@ -5097,19 +4789,19 @@
         <v>129</v>
       </c>
       <c r="D62">
-        <v>98</v>
+        <v>96.5</v>
       </c>
       <c r="E62">
-        <v>0.58307</v>
+        <v>0.54327</v>
       </c>
       <c r="F62">
-        <v>-2.269203661219362</v>
+        <v>-1.801907092249079</v>
       </c>
       <c r="G62">
-        <v>-2.679276531017972</v>
+        <v>-2.496390760982615</v>
       </c>
       <c r="H62">
-        <v>2.679276531017975</v>
+        <v>2.496390760982619</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="100" customHeight="1">
@@ -5120,19 +4812,19 @@
         <v>131</v>
       </c>
       <c r="D63">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E63">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F63">
-        <v>-2.26778354843842</v>
+        <v>2.496390760982619</v>
       </c>
       <c r="G63">
-        <v>-2.26778354843842</v>
+        <v>-2.496390760982615</v>
       </c>
       <c r="H63">
-        <v>2.267783548438423</v>
+        <v>2.496390760982619</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="100" customHeight="1">
@@ -5143,19 +4835,19 @@
         <v>133</v>
       </c>
       <c r="D64">
-        <v>92.5</v>
+        <v>1</v>
       </c>
       <c r="E64">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F64">
-        <v>-1.239873071544692</v>
+        <v>2.496390760982619</v>
       </c>
       <c r="G64">
-        <v>-2.26778354843842</v>
+        <v>-2.496390760982615</v>
       </c>
       <c r="H64">
-        <v>2.267783548438423</v>
+        <v>2.496390760982619</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="100" customHeight="1">
@@ -5166,19 +4858,19 @@
         <v>135</v>
       </c>
       <c r="D65">
-        <v>88</v>
+        <v>98.5</v>
       </c>
       <c r="E65">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F65">
-        <v>-0.9833041348779102</v>
+        <v>-2.273362991646765</v>
       </c>
       <c r="G65">
-        <v>-2.26778354843842</v>
+        <v>-2.496390760982615</v>
       </c>
       <c r="H65">
-        <v>2.267783548438423</v>
+        <v>2.496390760982619</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="100" customHeight="1">
@@ -5189,13 +4881,13 @@
         <v>137</v>
       </c>
       <c r="D66">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E66">
         <v>0.54327</v>
       </c>
       <c r="F66">
-        <v>1.990303135492853</v>
+        <v>2.11430921335456</v>
       </c>
       <c r="G66">
         <v>-2.496390760982615</v>
@@ -5212,13 +4904,13 @@
         <v>139</v>
       </c>
       <c r="D67">
-        <v>98.5</v>
+        <v>1</v>
       </c>
       <c r="E67">
         <v>0.54327</v>
       </c>
       <c r="F67">
-        <v>-2.273362991646765</v>
+        <v>2.496390760982619</v>
       </c>
       <c r="G67">
         <v>-2.496390760982615</v>
@@ -5235,13 +4927,13 @@
         <v>141</v>
       </c>
       <c r="D68">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E68">
         <v>0.54327</v>
       </c>
       <c r="F68">
-        <v>-2.496390760982615</v>
+        <v>2.496390760982619</v>
       </c>
       <c r="G68">
         <v>-2.496390760982615</v>
@@ -5258,179 +4950,18 @@
         <v>143</v>
       </c>
       <c r="D69">
-        <v>96.5</v>
+        <v>1</v>
       </c>
       <c r="E69">
         <v>0.54327</v>
       </c>
       <c r="F69">
-        <v>-1.801907092249079</v>
+        <v>2.496390760982619</v>
       </c>
       <c r="G69">
         <v>-2.496390760982615</v>
       </c>
       <c r="H69">
-        <v>2.496390760982619</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="100" customHeight="1">
-      <c r="A70" t="s">
-        <v>144</v>
-      </c>
-      <c r="C70" t="s">
-        <v>145</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>0.54327</v>
-      </c>
-      <c r="F70">
-        <v>2.496390760982619</v>
-      </c>
-      <c r="G70">
-        <v>-2.496390760982615</v>
-      </c>
-      <c r="H70">
-        <v>2.496390760982619</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="100" customHeight="1">
-      <c r="A71" t="s">
-        <v>146</v>
-      </c>
-      <c r="C71" t="s">
-        <v>147</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>0.54327</v>
-      </c>
-      <c r="F71">
-        <v>2.496390760982619</v>
-      </c>
-      <c r="G71">
-        <v>-2.496390760982615</v>
-      </c>
-      <c r="H71">
-        <v>2.496390760982619</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="100" customHeight="1">
-      <c r="A72" t="s">
-        <v>148</v>
-      </c>
-      <c r="C72" t="s">
-        <v>149</v>
-      </c>
-      <c r="D72">
-        <v>98.5</v>
-      </c>
-      <c r="E72">
-        <v>0.54327</v>
-      </c>
-      <c r="F72">
-        <v>-2.273362991646765</v>
-      </c>
-      <c r="G72">
-        <v>-2.496390760982615</v>
-      </c>
-      <c r="H72">
-        <v>2.496390760982619</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="100" customHeight="1">
-      <c r="A73" t="s">
-        <v>150</v>
-      </c>
-      <c r="C73" t="s">
-        <v>151</v>
-      </c>
-      <c r="D73">
-        <v>2</v>
-      </c>
-      <c r="E73">
-        <v>0.54327</v>
-      </c>
-      <c r="F73">
-        <v>2.11430921335456</v>
-      </c>
-      <c r="G73">
-        <v>-2.496390760982615</v>
-      </c>
-      <c r="H73">
-        <v>2.496390760982619</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="100" customHeight="1">
-      <c r="A74" t="s">
-        <v>152</v>
-      </c>
-      <c r="C74" t="s">
-        <v>153</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>0.54327</v>
-      </c>
-      <c r="F74">
-        <v>2.496390760982619</v>
-      </c>
-      <c r="G74">
-        <v>-2.496390760982615</v>
-      </c>
-      <c r="H74">
-        <v>2.496390760982619</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="100" customHeight="1">
-      <c r="A75" t="s">
-        <v>154</v>
-      </c>
-      <c r="C75" t="s">
-        <v>155</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>0.54327</v>
-      </c>
-      <c r="F75">
-        <v>2.496390760982619</v>
-      </c>
-      <c r="G75">
-        <v>-2.496390760982615</v>
-      </c>
-      <c r="H75">
-        <v>2.496390760982619</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="100" customHeight="1">
-      <c r="A76" t="s">
-        <v>156</v>
-      </c>
-      <c r="C76" t="s">
-        <v>157</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76">
-        <v>0.54327</v>
-      </c>
-      <c r="F76">
-        <v>2.496390760982619</v>
-      </c>
-      <c r="G76">
-        <v>-2.496390760982615</v>
-      </c>
-      <c r="H76">
         <v>2.496390760982619</v>
       </c>
     </row>

--- a/arranged_dataset/DIP-chloride.xlsx
+++ b/arranged_dataset/DIP-chloride.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>smiles</t>
   </si>
@@ -112,13 +112,13 @@
     <t>XSAYZAUNJMRRIR-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(C1=CN=CC=C1)C</t>
+    <t>c1ncccc1C(=O)C</t>
   </si>
   <si>
     <t>WEGYGNROSJDEIW-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>S1C=CC=C1C(=O)C</t>
+    <t>s1cccc1C(=O)C</t>
   </si>
   <si>
     <t>WYJOVVXUZNRJQY-UHFFFAOYSA-N</t>
@@ -208,12 +208,6 @@
     <t>LIGACIXOYTUXAW-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>ICC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>CREOHKRPSSUXCW-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>Brc1ccccc1C(=O)C</t>
   </si>
   <si>
@@ -322,6 +316,48 @@
     <t>IQZLUWLMQNGTIW-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>Oc1ccccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>JECYUBVRTQDVAT-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>Oc1cccc(OC)c1C(=O)C</t>
+  </si>
+  <si>
+    <t>UENLHUMCIOWYQN-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>Oc1ccc(OC)cc1C(=O)C</t>
+  </si>
+  <si>
+    <t>MLIBGOFSXXWRIY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>Oc1ccc(C)cc1C(=O)C</t>
+  </si>
+  <si>
+    <t>YNPDFBFVMJNGKZ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>Oc1ccc(F)cc1C(=O)C</t>
+  </si>
+  <si>
+    <t>KOFFXZYMDLWRHX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>Oc1c(Cl)cc(Cl)cc1C(=O)C</t>
+  </si>
+  <si>
+    <t>CJFYGRLJDKWMDI-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>Oc1cc(OC)cc(C(=O)OC)c1C(=O)C</t>
+  </si>
+  <si>
+    <t>WRYKPYJMRHQDBM-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>COc1cccc(OC)c1C(=O)C</t>
   </si>
   <si>
@@ -370,6 +406,72 @@
     <t>HXAOUYGZEOZTJO-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>ClC(Cl)C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>CERJZAHSUZVMCH-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>ClC(Cl)(Cl)C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>OAMHTTBNEJBIKA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>ClCC(=O)C</t>
+  </si>
+  <si>
+    <t>BULLHNJGPPOUOX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>ClC(Cl)C(=O)C</t>
+  </si>
+  <si>
+    <t>CSVFWMMPUJDVKH-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>ClC(Cl)(Cl)C(=O)C</t>
+  </si>
+  <si>
+    <t>SMZHKGXSEAGRTI-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>FCC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>YOMBUJAFGMOIGS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>FC(F)C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>OLYKCPDTXVZOQF-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>FC(F)(F)C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>KZJRKRQSDZGHEC-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>FCC(=O)C</t>
+  </si>
+  <si>
+    <t>MSWVMWGCNZQPIA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>FC(F)C(=O)C</t>
+  </si>
+  <si>
+    <t>XHILZHAQBOLGFD-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>FC(F)(F)C(=O)C</t>
+  </si>
+  <si>
+    <t>FHUDAMLDXFJHJE-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>I/C=C/C(=O)CCCCC</t>
   </si>
   <si>
@@ -416,18 +518,6 @@
   </si>
   <si>
     <t>XVKCCRCIQKVMPK-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1ccccc1C(C)(C)C(=O)C#CCCCCCCCC</t>
-  </si>
-  <si>
-    <t>HJPJVTHMENRJQA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCCCCCCCC#CC(=O)C(C)(C)CC=C</t>
-  </si>
-  <si>
-    <t>TYGJBMAZCWFZFC-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>CCCCCCCCC#CC(=O)C(C)(C)CCC</t>
@@ -3069,6 +3159,576 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="85067775"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Picture 69" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="86334600"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Picture 70" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="87601425"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Picture 71" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="88868250"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Picture 72" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="90135075"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Picture 73" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="91401900"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Picture 74" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="92668725"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Picture 75" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="93935550"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="Picture 76" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="95202375"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Picture 77" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="96469200"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Picture 78" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="97736025"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Picture 79" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="99002850"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="Picture 80" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="100269675"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Picture 81" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="101536500"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="Picture 82" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="102803325"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Picture 83" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="104070150"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3366,7 +4026,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4053,13 +4713,13 @@
         <v>65</v>
       </c>
       <c r="D30">
-        <v>16.5</v>
+        <v>99</v>
       </c>
       <c r="E30">
         <v>0.49352</v>
       </c>
       <c r="F30">
-        <v>0.8002358945689796</v>
+        <v>-2.26778354843842</v>
       </c>
       <c r="G30">
         <v>-2.26778354843842</v>
@@ -4076,13 +4736,13 @@
         <v>67</v>
       </c>
       <c r="D31">
-        <v>99</v>
+        <v>98.5</v>
       </c>
       <c r="E31">
         <v>0.49352</v>
       </c>
       <c r="F31">
-        <v>-2.26778354843842</v>
+        <v>-2.065179567503288</v>
       </c>
       <c r="G31">
         <v>-2.26778354843842</v>
@@ -4122,13 +4782,13 @@
         <v>71</v>
       </c>
       <c r="D33">
-        <v>98.5</v>
+        <v>99</v>
       </c>
       <c r="E33">
         <v>0.49352</v>
       </c>
       <c r="F33">
-        <v>-2.065179567503288</v>
+        <v>-2.26778354843842</v>
       </c>
       <c r="G33">
         <v>-2.26778354843842</v>
@@ -4145,13 +4805,13 @@
         <v>73</v>
       </c>
       <c r="D34">
-        <v>99</v>
+        <v>3.5</v>
       </c>
       <c r="E34">
         <v>0.49352</v>
       </c>
       <c r="F34">
-        <v>-2.26778354843842</v>
+        <v>1.636897285266561</v>
       </c>
       <c r="G34">
         <v>-2.26778354843842</v>
@@ -4168,13 +4828,13 @@
         <v>75</v>
       </c>
       <c r="D35">
-        <v>3.5</v>
+        <v>99</v>
       </c>
       <c r="E35">
         <v>0.49352</v>
       </c>
       <c r="F35">
-        <v>1.636897285266561</v>
+        <v>-2.26778354843842</v>
       </c>
       <c r="G35">
         <v>-2.26778354843842</v>
@@ -4191,13 +4851,13 @@
         <v>77</v>
       </c>
       <c r="D36">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="E36">
         <v>0.49352</v>
       </c>
       <c r="F36">
-        <v>-2.26778354843842</v>
+        <v>-0.2626596419205717</v>
       </c>
       <c r="G36">
         <v>-2.26778354843842</v>
@@ -4214,13 +4874,13 @@
         <v>79</v>
       </c>
       <c r="D37">
-        <v>63</v>
+        <v>61.5</v>
       </c>
       <c r="E37">
         <v>0.49352</v>
       </c>
       <c r="F37">
-        <v>-0.2626596419205717</v>
+        <v>-0.2311543712701655</v>
       </c>
       <c r="G37">
         <v>-2.26778354843842</v>
@@ -4237,13 +4897,13 @@
         <v>81</v>
       </c>
       <c r="D38">
-        <v>61.5</v>
+        <v>69</v>
       </c>
       <c r="E38">
         <v>0.49352</v>
       </c>
       <c r="F38">
-        <v>-0.2311543712701655</v>
+        <v>-0.3948748769913301</v>
       </c>
       <c r="G38">
         <v>-2.26778354843842</v>
@@ -4260,13 +4920,13 @@
         <v>83</v>
       </c>
       <c r="D39">
-        <v>69</v>
+        <v>72.5</v>
       </c>
       <c r="E39">
         <v>0.49352</v>
       </c>
       <c r="F39">
-        <v>-0.3948748769913301</v>
+        <v>-0.4784185629834727</v>
       </c>
       <c r="G39">
         <v>-2.26778354843842</v>
@@ -4283,19 +4943,19 @@
         <v>85</v>
       </c>
       <c r="D40">
-        <v>72.5</v>
+        <v>5.5</v>
       </c>
       <c r="E40">
-        <v>0.49352</v>
+        <v>0.38805</v>
       </c>
       <c r="F40">
-        <v>-0.4784185629834727</v>
+        <v>1.103556668584487</v>
       </c>
       <c r="G40">
-        <v>-2.26778354843842</v>
+        <v>-1.783136257844725</v>
       </c>
       <c r="H40">
-        <v>2.267783548438423</v>
+        <v>1.783136257844728</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="100" customHeight="1">
@@ -4306,19 +4966,19 @@
         <v>87</v>
       </c>
       <c r="D41">
-        <v>5.5</v>
+        <v>99</v>
       </c>
       <c r="E41">
-        <v>0.38805</v>
+        <v>0.49352</v>
       </c>
       <c r="F41">
-        <v>1.103556668584487</v>
+        <v>-2.26778354843842</v>
       </c>
       <c r="G41">
-        <v>-1.783136257844725</v>
+        <v>-2.26778354843842</v>
       </c>
       <c r="H41">
-        <v>1.783136257844728</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="100" customHeight="1">
@@ -4329,13 +4989,13 @@
         <v>89</v>
       </c>
       <c r="D42">
-        <v>99</v>
+        <v>36.5</v>
       </c>
       <c r="E42">
         <v>0.49352</v>
       </c>
       <c r="F42">
-        <v>-2.26778354843842</v>
+        <v>0.2732756675134899</v>
       </c>
       <c r="G42">
         <v>-2.26778354843842</v>
@@ -4352,13 +5012,13 @@
         <v>91</v>
       </c>
       <c r="D43">
-        <v>36.5</v>
+        <v>99</v>
       </c>
       <c r="E43">
         <v>0.49352</v>
       </c>
       <c r="F43">
-        <v>0.2732756675134899</v>
+        <v>-2.26778354843842</v>
       </c>
       <c r="G43">
         <v>-2.26778354843842</v>
@@ -4375,13 +5035,13 @@
         <v>93</v>
       </c>
       <c r="D44">
-        <v>99</v>
+        <v>98.5</v>
       </c>
       <c r="E44">
         <v>0.49352</v>
       </c>
       <c r="F44">
-        <v>-2.26778354843842</v>
+        <v>-2.065179567503288</v>
       </c>
       <c r="G44">
         <v>-2.26778354843842</v>
@@ -4398,13 +5058,13 @@
         <v>95</v>
       </c>
       <c r="D45">
-        <v>98.5</v>
+        <v>97.5</v>
       </c>
       <c r="E45">
         <v>0.49352</v>
       </c>
       <c r="F45">
-        <v>-2.065179567503288</v>
+        <v>-1.808040943597905</v>
       </c>
       <c r="G45">
         <v>-2.26778354843842</v>
@@ -4421,13 +5081,13 @@
         <v>97</v>
       </c>
       <c r="D46">
-        <v>97.5</v>
+        <v>93.5</v>
       </c>
       <c r="E46">
         <v>0.49352</v>
       </c>
       <c r="F46">
-        <v>-1.808040943597905</v>
+        <v>-1.315802917695658</v>
       </c>
       <c r="G46">
         <v>-2.26778354843842</v>
@@ -4444,13 +5104,13 @@
         <v>99</v>
       </c>
       <c r="D47">
-        <v>93.5</v>
+        <v>97</v>
       </c>
       <c r="E47">
         <v>0.49352</v>
       </c>
       <c r="F47">
-        <v>-1.315802917695658</v>
+        <v>-1.715524225407506</v>
       </c>
       <c r="G47">
         <v>-2.26778354843842</v>
@@ -4467,19 +5127,19 @@
         <v>101</v>
       </c>
       <c r="D48">
-        <v>97</v>
+        <v>5</v>
       </c>
       <c r="E48">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F48">
-        <v>-1.715524225407506</v>
+        <v>1.716814035582576</v>
       </c>
       <c r="G48">
-        <v>-2.26778354843842</v>
+        <v>-2.679276531017972</v>
       </c>
       <c r="H48">
-        <v>2.267783548438423</v>
+        <v>2.679276531017975</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="100" customHeight="1">
@@ -4490,19 +5150,19 @@
         <v>103</v>
       </c>
       <c r="D49">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="E49">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F49">
-        <v>0.2001051401535413</v>
+        <v>2.269203661219363</v>
       </c>
       <c r="G49">
-        <v>-2.26778354843842</v>
+        <v>-2.679276531017972</v>
       </c>
       <c r="H49">
-        <v>2.267783548438423</v>
+        <v>2.679276531017975</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="100" customHeight="1">
@@ -4513,19 +5173,19 @@
         <v>105</v>
       </c>
       <c r="D50">
-        <v>96.5</v>
+        <v>9</v>
       </c>
       <c r="E50">
-        <v>0.54327</v>
+        <v>0.58307</v>
       </c>
       <c r="F50">
-        <v>-1.801907092249079</v>
+        <v>1.34901111815735</v>
       </c>
       <c r="G50">
-        <v>-2.496390760982615</v>
+        <v>-2.679276531017972</v>
       </c>
       <c r="H50">
-        <v>2.496390760982619</v>
+        <v>2.679276531017975</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="100" customHeight="1">
@@ -4536,19 +5196,19 @@
         <v>107</v>
       </c>
       <c r="D51">
-        <v>97.5</v>
+        <v>9</v>
       </c>
       <c r="E51">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F51">
-        <v>-1.808040943597905</v>
+        <v>1.34901111815735</v>
       </c>
       <c r="G51">
-        <v>-2.26778354843842</v>
+        <v>-2.679276531017972</v>
       </c>
       <c r="H51">
-        <v>2.267783548438423</v>
+        <v>2.679276531017975</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="100" customHeight="1">
@@ -4559,19 +5219,19 @@
         <v>109</v>
       </c>
       <c r="D52">
-        <v>97</v>
+        <v>10.5</v>
       </c>
       <c r="E52">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F52">
-        <v>-1.715524225407506</v>
+        <v>1.249439344048173</v>
       </c>
       <c r="G52">
-        <v>-2.26778354843842</v>
+        <v>-2.679276531017972</v>
       </c>
       <c r="H52">
-        <v>2.267783548438423</v>
+        <v>2.679276531017975</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="100" customHeight="1">
@@ -4582,19 +5242,19 @@
         <v>111</v>
       </c>
       <c r="D53">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="E53">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F53">
-        <v>-1.715524225407506</v>
+        <v>1.135836915731209</v>
       </c>
       <c r="G53">
-        <v>-2.26778354843842</v>
+        <v>-2.496390760982615</v>
       </c>
       <c r="H53">
-        <v>2.267783548438423</v>
+        <v>2.496390760982619</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="100" customHeight="1">
@@ -4605,19 +5265,19 @@
         <v>113</v>
       </c>
       <c r="D54">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="E54">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F54">
-        <v>-0.2001051401535412</v>
+        <v>1.716814035582576</v>
       </c>
       <c r="G54">
-        <v>-2.26778354843842</v>
+        <v>-2.679276531017972</v>
       </c>
       <c r="H54">
-        <v>2.267783548438423</v>
+        <v>2.679276531017975</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="100" customHeight="1">
@@ -4628,19 +5288,19 @@
         <v>115</v>
       </c>
       <c r="D55">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="E55">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F55">
-        <v>-2.269203661219362</v>
+        <v>0.2001051401535413</v>
       </c>
       <c r="G55">
-        <v>-2.679276531017972</v>
+        <v>-2.26778354843842</v>
       </c>
       <c r="H55">
-        <v>2.679276531017975</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="100" customHeight="1">
@@ -4651,19 +5311,19 @@
         <v>117</v>
       </c>
       <c r="D56">
-        <v>99</v>
+        <v>96.5</v>
       </c>
       <c r="E56">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F56">
-        <v>-2.26778354843842</v>
+        <v>-1.801907092249079</v>
       </c>
       <c r="G56">
-        <v>-2.26778354843842</v>
+        <v>-2.496390760982615</v>
       </c>
       <c r="H56">
-        <v>2.267783548438423</v>
+        <v>2.496390760982619</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="100" customHeight="1">
@@ -4674,13 +5334,13 @@
         <v>119</v>
       </c>
       <c r="D57">
-        <v>92.5</v>
+        <v>97.5</v>
       </c>
       <c r="E57">
         <v>0.49352</v>
       </c>
       <c r="F57">
-        <v>-1.239873071544692</v>
+        <v>-1.808040943597905</v>
       </c>
       <c r="G57">
         <v>-2.26778354843842</v>
@@ -4697,13 +5357,13 @@
         <v>121</v>
       </c>
       <c r="D58">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E58">
         <v>0.49352</v>
       </c>
       <c r="F58">
-        <v>-0.9833041348779102</v>
+        <v>-1.715524225407506</v>
       </c>
       <c r="G58">
         <v>-2.26778354843842</v>
@@ -4720,19 +5380,19 @@
         <v>123</v>
       </c>
       <c r="D59">
-        <v>2.5</v>
+        <v>97</v>
       </c>
       <c r="E59">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F59">
-        <v>1.990303135492853</v>
+        <v>-1.715524225407506</v>
       </c>
       <c r="G59">
-        <v>-2.496390760982615</v>
+        <v>-2.26778354843842</v>
       </c>
       <c r="H59">
-        <v>2.496390760982619</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="100" customHeight="1">
@@ -4743,19 +5403,19 @@
         <v>125</v>
       </c>
       <c r="D60">
-        <v>98.5</v>
+        <v>60</v>
       </c>
       <c r="E60">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F60">
-        <v>-2.273362991646765</v>
+        <v>-0.2001051401535412</v>
       </c>
       <c r="G60">
-        <v>-2.496390760982615</v>
+        <v>-2.26778354843842</v>
       </c>
       <c r="H60">
-        <v>2.496390760982619</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="100" customHeight="1">
@@ -4766,19 +5426,19 @@
         <v>127</v>
       </c>
       <c r="D61">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E61">
-        <v>0.54327</v>
+        <v>0.58307</v>
       </c>
       <c r="F61">
-        <v>-2.496390760982615</v>
+        <v>-2.269203661219362</v>
       </c>
       <c r="G61">
-        <v>-2.496390760982615</v>
+        <v>-2.679276531017972</v>
       </c>
       <c r="H61">
-        <v>2.496390760982619</v>
+        <v>2.679276531017975</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="100" customHeight="1">
@@ -4789,19 +5449,19 @@
         <v>129</v>
       </c>
       <c r="D62">
-        <v>96.5</v>
+        <v>99</v>
       </c>
       <c r="E62">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F62">
-        <v>-1.801907092249079</v>
+        <v>-2.26778354843842</v>
       </c>
       <c r="G62">
-        <v>-2.496390760982615</v>
+        <v>-2.26778354843842</v>
       </c>
       <c r="H62">
-        <v>2.496390760982619</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="100" customHeight="1">
@@ -4812,19 +5472,19 @@
         <v>131</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E63">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F63">
-        <v>2.496390760982619</v>
+        <v>1.141825110249225</v>
       </c>
       <c r="G63">
-        <v>-2.496390760982615</v>
+        <v>-2.26778354843842</v>
       </c>
       <c r="H63">
-        <v>2.496390760982619</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="100" customHeight="1">
@@ -4835,19 +5495,19 @@
         <v>133</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>95.5</v>
       </c>
       <c r="E64">
-        <v>0.54327</v>
+        <v>0.58307</v>
       </c>
       <c r="F64">
-        <v>2.496390760982619</v>
+        <v>-1.781307333383719</v>
       </c>
       <c r="G64">
-        <v>-2.496390760982615</v>
+        <v>-2.679276531017972</v>
       </c>
       <c r="H64">
-        <v>2.496390760982619</v>
+        <v>2.679276531017975</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="100" customHeight="1">
@@ -4858,19 +5518,19 @@
         <v>135</v>
       </c>
       <c r="D65">
-        <v>98.5</v>
+        <v>41</v>
       </c>
       <c r="E65">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F65">
-        <v>-2.273362991646765</v>
+        <v>0.1796241929564407</v>
       </c>
       <c r="G65">
-        <v>-2.496390760982615</v>
+        <v>-2.26778354843842</v>
       </c>
       <c r="H65">
-        <v>2.496390760982619</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="100" customHeight="1">
@@ -4881,19 +5541,19 @@
         <v>137</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>42.5</v>
       </c>
       <c r="E66">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F66">
-        <v>2.11430921335456</v>
+        <v>0.1491816558867302</v>
       </c>
       <c r="G66">
-        <v>-2.496390760982615</v>
+        <v>-2.26778354843842</v>
       </c>
       <c r="H66">
-        <v>2.496390760982619</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="100" customHeight="1">
@@ -4904,19 +5564,19 @@
         <v>139</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>95.5</v>
       </c>
       <c r="E67">
-        <v>0.54327</v>
+        <v>0.58307</v>
       </c>
       <c r="F67">
-        <v>2.496390760982619</v>
+        <v>-1.781307333383719</v>
       </c>
       <c r="G67">
-        <v>-2.496390760982615</v>
+        <v>-2.679276531017972</v>
       </c>
       <c r="H67">
-        <v>2.496390760982619</v>
+        <v>2.679276531017975</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="100" customHeight="1">
@@ -4927,19 +5587,19 @@
         <v>141</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E68">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F68">
-        <v>2.496390760982619</v>
+        <v>1.808040943597903</v>
       </c>
       <c r="G68">
-        <v>-2.496390760982615</v>
+        <v>-2.26778354843842</v>
       </c>
       <c r="H68">
-        <v>2.496390760982619</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="100" customHeight="1">
@@ -4950,18 +5610,363 @@
         <v>143</v>
       </c>
       <c r="D69">
+        <v>7.5</v>
+      </c>
+      <c r="E69">
+        <v>0.49352</v>
+      </c>
+      <c r="F69">
+        <v>1.239873071544692</v>
+      </c>
+      <c r="G69">
+        <v>-2.26778354843842</v>
+      </c>
+      <c r="H69">
+        <v>2.267783548438423</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="100" customHeight="1">
+      <c r="A70" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" t="s">
+        <v>145</v>
+      </c>
+      <c r="D70">
+        <v>95</v>
+      </c>
+      <c r="E70">
+        <v>0.58307</v>
+      </c>
+      <c r="F70">
+        <v>-1.716814035582577</v>
+      </c>
+      <c r="G70">
+        <v>-2.679276531017972</v>
+      </c>
+      <c r="H70">
+        <v>2.679276531017975</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="100" customHeight="1">
+      <c r="A71" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" t="s">
+        <v>147</v>
+      </c>
+      <c r="D71">
+        <v>80.5</v>
+      </c>
+      <c r="E71">
+        <v>0.49352</v>
+      </c>
+      <c r="F71">
+        <v>-0.6997337386092294</v>
+      </c>
+      <c r="G71">
+        <v>-2.26778354843842</v>
+      </c>
+      <c r="H71">
+        <v>2.267783548438423</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="100" customHeight="1">
+      <c r="A72" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" t="s">
+        <v>149</v>
+      </c>
+      <c r="D72">
+        <v>47.5</v>
+      </c>
+      <c r="E72">
+        <v>0.49352</v>
+      </c>
+      <c r="F72">
+        <v>0.04939318846704197</v>
+      </c>
+      <c r="G72">
+        <v>-2.26778354843842</v>
+      </c>
+      <c r="H72">
+        <v>2.267783548438423</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="100" customHeight="1">
+      <c r="A73" t="s">
+        <v>150</v>
+      </c>
+      <c r="C73" t="s">
+        <v>151</v>
+      </c>
+      <c r="D73">
+        <v>98</v>
+      </c>
+      <c r="E73">
+        <v>0.58307</v>
+      </c>
+      <c r="F73">
+        <v>-2.269203661219362</v>
+      </c>
+      <c r="G73">
+        <v>-2.679276531017972</v>
+      </c>
+      <c r="H73">
+        <v>2.679276531017975</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="100" customHeight="1">
+      <c r="A74" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" t="s">
+        <v>153</v>
+      </c>
+      <c r="D74">
+        <v>92.5</v>
+      </c>
+      <c r="E74">
+        <v>0.49352</v>
+      </c>
+      <c r="F74">
+        <v>-1.239873071544692</v>
+      </c>
+      <c r="G74">
+        <v>-2.26778354843842</v>
+      </c>
+      <c r="H74">
+        <v>2.267783548438423</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="100" customHeight="1">
+      <c r="A75" t="s">
+        <v>154</v>
+      </c>
+      <c r="C75" t="s">
+        <v>155</v>
+      </c>
+      <c r="D75">
+        <v>88</v>
+      </c>
+      <c r="E75">
+        <v>0.49352</v>
+      </c>
+      <c r="F75">
+        <v>-0.9833041348779102</v>
+      </c>
+      <c r="G75">
+        <v>-2.26778354843842</v>
+      </c>
+      <c r="H75">
+        <v>2.267783548438423</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="100" customHeight="1">
+      <c r="A76" t="s">
+        <v>156</v>
+      </c>
+      <c r="C76" t="s">
+        <v>157</v>
+      </c>
+      <c r="D76">
+        <v>2.5</v>
+      </c>
+      <c r="E76">
+        <v>0.54327</v>
+      </c>
+      <c r="F76">
+        <v>1.990303135492853</v>
+      </c>
+      <c r="G76">
+        <v>-2.496390760982615</v>
+      </c>
+      <c r="H76">
+        <v>2.496390760982619</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="100" customHeight="1">
+      <c r="A77" t="s">
+        <v>158</v>
+      </c>
+      <c r="C77" t="s">
+        <v>159</v>
+      </c>
+      <c r="D77">
+        <v>98.5</v>
+      </c>
+      <c r="E77">
+        <v>0.54327</v>
+      </c>
+      <c r="F77">
+        <v>-2.273362991646765</v>
+      </c>
+      <c r="G77">
+        <v>-2.496390760982615</v>
+      </c>
+      <c r="H77">
+        <v>2.496390760982619</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="100" customHeight="1">
+      <c r="A78" t="s">
+        <v>160</v>
+      </c>
+      <c r="C78" t="s">
+        <v>161</v>
+      </c>
+      <c r="D78">
+        <v>99</v>
+      </c>
+      <c r="E78">
+        <v>0.54327</v>
+      </c>
+      <c r="F78">
+        <v>-2.496390760982615</v>
+      </c>
+      <c r="G78">
+        <v>-2.496390760982615</v>
+      </c>
+      <c r="H78">
+        <v>2.496390760982619</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="100" customHeight="1">
+      <c r="A79" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79" t="s">
+        <v>163</v>
+      </c>
+      <c r="D79">
+        <v>96.5</v>
+      </c>
+      <c r="E79">
+        <v>0.54327</v>
+      </c>
+      <c r="F79">
+        <v>-1.801907092249079</v>
+      </c>
+      <c r="G79">
+        <v>-2.496390760982615</v>
+      </c>
+      <c r="H79">
+        <v>2.496390760982619</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="100" customHeight="1">
+      <c r="A80" t="s">
+        <v>164</v>
+      </c>
+      <c r="C80" t="s">
+        <v>165</v>
+      </c>
+      <c r="D80">
         <v>1</v>
       </c>
-      <c r="E69">
+      <c r="E80">
         <v>0.54327</v>
       </c>
-      <c r="F69">
+      <c r="F80">
         <v>2.496390760982619</v>
       </c>
-      <c r="G69">
+      <c r="G80">
         <v>-2.496390760982615</v>
       </c>
-      <c r="H69">
+      <c r="H80">
+        <v>2.496390760982619</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="100" customHeight="1">
+      <c r="A81" t="s">
+        <v>166</v>
+      </c>
+      <c r="C81" t="s">
+        <v>167</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>0.54327</v>
+      </c>
+      <c r="F81">
+        <v>2.496390760982619</v>
+      </c>
+      <c r="G81">
+        <v>-2.496390760982615</v>
+      </c>
+      <c r="H81">
+        <v>2.496390760982619</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="100" customHeight="1">
+      <c r="A82" t="s">
+        <v>168</v>
+      </c>
+      <c r="C82" t="s">
+        <v>169</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>0.54327</v>
+      </c>
+      <c r="F82">
+        <v>2.496390760982619</v>
+      </c>
+      <c r="G82">
+        <v>-2.496390760982615</v>
+      </c>
+      <c r="H82">
+        <v>2.496390760982619</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="100" customHeight="1">
+      <c r="A83" t="s">
+        <v>170</v>
+      </c>
+      <c r="C83" t="s">
+        <v>171</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>0.54327</v>
+      </c>
+      <c r="F83">
+        <v>2.496390760982619</v>
+      </c>
+      <c r="G83">
+        <v>-2.496390760982615</v>
+      </c>
+      <c r="H83">
+        <v>2.496390760982619</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="100" customHeight="1">
+      <c r="A84" t="s">
+        <v>172</v>
+      </c>
+      <c r="C84" t="s">
+        <v>173</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>0.54327</v>
+      </c>
+      <c r="F84">
+        <v>2.496390760982619</v>
+      </c>
+      <c r="G84">
+        <v>-2.496390760982615</v>
+      </c>
+      <c r="H84">
         <v>2.496390760982619</v>
       </c>
     </row>

--- a/arranged_dataset/DIP-chloride.xlsx
+++ b/arranged_dataset/DIP-chloride.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t>smiles</t>
   </si>
@@ -434,54 +434,6 @@
   </si>
   <si>
     <t>SMZHKGXSEAGRTI-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>FCC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>YOMBUJAFGMOIGS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>FC(F)C(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>OLYKCPDTXVZOQF-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>FC(F)(F)C(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>KZJRKRQSDZGHEC-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>FCC(=O)C</t>
-  </si>
-  <si>
-    <t>MSWVMWGCNZQPIA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>FC(F)C(=O)C</t>
-  </si>
-  <si>
-    <t>XHILZHAQBOLGFD-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>FC(F)(F)C(=O)C</t>
-  </si>
-  <si>
-    <t>FHUDAMLDXFJHJE-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>I/C=C/C(=O)CCCCC</t>
-  </si>
-  <si>
-    <t>LRJFQILVAYLBBP-VOTSOKGWSA-N</t>
-  </si>
-  <si>
-    <t>I/C=C/C(=O)C1CCCC1</t>
-  </si>
-  <si>
-    <t>DRBJKQQZMXQQAA-AATRIKPKSA-N</t>
   </si>
   <si>
     <t>COCC(=O)c1ccccc1</t>
@@ -3425,310 +3377,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="93935550"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="Picture 76" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="95202375"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="Picture 77" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="96469200"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="Picture 78" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="97736025"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="Picture 79" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="99002850"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="Picture 80" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="100269675"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="82" name="Picture 81" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="101536500"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="83" name="Picture 82" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="102803325"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="84" name="Picture 83" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="104070150"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4026,7 +3674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5590,16 +5238,16 @@
         <v>2.5</v>
       </c>
       <c r="E68">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F68">
-        <v>1.808040943597903</v>
+        <v>1.990303135492853</v>
       </c>
       <c r="G68">
-        <v>-2.26778354843842</v>
+        <v>-2.496390760982615</v>
       </c>
       <c r="H68">
-        <v>2.267783548438423</v>
+        <v>2.496390760982619</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="100" customHeight="1">
@@ -5610,19 +5258,19 @@
         <v>143</v>
       </c>
       <c r="D69">
-        <v>7.5</v>
+        <v>98.5</v>
       </c>
       <c r="E69">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F69">
-        <v>1.239873071544692</v>
+        <v>-2.273362991646765</v>
       </c>
       <c r="G69">
-        <v>-2.26778354843842</v>
+        <v>-2.496390760982615</v>
       </c>
       <c r="H69">
-        <v>2.267783548438423</v>
+        <v>2.496390760982619</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="100" customHeight="1">
@@ -5633,19 +5281,19 @@
         <v>145</v>
       </c>
       <c r="D70">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E70">
-        <v>0.58307</v>
+        <v>0.54327</v>
       </c>
       <c r="F70">
-        <v>-1.716814035582577</v>
+        <v>-2.496390760982615</v>
       </c>
       <c r="G70">
-        <v>-2.679276531017972</v>
+        <v>-2.496390760982615</v>
       </c>
       <c r="H70">
-        <v>2.679276531017975</v>
+        <v>2.496390760982619</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="100" customHeight="1">
@@ -5656,19 +5304,19 @@
         <v>147</v>
       </c>
       <c r="D71">
-        <v>80.5</v>
+        <v>96.5</v>
       </c>
       <c r="E71">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F71">
-        <v>-0.6997337386092294</v>
+        <v>-1.801907092249079</v>
       </c>
       <c r="G71">
-        <v>-2.26778354843842</v>
+        <v>-2.496390760982615</v>
       </c>
       <c r="H71">
-        <v>2.267783548438423</v>
+        <v>2.496390760982619</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="100" customHeight="1">
@@ -5679,19 +5327,19 @@
         <v>149</v>
       </c>
       <c r="D72">
-        <v>47.5</v>
+        <v>1</v>
       </c>
       <c r="E72">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F72">
-        <v>0.04939318846704197</v>
+        <v>2.496390760982619</v>
       </c>
       <c r="G72">
-        <v>-2.26778354843842</v>
+        <v>-2.496390760982615</v>
       </c>
       <c r="H72">
-        <v>2.267783548438423</v>
+        <v>2.496390760982619</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="100" customHeight="1">
@@ -5702,19 +5350,19 @@
         <v>151</v>
       </c>
       <c r="D73">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="E73">
-        <v>0.58307</v>
+        <v>0.54327</v>
       </c>
       <c r="F73">
-        <v>-2.269203661219362</v>
+        <v>2.496390760982619</v>
       </c>
       <c r="G73">
-        <v>-2.679276531017972</v>
+        <v>-2.496390760982615</v>
       </c>
       <c r="H73">
-        <v>2.679276531017975</v>
+        <v>2.496390760982619</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="100" customHeight="1">
@@ -5725,19 +5373,19 @@
         <v>153</v>
       </c>
       <c r="D74">
-        <v>92.5</v>
+        <v>1</v>
       </c>
       <c r="E74">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F74">
-        <v>-1.239873071544692</v>
+        <v>2.496390760982619</v>
       </c>
       <c r="G74">
-        <v>-2.26778354843842</v>
+        <v>-2.496390760982615</v>
       </c>
       <c r="H74">
-        <v>2.267783548438423</v>
+        <v>2.496390760982619</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="100" customHeight="1">
@@ -5748,19 +5396,19 @@
         <v>155</v>
       </c>
       <c r="D75">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="E75">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F75">
-        <v>-0.9833041348779102</v>
+        <v>2.496390760982619</v>
       </c>
       <c r="G75">
-        <v>-2.26778354843842</v>
+        <v>-2.496390760982615</v>
       </c>
       <c r="H75">
-        <v>2.267783548438423</v>
+        <v>2.496390760982619</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="100" customHeight="1">
@@ -5771,202 +5419,18 @@
         <v>157</v>
       </c>
       <c r="D76">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E76">
         <v>0.54327</v>
       </c>
       <c r="F76">
-        <v>1.990303135492853</v>
+        <v>2.496390760982619</v>
       </c>
       <c r="G76">
         <v>-2.496390760982615</v>
       </c>
       <c r="H76">
-        <v>2.496390760982619</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="100" customHeight="1">
-      <c r="A77" t="s">
-        <v>158</v>
-      </c>
-      <c r="C77" t="s">
-        <v>159</v>
-      </c>
-      <c r="D77">
-        <v>98.5</v>
-      </c>
-      <c r="E77">
-        <v>0.54327</v>
-      </c>
-      <c r="F77">
-        <v>-2.273362991646765</v>
-      </c>
-      <c r="G77">
-        <v>-2.496390760982615</v>
-      </c>
-      <c r="H77">
-        <v>2.496390760982619</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="100" customHeight="1">
-      <c r="A78" t="s">
-        <v>160</v>
-      </c>
-      <c r="C78" t="s">
-        <v>161</v>
-      </c>
-      <c r="D78">
-        <v>99</v>
-      </c>
-      <c r="E78">
-        <v>0.54327</v>
-      </c>
-      <c r="F78">
-        <v>-2.496390760982615</v>
-      </c>
-      <c r="G78">
-        <v>-2.496390760982615</v>
-      </c>
-      <c r="H78">
-        <v>2.496390760982619</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="100" customHeight="1">
-      <c r="A79" t="s">
-        <v>162</v>
-      </c>
-      <c r="C79" t="s">
-        <v>163</v>
-      </c>
-      <c r="D79">
-        <v>96.5</v>
-      </c>
-      <c r="E79">
-        <v>0.54327</v>
-      </c>
-      <c r="F79">
-        <v>-1.801907092249079</v>
-      </c>
-      <c r="G79">
-        <v>-2.496390760982615</v>
-      </c>
-      <c r="H79">
-        <v>2.496390760982619</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="100" customHeight="1">
-      <c r="A80" t="s">
-        <v>164</v>
-      </c>
-      <c r="C80" t="s">
-        <v>165</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80">
-        <v>0.54327</v>
-      </c>
-      <c r="F80">
-        <v>2.496390760982619</v>
-      </c>
-      <c r="G80">
-        <v>-2.496390760982615</v>
-      </c>
-      <c r="H80">
-        <v>2.496390760982619</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="100" customHeight="1">
-      <c r="A81" t="s">
-        <v>166</v>
-      </c>
-      <c r="C81" t="s">
-        <v>167</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <v>0.54327</v>
-      </c>
-      <c r="F81">
-        <v>2.496390760982619</v>
-      </c>
-      <c r="G81">
-        <v>-2.496390760982615</v>
-      </c>
-      <c r="H81">
-        <v>2.496390760982619</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="100" customHeight="1">
-      <c r="A82" t="s">
-        <v>168</v>
-      </c>
-      <c r="C82" t="s">
-        <v>169</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82">
-        <v>0.54327</v>
-      </c>
-      <c r="F82">
-        <v>2.496390760982619</v>
-      </c>
-      <c r="G82">
-        <v>-2.496390760982615</v>
-      </c>
-      <c r="H82">
-        <v>2.496390760982619</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="100" customHeight="1">
-      <c r="A83" t="s">
-        <v>170</v>
-      </c>
-      <c r="C83" t="s">
-        <v>171</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83">
-        <v>0.54327</v>
-      </c>
-      <c r="F83">
-        <v>2.496390760982619</v>
-      </c>
-      <c r="G83">
-        <v>-2.496390760982615</v>
-      </c>
-      <c r="H83">
-        <v>2.496390760982619</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="100" customHeight="1">
-      <c r="A84" t="s">
-        <v>172</v>
-      </c>
-      <c r="C84" t="s">
-        <v>173</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84">
-        <v>0.54327</v>
-      </c>
-      <c r="F84">
-        <v>2.496390760982619</v>
-      </c>
-      <c r="G84">
-        <v>-2.496390760982615</v>
-      </c>
-      <c r="H84">
         <v>2.496390760982619</v>
       </c>
     </row>

--- a/arranged_dataset/DIP-chloride.xlsx
+++ b/arranged_dataset/DIP-chloride.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>smiles</t>
   </si>
@@ -314,48 +314,6 @@
   </si>
   <si>
     <t>IQZLUWLMQNGTIW-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>Oc1ccccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>JECYUBVRTQDVAT-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>Oc1cccc(OC)c1C(=O)C</t>
-  </si>
-  <si>
-    <t>UENLHUMCIOWYQN-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>Oc1ccc(OC)cc1C(=O)C</t>
-  </si>
-  <si>
-    <t>MLIBGOFSXXWRIY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>Oc1ccc(C)cc1C(=O)C</t>
-  </si>
-  <si>
-    <t>YNPDFBFVMJNGKZ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>Oc1ccc(F)cc1C(=O)C</t>
-  </si>
-  <si>
-    <t>KOFFXZYMDLWRHX-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>Oc1c(Cl)cc(Cl)cc1C(=O)C</t>
-  </si>
-  <si>
-    <t>CJFYGRLJDKWMDI-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>Oc1cc(OC)cc(C(=O)OC)c1C(=O)C</t>
-  </si>
-  <si>
-    <t>WRYKPYJMRHQDBM-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>COc1cccc(OC)c1C(=O)C</t>
@@ -3111,272 +3069,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="85067775"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="Picture 69" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="86334600"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="Picture 70" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="87601425"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="Picture 71" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="88868250"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="Picture 72" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="90135075"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="Picture 73" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="91401900"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="Picture 74" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="92668725"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="Picture 75" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="93935550"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3674,7 +3366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4775,19 +4467,19 @@
         <v>101</v>
       </c>
       <c r="D48">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E48">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F48">
-        <v>1.716814035582576</v>
+        <v>0.2001051401535413</v>
       </c>
       <c r="G48">
-        <v>-2.679276531017972</v>
+        <v>-2.26778354843842</v>
       </c>
       <c r="H48">
-        <v>2.679276531017975</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="100" customHeight="1">
@@ -4798,19 +4490,19 @@
         <v>103</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>96.5</v>
       </c>
       <c r="E49">
-        <v>0.58307</v>
+        <v>0.54327</v>
       </c>
       <c r="F49">
-        <v>2.269203661219363</v>
+        <v>-1.801907092249079</v>
       </c>
       <c r="G49">
-        <v>-2.679276531017972</v>
+        <v>-2.496390760982615</v>
       </c>
       <c r="H49">
-        <v>2.679276531017975</v>
+        <v>2.496390760982619</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="100" customHeight="1">
@@ -4821,19 +4513,19 @@
         <v>105</v>
       </c>
       <c r="D50">
-        <v>9</v>
+        <v>97.5</v>
       </c>
       <c r="E50">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F50">
-        <v>1.34901111815735</v>
+        <v>-1.808040943597905</v>
       </c>
       <c r="G50">
-        <v>-2.679276531017972</v>
+        <v>-2.26778354843842</v>
       </c>
       <c r="H50">
-        <v>2.679276531017975</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="100" customHeight="1">
@@ -4844,19 +4536,19 @@
         <v>107</v>
       </c>
       <c r="D51">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="E51">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F51">
-        <v>1.34901111815735</v>
+        <v>-1.715524225407506</v>
       </c>
       <c r="G51">
-        <v>-2.679276531017972</v>
+        <v>-2.26778354843842</v>
       </c>
       <c r="H51">
-        <v>2.679276531017975</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="100" customHeight="1">
@@ -4867,19 +4559,19 @@
         <v>109</v>
       </c>
       <c r="D52">
-        <v>10.5</v>
+        <v>97</v>
       </c>
       <c r="E52">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F52">
-        <v>1.249439344048173</v>
+        <v>-1.715524225407506</v>
       </c>
       <c r="G52">
-        <v>-2.679276531017972</v>
+        <v>-2.26778354843842</v>
       </c>
       <c r="H52">
-        <v>2.679276531017975</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="100" customHeight="1">
@@ -4890,19 +4582,19 @@
         <v>111</v>
       </c>
       <c r="D53">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="E53">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F53">
-        <v>1.135836915731209</v>
+        <v>-0.2001051401535412</v>
       </c>
       <c r="G53">
-        <v>-2.496390760982615</v>
+        <v>-2.26778354843842</v>
       </c>
       <c r="H53">
-        <v>2.496390760982619</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="100" customHeight="1">
@@ -4913,13 +4605,13 @@
         <v>113</v>
       </c>
       <c r="D54">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="E54">
         <v>0.58307</v>
       </c>
       <c r="F54">
-        <v>1.716814035582576</v>
+        <v>-2.269203661219362</v>
       </c>
       <c r="G54">
         <v>-2.679276531017972</v>
@@ -4936,13 +4628,13 @@
         <v>115</v>
       </c>
       <c r="D55">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="E55">
         <v>0.49352</v>
       </c>
       <c r="F55">
-        <v>0.2001051401535413</v>
+        <v>-2.26778354843842</v>
       </c>
       <c r="G55">
         <v>-2.26778354843842</v>
@@ -4959,19 +4651,19 @@
         <v>117</v>
       </c>
       <c r="D56">
-        <v>96.5</v>
+        <v>9</v>
       </c>
       <c r="E56">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F56">
-        <v>-1.801907092249079</v>
+        <v>1.141825110249225</v>
       </c>
       <c r="G56">
-        <v>-2.496390760982615</v>
+        <v>-2.26778354843842</v>
       </c>
       <c r="H56">
-        <v>2.496390760982619</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="100" customHeight="1">
@@ -4982,19 +4674,19 @@
         <v>119</v>
       </c>
       <c r="D57">
-        <v>97.5</v>
+        <v>95.5</v>
       </c>
       <c r="E57">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F57">
-        <v>-1.808040943597905</v>
+        <v>-1.781307333383719</v>
       </c>
       <c r="G57">
-        <v>-2.26778354843842</v>
+        <v>-2.679276531017972</v>
       </c>
       <c r="H57">
-        <v>2.267783548438423</v>
+        <v>2.679276531017975</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="100" customHeight="1">
@@ -5005,13 +4697,13 @@
         <v>121</v>
       </c>
       <c r="D58">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="E58">
         <v>0.49352</v>
       </c>
       <c r="F58">
-        <v>-1.715524225407506</v>
+        <v>0.1796241929564407</v>
       </c>
       <c r="G58">
         <v>-2.26778354843842</v>
@@ -5028,13 +4720,13 @@
         <v>123</v>
       </c>
       <c r="D59">
-        <v>97</v>
+        <v>42.5</v>
       </c>
       <c r="E59">
         <v>0.49352</v>
       </c>
       <c r="F59">
-        <v>-1.715524225407506</v>
+        <v>0.1491816558867302</v>
       </c>
       <c r="G59">
         <v>-2.26778354843842</v>
@@ -5051,19 +4743,19 @@
         <v>125</v>
       </c>
       <c r="D60">
-        <v>60</v>
+        <v>95.5</v>
       </c>
       <c r="E60">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F60">
-        <v>-0.2001051401535412</v>
+        <v>-1.781307333383719</v>
       </c>
       <c r="G60">
-        <v>-2.26778354843842</v>
+        <v>-2.679276531017972</v>
       </c>
       <c r="H60">
-        <v>2.267783548438423</v>
+        <v>2.679276531017975</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="100" customHeight="1">
@@ -5074,19 +4766,19 @@
         <v>127</v>
       </c>
       <c r="D61">
-        <v>98</v>
+        <v>2.5</v>
       </c>
       <c r="E61">
-        <v>0.58307</v>
+        <v>0.54327</v>
       </c>
       <c r="F61">
-        <v>-2.269203661219362</v>
+        <v>1.990303135492853</v>
       </c>
       <c r="G61">
-        <v>-2.679276531017972</v>
+        <v>-2.496390760982615</v>
       </c>
       <c r="H61">
-        <v>2.679276531017975</v>
+        <v>2.496390760982619</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="100" customHeight="1">
@@ -5097,19 +4789,19 @@
         <v>129</v>
       </c>
       <c r="D62">
-        <v>99</v>
+        <v>98.5</v>
       </c>
       <c r="E62">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F62">
-        <v>-2.26778354843842</v>
+        <v>-2.273362991646765</v>
       </c>
       <c r="G62">
-        <v>-2.26778354843842</v>
+        <v>-2.496390760982615</v>
       </c>
       <c r="H62">
-        <v>2.267783548438423</v>
+        <v>2.496390760982619</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="100" customHeight="1">
@@ -5120,19 +4812,19 @@
         <v>131</v>
       </c>
       <c r="D63">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="E63">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F63">
-        <v>1.141825110249225</v>
+        <v>-2.496390760982615</v>
       </c>
       <c r="G63">
-        <v>-2.26778354843842</v>
+        <v>-2.496390760982615</v>
       </c>
       <c r="H63">
-        <v>2.267783548438423</v>
+        <v>2.496390760982619</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="100" customHeight="1">
@@ -5143,19 +4835,19 @@
         <v>133</v>
       </c>
       <c r="D64">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="E64">
-        <v>0.58307</v>
+        <v>0.54327</v>
       </c>
       <c r="F64">
-        <v>-1.781307333383719</v>
+        <v>-1.801907092249079</v>
       </c>
       <c r="G64">
-        <v>-2.679276531017972</v>
+        <v>-2.496390760982615</v>
       </c>
       <c r="H64">
-        <v>2.679276531017975</v>
+        <v>2.496390760982619</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="100" customHeight="1">
@@ -5166,19 +4858,19 @@
         <v>135</v>
       </c>
       <c r="D65">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F65">
-        <v>0.1796241929564407</v>
+        <v>2.496390760982619</v>
       </c>
       <c r="G65">
-        <v>-2.26778354843842</v>
+        <v>-2.496390760982615</v>
       </c>
       <c r="H65">
-        <v>2.267783548438423</v>
+        <v>2.496390760982619</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="100" customHeight="1">
@@ -5189,19 +4881,19 @@
         <v>137</v>
       </c>
       <c r="D66">
-        <v>42.5</v>
+        <v>1</v>
       </c>
       <c r="E66">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F66">
-        <v>0.1491816558867302</v>
+        <v>2.496390760982619</v>
       </c>
       <c r="G66">
-        <v>-2.26778354843842</v>
+        <v>-2.496390760982615</v>
       </c>
       <c r="H66">
-        <v>2.267783548438423</v>
+        <v>2.496390760982619</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="100" customHeight="1">
@@ -5212,19 +4904,19 @@
         <v>139</v>
       </c>
       <c r="D67">
-        <v>95.5</v>
+        <v>1</v>
       </c>
       <c r="E67">
-        <v>0.58307</v>
+        <v>0.54327</v>
       </c>
       <c r="F67">
-        <v>-1.781307333383719</v>
+        <v>2.496390760982619</v>
       </c>
       <c r="G67">
-        <v>-2.679276531017972</v>
+        <v>-2.496390760982615</v>
       </c>
       <c r="H67">
-        <v>2.679276531017975</v>
+        <v>2.496390760982619</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="100" customHeight="1">
@@ -5235,13 +4927,13 @@
         <v>141</v>
       </c>
       <c r="D68">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E68">
         <v>0.54327</v>
       </c>
       <c r="F68">
-        <v>1.990303135492853</v>
+        <v>2.496390760982619</v>
       </c>
       <c r="G68">
         <v>-2.496390760982615</v>
@@ -5258,179 +4950,18 @@
         <v>143</v>
       </c>
       <c r="D69">
-        <v>98.5</v>
+        <v>1</v>
       </c>
       <c r="E69">
         <v>0.54327</v>
       </c>
       <c r="F69">
-        <v>-2.273362991646765</v>
+        <v>2.496390760982619</v>
       </c>
       <c r="G69">
         <v>-2.496390760982615</v>
       </c>
       <c r="H69">
-        <v>2.496390760982619</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="100" customHeight="1">
-      <c r="A70" t="s">
-        <v>144</v>
-      </c>
-      <c r="C70" t="s">
-        <v>145</v>
-      </c>
-      <c r="D70">
-        <v>99</v>
-      </c>
-      <c r="E70">
-        <v>0.54327</v>
-      </c>
-      <c r="F70">
-        <v>-2.496390760982615</v>
-      </c>
-      <c r="G70">
-        <v>-2.496390760982615</v>
-      </c>
-      <c r="H70">
-        <v>2.496390760982619</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="100" customHeight="1">
-      <c r="A71" t="s">
-        <v>146</v>
-      </c>
-      <c r="C71" t="s">
-        <v>147</v>
-      </c>
-      <c r="D71">
-        <v>96.5</v>
-      </c>
-      <c r="E71">
-        <v>0.54327</v>
-      </c>
-      <c r="F71">
-        <v>-1.801907092249079</v>
-      </c>
-      <c r="G71">
-        <v>-2.496390760982615</v>
-      </c>
-      <c r="H71">
-        <v>2.496390760982619</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="100" customHeight="1">
-      <c r="A72" t="s">
-        <v>148</v>
-      </c>
-      <c r="C72" t="s">
-        <v>149</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>0.54327</v>
-      </c>
-      <c r="F72">
-        <v>2.496390760982619</v>
-      </c>
-      <c r="G72">
-        <v>-2.496390760982615</v>
-      </c>
-      <c r="H72">
-        <v>2.496390760982619</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="100" customHeight="1">
-      <c r="A73" t="s">
-        <v>150</v>
-      </c>
-      <c r="C73" t="s">
-        <v>151</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>0.54327</v>
-      </c>
-      <c r="F73">
-        <v>2.496390760982619</v>
-      </c>
-      <c r="G73">
-        <v>-2.496390760982615</v>
-      </c>
-      <c r="H73">
-        <v>2.496390760982619</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="100" customHeight="1">
-      <c r="A74" t="s">
-        <v>152</v>
-      </c>
-      <c r="C74" t="s">
-        <v>153</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>0.54327</v>
-      </c>
-      <c r="F74">
-        <v>2.496390760982619</v>
-      </c>
-      <c r="G74">
-        <v>-2.496390760982615</v>
-      </c>
-      <c r="H74">
-        <v>2.496390760982619</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="100" customHeight="1">
-      <c r="A75" t="s">
-        <v>154</v>
-      </c>
-      <c r="C75" t="s">
-        <v>155</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>0.54327</v>
-      </c>
-      <c r="F75">
-        <v>2.496390760982619</v>
-      </c>
-      <c r="G75">
-        <v>-2.496390760982615</v>
-      </c>
-      <c r="H75">
-        <v>2.496390760982619</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="100" customHeight="1">
-      <c r="A76" t="s">
-        <v>156</v>
-      </c>
-      <c r="C76" t="s">
-        <v>157</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76">
-        <v>0.54327</v>
-      </c>
-      <c r="F76">
-        <v>2.496390760982619</v>
-      </c>
-      <c r="G76">
-        <v>-2.496390760982615</v>
-      </c>
-      <c r="H76">
         <v>2.496390760982619</v>
       </c>
     </row>

--- a/arranged_dataset/DIP-chloride.xlsx
+++ b/arranged_dataset/DIP-chloride.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>smiles</t>
   </si>
@@ -32,12 +32,6 @@
   </si>
   <si>
     <t>ΔΔG.expt.</t>
-  </si>
-  <si>
-    <t>ΔΔminG.expt.</t>
-  </si>
-  <si>
-    <t>ΔΔmaxG.expt.</t>
   </si>
   <si>
     <t>CCC(=O)C</t>
@@ -3366,7 +3360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3375,7 +3369,7 @@
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3394,19 +3388,13 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="100" customHeight="1">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="100" customHeight="1">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
       </c>
       <c r="D2">
         <v>52</v>
@@ -3417,19 +3405,13 @@
       <c r="F2">
         <v>-0.03950267709104367</v>
       </c>
-      <c r="G2">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H2">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="3" spans="1:6" ht="100" customHeight="1">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>53.5</v>
@@ -3440,19 +3422,13 @@
       <c r="F3">
         <v>-0.06920598452264508</v>
       </c>
-      <c r="G3">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H3">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="4" spans="1:6" ht="100" customHeight="1">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>66</v>
@@ -3463,19 +3439,13 @@
       <c r="F4">
         <v>-0.3273489621763136</v>
       </c>
-      <c r="G4">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H4">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="5" spans="1:6" ht="100" customHeight="1">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>98.7</v>
@@ -3486,19 +3456,13 @@
       <c r="F5">
         <v>-2.136803750966791</v>
       </c>
-      <c r="G5">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H5">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="6" spans="1:6" ht="100" customHeight="1">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>98.65000000000001</v>
@@ -3509,42 +3473,30 @@
       <c r="F6">
         <v>-2.117928070821831</v>
       </c>
-      <c r="G6">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H6">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="7" spans="1:6" ht="100" customHeight="1">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.49352</v>
+      </c>
+      <c r="F7">
+        <v>-2.320279323575567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="100" customHeight="1">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>19</v>
-      </c>
-      <c r="D7">
-        <v>99</v>
-      </c>
-      <c r="E7">
-        <v>0.49352</v>
-      </c>
-      <c r="F7">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="G7">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H7">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="100" customHeight="1">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
       </c>
       <c r="D8">
         <v>97.5</v>
@@ -3555,19 +3507,13 @@
       <c r="F8">
         <v>-1.808040943597905</v>
       </c>
-      <c r="G8">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H8">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="9" spans="1:6" ht="100" customHeight="1">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9">
         <v>95</v>
@@ -3578,19 +3524,13 @@
       <c r="F9">
         <v>-1.453139524998222</v>
       </c>
-      <c r="G9">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H9">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="10" spans="1:6" ht="100" customHeight="1">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10">
         <v>10.35</v>
@@ -3601,19 +3541,13 @@
       <c r="F10">
         <v>1.06547349528128</v>
       </c>
-      <c r="G10">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H10">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="11" spans="1:6" ht="100" customHeight="1">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>98.7</v>
@@ -3624,19 +3558,13 @@
       <c r="F11">
         <v>-2.136803750966791</v>
       </c>
-      <c r="G11">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H11">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="12" spans="1:6" ht="100" customHeight="1">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12">
         <v>93.7</v>
@@ -3647,42 +3575,30 @@
       <c r="F12">
         <v>-1.332281203281558</v>
       </c>
-      <c r="G12">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H12">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="13" spans="1:6" ht="100" customHeight="1">
       <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <v>99.05</v>
+      </c>
+      <c r="E13">
+        <v>0.49352</v>
+      </c>
+      <c r="F13">
+        <v>-2.293347004688449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="100" customHeight="1">
+      <c r="A14" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>31</v>
-      </c>
-      <c r="D13">
-        <v>99</v>
-      </c>
-      <c r="E13">
-        <v>0.49352</v>
-      </c>
-      <c r="F13">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="G13">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H13">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="100" customHeight="1">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
       </c>
       <c r="D14">
         <v>96.2</v>
@@ -3693,19 +3609,13 @@
       <c r="F14">
         <v>-1.594774490144373</v>
       </c>
-      <c r="G14">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H14">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="15" spans="1:6" ht="100" customHeight="1">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>95.65000000000001</v>
@@ -3716,19 +3626,13 @@
       <c r="F15">
         <v>-1.525233356759745</v>
       </c>
-      <c r="G15">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H15">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="16" spans="1:6" ht="100" customHeight="1">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16">
         <v>98</v>
@@ -3739,19 +3643,13 @@
       <c r="F16">
         <v>-1.920691153523556</v>
       </c>
-      <c r="G16">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H16">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="17" spans="1:6" ht="100" customHeight="1">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17">
         <v>97.5</v>
@@ -3762,19 +3660,13 @@
       <c r="F17">
         <v>-2.172565327387805</v>
       </c>
-      <c r="G17">
-        <v>-2.724997973526811</v>
-      </c>
-      <c r="H17">
-        <v>2.724997973526814</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="18" spans="1:6" ht="100" customHeight="1">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18">
         <v>92</v>
@@ -3785,19 +3677,13 @@
       <c r="F18">
         <v>-1.448360638914646</v>
       </c>
-      <c r="G18">
-        <v>-2.724997973526811</v>
-      </c>
-      <c r="H18">
-        <v>2.724997973526814</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="19" spans="1:6" ht="100" customHeight="1">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D19">
         <v>99</v>
@@ -3808,19 +3694,13 @@
       <c r="F19">
         <v>-2.724997973526811</v>
       </c>
-      <c r="G19">
-        <v>-2.724997973526811</v>
-      </c>
-      <c r="H19">
-        <v>2.724997973526814</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="20" spans="1:6" ht="100" customHeight="1">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D20">
         <v>95.5</v>
@@ -3831,19 +3711,13 @@
       <c r="F20">
         <v>-1.811705069448288</v>
       </c>
-      <c r="G20">
-        <v>-2.724997973526811</v>
-      </c>
-      <c r="H20">
-        <v>2.724997973526814</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="21" spans="1:6" ht="100" customHeight="1">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D21">
         <v>97.5</v>
@@ -3854,19 +3728,13 @@
       <c r="F21">
         <v>-2.172565327387805</v>
       </c>
-      <c r="G21">
-        <v>-2.724997973526811</v>
-      </c>
-      <c r="H21">
-        <v>2.724997973526814</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="22" spans="1:6" ht="100" customHeight="1">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D22">
         <v>72.5</v>
@@ -3877,19 +3745,13 @@
       <c r="F22">
         <v>-0.4784185629834727</v>
       </c>
-      <c r="G22">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H22">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="23" spans="1:6" ht="100" customHeight="1">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D23">
         <v>15</v>
@@ -3900,19 +3762,13 @@
       <c r="F23">
         <v>0.8560603128551383</v>
       </c>
-      <c r="G23">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H23">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="24" spans="1:6" ht="100" customHeight="1">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D24">
         <v>92</v>
@@ -3923,19 +3779,13 @@
       <c r="F24">
         <v>-1.424059285912722</v>
       </c>
-      <c r="G24">
-        <v>-2.679276531017972</v>
-      </c>
-      <c r="H24">
-        <v>2.679276531017975</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="25" spans="1:6" ht="100" customHeight="1">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D25">
         <v>68</v>
@@ -3946,19 +3796,13 @@
       <c r="F25">
         <v>-0.3720014599087911</v>
       </c>
-      <c r="G25">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H25">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="26" spans="1:6" ht="100" customHeight="1">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D26">
         <v>90.5</v>
@@ -3969,19 +3813,13 @@
       <c r="F26">
         <v>-1.112422729872088</v>
       </c>
-      <c r="G26">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H26">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="27" spans="1:6" ht="100" customHeight="1">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D27">
         <v>39.5</v>
@@ -3992,19 +3830,13 @@
       <c r="F27">
         <v>0.2104086459133793</v>
       </c>
-      <c r="G27">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H27">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="28" spans="1:6" ht="100" customHeight="1">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -4015,19 +3847,13 @@
       <c r="F28">
         <v>1.920691153523556</v>
       </c>
-      <c r="G28">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H28">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="29" spans="1:6" ht="100" customHeight="1">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D29">
         <v>7</v>
@@ -4038,42 +3864,30 @@
       <c r="F29">
         <v>1.276582925099217</v>
       </c>
-      <c r="G29">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H29">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="30" spans="1:6" ht="100" customHeight="1">
       <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30">
+        <v>99.5</v>
+      </c>
+      <c r="E30">
+        <v>0.49352</v>
+      </c>
+      <c r="F30">
+        <v>-2.61235179709804</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="100" customHeight="1">
+      <c r="A31" t="s">
         <v>64</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>65</v>
-      </c>
-      <c r="D30">
-        <v>99</v>
-      </c>
-      <c r="E30">
-        <v>0.49352</v>
-      </c>
-      <c r="F30">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="G30">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H30">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="100" customHeight="1">
-      <c r="A31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" t="s">
-        <v>67</v>
       </c>
       <c r="D31">
         <v>98.5</v>
@@ -4084,19 +3898,13 @@
       <c r="F31">
         <v>-2.065179567503288</v>
       </c>
-      <c r="G31">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H31">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="32" spans="1:6" ht="100" customHeight="1">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D32">
         <v>98.5</v>
@@ -4107,19 +3915,13 @@
       <c r="F32">
         <v>-2.065179567503288</v>
       </c>
-      <c r="G32">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H32">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="33" spans="1:6" ht="100" customHeight="1">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D33">
         <v>99</v>
@@ -4130,19 +3932,13 @@
       <c r="F33">
         <v>-2.26778354843842</v>
       </c>
-      <c r="G33">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H33">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="34" spans="1:6" ht="100" customHeight="1">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D34">
         <v>3.5</v>
@@ -4153,19 +3949,13 @@
       <c r="F34">
         <v>1.636897285266561</v>
       </c>
-      <c r="G34">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H34">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="35" spans="1:6" ht="100" customHeight="1">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D35">
         <v>99</v>
@@ -4176,19 +3966,13 @@
       <c r="F35">
         <v>-2.26778354843842</v>
       </c>
-      <c r="G35">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H35">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="36" spans="1:6" ht="100" customHeight="1">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D36">
         <v>63</v>
@@ -4199,19 +3983,13 @@
       <c r="F36">
         <v>-0.2626596419205717</v>
       </c>
-      <c r="G36">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H36">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="37" spans="1:6" ht="100" customHeight="1">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D37">
         <v>61.5</v>
@@ -4222,19 +4000,13 @@
       <c r="F37">
         <v>-0.2311543712701655</v>
       </c>
-      <c r="G37">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H37">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="38" spans="1:6" ht="100" customHeight="1">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D38">
         <v>69</v>
@@ -4245,19 +4017,13 @@
       <c r="F38">
         <v>-0.3948748769913301</v>
       </c>
-      <c r="G38">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H38">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="39" spans="1:6" ht="100" customHeight="1">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D39">
         <v>72.5</v>
@@ -4268,19 +4034,13 @@
       <c r="F39">
         <v>-0.4784185629834727</v>
       </c>
-      <c r="G39">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H39">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="40" spans="1:6" ht="100" customHeight="1">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D40">
         <v>5.5</v>
@@ -4291,42 +4051,30 @@
       <c r="F40">
         <v>1.103556668584487</v>
       </c>
-      <c r="G40">
-        <v>-1.783136257844725</v>
-      </c>
-      <c r="H40">
-        <v>1.783136257844728</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="41" spans="1:6" ht="100" customHeight="1">
       <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41">
+        <v>99.5</v>
+      </c>
+      <c r="E41">
+        <v>0.49352</v>
+      </c>
+      <c r="F41">
+        <v>-2.61235179709804</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="100" customHeight="1">
+      <c r="A42" t="s">
         <v>86</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>87</v>
-      </c>
-      <c r="D41">
-        <v>99</v>
-      </c>
-      <c r="E41">
-        <v>0.49352</v>
-      </c>
-      <c r="F41">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="G41">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H41">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="100" customHeight="1">
-      <c r="A42" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" t="s">
-        <v>89</v>
       </c>
       <c r="D42">
         <v>36.5</v>
@@ -4337,19 +4085,13 @@
       <c r="F42">
         <v>0.2732756675134899</v>
       </c>
-      <c r="G42">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H42">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="43" spans="1:6" ht="100" customHeight="1">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D43">
         <v>99</v>
@@ -4360,19 +4102,13 @@
       <c r="F43">
         <v>-2.26778354843842</v>
       </c>
-      <c r="G43">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H43">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="44" spans="1:6" ht="100" customHeight="1">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D44">
         <v>98.5</v>
@@ -4383,19 +4119,13 @@
       <c r="F44">
         <v>-2.065179567503288</v>
       </c>
-      <c r="G44">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H44">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="45" spans="1:6" ht="100" customHeight="1">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D45">
         <v>97.5</v>
@@ -4406,19 +4136,13 @@
       <c r="F45">
         <v>-1.808040943597905</v>
       </c>
-      <c r="G45">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H45">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="46" spans="1:6" ht="100" customHeight="1">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D46">
         <v>93.5</v>
@@ -4429,19 +4153,13 @@
       <c r="F46">
         <v>-1.315802917695658</v>
       </c>
-      <c r="G46">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H46">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="47" spans="1:6" ht="100" customHeight="1">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D47">
         <v>97</v>
@@ -4452,19 +4170,13 @@
       <c r="F47">
         <v>-1.715524225407506</v>
       </c>
-      <c r="G47">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H47">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="48" spans="1:6" ht="100" customHeight="1">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D48">
         <v>40</v>
@@ -4475,19 +4187,13 @@
       <c r="F48">
         <v>0.2001051401535413</v>
       </c>
-      <c r="G48">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H48">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="49" spans="1:6" ht="100" customHeight="1">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D49">
         <v>96.5</v>
@@ -4498,19 +4204,13 @@
       <c r="F49">
         <v>-1.801907092249079</v>
       </c>
-      <c r="G49">
-        <v>-2.496390760982615</v>
-      </c>
-      <c r="H49">
-        <v>2.496390760982619</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="50" spans="1:6" ht="100" customHeight="1">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D50">
         <v>97.5</v>
@@ -4521,19 +4221,13 @@
       <c r="F50">
         <v>-1.808040943597905</v>
       </c>
-      <c r="G50">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H50">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="51" spans="1:6" ht="100" customHeight="1">
       <c r="A51" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C51" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D51">
         <v>97</v>
@@ -4544,19 +4238,13 @@
       <c r="F51">
         <v>-1.715524225407506</v>
       </c>
-      <c r="G51">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H51">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="52" spans="1:6" ht="100" customHeight="1">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C52" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D52">
         <v>97</v>
@@ -4567,19 +4255,13 @@
       <c r="F52">
         <v>-1.715524225407506</v>
       </c>
-      <c r="G52">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H52">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="53" spans="1:6" ht="100" customHeight="1">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D53">
         <v>60</v>
@@ -4590,19 +4272,13 @@
       <c r="F53">
         <v>-0.2001051401535412</v>
       </c>
-      <c r="G53">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H53">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="54" spans="1:6" ht="100" customHeight="1">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C54" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D54">
         <v>98</v>
@@ -4613,19 +4289,13 @@
       <c r="F54">
         <v>-2.269203661219362</v>
       </c>
-      <c r="G54">
-        <v>-2.679276531017972</v>
-      </c>
-      <c r="H54">
-        <v>2.679276531017975</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="55" spans="1:6" ht="100" customHeight="1">
       <c r="A55" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C55" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D55">
         <v>99</v>
@@ -4636,19 +4306,13 @@
       <c r="F55">
         <v>-2.26778354843842</v>
       </c>
-      <c r="G55">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H55">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="56" spans="1:6" ht="100" customHeight="1">
       <c r="A56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D56">
         <v>9</v>
@@ -4659,19 +4323,13 @@
       <c r="F56">
         <v>1.141825110249225</v>
       </c>
-      <c r="G56">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H56">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="57" spans="1:6" ht="100" customHeight="1">
       <c r="A57" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C57" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D57">
         <v>95.5</v>
@@ -4682,19 +4340,13 @@
       <c r="F57">
         <v>-1.781307333383719</v>
       </c>
-      <c r="G57">
-        <v>-2.679276531017972</v>
-      </c>
-      <c r="H57">
-        <v>2.679276531017975</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="58" spans="1:6" ht="100" customHeight="1">
       <c r="A58" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C58" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D58">
         <v>41</v>
@@ -4705,19 +4357,13 @@
       <c r="F58">
         <v>0.1796241929564407</v>
       </c>
-      <c r="G58">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H58">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="59" spans="1:6" ht="100" customHeight="1">
       <c r="A59" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C59" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D59">
         <v>42.5</v>
@@ -4728,19 +4374,13 @@
       <c r="F59">
         <v>0.1491816558867302</v>
       </c>
-      <c r="G59">
-        <v>-2.26778354843842</v>
-      </c>
-      <c r="H59">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="60" spans="1:6" ht="100" customHeight="1">
       <c r="A60" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C60" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D60">
         <v>95.5</v>
@@ -4751,19 +4391,13 @@
       <c r="F60">
         <v>-1.781307333383719</v>
       </c>
-      <c r="G60">
-        <v>-2.679276531017972</v>
-      </c>
-      <c r="H60">
-        <v>2.679276531017975</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="61" spans="1:6" ht="100" customHeight="1">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C61" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D61">
         <v>2.5</v>
@@ -4774,19 +4408,13 @@
       <c r="F61">
         <v>1.990303135492853</v>
       </c>
-      <c r="G61">
-        <v>-2.496390760982615</v>
-      </c>
-      <c r="H61">
-        <v>2.496390760982619</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="62" spans="1:6" ht="100" customHeight="1">
       <c r="A62" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C62" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D62">
         <v>98.5</v>
@@ -4797,19 +4425,13 @@
       <c r="F62">
         <v>-2.273362991646765</v>
       </c>
-      <c r="G62">
-        <v>-2.496390760982615</v>
-      </c>
-      <c r="H62">
-        <v>2.496390760982619</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="63" spans="1:6" ht="100" customHeight="1">
       <c r="A63" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C63" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D63">
         <v>99</v>
@@ -4820,19 +4442,13 @@
       <c r="F63">
         <v>-2.496390760982615</v>
       </c>
-      <c r="G63">
-        <v>-2.496390760982615</v>
-      </c>
-      <c r="H63">
-        <v>2.496390760982619</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="64" spans="1:6" ht="100" customHeight="1">
       <c r="A64" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C64" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D64">
         <v>96.5</v>
@@ -4843,19 +4459,13 @@
       <c r="F64">
         <v>-1.801907092249079</v>
       </c>
-      <c r="G64">
-        <v>-2.496390760982615</v>
-      </c>
-      <c r="H64">
-        <v>2.496390760982619</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="65" spans="1:6" ht="100" customHeight="1">
       <c r="A65" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C65" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -4866,19 +4476,13 @@
       <c r="F65">
         <v>2.496390760982619</v>
       </c>
-      <c r="G65">
-        <v>-2.496390760982615</v>
-      </c>
-      <c r="H65">
-        <v>2.496390760982619</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="66" spans="1:6" ht="100" customHeight="1">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C66" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -4889,80 +4493,56 @@
       <c r="F66">
         <v>2.496390760982619</v>
       </c>
-      <c r="G66">
-        <v>-2.496390760982615</v>
-      </c>
-      <c r="H66">
-        <v>2.496390760982619</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="100" customHeight="1">
+    </row>
+    <row r="67" spans="1:6" ht="100" customHeight="1">
       <c r="A67" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C67" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E67">
         <v>0.54327</v>
       </c>
       <c r="F67">
-        <v>2.496390760982619</v>
-      </c>
-      <c r="G67">
-        <v>-2.496390760982615</v>
-      </c>
-      <c r="H67">
-        <v>2.496390760982619</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="100" customHeight="1">
+        <v>2.875693712128075</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="100" customHeight="1">
       <c r="A68" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C68" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E68">
         <v>0.54327</v>
       </c>
       <c r="F68">
-        <v>2.496390760982619</v>
-      </c>
-      <c r="G68">
-        <v>-2.496390760982615</v>
-      </c>
-      <c r="H68">
-        <v>2.496390760982619</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="100" customHeight="1">
+        <v>2.875693712128075</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="100" customHeight="1">
       <c r="A69" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C69" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E69">
         <v>0.54327</v>
       </c>
       <c r="F69">
-        <v>2.496390760982619</v>
-      </c>
-      <c r="G69">
-        <v>-2.496390760982615</v>
-      </c>
-      <c r="H69">
-        <v>2.496390760982619</v>
+        <v>2.875693712128075</v>
       </c>
     </row>
   </sheetData>

--- a/arranged_dataset/DIP-chloride.xlsx
+++ b/arranged_dataset/DIP-chloride.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>smiles</t>
   </si>
@@ -190,12 +190,6 @@
     <t>UPEUQDJSUFHFQP-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>ClCC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>IMACFCSSMIZSPP-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>BrCC(=O)c1ccccc1</t>
   </si>
   <si>
@@ -226,12 +220,6 @@
     <t>ADCYRBXQAJXJTD-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>ClCC(=O)c1c(Cl)cc(Cl)cc1</t>
-  </si>
-  <si>
-    <t>VYWPPRLJNVHPEU-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>c1cc(Br)ccc1c2cc(Cl)ccc2C(=O)CCC</t>
   </si>
   <si>
@@ -356,36 +344,6 @@
   </si>
   <si>
     <t>HXAOUYGZEOZTJO-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>ClC(Cl)C(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>CERJZAHSUZVMCH-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>ClC(Cl)(Cl)C(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>OAMHTTBNEJBIKA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>ClCC(=O)C</t>
-  </si>
-  <si>
-    <t>BULLHNJGPPOUOX-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>ClC(Cl)C(=O)C</t>
-  </si>
-  <si>
-    <t>CSVFWMMPUJDVKH-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>ClC(Cl)(Cl)C(=O)C</t>
-  </si>
-  <si>
-    <t>SMZHKGXSEAGRTI-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>COCC(=O)c1ccccc1</t>
@@ -2797,272 +2755,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="76200000"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="Picture 62" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="77466825"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="Picture 63" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="78733650"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="Picture 64" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="80000475"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="Picture 65" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="81267300"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="Picture 66" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="82534125"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="Picture 67" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="83800950"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="Picture 68" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="85067775"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3360,7 +3052,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3839,13 +3531,13 @@
         <v>59</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E28">
         <v>0.49352</v>
       </c>
       <c r="F28">
-        <v>1.920691153523556</v>
+        <v>1.276582925099217</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="100" customHeight="1">
@@ -3856,13 +3548,13 @@
         <v>61</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>99.5</v>
       </c>
       <c r="E29">
         <v>0.49352</v>
       </c>
       <c r="F29">
-        <v>1.276582925099217</v>
+        <v>-2.61235179709804</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="100" customHeight="1">
@@ -3873,13 +3565,13 @@
         <v>63</v>
       </c>
       <c r="D30">
-        <v>99.5</v>
+        <v>98.5</v>
       </c>
       <c r="E30">
         <v>0.49352</v>
       </c>
       <c r="F30">
-        <v>-2.61235179709804</v>
+        <v>-2.065179567503288</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="100" customHeight="1">
@@ -3907,13 +3599,13 @@
         <v>67</v>
       </c>
       <c r="D32">
-        <v>98.5</v>
+        <v>99</v>
       </c>
       <c r="E32">
         <v>0.49352</v>
       </c>
       <c r="F32">
-        <v>-2.065179567503288</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="100" customHeight="1">
@@ -3941,13 +3633,13 @@
         <v>71</v>
       </c>
       <c r="D34">
-        <v>3.5</v>
+        <v>63</v>
       </c>
       <c r="E34">
         <v>0.49352</v>
       </c>
       <c r="F34">
-        <v>1.636897285266561</v>
+        <v>-0.2626596419205717</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="100" customHeight="1">
@@ -3958,13 +3650,13 @@
         <v>73</v>
       </c>
       <c r="D35">
-        <v>99</v>
+        <v>61.5</v>
       </c>
       <c r="E35">
         <v>0.49352</v>
       </c>
       <c r="F35">
-        <v>-2.26778354843842</v>
+        <v>-0.2311543712701655</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="100" customHeight="1">
@@ -3975,13 +3667,13 @@
         <v>75</v>
       </c>
       <c r="D36">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E36">
         <v>0.49352</v>
       </c>
       <c r="F36">
-        <v>-0.2626596419205717</v>
+        <v>-0.3948748769913301</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="100" customHeight="1">
@@ -3992,13 +3684,13 @@
         <v>77</v>
       </c>
       <c r="D37">
-        <v>61.5</v>
+        <v>72.5</v>
       </c>
       <c r="E37">
         <v>0.49352</v>
       </c>
       <c r="F37">
-        <v>-0.2311543712701655</v>
+        <v>-0.4784185629834727</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="100" customHeight="1">
@@ -4009,13 +3701,13 @@
         <v>79</v>
       </c>
       <c r="D38">
-        <v>69</v>
+        <v>5.5</v>
       </c>
       <c r="E38">
-        <v>0.49352</v>
+        <v>0.38805</v>
       </c>
       <c r="F38">
-        <v>-0.3948748769913301</v>
+        <v>1.103556668584487</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="100" customHeight="1">
@@ -4026,13 +3718,13 @@
         <v>81</v>
       </c>
       <c r="D39">
-        <v>72.5</v>
+        <v>99.5</v>
       </c>
       <c r="E39">
         <v>0.49352</v>
       </c>
       <c r="F39">
-        <v>-0.4784185629834727</v>
+        <v>-2.61235179709804</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="100" customHeight="1">
@@ -4043,13 +3735,13 @@
         <v>83</v>
       </c>
       <c r="D40">
-        <v>5.5</v>
+        <v>36.5</v>
       </c>
       <c r="E40">
-        <v>0.38805</v>
+        <v>0.49352</v>
       </c>
       <c r="F40">
-        <v>1.103556668584487</v>
+        <v>0.2732756675134899</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="100" customHeight="1">
@@ -4060,13 +3752,13 @@
         <v>85</v>
       </c>
       <c r="D41">
-        <v>99.5</v>
+        <v>99</v>
       </c>
       <c r="E41">
         <v>0.49352</v>
       </c>
       <c r="F41">
-        <v>-2.61235179709804</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="100" customHeight="1">
@@ -4077,13 +3769,13 @@
         <v>87</v>
       </c>
       <c r="D42">
-        <v>36.5</v>
+        <v>98.5</v>
       </c>
       <c r="E42">
         <v>0.49352</v>
       </c>
       <c r="F42">
-        <v>0.2732756675134899</v>
+        <v>-2.065179567503288</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="100" customHeight="1">
@@ -4094,13 +3786,13 @@
         <v>89</v>
       </c>
       <c r="D43">
-        <v>99</v>
+        <v>97.5</v>
       </c>
       <c r="E43">
         <v>0.49352</v>
       </c>
       <c r="F43">
-        <v>-2.26778354843842</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="100" customHeight="1">
@@ -4111,13 +3803,13 @@
         <v>91</v>
       </c>
       <c r="D44">
-        <v>98.5</v>
+        <v>93.5</v>
       </c>
       <c r="E44">
         <v>0.49352</v>
       </c>
       <c r="F44">
-        <v>-2.065179567503288</v>
+        <v>-1.315802917695658</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="100" customHeight="1">
@@ -4128,13 +3820,13 @@
         <v>93</v>
       </c>
       <c r="D45">
-        <v>97.5</v>
+        <v>97</v>
       </c>
       <c r="E45">
         <v>0.49352</v>
       </c>
       <c r="F45">
-        <v>-1.808040943597905</v>
+        <v>-1.715524225407506</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="100" customHeight="1">
@@ -4145,13 +3837,13 @@
         <v>95</v>
       </c>
       <c r="D46">
-        <v>93.5</v>
+        <v>40</v>
       </c>
       <c r="E46">
         <v>0.49352</v>
       </c>
       <c r="F46">
-        <v>-1.315802917695658</v>
+        <v>0.2001051401535413</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="100" customHeight="1">
@@ -4162,13 +3854,13 @@
         <v>97</v>
       </c>
       <c r="D47">
-        <v>97</v>
+        <v>96.5</v>
       </c>
       <c r="E47">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F47">
-        <v>-1.715524225407506</v>
+        <v>-1.801907092249079</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="100" customHeight="1">
@@ -4179,13 +3871,13 @@
         <v>99</v>
       </c>
       <c r="D48">
-        <v>40</v>
+        <v>97.5</v>
       </c>
       <c r="E48">
         <v>0.49352</v>
       </c>
       <c r="F48">
-        <v>0.2001051401535413</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="100" customHeight="1">
@@ -4196,13 +3888,13 @@
         <v>101</v>
       </c>
       <c r="D49">
-        <v>96.5</v>
+        <v>97</v>
       </c>
       <c r="E49">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F49">
-        <v>-1.801907092249079</v>
+        <v>-1.715524225407506</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="100" customHeight="1">
@@ -4213,13 +3905,13 @@
         <v>103</v>
       </c>
       <c r="D50">
-        <v>97.5</v>
+        <v>97</v>
       </c>
       <c r="E50">
         <v>0.49352</v>
       </c>
       <c r="F50">
-        <v>-1.808040943597905</v>
+        <v>-1.715524225407506</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="100" customHeight="1">
@@ -4230,13 +3922,13 @@
         <v>105</v>
       </c>
       <c r="D51">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="E51">
         <v>0.49352</v>
       </c>
       <c r="F51">
-        <v>-1.715524225407506</v>
+        <v>-0.2001051401535412</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="100" customHeight="1">
@@ -4247,13 +3939,13 @@
         <v>107</v>
       </c>
       <c r="D52">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E52">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F52">
-        <v>-1.715524225407506</v>
+        <v>-2.269203661219362</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="100" customHeight="1">
@@ -4264,13 +3956,13 @@
         <v>109</v>
       </c>
       <c r="D53">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="E53">
         <v>0.49352</v>
       </c>
       <c r="F53">
-        <v>-0.2001051401535412</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="100" customHeight="1">
@@ -4281,13 +3973,13 @@
         <v>111</v>
       </c>
       <c r="D54">
-        <v>98</v>
+        <v>2.5</v>
       </c>
       <c r="E54">
-        <v>0.58307</v>
+        <v>0.54327</v>
       </c>
       <c r="F54">
-        <v>-2.269203661219362</v>
+        <v>1.990303135492853</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="100" customHeight="1">
@@ -4298,13 +3990,13 @@
         <v>113</v>
       </c>
       <c r="D55">
-        <v>99</v>
+        <v>98.5</v>
       </c>
       <c r="E55">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F55">
-        <v>-2.26778354843842</v>
+        <v>-2.273362991646765</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="100" customHeight="1">
@@ -4315,13 +4007,13 @@
         <v>115</v>
       </c>
       <c r="D56">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="E56">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F56">
-        <v>1.141825110249225</v>
+        <v>-2.496390760982615</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="100" customHeight="1">
@@ -4332,13 +4024,13 @@
         <v>117</v>
       </c>
       <c r="D57">
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="E57">
-        <v>0.58307</v>
+        <v>0.54327</v>
       </c>
       <c r="F57">
-        <v>-1.781307333383719</v>
+        <v>-1.801907092249079</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="100" customHeight="1">
@@ -4349,13 +4041,13 @@
         <v>119</v>
       </c>
       <c r="D58">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="E58">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F58">
-        <v>0.1796241929564407</v>
+        <v>2.496390760982619</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="100" customHeight="1">
@@ -4366,13 +4058,13 @@
         <v>121</v>
       </c>
       <c r="D59">
-        <v>42.5</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F59">
-        <v>0.1491816558867302</v>
+        <v>2.496390760982619</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="100" customHeight="1">
@@ -4383,13 +4075,13 @@
         <v>123</v>
       </c>
       <c r="D60">
-        <v>95.5</v>
+        <v>0.5</v>
       </c>
       <c r="E60">
-        <v>0.58307</v>
+        <v>0.54327</v>
       </c>
       <c r="F60">
-        <v>-1.781307333383719</v>
+        <v>2.875693712128075</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="100" customHeight="1">
@@ -4400,13 +4092,13 @@
         <v>125</v>
       </c>
       <c r="D61">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="E61">
         <v>0.54327</v>
       </c>
       <c r="F61">
-        <v>1.990303135492853</v>
+        <v>2.875693712128075</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="100" customHeight="1">
@@ -4417,131 +4109,12 @@
         <v>127</v>
       </c>
       <c r="D62">
-        <v>98.5</v>
+        <v>0.5</v>
       </c>
       <c r="E62">
         <v>0.54327</v>
       </c>
       <c r="F62">
-        <v>-2.273362991646765</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="100" customHeight="1">
-      <c r="A63" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63" t="s">
-        <v>129</v>
-      </c>
-      <c r="D63">
-        <v>99</v>
-      </c>
-      <c r="E63">
-        <v>0.54327</v>
-      </c>
-      <c r="F63">
-        <v>-2.496390760982615</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="100" customHeight="1">
-      <c r="A64" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64" t="s">
-        <v>131</v>
-      </c>
-      <c r="D64">
-        <v>96.5</v>
-      </c>
-      <c r="E64">
-        <v>0.54327</v>
-      </c>
-      <c r="F64">
-        <v>-1.801907092249079</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="100" customHeight="1">
-      <c r="A65" t="s">
-        <v>132</v>
-      </c>
-      <c r="C65" t="s">
-        <v>133</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <v>0.54327</v>
-      </c>
-      <c r="F65">
-        <v>2.496390760982619</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="100" customHeight="1">
-      <c r="A66" t="s">
-        <v>134</v>
-      </c>
-      <c r="C66" t="s">
-        <v>135</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>0.54327</v>
-      </c>
-      <c r="F66">
-        <v>2.496390760982619</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="100" customHeight="1">
-      <c r="A67" t="s">
-        <v>136</v>
-      </c>
-      <c r="C67" t="s">
-        <v>137</v>
-      </c>
-      <c r="D67">
-        <v>0.5</v>
-      </c>
-      <c r="E67">
-        <v>0.54327</v>
-      </c>
-      <c r="F67">
-        <v>2.875693712128075</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="100" customHeight="1">
-      <c r="A68" t="s">
-        <v>138</v>
-      </c>
-      <c r="C68" t="s">
-        <v>139</v>
-      </c>
-      <c r="D68">
-        <v>0.5</v>
-      </c>
-      <c r="E68">
-        <v>0.54327</v>
-      </c>
-      <c r="F68">
-        <v>2.875693712128075</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="100" customHeight="1">
-      <c r="A69" t="s">
-        <v>140</v>
-      </c>
-      <c r="C69" t="s">
-        <v>141</v>
-      </c>
-      <c r="D69">
-        <v>0.5</v>
-      </c>
-      <c r="E69">
-        <v>0.54327</v>
-      </c>
-      <c r="F69">
         <v>2.875693712128075</v>
       </c>
     </row>

--- a/arranged_dataset/DIP-chloride.xlsx
+++ b/arranged_dataset/DIP-chloride.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>smiles</t>
   </si>
@@ -190,6 +190,12 @@
     <t>UPEUQDJSUFHFQP-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>ClCC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>IMACFCSSMIZSPP-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>BrCC(=O)c1ccccc1</t>
   </si>
   <si>
@@ -220,6 +226,12 @@
     <t>ADCYRBXQAJXJTD-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>ClCC(=O)c1c(Cl)cc(Cl)cc1</t>
+  </si>
+  <si>
+    <t>VYWPPRLJNVHPEU-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>c1cc(Br)ccc1c2cc(Cl)ccc2C(=O)CCC</t>
   </si>
   <si>
@@ -344,6 +356,36 @@
   </si>
   <si>
     <t>HXAOUYGZEOZTJO-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>ClC(Cl)C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>CERJZAHSUZVMCH-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>ClC(Cl)(Cl)C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>OAMHTTBNEJBIKA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>ClCC(=O)C</t>
+  </si>
+  <si>
+    <t>BULLHNJGPPOUOX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>ClC(Cl)C(=O)C</t>
+  </si>
+  <si>
+    <t>CSVFWMMPUJDVKH-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>ClC(Cl)(Cl)C(=O)C</t>
+  </si>
+  <si>
+    <t>SMZHKGXSEAGRTI-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>COCC(=O)c1ccccc1</t>
@@ -2755,6 +2797,272 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="76200000"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Picture 62" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="77466825"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 63" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="78733650"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 64" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="80000475"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Picture 65" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="81267300"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 66" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="82534125"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 67" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="83800950"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Picture 68" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="85067775"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3052,7 +3360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3531,13 +3839,13 @@
         <v>59</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>0.49352</v>
       </c>
       <c r="F28">
-        <v>1.276582925099217</v>
+        <v>1.920691153523556</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="100" customHeight="1">
@@ -3548,13 +3856,13 @@
         <v>61</v>
       </c>
       <c r="D29">
-        <v>99.5</v>
+        <v>7</v>
       </c>
       <c r="E29">
         <v>0.49352</v>
       </c>
       <c r="F29">
-        <v>-2.61235179709804</v>
+        <v>1.276582925099217</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="100" customHeight="1">
@@ -3565,13 +3873,13 @@
         <v>63</v>
       </c>
       <c r="D30">
-        <v>98.5</v>
+        <v>99.5</v>
       </c>
       <c r="E30">
         <v>0.49352</v>
       </c>
       <c r="F30">
-        <v>-2.065179567503288</v>
+        <v>-2.61235179709804</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="100" customHeight="1">
@@ -3599,13 +3907,13 @@
         <v>67</v>
       </c>
       <c r="D32">
-        <v>99</v>
+        <v>98.5</v>
       </c>
       <c r="E32">
         <v>0.49352</v>
       </c>
       <c r="F32">
-        <v>-2.26778354843842</v>
+        <v>-2.065179567503288</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="100" customHeight="1">
@@ -3633,13 +3941,13 @@
         <v>71</v>
       </c>
       <c r="D34">
-        <v>63</v>
+        <v>3.5</v>
       </c>
       <c r="E34">
         <v>0.49352</v>
       </c>
       <c r="F34">
-        <v>-0.2626596419205717</v>
+        <v>1.636897285266561</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="100" customHeight="1">
@@ -3650,13 +3958,13 @@
         <v>73</v>
       </c>
       <c r="D35">
-        <v>61.5</v>
+        <v>99</v>
       </c>
       <c r="E35">
         <v>0.49352</v>
       </c>
       <c r="F35">
-        <v>-0.2311543712701655</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="100" customHeight="1">
@@ -3667,13 +3975,13 @@
         <v>75</v>
       </c>
       <c r="D36">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E36">
         <v>0.49352</v>
       </c>
       <c r="F36">
-        <v>-0.3948748769913301</v>
+        <v>-0.2626596419205717</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="100" customHeight="1">
@@ -3684,13 +3992,13 @@
         <v>77</v>
       </c>
       <c r="D37">
-        <v>72.5</v>
+        <v>61.5</v>
       </c>
       <c r="E37">
         <v>0.49352</v>
       </c>
       <c r="F37">
-        <v>-0.4784185629834727</v>
+        <v>-0.2311543712701655</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="100" customHeight="1">
@@ -3701,13 +4009,13 @@
         <v>79</v>
       </c>
       <c r="D38">
-        <v>5.5</v>
+        <v>69</v>
       </c>
       <c r="E38">
-        <v>0.38805</v>
+        <v>0.49352</v>
       </c>
       <c r="F38">
-        <v>1.103556668584487</v>
+        <v>-0.3948748769913301</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="100" customHeight="1">
@@ -3718,13 +4026,13 @@
         <v>81</v>
       </c>
       <c r="D39">
-        <v>99.5</v>
+        <v>72.5</v>
       </c>
       <c r="E39">
         <v>0.49352</v>
       </c>
       <c r="F39">
-        <v>-2.61235179709804</v>
+        <v>-0.4784185629834727</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="100" customHeight="1">
@@ -3735,13 +4043,13 @@
         <v>83</v>
       </c>
       <c r="D40">
-        <v>36.5</v>
+        <v>5.5</v>
       </c>
       <c r="E40">
-        <v>0.49352</v>
+        <v>0.38805</v>
       </c>
       <c r="F40">
-        <v>0.2732756675134899</v>
+        <v>1.103556668584487</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="100" customHeight="1">
@@ -3752,13 +4060,13 @@
         <v>85</v>
       </c>
       <c r="D41">
-        <v>99</v>
+        <v>99.5</v>
       </c>
       <c r="E41">
         <v>0.49352</v>
       </c>
       <c r="F41">
-        <v>-2.26778354843842</v>
+        <v>-2.61235179709804</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="100" customHeight="1">
@@ -3769,13 +4077,13 @@
         <v>87</v>
       </c>
       <c r="D42">
-        <v>98.5</v>
+        <v>36.5</v>
       </c>
       <c r="E42">
         <v>0.49352</v>
       </c>
       <c r="F42">
-        <v>-2.065179567503288</v>
+        <v>0.2732756675134899</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="100" customHeight="1">
@@ -3786,13 +4094,13 @@
         <v>89</v>
       </c>
       <c r="D43">
-        <v>97.5</v>
+        <v>99</v>
       </c>
       <c r="E43">
         <v>0.49352</v>
       </c>
       <c r="F43">
-        <v>-1.808040943597905</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="100" customHeight="1">
@@ -3803,13 +4111,13 @@
         <v>91</v>
       </c>
       <c r="D44">
-        <v>93.5</v>
+        <v>98.5</v>
       </c>
       <c r="E44">
         <v>0.49352</v>
       </c>
       <c r="F44">
-        <v>-1.315802917695658</v>
+        <v>-2.065179567503288</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="100" customHeight="1">
@@ -3820,13 +4128,13 @@
         <v>93</v>
       </c>
       <c r="D45">
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="E45">
         <v>0.49352</v>
       </c>
       <c r="F45">
-        <v>-1.715524225407506</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="100" customHeight="1">
@@ -3837,13 +4145,13 @@
         <v>95</v>
       </c>
       <c r="D46">
-        <v>40</v>
+        <v>93.5</v>
       </c>
       <c r="E46">
         <v>0.49352</v>
       </c>
       <c r="F46">
-        <v>0.2001051401535413</v>
+        <v>-1.315802917695658</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="100" customHeight="1">
@@ -3854,13 +4162,13 @@
         <v>97</v>
       </c>
       <c r="D47">
-        <v>96.5</v>
+        <v>97</v>
       </c>
       <c r="E47">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F47">
-        <v>-1.801907092249079</v>
+        <v>-1.715524225407506</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="100" customHeight="1">
@@ -3871,13 +4179,13 @@
         <v>99</v>
       </c>
       <c r="D48">
-        <v>97.5</v>
+        <v>40</v>
       </c>
       <c r="E48">
         <v>0.49352</v>
       </c>
       <c r="F48">
-        <v>-1.808040943597905</v>
+        <v>0.2001051401535413</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="100" customHeight="1">
@@ -3888,13 +4196,13 @@
         <v>101</v>
       </c>
       <c r="D49">
-        <v>97</v>
+        <v>96.5</v>
       </c>
       <c r="E49">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F49">
-        <v>-1.715524225407506</v>
+        <v>-1.801907092249079</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="100" customHeight="1">
@@ -3905,13 +4213,13 @@
         <v>103</v>
       </c>
       <c r="D50">
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="E50">
         <v>0.49352</v>
       </c>
       <c r="F50">
-        <v>-1.715524225407506</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="100" customHeight="1">
@@ -3922,13 +4230,13 @@
         <v>105</v>
       </c>
       <c r="D51">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="E51">
         <v>0.49352</v>
       </c>
       <c r="F51">
-        <v>-0.2001051401535412</v>
+        <v>-1.715524225407506</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="100" customHeight="1">
@@ -3939,13 +4247,13 @@
         <v>107</v>
       </c>
       <c r="D52">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E52">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F52">
-        <v>-2.269203661219362</v>
+        <v>-1.715524225407506</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="100" customHeight="1">
@@ -3956,13 +4264,13 @@
         <v>109</v>
       </c>
       <c r="D53">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="E53">
         <v>0.49352</v>
       </c>
       <c r="F53">
-        <v>-2.26778354843842</v>
+        <v>-0.2001051401535412</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="100" customHeight="1">
@@ -3973,13 +4281,13 @@
         <v>111</v>
       </c>
       <c r="D54">
-        <v>2.5</v>
+        <v>98</v>
       </c>
       <c r="E54">
-        <v>0.54327</v>
+        <v>0.58307</v>
       </c>
       <c r="F54">
-        <v>1.990303135492853</v>
+        <v>-2.269203661219362</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="100" customHeight="1">
@@ -3990,13 +4298,13 @@
         <v>113</v>
       </c>
       <c r="D55">
-        <v>98.5</v>
+        <v>99</v>
       </c>
       <c r="E55">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F55">
-        <v>-2.273362991646765</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="100" customHeight="1">
@@ -4007,13 +4315,13 @@
         <v>115</v>
       </c>
       <c r="D56">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="E56">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F56">
-        <v>-2.496390760982615</v>
+        <v>1.141825110249225</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="100" customHeight="1">
@@ -4024,13 +4332,13 @@
         <v>117</v>
       </c>
       <c r="D57">
-        <v>96.5</v>
+        <v>95.5</v>
       </c>
       <c r="E57">
-        <v>0.54327</v>
+        <v>0.58307</v>
       </c>
       <c r="F57">
-        <v>-1.801907092249079</v>
+        <v>-1.781307333383719</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="100" customHeight="1">
@@ -4041,13 +4349,13 @@
         <v>119</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="E58">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F58">
-        <v>2.496390760982619</v>
+        <v>0.1796241929564407</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="100" customHeight="1">
@@ -4058,13 +4366,13 @@
         <v>121</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>42.5</v>
       </c>
       <c r="E59">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F59">
-        <v>2.496390760982619</v>
+        <v>0.1491816558867302</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="100" customHeight="1">
@@ -4075,13 +4383,13 @@
         <v>123</v>
       </c>
       <c r="D60">
-        <v>0.5</v>
+        <v>95.5</v>
       </c>
       <c r="E60">
-        <v>0.54327</v>
+        <v>0.58307</v>
       </c>
       <c r="F60">
-        <v>2.875693712128075</v>
+        <v>-1.781307333383719</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="100" customHeight="1">
@@ -4092,13 +4400,13 @@
         <v>125</v>
       </c>
       <c r="D61">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="E61">
         <v>0.54327</v>
       </c>
       <c r="F61">
-        <v>2.875693712128075</v>
+        <v>1.990303135492853</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="100" customHeight="1">
@@ -4109,12 +4417,131 @@
         <v>127</v>
       </c>
       <c r="D62">
-        <v>0.5</v>
+        <v>98.5</v>
       </c>
       <c r="E62">
         <v>0.54327</v>
       </c>
       <c r="F62">
+        <v>-2.273362991646765</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="100" customHeight="1">
+      <c r="A63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63">
+        <v>99</v>
+      </c>
+      <c r="E63">
+        <v>0.54327</v>
+      </c>
+      <c r="F63">
+        <v>-2.496390760982615</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="100" customHeight="1">
+      <c r="A64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64">
+        <v>96.5</v>
+      </c>
+      <c r="E64">
+        <v>0.54327</v>
+      </c>
+      <c r="F64">
+        <v>-1.801907092249079</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="100" customHeight="1">
+      <c r="A65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0.54327</v>
+      </c>
+      <c r="F65">
+        <v>2.496390760982619</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="100" customHeight="1">
+      <c r="A66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0.54327</v>
+      </c>
+      <c r="F66">
+        <v>2.496390760982619</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="100" customHeight="1">
+      <c r="A67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67">
+        <v>0.5</v>
+      </c>
+      <c r="E67">
+        <v>0.54327</v>
+      </c>
+      <c r="F67">
+        <v>2.875693712128075</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="100" customHeight="1">
+      <c r="A68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" t="s">
+        <v>139</v>
+      </c>
+      <c r="D68">
+        <v>0.5</v>
+      </c>
+      <c r="E68">
+        <v>0.54327</v>
+      </c>
+      <c r="F68">
+        <v>2.875693712128075</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="100" customHeight="1">
+      <c r="A69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" t="s">
+        <v>141</v>
+      </c>
+      <c r="D69">
+        <v>0.5</v>
+      </c>
+      <c r="E69">
+        <v>0.54327</v>
+      </c>
+      <c r="F69">
         <v>2.875693712128075</v>
       </c>
     </row>

--- a/arranged_dataset/DIP-chloride.xlsx
+++ b/arranged_dataset/DIP-chloride.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>smiles</t>
   </si>
@@ -106,12 +106,6 @@
     <t>XSAYZAUNJMRRIR-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>c1ncccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>WEGYGNROSJDEIW-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>s1cccc1C(=O)C</t>
   </si>
   <si>
@@ -298,12 +292,6 @@
     <t>IQZLUWLMQNGTIW-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>COc1cccc(OC)c1C(=O)C</t>
-  </si>
-  <si>
-    <t>XEUGKOFTNAYMMX-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>COc1ccc(OC)cc1C(=O)C</t>
   </si>
   <si>
@@ -350,12 +338,6 @@
   </si>
   <si>
     <t>YRNDGUSDBCARGC-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1cc([N+]([O-])=O)ccc1C(=O)CC</t>
-  </si>
-  <si>
-    <t>QHTSEJJUUBOESF-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>c1cc(Br)ccc1C(=O)CCCl</t>
@@ -2641,120 +2623,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="72399525"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Picture 59" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="73666350"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="Picture 60" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="74933175"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="Picture 61" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="76200000"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3052,7 +2920,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3293,13 +3161,13 @@
         <v>31</v>
       </c>
       <c r="D14">
-        <v>96.2</v>
+        <v>95.65000000000001</v>
       </c>
       <c r="E14">
         <v>0.49352</v>
       </c>
       <c r="F14">
-        <v>-1.594774490144373</v>
+        <v>-1.525233356759745</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="100" customHeight="1">
@@ -3310,13 +3178,13 @@
         <v>33</v>
       </c>
       <c r="D15">
-        <v>95.65000000000001</v>
+        <v>98</v>
       </c>
       <c r="E15">
         <v>0.49352</v>
       </c>
       <c r="F15">
-        <v>-1.525233356759745</v>
+        <v>-1.920691153523556</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="100" customHeight="1">
@@ -3327,13 +3195,13 @@
         <v>35</v>
       </c>
       <c r="D16">
-        <v>98</v>
+        <v>97.5</v>
       </c>
       <c r="E16">
-        <v>0.49352</v>
+        <v>0.59302</v>
       </c>
       <c r="F16">
-        <v>-1.920691153523556</v>
+        <v>-2.172565327387805</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="100" customHeight="1">
@@ -3344,13 +3212,13 @@
         <v>37</v>
       </c>
       <c r="D17">
-        <v>97.5</v>
+        <v>92</v>
       </c>
       <c r="E17">
         <v>0.59302</v>
       </c>
       <c r="F17">
-        <v>-2.172565327387805</v>
+        <v>-1.448360638914646</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="100" customHeight="1">
@@ -3361,13 +3229,13 @@
         <v>39</v>
       </c>
       <c r="D18">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E18">
         <v>0.59302</v>
       </c>
       <c r="F18">
-        <v>-1.448360638914646</v>
+        <v>-2.724997973526811</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="100" customHeight="1">
@@ -3378,13 +3246,13 @@
         <v>41</v>
       </c>
       <c r="D19">
-        <v>99</v>
+        <v>95.5</v>
       </c>
       <c r="E19">
         <v>0.59302</v>
       </c>
       <c r="F19">
-        <v>-2.724997973526811</v>
+        <v>-1.811705069448288</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="100" customHeight="1">
@@ -3395,13 +3263,13 @@
         <v>43</v>
       </c>
       <c r="D20">
-        <v>95.5</v>
+        <v>97.5</v>
       </c>
       <c r="E20">
         <v>0.59302</v>
       </c>
       <c r="F20">
-        <v>-1.811705069448288</v>
+        <v>-2.172565327387805</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="100" customHeight="1">
@@ -3412,13 +3280,13 @@
         <v>45</v>
       </c>
       <c r="D21">
-        <v>97.5</v>
+        <v>72.5</v>
       </c>
       <c r="E21">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="F21">
-        <v>-2.172565327387805</v>
+        <v>-0.4784185629834727</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="100" customHeight="1">
@@ -3429,13 +3297,13 @@
         <v>47</v>
       </c>
       <c r="D22">
-        <v>72.5</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>0.49352</v>
       </c>
       <c r="F22">
-        <v>-0.4784185629834727</v>
+        <v>0.8560603128551383</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="100" customHeight="1">
@@ -3446,13 +3314,13 @@
         <v>49</v>
       </c>
       <c r="D23">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E23">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F23">
-        <v>0.8560603128551383</v>
+        <v>-1.424059285912722</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="100" customHeight="1">
@@ -3463,13 +3331,13 @@
         <v>51</v>
       </c>
       <c r="D24">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="E24">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F24">
-        <v>-1.424059285912722</v>
+        <v>-0.3720014599087911</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="100" customHeight="1">
@@ -3480,13 +3348,13 @@
         <v>53</v>
       </c>
       <c r="D25">
-        <v>68</v>
+        <v>90.5</v>
       </c>
       <c r="E25">
         <v>0.49352</v>
       </c>
       <c r="F25">
-        <v>-0.3720014599087911</v>
+        <v>-1.112422729872088</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="100" customHeight="1">
@@ -3497,13 +3365,13 @@
         <v>55</v>
       </c>
       <c r="D26">
-        <v>90.5</v>
+        <v>39.5</v>
       </c>
       <c r="E26">
         <v>0.49352</v>
       </c>
       <c r="F26">
-        <v>-1.112422729872088</v>
+        <v>0.2104086459133793</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="100" customHeight="1">
@@ -3514,13 +3382,13 @@
         <v>57</v>
       </c>
       <c r="D27">
-        <v>39.5</v>
+        <v>7</v>
       </c>
       <c r="E27">
         <v>0.49352</v>
       </c>
       <c r="F27">
-        <v>0.2104086459133793</v>
+        <v>1.276582925099217</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="100" customHeight="1">
@@ -3531,13 +3399,13 @@
         <v>59</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>99.5</v>
       </c>
       <c r="E28">
         <v>0.49352</v>
       </c>
       <c r="F28">
-        <v>1.276582925099217</v>
+        <v>-2.61235179709804</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="100" customHeight="1">
@@ -3548,13 +3416,13 @@
         <v>61</v>
       </c>
       <c r="D29">
-        <v>99.5</v>
+        <v>98.5</v>
       </c>
       <c r="E29">
         <v>0.49352</v>
       </c>
       <c r="F29">
-        <v>-2.61235179709804</v>
+        <v>-2.065179567503288</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="100" customHeight="1">
@@ -3582,13 +3450,13 @@
         <v>65</v>
       </c>
       <c r="D31">
-        <v>98.5</v>
+        <v>99</v>
       </c>
       <c r="E31">
         <v>0.49352</v>
       </c>
       <c r="F31">
-        <v>-2.065179567503288</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="100" customHeight="1">
@@ -3616,13 +3484,13 @@
         <v>69</v>
       </c>
       <c r="D33">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="E33">
         <v>0.49352</v>
       </c>
       <c r="F33">
-        <v>-2.26778354843842</v>
+        <v>-0.2626596419205717</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="100" customHeight="1">
@@ -3633,13 +3501,13 @@
         <v>71</v>
       </c>
       <c r="D34">
-        <v>63</v>
+        <v>61.5</v>
       </c>
       <c r="E34">
         <v>0.49352</v>
       </c>
       <c r="F34">
-        <v>-0.2626596419205717</v>
+        <v>-0.2311543712701655</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="100" customHeight="1">
@@ -3650,13 +3518,13 @@
         <v>73</v>
       </c>
       <c r="D35">
-        <v>61.5</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>0.49352</v>
       </c>
       <c r="F35">
-        <v>-0.2311543712701655</v>
+        <v>-0.3948748769913301</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="100" customHeight="1">
@@ -3667,13 +3535,13 @@
         <v>75</v>
       </c>
       <c r="D36">
-        <v>69</v>
+        <v>72.5</v>
       </c>
       <c r="E36">
         <v>0.49352</v>
       </c>
       <c r="F36">
-        <v>-0.3948748769913301</v>
+        <v>-0.4784185629834727</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="100" customHeight="1">
@@ -3684,13 +3552,13 @@
         <v>77</v>
       </c>
       <c r="D37">
-        <v>72.5</v>
+        <v>5.5</v>
       </c>
       <c r="E37">
-        <v>0.49352</v>
+        <v>0.38805</v>
       </c>
       <c r="F37">
-        <v>-0.4784185629834727</v>
+        <v>1.103556668584487</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="100" customHeight="1">
@@ -3701,13 +3569,13 @@
         <v>79</v>
       </c>
       <c r="D38">
-        <v>5.5</v>
+        <v>99.5</v>
       </c>
       <c r="E38">
-        <v>0.38805</v>
+        <v>0.49352</v>
       </c>
       <c r="F38">
-        <v>1.103556668584487</v>
+        <v>-2.61235179709804</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="100" customHeight="1">
@@ -3718,13 +3586,13 @@
         <v>81</v>
       </c>
       <c r="D39">
-        <v>99.5</v>
+        <v>36.5</v>
       </c>
       <c r="E39">
         <v>0.49352</v>
       </c>
       <c r="F39">
-        <v>-2.61235179709804</v>
+        <v>0.2732756675134899</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="100" customHeight="1">
@@ -3735,13 +3603,13 @@
         <v>83</v>
       </c>
       <c r="D40">
-        <v>36.5</v>
+        <v>99</v>
       </c>
       <c r="E40">
         <v>0.49352</v>
       </c>
       <c r="F40">
-        <v>0.2732756675134899</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="100" customHeight="1">
@@ -3752,13 +3620,13 @@
         <v>85</v>
       </c>
       <c r="D41">
-        <v>99</v>
+        <v>98.5</v>
       </c>
       <c r="E41">
         <v>0.49352</v>
       </c>
       <c r="F41">
-        <v>-2.26778354843842</v>
+        <v>-2.065179567503288</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="100" customHeight="1">
@@ -3769,13 +3637,13 @@
         <v>87</v>
       </c>
       <c r="D42">
-        <v>98.5</v>
+        <v>97.5</v>
       </c>
       <c r="E42">
         <v>0.49352</v>
       </c>
       <c r="F42">
-        <v>-2.065179567503288</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="100" customHeight="1">
@@ -3786,13 +3654,13 @@
         <v>89</v>
       </c>
       <c r="D43">
-        <v>97.5</v>
+        <v>93.5</v>
       </c>
       <c r="E43">
         <v>0.49352</v>
       </c>
       <c r="F43">
-        <v>-1.808040943597905</v>
+        <v>-1.315802917695658</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="100" customHeight="1">
@@ -3803,13 +3671,13 @@
         <v>91</v>
       </c>
       <c r="D44">
-        <v>93.5</v>
+        <v>97</v>
       </c>
       <c r="E44">
         <v>0.49352</v>
       </c>
       <c r="F44">
-        <v>-1.315802917695658</v>
+        <v>-1.715524225407506</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="100" customHeight="1">
@@ -3820,13 +3688,13 @@
         <v>93</v>
       </c>
       <c r="D45">
-        <v>97</v>
+        <v>96.5</v>
       </c>
       <c r="E45">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F45">
-        <v>-1.715524225407506</v>
+        <v>-1.801907092249079</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="100" customHeight="1">
@@ -3837,13 +3705,13 @@
         <v>95</v>
       </c>
       <c r="D46">
-        <v>40</v>
+        <v>97.5</v>
       </c>
       <c r="E46">
         <v>0.49352</v>
       </c>
       <c r="F46">
-        <v>0.2001051401535413</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="100" customHeight="1">
@@ -3854,13 +3722,13 @@
         <v>97</v>
       </c>
       <c r="D47">
-        <v>96.5</v>
+        <v>97</v>
       </c>
       <c r="E47">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F47">
-        <v>-1.801907092249079</v>
+        <v>-1.715524225407506</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="100" customHeight="1">
@@ -3871,13 +3739,13 @@
         <v>99</v>
       </c>
       <c r="D48">
-        <v>97.5</v>
+        <v>97</v>
       </c>
       <c r="E48">
         <v>0.49352</v>
       </c>
       <c r="F48">
-        <v>-1.808040943597905</v>
+        <v>-1.715524225407506</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="100" customHeight="1">
@@ -3888,13 +3756,13 @@
         <v>101</v>
       </c>
       <c r="D49">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="E49">
         <v>0.49352</v>
       </c>
       <c r="F49">
-        <v>-1.715524225407506</v>
+        <v>-0.2001051401535412</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="100" customHeight="1">
@@ -3905,13 +3773,13 @@
         <v>103</v>
       </c>
       <c r="D50">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E50">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F50">
-        <v>-1.715524225407506</v>
+        <v>-2.269203661219362</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="100" customHeight="1">
@@ -3922,13 +3790,13 @@
         <v>105</v>
       </c>
       <c r="D51">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="E51">
         <v>0.49352</v>
       </c>
       <c r="F51">
-        <v>-0.2001051401535412</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="100" customHeight="1">
@@ -3939,13 +3807,13 @@
         <v>107</v>
       </c>
       <c r="D52">
-        <v>98</v>
+        <v>2.5</v>
       </c>
       <c r="E52">
-        <v>0.58307</v>
+        <v>0.54327</v>
       </c>
       <c r="F52">
-        <v>-2.269203661219362</v>
+        <v>1.990303135492853</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="100" customHeight="1">
@@ -3959,10 +3827,10 @@
         <v>99</v>
       </c>
       <c r="E53">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F53">
-        <v>-2.26778354843842</v>
+        <v>-2.496390760982615</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="100" customHeight="1">
@@ -3973,13 +3841,13 @@
         <v>111</v>
       </c>
       <c r="D54">
-        <v>2.5</v>
+        <v>96.5</v>
       </c>
       <c r="E54">
         <v>0.54327</v>
       </c>
       <c r="F54">
-        <v>1.990303135492853</v>
+        <v>-1.801907092249079</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="100" customHeight="1">
@@ -3990,13 +3858,13 @@
         <v>113</v>
       </c>
       <c r="D55">
-        <v>98.5</v>
+        <v>1</v>
       </c>
       <c r="E55">
         <v>0.54327</v>
       </c>
       <c r="F55">
-        <v>-2.273362991646765</v>
+        <v>2.496390760982619</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="100" customHeight="1">
@@ -4007,13 +3875,13 @@
         <v>115</v>
       </c>
       <c r="D56">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E56">
         <v>0.54327</v>
       </c>
       <c r="F56">
-        <v>-2.496390760982615</v>
+        <v>2.496390760982619</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="100" customHeight="1">
@@ -4024,13 +3892,13 @@
         <v>117</v>
       </c>
       <c r="D57">
-        <v>96.5</v>
+        <v>0.5</v>
       </c>
       <c r="E57">
         <v>0.54327</v>
       </c>
       <c r="F57">
-        <v>-1.801907092249079</v>
+        <v>2.875693712128075</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="100" customHeight="1">
@@ -4041,13 +3909,13 @@
         <v>119</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E58">
         <v>0.54327</v>
       </c>
       <c r="F58">
-        <v>2.496390760982619</v>
+        <v>2.875693712128075</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="100" customHeight="1">
@@ -4058,63 +3926,12 @@
         <v>121</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E59">
         <v>0.54327</v>
       </c>
       <c r="F59">
-        <v>2.496390760982619</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="100" customHeight="1">
-      <c r="A60" t="s">
-        <v>122</v>
-      </c>
-      <c r="C60" t="s">
-        <v>123</v>
-      </c>
-      <c r="D60">
-        <v>0.5</v>
-      </c>
-      <c r="E60">
-        <v>0.54327</v>
-      </c>
-      <c r="F60">
-        <v>2.875693712128075</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="100" customHeight="1">
-      <c r="A61" t="s">
-        <v>124</v>
-      </c>
-      <c r="C61" t="s">
-        <v>125</v>
-      </c>
-      <c r="D61">
-        <v>0.5</v>
-      </c>
-      <c r="E61">
-        <v>0.54327</v>
-      </c>
-      <c r="F61">
-        <v>2.875693712128075</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="100" customHeight="1">
-      <c r="A62" t="s">
-        <v>126</v>
-      </c>
-      <c r="C62" t="s">
-        <v>127</v>
-      </c>
-      <c r="D62">
-        <v>0.5</v>
-      </c>
-      <c r="E62">
-        <v>0.54327</v>
-      </c>
-      <c r="F62">
         <v>2.875693712128075</v>
       </c>
     </row>

--- a/arranged_dataset/DIP-chloride.xlsx
+++ b/arranged_dataset/DIP-chloride.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>smiles</t>
   </si>
@@ -292,6 +292,12 @@
     <t>IQZLUWLMQNGTIW-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>COc1cccc(OC)c1C(=O)C</t>
+  </si>
+  <si>
+    <t>XEUGKOFTNAYMMX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>COc1ccc(OC)cc1C(=O)C</t>
   </si>
   <si>
@@ -380,6 +386,36 @@
   </si>
   <si>
     <t>ZKJADHMQUMUECR-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C#CC(=O)C</t>
+  </si>
+  <si>
+    <t>XRGPFNGLRSIPSA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>c1ccccc1C#CC(=O)CC</t>
+  </si>
+  <si>
+    <t>XAJIQJSLJKBJTP-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>c1ccccc1C#CC(=O)C(C)C</t>
+  </si>
+  <si>
+    <t>AOOHPXMHKBITKB-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C1CCCCC1C#CC(=O)C(C)C</t>
+  </si>
+  <si>
+    <t>SCDHTAAYEHJTGD-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C1CCCCC1C#CC(=O)C(C)(C)C</t>
+  </si>
+  <si>
+    <t>MSRORZBOBVAASL-UHFFFAOYSA-N</t>
   </si>
 </sst>
 </file>
@@ -2623,6 +2659,234 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="72399525"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 59" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="73666350"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 60" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="74933175"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 61" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="76200000"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Picture 62" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="77466825"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 63" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="78733650"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 64" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="80000475"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2920,7 +3184,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2974,13 +3238,13 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>53.5</v>
+        <v>46.5</v>
       </c>
       <c r="E3">
         <v>0.49352</v>
       </c>
       <c r="F3">
-        <v>-0.06920598452264508</v>
+        <v>0.06920598452264501</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="100" customHeight="1">
@@ -3688,13 +3952,13 @@
         <v>93</v>
       </c>
       <c r="D45">
-        <v>96.5</v>
+        <v>40</v>
       </c>
       <c r="E45">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F45">
-        <v>-1.801907092249079</v>
+        <v>0.2001051401535413</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="100" customHeight="1">
@@ -3705,13 +3969,13 @@
         <v>95</v>
       </c>
       <c r="D46">
-        <v>97.5</v>
+        <v>96.5</v>
       </c>
       <c r="E46">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F46">
-        <v>-1.808040943597905</v>
+        <v>-1.801907092249079</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="100" customHeight="1">
@@ -3722,13 +3986,13 @@
         <v>97</v>
       </c>
       <c r="D47">
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="E47">
         <v>0.49352</v>
       </c>
       <c r="F47">
-        <v>-1.715524225407506</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="100" customHeight="1">
@@ -3756,13 +4020,13 @@
         <v>101</v>
       </c>
       <c r="D49">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="E49">
         <v>0.49352</v>
       </c>
       <c r="F49">
-        <v>-0.2001051401535412</v>
+        <v>-1.715524225407506</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="100" customHeight="1">
@@ -3773,13 +4037,13 @@
         <v>103</v>
       </c>
       <c r="D50">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="E50">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F50">
-        <v>-2.269203661219362</v>
+        <v>-0.2001051401535412</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="100" customHeight="1">
@@ -3790,13 +4054,13 @@
         <v>105</v>
       </c>
       <c r="D51">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E51">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F51">
-        <v>-2.26778354843842</v>
+        <v>-2.269203661219362</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="100" customHeight="1">
@@ -3807,13 +4071,13 @@
         <v>107</v>
       </c>
       <c r="D52">
-        <v>2.5</v>
+        <v>99</v>
       </c>
       <c r="E52">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F52">
-        <v>1.990303135492853</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="100" customHeight="1">
@@ -3824,13 +4088,13 @@
         <v>109</v>
       </c>
       <c r="D53">
-        <v>99</v>
+        <v>2.5</v>
       </c>
       <c r="E53">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F53">
-        <v>-2.496390760982615</v>
+        <v>1.808040943597903</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="100" customHeight="1">
@@ -3841,13 +4105,13 @@
         <v>111</v>
       </c>
       <c r="D54">
-        <v>96.5</v>
+        <v>99</v>
       </c>
       <c r="E54">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F54">
-        <v>-1.801907092249079</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="100" customHeight="1">
@@ -3858,13 +4122,13 @@
         <v>113</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>96.5</v>
       </c>
       <c r="E55">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F55">
-        <v>2.496390760982619</v>
+        <v>-1.636897285266562</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="100" customHeight="1">
@@ -3878,10 +4142,10 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F56">
-        <v>2.496390760982619</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="100" customHeight="1">
@@ -3892,13 +4156,13 @@
         <v>117</v>
       </c>
       <c r="D57">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F57">
-        <v>2.875693712128075</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="100" customHeight="1">
@@ -3912,10 +4176,10 @@
         <v>0.5</v>
       </c>
       <c r="E58">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F58">
-        <v>2.875693712128075</v>
+        <v>2.612351797098031</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="100" customHeight="1">
@@ -3929,10 +4193,112 @@
         <v>0.5</v>
       </c>
       <c r="E59">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F59">
-        <v>2.875693712128075</v>
+        <v>2.612351797098031</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="100" customHeight="1">
+      <c r="A60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60">
+        <v>0.5</v>
+      </c>
+      <c r="E60">
+        <v>0.49352</v>
+      </c>
+      <c r="F60">
+        <v>2.612351797098031</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="100" customHeight="1">
+      <c r="A61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61">
+        <v>41.5</v>
+      </c>
+      <c r="E61">
+        <v>0.49352</v>
+      </c>
+      <c r="F61">
+        <v>0.1694418635416117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="100" customHeight="1">
+      <c r="A62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" t="s">
+        <v>127</v>
+      </c>
+      <c r="D62">
+        <v>36</v>
+      </c>
+      <c r="E62">
+        <v>0.49352</v>
+      </c>
+      <c r="F62">
+        <v>0.2839537127928058</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="100" customHeight="1">
+      <c r="A63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63">
+        <v>23.5</v>
+      </c>
+      <c r="E63">
+        <v>0.49352</v>
+      </c>
+      <c r="F63">
+        <v>0.5824968785696466</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="100" customHeight="1">
+      <c r="A64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64">
+        <v>30.5</v>
+      </c>
+      <c r="E64">
+        <v>0.49352</v>
+      </c>
+      <c r="F64">
+        <v>0.4064631060318465</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="100" customHeight="1">
+      <c r="A65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65">
+        <v>1.5</v>
+      </c>
+      <c r="E65">
+        <v>0.58904</v>
+      </c>
+      <c r="F65">
+        <v>2.464891741858761</v>
       </c>
     </row>
   </sheetData>

--- a/arranged_dataset/DIP-chloride.xlsx
+++ b/arranged_dataset/DIP-chloride.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>smiles</t>
   </si>
@@ -290,12 +290,6 @@
   </si>
   <si>
     <t>IQZLUWLMQNGTIW-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc1cccc(OC)c1C(=O)C</t>
-  </si>
-  <si>
-    <t>XEUGKOFTNAYMMX-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>COc1ccc(OC)cc1C(=O)C</t>
@@ -2849,44 +2843,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="78733650"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="Picture 64" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="80000475"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3184,7 +3140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3952,13 +3908,13 @@
         <v>93</v>
       </c>
       <c r="D45">
-        <v>40</v>
+        <v>96.5</v>
       </c>
       <c r="E45">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F45">
-        <v>0.2001051401535413</v>
+        <v>-1.801907092249079</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="100" customHeight="1">
@@ -3969,13 +3925,13 @@
         <v>95</v>
       </c>
       <c r="D46">
-        <v>96.5</v>
+        <v>97.5</v>
       </c>
       <c r="E46">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F46">
-        <v>-1.801907092249079</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="100" customHeight="1">
@@ -3986,13 +3942,13 @@
         <v>97</v>
       </c>
       <c r="D47">
-        <v>97.5</v>
+        <v>97</v>
       </c>
       <c r="E47">
         <v>0.49352</v>
       </c>
       <c r="F47">
-        <v>-1.808040943597905</v>
+        <v>-1.715524225407506</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="100" customHeight="1">
@@ -4020,13 +3976,13 @@
         <v>101</v>
       </c>
       <c r="D49">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="E49">
         <v>0.49352</v>
       </c>
       <c r="F49">
-        <v>-1.715524225407506</v>
+        <v>-0.2001051401535412</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="100" customHeight="1">
@@ -4037,13 +3993,13 @@
         <v>103</v>
       </c>
       <c r="D50">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="E50">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F50">
-        <v>-0.2001051401535412</v>
+        <v>-2.269203661219362</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="100" customHeight="1">
@@ -4054,13 +4010,13 @@
         <v>105</v>
       </c>
       <c r="D51">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E51">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F51">
-        <v>-2.269203661219362</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="100" customHeight="1">
@@ -4071,13 +4027,13 @@
         <v>107</v>
       </c>
       <c r="D52">
-        <v>99</v>
+        <v>2.5</v>
       </c>
       <c r="E52">
         <v>0.49352</v>
       </c>
       <c r="F52">
-        <v>-2.26778354843842</v>
+        <v>1.808040943597903</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="100" customHeight="1">
@@ -4088,13 +4044,13 @@
         <v>109</v>
       </c>
       <c r="D53">
-        <v>2.5</v>
+        <v>99</v>
       </c>
       <c r="E53">
         <v>0.49352</v>
       </c>
       <c r="F53">
-        <v>1.808040943597903</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="100" customHeight="1">
@@ -4105,13 +4061,13 @@
         <v>111</v>
       </c>
       <c r="D54">
-        <v>99</v>
+        <v>96.5</v>
       </c>
       <c r="E54">
         <v>0.49352</v>
       </c>
       <c r="F54">
-        <v>-2.26778354843842</v>
+        <v>-1.636897285266562</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="100" customHeight="1">
@@ -4122,13 +4078,13 @@
         <v>113</v>
       </c>
       <c r="D55">
-        <v>96.5</v>
+        <v>1</v>
       </c>
       <c r="E55">
         <v>0.49352</v>
       </c>
       <c r="F55">
-        <v>-1.636897285266562</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="100" customHeight="1">
@@ -4156,13 +4112,13 @@
         <v>117</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E57">
         <v>0.49352</v>
       </c>
       <c r="F57">
-        <v>2.267783548438423</v>
+        <v>2.612351797098031</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="100" customHeight="1">
@@ -4207,13 +4163,13 @@
         <v>123</v>
       </c>
       <c r="D60">
-        <v>0.5</v>
+        <v>41.5</v>
       </c>
       <c r="E60">
         <v>0.49352</v>
       </c>
       <c r="F60">
-        <v>2.612351797098031</v>
+        <v>0.1694418635416117</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="100" customHeight="1">
@@ -4224,13 +4180,13 @@
         <v>125</v>
       </c>
       <c r="D61">
-        <v>41.5</v>
+        <v>36</v>
       </c>
       <c r="E61">
         <v>0.49352</v>
       </c>
       <c r="F61">
-        <v>0.1694418635416117</v>
+        <v>0.2839537127928058</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="100" customHeight="1">
@@ -4241,13 +4197,13 @@
         <v>127</v>
       </c>
       <c r="D62">
-        <v>36</v>
+        <v>23.5</v>
       </c>
       <c r="E62">
         <v>0.49352</v>
       </c>
       <c r="F62">
-        <v>0.2839537127928058</v>
+        <v>0.5824968785696466</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="100" customHeight="1">
@@ -4258,13 +4214,13 @@
         <v>129</v>
       </c>
       <c r="D63">
-        <v>23.5</v>
+        <v>30.5</v>
       </c>
       <c r="E63">
         <v>0.49352</v>
       </c>
       <c r="F63">
-        <v>0.5824968785696466</v>
+        <v>0.4064631060318465</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="100" customHeight="1">
@@ -4275,29 +4231,12 @@
         <v>131</v>
       </c>
       <c r="D64">
-        <v>30.5</v>
+        <v>1.5</v>
       </c>
       <c r="E64">
-        <v>0.49352</v>
+        <v>0.58904</v>
       </c>
       <c r="F64">
-        <v>0.4064631060318465</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="100" customHeight="1">
-      <c r="A65" t="s">
-        <v>132</v>
-      </c>
-      <c r="C65" t="s">
-        <v>133</v>
-      </c>
-      <c r="D65">
-        <v>1.5</v>
-      </c>
-      <c r="E65">
-        <v>0.58904</v>
-      </c>
-      <c r="F65">
         <v>2.464891741858761</v>
       </c>
     </row>

--- a/arranged_dataset/DIP-chloride.xlsx
+++ b/arranged_dataset/DIP-chloride.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
     <t>smiles</t>
   </si>
@@ -184,6 +184,12 @@
     <t>UPEUQDJSUFHFQP-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>ClCC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>IMACFCSSMIZSPP-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>BrCC(=O)c1ccccc1</t>
   </si>
   <si>
@@ -214,6 +220,12 @@
     <t>ADCYRBXQAJXJTD-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>ClCC(=O)c1c(Cl)cc(Cl)cc1</t>
+  </si>
+  <si>
+    <t>VYWPPRLJNVHPEU-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>c1cc(Br)ccc1c2cc(Cl)ccc2C(=O)CCC</t>
   </si>
   <si>
@@ -334,6 +346,36 @@
     <t>HXAOUYGZEOZTJO-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>ClC(Cl)C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>CERJZAHSUZVMCH-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>ClC(Cl)(Cl)C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>OAMHTTBNEJBIKA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>ClCC(=O)C</t>
+  </si>
+  <si>
+    <t>BULLHNJGPPOUOX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>ClC(Cl)C(=O)C</t>
+  </si>
+  <si>
+    <t>CSVFWMMPUJDVKH-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>ClC(Cl)(Cl)C(=O)C</t>
+  </si>
+  <si>
+    <t>SMZHKGXSEAGRTI-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>COCC(=O)c1ccccc1</t>
   </si>
   <si>
@@ -362,6 +404,18 @@
   </si>
   <si>
     <t>XVKCCRCIQKVMPK-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>c1ccccc1C(C)(C)C(=O)C#CCCCCCCCC</t>
+  </si>
+  <si>
+    <t>HJPJVTHMENRJQA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCCCCCCCC#CC(=O)C(C)(C)CC=C</t>
+  </si>
+  <si>
+    <t>TYGJBMAZCWFZFC-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>CCCCCCCCC#CC(=O)C(C)(C)CCC</t>
@@ -2843,6 +2897,348 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="78733650"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 64" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="80000475"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Picture 65" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="81267300"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 66" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="82534125"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 67" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="83800950"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Picture 68" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="85067775"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Picture 69" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="86334600"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Picture 70" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="87601425"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Picture 71" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="88868250"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Picture 72" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="90135075"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3140,7 +3536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3602,13 +3998,13 @@
         <v>57</v>
       </c>
       <c r="D27">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>0.49352</v>
       </c>
       <c r="F27">
-        <v>1.276582925099217</v>
+        <v>1.920691153523556</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="100" customHeight="1">
@@ -3619,13 +4015,13 @@
         <v>59</v>
       </c>
       <c r="D28">
-        <v>99.5</v>
+        <v>7</v>
       </c>
       <c r="E28">
         <v>0.49352</v>
       </c>
       <c r="F28">
-        <v>-2.61235179709804</v>
+        <v>1.276582925099217</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="100" customHeight="1">
@@ -3636,13 +4032,13 @@
         <v>61</v>
       </c>
       <c r="D29">
-        <v>98.5</v>
+        <v>99.5</v>
       </c>
       <c r="E29">
         <v>0.49352</v>
       </c>
       <c r="F29">
-        <v>-2.065179567503288</v>
+        <v>-2.61235179709804</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="100" customHeight="1">
@@ -3670,13 +4066,13 @@
         <v>65</v>
       </c>
       <c r="D31">
-        <v>99</v>
+        <v>98.5</v>
       </c>
       <c r="E31">
         <v>0.49352</v>
       </c>
       <c r="F31">
-        <v>-2.26778354843842</v>
+        <v>-2.065179567503288</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="100" customHeight="1">
@@ -3704,13 +4100,13 @@
         <v>69</v>
       </c>
       <c r="D33">
-        <v>63</v>
+        <v>3.5</v>
       </c>
       <c r="E33">
         <v>0.49352</v>
       </c>
       <c r="F33">
-        <v>-0.2626596419205717</v>
+        <v>1.636897285266561</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="100" customHeight="1">
@@ -3721,13 +4117,13 @@
         <v>71</v>
       </c>
       <c r="D34">
-        <v>61.5</v>
+        <v>99</v>
       </c>
       <c r="E34">
         <v>0.49352</v>
       </c>
       <c r="F34">
-        <v>-0.2311543712701655</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="100" customHeight="1">
@@ -3738,13 +4134,13 @@
         <v>73</v>
       </c>
       <c r="D35">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E35">
         <v>0.49352</v>
       </c>
       <c r="F35">
-        <v>-0.3948748769913301</v>
+        <v>-0.2626596419205717</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="100" customHeight="1">
@@ -3755,13 +4151,13 @@
         <v>75</v>
       </c>
       <c r="D36">
-        <v>72.5</v>
+        <v>61.5</v>
       </c>
       <c r="E36">
         <v>0.49352</v>
       </c>
       <c r="F36">
-        <v>-0.4784185629834727</v>
+        <v>-0.2311543712701655</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="100" customHeight="1">
@@ -3772,13 +4168,13 @@
         <v>77</v>
       </c>
       <c r="D37">
-        <v>5.5</v>
+        <v>69</v>
       </c>
       <c r="E37">
-        <v>0.38805</v>
+        <v>0.49352</v>
       </c>
       <c r="F37">
-        <v>1.103556668584487</v>
+        <v>-0.3948748769913301</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="100" customHeight="1">
@@ -3789,13 +4185,13 @@
         <v>79</v>
       </c>
       <c r="D38">
-        <v>99.5</v>
+        <v>72.5</v>
       </c>
       <c r="E38">
         <v>0.49352</v>
       </c>
       <c r="F38">
-        <v>-2.61235179709804</v>
+        <v>-0.4784185629834727</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="100" customHeight="1">
@@ -3806,13 +4202,13 @@
         <v>81</v>
       </c>
       <c r="D39">
-        <v>36.5</v>
+        <v>5.5</v>
       </c>
       <c r="E39">
-        <v>0.49352</v>
+        <v>0.38805</v>
       </c>
       <c r="F39">
-        <v>0.2732756675134899</v>
+        <v>1.103556668584487</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="100" customHeight="1">
@@ -3823,13 +4219,13 @@
         <v>83</v>
       </c>
       <c r="D40">
-        <v>99</v>
+        <v>99.5</v>
       </c>
       <c r="E40">
         <v>0.49352</v>
       </c>
       <c r="F40">
-        <v>-2.26778354843842</v>
+        <v>-2.61235179709804</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="100" customHeight="1">
@@ -3840,13 +4236,13 @@
         <v>85</v>
       </c>
       <c r="D41">
-        <v>98.5</v>
+        <v>36.5</v>
       </c>
       <c r="E41">
         <v>0.49352</v>
       </c>
       <c r="F41">
-        <v>-2.065179567503288</v>
+        <v>0.2732756675134899</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="100" customHeight="1">
@@ -3857,13 +4253,13 @@
         <v>87</v>
       </c>
       <c r="D42">
-        <v>97.5</v>
+        <v>99</v>
       </c>
       <c r="E42">
         <v>0.49352</v>
       </c>
       <c r="F42">
-        <v>-1.808040943597905</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="100" customHeight="1">
@@ -3874,13 +4270,13 @@
         <v>89</v>
       </c>
       <c r="D43">
-        <v>93.5</v>
+        <v>98.5</v>
       </c>
       <c r="E43">
         <v>0.49352</v>
       </c>
       <c r="F43">
-        <v>-1.315802917695658</v>
+        <v>-2.065179567503288</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="100" customHeight="1">
@@ -3891,13 +4287,13 @@
         <v>91</v>
       </c>
       <c r="D44">
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="E44">
         <v>0.49352</v>
       </c>
       <c r="F44">
-        <v>-1.715524225407506</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="100" customHeight="1">
@@ -3908,13 +4304,13 @@
         <v>93</v>
       </c>
       <c r="D45">
-        <v>96.5</v>
+        <v>93.5</v>
       </c>
       <c r="E45">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F45">
-        <v>-1.801907092249079</v>
+        <v>-1.315802917695658</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="100" customHeight="1">
@@ -3925,13 +4321,13 @@
         <v>95</v>
       </c>
       <c r="D46">
-        <v>97.5</v>
+        <v>97</v>
       </c>
       <c r="E46">
         <v>0.49352</v>
       </c>
       <c r="F46">
-        <v>-1.808040943597905</v>
+        <v>-1.715524225407506</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="100" customHeight="1">
@@ -3942,13 +4338,13 @@
         <v>97</v>
       </c>
       <c r="D47">
-        <v>97</v>
+        <v>96.5</v>
       </c>
       <c r="E47">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F47">
-        <v>-1.715524225407506</v>
+        <v>-1.801907092249079</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="100" customHeight="1">
@@ -3959,13 +4355,13 @@
         <v>99</v>
       </c>
       <c r="D48">
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="E48">
         <v>0.49352</v>
       </c>
       <c r="F48">
-        <v>-1.715524225407506</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="100" customHeight="1">
@@ -3976,13 +4372,13 @@
         <v>101</v>
       </c>
       <c r="D49">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="E49">
         <v>0.49352</v>
       </c>
       <c r="F49">
-        <v>-0.2001051401535412</v>
+        <v>-1.715524225407506</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="100" customHeight="1">
@@ -3993,13 +4389,13 @@
         <v>103</v>
       </c>
       <c r="D50">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E50">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F50">
-        <v>-2.269203661219362</v>
+        <v>-1.715524225407506</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="100" customHeight="1">
@@ -4010,13 +4406,13 @@
         <v>105</v>
       </c>
       <c r="D51">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="E51">
         <v>0.49352</v>
       </c>
       <c r="F51">
-        <v>-2.26778354843842</v>
+        <v>-0.2001051401535412</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="100" customHeight="1">
@@ -4027,13 +4423,13 @@
         <v>107</v>
       </c>
       <c r="D52">
-        <v>2.5</v>
+        <v>98</v>
       </c>
       <c r="E52">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F52">
-        <v>1.808040943597903</v>
+        <v>-2.269203661219362</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="100" customHeight="1">
@@ -4061,13 +4457,13 @@
         <v>111</v>
       </c>
       <c r="D54">
-        <v>96.5</v>
+        <v>9</v>
       </c>
       <c r="E54">
         <v>0.49352</v>
       </c>
       <c r="F54">
-        <v>-1.636897285266562</v>
+        <v>1.141825110249225</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="100" customHeight="1">
@@ -4078,13 +4474,13 @@
         <v>113</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>95.5</v>
       </c>
       <c r="E55">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F55">
-        <v>2.267783548438423</v>
+        <v>-1.781307333383719</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="100" customHeight="1">
@@ -4095,13 +4491,13 @@
         <v>115</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="E56">
         <v>0.49352</v>
       </c>
       <c r="F56">
-        <v>2.267783548438423</v>
+        <v>0.1796241929564407</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="100" customHeight="1">
@@ -4112,13 +4508,13 @@
         <v>117</v>
       </c>
       <c r="D57">
-        <v>0.5</v>
+        <v>42.5</v>
       </c>
       <c r="E57">
         <v>0.49352</v>
       </c>
       <c r="F57">
-        <v>2.612351797098031</v>
+        <v>0.1491816558867302</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="100" customHeight="1">
@@ -4129,13 +4525,13 @@
         <v>119</v>
       </c>
       <c r="D58">
-        <v>0.5</v>
+        <v>95.5</v>
       </c>
       <c r="E58">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F58">
-        <v>2.612351797098031</v>
+        <v>-1.781307333383719</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="100" customHeight="1">
@@ -4146,13 +4542,13 @@
         <v>121</v>
       </c>
       <c r="D59">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="E59">
         <v>0.49352</v>
       </c>
       <c r="F59">
-        <v>2.612351797098031</v>
+        <v>1.808040943597903</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="100" customHeight="1">
@@ -4163,13 +4559,13 @@
         <v>123</v>
       </c>
       <c r="D60">
-        <v>41.5</v>
+        <v>99</v>
       </c>
       <c r="E60">
         <v>0.49352</v>
       </c>
       <c r="F60">
-        <v>0.1694418635416117</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="100" customHeight="1">
@@ -4180,13 +4576,13 @@
         <v>125</v>
       </c>
       <c r="D61">
-        <v>36</v>
+        <v>96.5</v>
       </c>
       <c r="E61">
         <v>0.49352</v>
       </c>
       <c r="F61">
-        <v>0.2839537127928058</v>
+        <v>-1.636897285266562</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="100" customHeight="1">
@@ -4197,13 +4593,13 @@
         <v>127</v>
       </c>
       <c r="D62">
-        <v>23.5</v>
+        <v>1</v>
       </c>
       <c r="E62">
         <v>0.49352</v>
       </c>
       <c r="F62">
-        <v>0.5824968785696466</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="100" customHeight="1">
@@ -4214,13 +4610,13 @@
         <v>129</v>
       </c>
       <c r="D63">
-        <v>30.5</v>
+        <v>1</v>
       </c>
       <c r="E63">
         <v>0.49352</v>
       </c>
       <c r="F63">
-        <v>0.4064631060318465</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="100" customHeight="1">
@@ -4231,12 +4627,165 @@
         <v>131</v>
       </c>
       <c r="D64">
+        <v>98.5</v>
+      </c>
+      <c r="E64">
+        <v>0.49352</v>
+      </c>
+      <c r="F64">
+        <v>-2.065179567503288</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="100" customHeight="1">
+      <c r="A65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>0.49352</v>
+      </c>
+      <c r="F65">
+        <v>1.920691153523556</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="100" customHeight="1">
+      <c r="A66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66">
+        <v>0.5</v>
+      </c>
+      <c r="E66">
+        <v>0.49352</v>
+      </c>
+      <c r="F66">
+        <v>2.612351797098031</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="100" customHeight="1">
+      <c r="A67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67">
+        <v>0.5</v>
+      </c>
+      <c r="E67">
+        <v>0.49352</v>
+      </c>
+      <c r="F67">
+        <v>2.612351797098031</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="100" customHeight="1">
+      <c r="A68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" t="s">
+        <v>139</v>
+      </c>
+      <c r="D68">
+        <v>0.5</v>
+      </c>
+      <c r="E68">
+        <v>0.49352</v>
+      </c>
+      <c r="F68">
+        <v>2.612351797098031</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="100" customHeight="1">
+      <c r="A69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" t="s">
+        <v>141</v>
+      </c>
+      <c r="D69">
+        <v>41.5</v>
+      </c>
+      <c r="E69">
+        <v>0.49352</v>
+      </c>
+      <c r="F69">
+        <v>0.1694418635416117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="100" customHeight="1">
+      <c r="A70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70">
+        <v>36</v>
+      </c>
+      <c r="E70">
+        <v>0.49352</v>
+      </c>
+      <c r="F70">
+        <v>0.2839537127928058</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="100" customHeight="1">
+      <c r="A71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71">
+        <v>23.5</v>
+      </c>
+      <c r="E71">
+        <v>0.49352</v>
+      </c>
+      <c r="F71">
+        <v>0.5824968785696466</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="100" customHeight="1">
+      <c r="A72" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" t="s">
+        <v>147</v>
+      </c>
+      <c r="D72">
+        <v>30.5</v>
+      </c>
+      <c r="E72">
+        <v>0.49352</v>
+      </c>
+      <c r="F72">
+        <v>0.4064631060318465</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="100" customHeight="1">
+      <c r="A73" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" t="s">
+        <v>149</v>
+      </c>
+      <c r="D73">
         <v>1.5</v>
       </c>
-      <c r="E64">
+      <c r="E73">
         <v>0.58904</v>
       </c>
-      <c r="F64">
+      <c r="F73">
         <v>2.464891741858761</v>
       </c>
     </row>

--- a/arranged_dataset/DIP-chloride.xlsx
+++ b/arranged_dataset/DIP-chloride.xlsx
@@ -46,6 +46,354 @@
     <t>ZPVFWPFBNIEHGJ-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>c1ccccc1C(=O)CC</t>
+  </si>
+  <si>
+    <t>KRIOVPPHQSLHCZ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>c1ccccc1C(=O)CCC</t>
+  </si>
+  <si>
+    <t>FFSAXUULYPJSKH-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>c1ccccc1C(=O)CCCCCCCCC</t>
+  </si>
+  <si>
+    <t>QQXJNLYVPPBERR-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>c1ccccc1C(=O)C(C)C</t>
+  </si>
+  <si>
+    <t>BSMGLVDZZMBWQB-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>c1ccccc1C(=O)C(C)(C)C</t>
+  </si>
+  <si>
+    <t>OECPUBRNDKXFDX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>c12ccccc1CCC2(=O)</t>
+  </si>
+  <si>
+    <t>QNXSIUBBGPHDDE-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>c12ccccc1CCCC2(=O)</t>
+  </si>
+  <si>
+    <t>XHLHPRDBBAGVEG-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>c1c2ccccc2ccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>XSAYZAUNJMRRIR-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>s1cccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>WYJOVVXUZNRJQY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCOC(=O)C(C)C(=O)C</t>
+  </si>
+  <si>
+    <t>FNENWZWNOPCZGK-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>BrCC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>LIGACIXOYTUXAW-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>c1cc(Br)ccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>WYECURVXVYPVAT-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>c1ccccc1C(=O)CCCl</t>
+  </si>
+  <si>
+    <t>KTJRGPZVSKWRTJ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>c1cc(Cl)ccc1C(=O)CC</t>
+  </si>
+  <si>
+    <t>ADCYRBXQAJXJTD-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>ClCC(=O)c1c(Cl)cc(Cl)cc1</t>
+  </si>
+  <si>
+    <t>VYWPPRLJNVHPEU-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>c1cc(Br)ccc1c2cc(Cl)ccc2C(=O)CCC</t>
+  </si>
+  <si>
+    <t>JGUYBMKIKPABSY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C1CCCCC1C(=O)C</t>
+  </si>
+  <si>
+    <t>RIFKADJTWUGDOV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C1CCCCC1C(=O)CC</t>
+  </si>
+  <si>
+    <t>AMHOPTNGSNYSBL-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C1CCCCC1C(=O)CCC</t>
+  </si>
+  <si>
+    <t>UYMHLXHLPQIDMA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C1CCCC1C(=O)C</t>
+  </si>
+  <si>
+    <t>LKENTYLPIUIMFG-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COC(=O)C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>YLHXLHGIAMFFBU-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCOC(=O)C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>QKLCQKPAECHXCQ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCOC(=O)C(=O)C</t>
+  </si>
+  <si>
+    <t>XXRCUYVCPSWGCC-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>c1ccccc1C(=O)CCC(=O)OCC</t>
+  </si>
+  <si>
+    <t>BRUOEHVDTAORQY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCOC(=O)CCC(=O)C</t>
+  </si>
+  <si>
+    <t>GMEONFUTDYJSNV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>c1ccccc1C(=O)CCCC(=O)OCC</t>
+  </si>
+  <si>
+    <t>XBYIXIAOQPIYHO-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COc1ccccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>DWPLEOPKBWNPQV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COc(c1)cccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>BAYUSCHCCGXLAY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COc(cc1)ccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>NTPLXRHDUXRPNE-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COc(c(OC)c1)ccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>IQZLUWLMQNGTIW-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COc1ccc(OC)cc1C(=O)C</t>
+  </si>
+  <si>
+    <t>FAXUIYJKGGUCBO-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COc1ccc(C)cc1C(=O)C</t>
+  </si>
+  <si>
+    <t>FHIOYMGCAXTUGF-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COc1ccc(F)cc1C(=O)C</t>
+  </si>
+  <si>
+    <t>CNVGMLMIQIPAFY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COc1c(Cl)cc(Cl)cc1C(=O)C</t>
+  </si>
+  <si>
+    <t>MLXBLQUBVDCARQ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COc1cc(OC)cc(C(=O)OC)c1C(=O)C</t>
+  </si>
+  <si>
+    <t>LUWXCCCGOWDRJL-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>c1ccccc1C2(c1ccccc1)C(=O)CCC2</t>
+  </si>
+  <si>
+    <t>CBOPQVXWIKRPKD-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>c1cc(F)ccc1C(=O)CCCCl</t>
+  </si>
+  <si>
+    <t>HXAOUYGZEOZTJO-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>ClC(Cl)C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>CERJZAHSUZVMCH-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>ClC(Cl)(Cl)C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>OAMHTTBNEJBIKA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>ClCC(=O)C</t>
+  </si>
+  <si>
+    <t>BULLHNJGPPOUOX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>ClC(Cl)C(=O)C</t>
+  </si>
+  <si>
+    <t>CSVFWMMPUJDVKH-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>ClC(Cl)(Cl)C(=O)C</t>
+  </si>
+  <si>
+    <t>SMZHKGXSEAGRTI-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COCC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>YRNDGUSDBCARGC-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>Brc1ccccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>PIMNFNXBTGPCIL-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>c1cc(Br)ccc1C(=O)CCCl</t>
+  </si>
+  <si>
+    <t>SYWQQEVHZPPLNQ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COc1ccc(OC)cc1C(=O)CC</t>
+  </si>
+  <si>
+    <t>DKVCHMQHUMLKPO-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(C)(C)C(=O)C</t>
+  </si>
+  <si>
+    <t>PJGSXYOJTGTZAV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(C(=O)OCC)(C)C(=O)C</t>
+  </si>
+  <si>
+    <t>NVAHZHOCRQCUBY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC1(C)C(=O)CCC1</t>
+  </si>
+  <si>
+    <t>FTGZMZBYOHMEPS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COC(=O)[C@@]1(C)C(=O)CCC1</t>
+  </si>
+  <si>
+    <t>TZHZMYGNHVTEFA-MRVPVSSYSA-N</t>
+  </si>
+  <si>
+    <t>CC1(C)C(=O)CCCC1</t>
+  </si>
+  <si>
+    <t>KNSPBSQWRKKAPI-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C1CCCC12C(=O)CCC2</t>
+  </si>
+  <si>
+    <t>QRYJGVNQNLCGGZ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCCCCCCCC#CC(=O)C(C)(C)C</t>
+  </si>
+  <si>
+    <t>XVKCCRCIQKVMPK-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>c1ccccc1C(C)(C)C(=O)C#CCCCCCCCC</t>
+  </si>
+  <si>
+    <t>HJPJVTHMENRJQA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCCCCCCCC#CC(=O)C(C)(C)CC=C</t>
+  </si>
+  <si>
+    <t>TYGJBMAZCWFZFC-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCCCCCCCC#CC(=O)C(C)(C)CCC</t>
+  </si>
+  <si>
+    <t>QRJXIADOTSHIRY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCCCCCCCC#CC(=O)C(C)(CC)CCC</t>
+  </si>
+  <si>
+    <t>MMUXSGDQWCOFKS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CCCCCCCCC#CC(=O)C(CC)(CC)CCC</t>
+  </si>
+  <si>
+    <t>ZKJADHMQUMUECR-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>CC(C)C(=O)C</t>
   </si>
   <si>
@@ -58,112 +406,16 @@
     <t>KWOLFJPFCHCOCG-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>c1ccccc1C(=O)CC</t>
-  </si>
-  <si>
-    <t>KRIOVPPHQSLHCZ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1ccccc1C(=O)CCC</t>
-  </si>
-  <si>
-    <t>FFSAXUULYPJSKH-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1ccccc1C(=O)CCCCCCCCC</t>
-  </si>
-  <si>
-    <t>QQXJNLYVPPBERR-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1ccccc1C(=O)C(C)C</t>
-  </si>
-  <si>
-    <t>BSMGLVDZZMBWQB-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1ccccc1C(=O)C(C)(C)C</t>
-  </si>
-  <si>
-    <t>OECPUBRNDKXFDX-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c12ccccc1CCC2(=O)</t>
-  </si>
-  <si>
-    <t>QNXSIUBBGPHDDE-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c12ccccc1CCCC2(=O)</t>
-  </si>
-  <si>
-    <t>XHLHPRDBBAGVEG-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1c2ccccc2ccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>XSAYZAUNJMRRIR-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>s1cccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>WYJOVVXUZNRJQY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc1ccc(OC)cc1C(=O)CC</t>
-  </si>
-  <si>
-    <t>DKVCHMQHUMLKPO-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CC(C)(C)C(=O)C</t>
-  </si>
-  <si>
-    <t>PJGSXYOJTGTZAV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCOC(=O)C(C)C(=O)C</t>
-  </si>
-  <si>
-    <t>FNENWZWNOPCZGK-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C1C(C)(C)CCC1</t>
-  </si>
-  <si>
-    <t>FTGZMZBYOHMEPS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C1C(C)(C)CCCC1</t>
-  </si>
-  <si>
-    <t>KNSPBSQWRKKAPI-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C1C2(CCCC2)CCC1</t>
-  </si>
-  <si>
-    <t>QRYJGVNQNLCGGZ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCOC(=O)C(=O)C</t>
-  </si>
-  <si>
-    <t>XXRCUYVCPSWGCC-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COC(=O)C(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>YLHXLHGIAMFFBU-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCOC(=O)C(C)(C)C(=O)C</t>
-  </si>
-  <si>
-    <t>NVAHZHOCRQCUBY-UHFFFAOYSA-N</t>
+    <t>ClCC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>IMACFCSSMIZSPP-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>c1ccccc1/C=C/C(=O)C</t>
+  </si>
+  <si>
+    <t>BWHOZHOGCMHOBV-BQYQJAHWSA-N</t>
   </si>
   <si>
     <t>O=C1C=CCCC1</t>
@@ -172,286 +424,34 @@
     <t>FWFSEYBSWVRWGL-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>c1ccccc1/C=C/C(=O)C</t>
-  </si>
-  <si>
-    <t>BWHOZHOGCMHOBV-BQYQJAHWSA-N</t>
-  </si>
-  <si>
     <t>c1ccccc1C#CC(=O)C</t>
   </si>
   <si>
     <t>UPEUQDJSUFHFQP-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>ClCC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>IMACFCSSMIZSPP-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>BrCC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>LIGACIXOYTUXAW-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>Brc1ccccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>PIMNFNXBTGPCIL-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1cc(Br)ccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>WYECURVXVYPVAT-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1ccccc1C(=O)CCCl</t>
-  </si>
-  <si>
-    <t>KTJRGPZVSKWRTJ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1cc(Cl)ccc1C(=O)CC</t>
-  </si>
-  <si>
-    <t>ADCYRBXQAJXJTD-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>ClCC(=O)c1c(Cl)cc(Cl)cc1</t>
-  </si>
-  <si>
-    <t>VYWPPRLJNVHPEU-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1cc(Br)ccc1c2cc(Cl)ccc2C(=O)CCC</t>
-  </si>
-  <si>
-    <t>JGUYBMKIKPABSY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C1CCCCC1C(=O)C</t>
-  </si>
-  <si>
-    <t>RIFKADJTWUGDOV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C1CCCCC1C(=O)CC</t>
-  </si>
-  <si>
-    <t>AMHOPTNGSNYSBL-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C1CCCCC1C(=O)CCC</t>
-  </si>
-  <si>
-    <t>UYMHLXHLPQIDMA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C1CCCC1C(=O)C</t>
-  </si>
-  <si>
-    <t>LKENTYLPIUIMFG-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCOC(=O)C(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>QKLCQKPAECHXCQ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1ccccc1C(=O)CCC(=O)OCC</t>
-  </si>
-  <si>
-    <t>BRUOEHVDTAORQY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCOC(=O)CCC(=O)C</t>
-  </si>
-  <si>
-    <t>GMEONFUTDYJSNV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1ccccc1C(=O)CCCC(=O)OCC</t>
-  </si>
-  <si>
-    <t>XBYIXIAOQPIYHO-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc1ccccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>DWPLEOPKBWNPQV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc(c1)cccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>BAYUSCHCCGXLAY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc(cc1)ccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>NTPLXRHDUXRPNE-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc(c(OC)c1)ccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>IQZLUWLMQNGTIW-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc1ccc(OC)cc1C(=O)C</t>
-  </si>
-  <si>
-    <t>FAXUIYJKGGUCBO-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc1ccc(C)cc1C(=O)C</t>
-  </si>
-  <si>
-    <t>FHIOYMGCAXTUGF-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc1ccc(F)cc1C(=O)C</t>
-  </si>
-  <si>
-    <t>CNVGMLMIQIPAFY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc1c(Cl)cc(Cl)cc1C(=O)C</t>
-  </si>
-  <si>
-    <t>MLXBLQUBVDCARQ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc1cc(OC)cc(C(=O)OC)c1C(=O)C</t>
-  </si>
-  <si>
-    <t>LUWXCCCGOWDRJL-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1ccccc1C2(c1ccccc1)C(=O)CCC2</t>
-  </si>
-  <si>
-    <t>CBOPQVXWIKRPKD-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1cc(F)ccc1C(=O)CCCCl</t>
-  </si>
-  <si>
-    <t>HXAOUYGZEOZTJO-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>ClC(Cl)C(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>CERJZAHSUZVMCH-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>ClC(Cl)(Cl)C(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>OAMHTTBNEJBIKA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>ClCC(=O)C</t>
-  </si>
-  <si>
-    <t>BULLHNJGPPOUOX-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>ClC(Cl)C(=O)C</t>
-  </si>
-  <si>
-    <t>CSVFWMMPUJDVKH-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>ClC(Cl)(Cl)C(=O)C</t>
-  </si>
-  <si>
-    <t>SMZHKGXSEAGRTI-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COCC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>YRNDGUSDBCARGC-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1cc(Br)ccc1C(=O)CCCl</t>
-  </si>
-  <si>
-    <t>SYWQQEVHZPPLNQ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COC(=O)[C@@]1(C)C(=O)CCC1</t>
-  </si>
-  <si>
-    <t>TZHZMYGNHVTEFA-MRVPVSSYSA-N</t>
+    <t>C#CC(=O)C</t>
+  </si>
+  <si>
+    <t>XRGPFNGLRSIPSA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>c1ccccc1C#CC(=O)CC</t>
+  </si>
+  <si>
+    <t>XAJIQJSLJKBJTP-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>c1ccccc1C#CC(=O)C(C)C</t>
+  </si>
+  <si>
+    <t>AOOHPXMHKBITKB-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>c1ccccc1C#CC(=O)C(C)(C)C</t>
   </si>
   <si>
     <t>QXGIWMOPVOXYCX-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCCCCCCCC#CC(=O)C(C)(C)C</t>
-  </si>
-  <si>
-    <t>XVKCCRCIQKVMPK-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1ccccc1C(C)(C)C(=O)C#CCCCCCCCC</t>
-  </si>
-  <si>
-    <t>HJPJVTHMENRJQA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCCCCCCCC#CC(=O)C(C)(C)CC=C</t>
-  </si>
-  <si>
-    <t>TYGJBMAZCWFZFC-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCCCCCCCC#CC(=O)C(C)(C)CCC</t>
-  </si>
-  <si>
-    <t>QRJXIADOTSHIRY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCCCCCCCC#CC(=O)C(C)(CC)CCC</t>
-  </si>
-  <si>
-    <t>MMUXSGDQWCOFKS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>CCCCCCCCC#CC(=O)C(CC)(CC)CCC</t>
-  </si>
-  <si>
-    <t>ZKJADHMQUMUECR-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C#CC(=O)C</t>
-  </si>
-  <si>
-    <t>XRGPFNGLRSIPSA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1ccccc1C#CC(=O)CC</t>
-  </si>
-  <si>
-    <t>XAJIQJSLJKBJTP-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1ccccc1C#CC(=O)C(C)C</t>
-  </si>
-  <si>
-    <t>AOOHPXMHKBITKB-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>C1CCCCC1C#CC(=O)C(C)C</t>
@@ -3607,13 +3607,13 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>66</v>
+        <v>98.65000000000001</v>
       </c>
       <c r="E4">
         <v>0.49352</v>
       </c>
       <c r="F4">
-        <v>-0.3273489621763136</v>
+        <v>-2.117928070821831</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="100" customHeight="1">
@@ -3624,13 +3624,13 @@
         <v>13</v>
       </c>
       <c r="D5">
-        <v>98.7</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E5">
         <v>0.49352</v>
       </c>
       <c r="F5">
-        <v>-2.136803750966791</v>
+        <v>-2.320279323575567</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="100" customHeight="1">
@@ -3641,13 +3641,13 @@
         <v>15</v>
       </c>
       <c r="D6">
-        <v>98.65000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="E6">
         <v>0.49352</v>
       </c>
       <c r="F6">
-        <v>-2.117928070821831</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="100" customHeight="1">
@@ -3658,13 +3658,13 @@
         <v>17</v>
       </c>
       <c r="D7">
-        <v>99.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="E7">
         <v>0.49352</v>
       </c>
       <c r="F7">
-        <v>-2.320279323575567</v>
+        <v>-1.453139524998222</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="100" customHeight="1">
@@ -3675,13 +3675,13 @@
         <v>19</v>
       </c>
       <c r="D8">
-        <v>97.5</v>
+        <v>10.35</v>
       </c>
       <c r="E8">
         <v>0.49352</v>
       </c>
       <c r="F8">
-        <v>-1.808040943597905</v>
+        <v>1.06547349528128</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="100" customHeight="1">
@@ -3692,13 +3692,13 @@
         <v>21</v>
       </c>
       <c r="D9">
-        <v>95</v>
+        <v>98.7</v>
       </c>
       <c r="E9">
         <v>0.49352</v>
       </c>
       <c r="F9">
-        <v>-1.453139524998222</v>
+        <v>-2.136803750966791</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="100" customHeight="1">
@@ -3709,13 +3709,13 @@
         <v>23</v>
       </c>
       <c r="D10">
-        <v>10.35</v>
+        <v>93.7</v>
       </c>
       <c r="E10">
         <v>0.49352</v>
       </c>
       <c r="F10">
-        <v>1.06547349528128</v>
+        <v>-1.332281203281558</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="100" customHeight="1">
@@ -3726,13 +3726,13 @@
         <v>25</v>
       </c>
       <c r="D11">
-        <v>98.7</v>
+        <v>99.05</v>
       </c>
       <c r="E11">
         <v>0.49352</v>
       </c>
       <c r="F11">
-        <v>-2.136803750966791</v>
+        <v>-2.293347004688449</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="100" customHeight="1">
@@ -3743,13 +3743,13 @@
         <v>27</v>
       </c>
       <c r="D12">
-        <v>93.7</v>
+        <v>95.65000000000001</v>
       </c>
       <c r="E12">
         <v>0.49352</v>
       </c>
       <c r="F12">
-        <v>-1.332281203281558</v>
+        <v>-1.525233356759745</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="100" customHeight="1">
@@ -3760,13 +3760,13 @@
         <v>29</v>
       </c>
       <c r="D13">
-        <v>99.05</v>
+        <v>92</v>
       </c>
       <c r="E13">
-        <v>0.49352</v>
+        <v>0.59302</v>
       </c>
       <c r="F13">
-        <v>-2.293347004688449</v>
+        <v>-1.448360638914646</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="100" customHeight="1">
@@ -3777,13 +3777,13 @@
         <v>31</v>
       </c>
       <c r="D14">
-        <v>95.65000000000001</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <v>0.49352</v>
       </c>
       <c r="F14">
-        <v>-1.525233356759745</v>
+        <v>1.276582925099217</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="100" customHeight="1">
@@ -3794,13 +3794,13 @@
         <v>33</v>
       </c>
       <c r="D15">
-        <v>98</v>
+        <v>98.5</v>
       </c>
       <c r="E15">
         <v>0.49352</v>
       </c>
       <c r="F15">
-        <v>-1.920691153523556</v>
+        <v>-2.065179567503288</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="100" customHeight="1">
@@ -3811,13 +3811,13 @@
         <v>35</v>
       </c>
       <c r="D16">
-        <v>97.5</v>
+        <v>98.5</v>
       </c>
       <c r="E16">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="F16">
-        <v>-2.172565327387805</v>
+        <v>-2.065179567503288</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="100" customHeight="1">
@@ -3828,13 +3828,13 @@
         <v>37</v>
       </c>
       <c r="D17">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E17">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="F17">
-        <v>-1.448360638914646</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="100" customHeight="1">
@@ -3845,13 +3845,13 @@
         <v>39</v>
       </c>
       <c r="D18">
-        <v>99</v>
+        <v>3.5</v>
       </c>
       <c r="E18">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="F18">
-        <v>-2.724997973526811</v>
+        <v>1.636897285266561</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="100" customHeight="1">
@@ -3862,13 +3862,13 @@
         <v>41</v>
       </c>
       <c r="D19">
-        <v>95.5</v>
+        <v>99</v>
       </c>
       <c r="E19">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="F19">
-        <v>-1.811705069448288</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="100" customHeight="1">
@@ -3879,13 +3879,13 @@
         <v>43</v>
       </c>
       <c r="D20">
-        <v>97.5</v>
+        <v>63</v>
       </c>
       <c r="E20">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="F20">
-        <v>-2.172565327387805</v>
+        <v>-0.2626596419205717</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="100" customHeight="1">
@@ -3896,13 +3896,13 @@
         <v>45</v>
       </c>
       <c r="D21">
-        <v>72.5</v>
+        <v>61.5</v>
       </c>
       <c r="E21">
         <v>0.49352</v>
       </c>
       <c r="F21">
-        <v>-0.4784185629834727</v>
+        <v>-0.2311543712701655</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="100" customHeight="1">
@@ -3913,13 +3913,13 @@
         <v>47</v>
       </c>
       <c r="D22">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E22">
         <v>0.49352</v>
       </c>
       <c r="F22">
-        <v>0.8560603128551383</v>
+        <v>-0.3948748769913301</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="100" customHeight="1">
@@ -3930,13 +3930,13 @@
         <v>49</v>
       </c>
       <c r="D23">
-        <v>92</v>
+        <v>72.5</v>
       </c>
       <c r="E23">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F23">
-        <v>-1.424059285912722</v>
+        <v>-0.4784185629834727</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="100" customHeight="1">
@@ -3947,13 +3947,13 @@
         <v>51</v>
       </c>
       <c r="D24">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="E24">
-        <v>0.49352</v>
+        <v>0.38805</v>
       </c>
       <c r="F24">
-        <v>-0.3720014599087911</v>
+        <v>1.23324378886652</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="100" customHeight="1">
@@ -3964,13 +3964,13 @@
         <v>53</v>
       </c>
       <c r="D25">
-        <v>90.5</v>
+        <v>5.5</v>
       </c>
       <c r="E25">
-        <v>0.49352</v>
+        <v>0.38805</v>
       </c>
       <c r="F25">
-        <v>-1.112422729872088</v>
+        <v>1.103556668584487</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="100" customHeight="1">
@@ -3981,13 +3981,13 @@
         <v>55</v>
       </c>
       <c r="D26">
-        <v>39.5</v>
+        <v>91</v>
       </c>
       <c r="E26">
-        <v>0.49352</v>
+        <v>0.38805</v>
       </c>
       <c r="F26">
-        <v>0.2104086459133793</v>
+        <v>-0.8978060342685433</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="100" customHeight="1">
@@ -3998,13 +3998,13 @@
         <v>57</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>99.5</v>
       </c>
       <c r="E27">
         <v>0.49352</v>
       </c>
       <c r="F27">
-        <v>1.920691153523556</v>
+        <v>-2.61235179709804</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="100" customHeight="1">
@@ -4015,13 +4015,13 @@
         <v>59</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>36.5</v>
       </c>
       <c r="E28">
         <v>0.49352</v>
       </c>
       <c r="F28">
-        <v>1.276582925099217</v>
+        <v>0.2732756675134899</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="100" customHeight="1">
@@ -4032,13 +4032,13 @@
         <v>61</v>
       </c>
       <c r="D29">
-        <v>99.5</v>
+        <v>99</v>
       </c>
       <c r="E29">
         <v>0.49352</v>
       </c>
       <c r="F29">
-        <v>-2.61235179709804</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="100" customHeight="1">
@@ -4066,13 +4066,13 @@
         <v>65</v>
       </c>
       <c r="D31">
-        <v>98.5</v>
+        <v>97.5</v>
       </c>
       <c r="E31">
         <v>0.49352</v>
       </c>
       <c r="F31">
-        <v>-2.065179567503288</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="100" customHeight="1">
@@ -4083,13 +4083,13 @@
         <v>67</v>
       </c>
       <c r="D32">
-        <v>99</v>
+        <v>93.5</v>
       </c>
       <c r="E32">
         <v>0.49352</v>
       </c>
       <c r="F32">
-        <v>-2.26778354843842</v>
+        <v>-1.315802917695658</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="100" customHeight="1">
@@ -4100,13 +4100,13 @@
         <v>69</v>
       </c>
       <c r="D33">
-        <v>3.5</v>
+        <v>97</v>
       </c>
       <c r="E33">
         <v>0.49352</v>
       </c>
       <c r="F33">
-        <v>1.636897285266561</v>
+        <v>-1.715524225407506</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="100" customHeight="1">
@@ -4117,13 +4117,13 @@
         <v>71</v>
       </c>
       <c r="D34">
-        <v>99</v>
+        <v>96.5</v>
       </c>
       <c r="E34">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F34">
-        <v>-2.26778354843842</v>
+        <v>-1.801907092249079</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="100" customHeight="1">
@@ -4134,13 +4134,13 @@
         <v>73</v>
       </c>
       <c r="D35">
-        <v>63</v>
+        <v>97.5</v>
       </c>
       <c r="E35">
         <v>0.49352</v>
       </c>
       <c r="F35">
-        <v>-0.2626596419205717</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="100" customHeight="1">
@@ -4151,13 +4151,13 @@
         <v>75</v>
       </c>
       <c r="D36">
-        <v>61.5</v>
+        <v>97</v>
       </c>
       <c r="E36">
         <v>0.49352</v>
       </c>
       <c r="F36">
-        <v>-0.2311543712701655</v>
+        <v>-1.715524225407506</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="100" customHeight="1">
@@ -4168,13 +4168,13 @@
         <v>77</v>
       </c>
       <c r="D37">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="E37">
         <v>0.49352</v>
       </c>
       <c r="F37">
-        <v>-0.3948748769913301</v>
+        <v>-1.715524225407506</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="100" customHeight="1">
@@ -4185,13 +4185,13 @@
         <v>79</v>
       </c>
       <c r="D38">
-        <v>72.5</v>
+        <v>60</v>
       </c>
       <c r="E38">
         <v>0.49352</v>
       </c>
       <c r="F38">
-        <v>-0.4784185629834727</v>
+        <v>-0.2001051401535412</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="100" customHeight="1">
@@ -4202,13 +4202,13 @@
         <v>81</v>
       </c>
       <c r="D39">
-        <v>5.5</v>
+        <v>98</v>
       </c>
       <c r="E39">
-        <v>0.38805</v>
+        <v>0.58307</v>
       </c>
       <c r="F39">
-        <v>1.103556668584487</v>
+        <v>-2.269203661219362</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="100" customHeight="1">
@@ -4219,13 +4219,13 @@
         <v>83</v>
       </c>
       <c r="D40">
-        <v>99.5</v>
+        <v>99</v>
       </c>
       <c r="E40">
         <v>0.49352</v>
       </c>
       <c r="F40">
-        <v>-2.61235179709804</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="100" customHeight="1">
@@ -4236,13 +4236,13 @@
         <v>85</v>
       </c>
       <c r="D41">
-        <v>36.5</v>
+        <v>9</v>
       </c>
       <c r="E41">
         <v>0.49352</v>
       </c>
       <c r="F41">
-        <v>0.2732756675134899</v>
+        <v>1.141825110249225</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="100" customHeight="1">
@@ -4253,13 +4253,13 @@
         <v>87</v>
       </c>
       <c r="D42">
-        <v>99</v>
+        <v>95.5</v>
       </c>
       <c r="E42">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F42">
-        <v>-2.26778354843842</v>
+        <v>-1.781307333383719</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="100" customHeight="1">
@@ -4270,13 +4270,13 @@
         <v>89</v>
       </c>
       <c r="D43">
-        <v>98.5</v>
+        <v>41</v>
       </c>
       <c r="E43">
         <v>0.49352</v>
       </c>
       <c r="F43">
-        <v>-2.065179567503288</v>
+        <v>0.1796241929564407</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="100" customHeight="1">
@@ -4287,13 +4287,13 @@
         <v>91</v>
       </c>
       <c r="D44">
-        <v>97.5</v>
+        <v>42.5</v>
       </c>
       <c r="E44">
         <v>0.49352</v>
       </c>
       <c r="F44">
-        <v>-1.808040943597905</v>
+        <v>0.1491816558867302</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="100" customHeight="1">
@@ -4304,13 +4304,13 @@
         <v>93</v>
       </c>
       <c r="D45">
-        <v>93.5</v>
+        <v>95.5</v>
       </c>
       <c r="E45">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F45">
-        <v>-1.315802917695658</v>
+        <v>-1.781307333383719</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="100" customHeight="1">
@@ -4321,13 +4321,13 @@
         <v>95</v>
       </c>
       <c r="D46">
-        <v>97</v>
+        <v>2.5</v>
       </c>
       <c r="E46">
         <v>0.49352</v>
       </c>
       <c r="F46">
-        <v>-1.715524225407506</v>
+        <v>1.808040943597903</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="100" customHeight="1">
@@ -4338,13 +4338,13 @@
         <v>97</v>
       </c>
       <c r="D47">
-        <v>96.5</v>
+        <v>99.5</v>
       </c>
       <c r="E47">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F47">
-        <v>-1.801907092249079</v>
+        <v>-2.61235179709804</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="100" customHeight="1">
@@ -4355,13 +4355,13 @@
         <v>99</v>
       </c>
       <c r="D48">
-        <v>97.5</v>
+        <v>99</v>
       </c>
       <c r="E48">
         <v>0.49352</v>
       </c>
       <c r="F48">
-        <v>-1.808040943597905</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="100" customHeight="1">
@@ -4372,13 +4372,13 @@
         <v>101</v>
       </c>
       <c r="D49">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E49">
         <v>0.49352</v>
       </c>
       <c r="F49">
-        <v>-1.715524225407506</v>
+        <v>-1.920691153523556</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="100" customHeight="1">
@@ -4389,13 +4389,13 @@
         <v>103</v>
       </c>
       <c r="D50">
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="E50">
         <v>0.49352</v>
       </c>
       <c r="F50">
-        <v>-1.715524225407506</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="100" customHeight="1">
@@ -4406,13 +4406,13 @@
         <v>105</v>
       </c>
       <c r="D51">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="E51">
         <v>0.49352</v>
       </c>
       <c r="F51">
-        <v>-0.2001051401535412</v>
+        <v>-1.141825110249225</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="100" customHeight="1">
@@ -4423,13 +4423,13 @@
         <v>107</v>
       </c>
       <c r="D52">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E52">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F52">
-        <v>-2.269203661219362</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="100" customHeight="1">
@@ -4440,13 +4440,13 @@
         <v>109</v>
       </c>
       <c r="D53">
-        <v>99</v>
+        <v>96.5</v>
       </c>
       <c r="E53">
         <v>0.49352</v>
       </c>
       <c r="F53">
-        <v>-2.26778354843842</v>
+        <v>-1.636897285266562</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="100" customHeight="1">
@@ -4457,13 +4457,13 @@
         <v>111</v>
       </c>
       <c r="D54">
-        <v>9</v>
+        <v>95.5</v>
       </c>
       <c r="E54">
         <v>0.49352</v>
       </c>
       <c r="F54">
-        <v>1.141825110249225</v>
+        <v>-1.507727708802602</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="100" customHeight="1">
@@ -4474,13 +4474,13 @@
         <v>113</v>
       </c>
       <c r="D55">
-        <v>95.5</v>
+        <v>97.5</v>
       </c>
       <c r="E55">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F55">
-        <v>-1.781307333383719</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="100" customHeight="1">
@@ -4491,13 +4491,13 @@
         <v>115</v>
       </c>
       <c r="D56">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="E56">
         <v>0.49352</v>
       </c>
       <c r="F56">
-        <v>0.1796241929564407</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="100" customHeight="1">
@@ -4508,13 +4508,13 @@
         <v>117</v>
       </c>
       <c r="D57">
-        <v>42.5</v>
+        <v>98.5</v>
       </c>
       <c r="E57">
         <v>0.49352</v>
       </c>
       <c r="F57">
-        <v>0.1491816558867302</v>
+        <v>-2.065179567503288</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="100" customHeight="1">
@@ -4525,13 +4525,13 @@
         <v>119</v>
       </c>
       <c r="D58">
-        <v>95.5</v>
+        <v>2</v>
       </c>
       <c r="E58">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F58">
-        <v>-1.781307333383719</v>
+        <v>1.920691153523556</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="100" customHeight="1">
@@ -4542,13 +4542,13 @@
         <v>121</v>
       </c>
       <c r="D59">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="E59">
         <v>0.49352</v>
       </c>
       <c r="F59">
-        <v>1.808040943597903</v>
+        <v>2.612351797098031</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="100" customHeight="1">
@@ -4559,13 +4559,13 @@
         <v>123</v>
       </c>
       <c r="D60">
-        <v>99</v>
+        <v>0.5</v>
       </c>
       <c r="E60">
         <v>0.49352</v>
       </c>
       <c r="F60">
-        <v>-2.26778354843842</v>
+        <v>2.612351797098031</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="100" customHeight="1">
@@ -4576,13 +4576,13 @@
         <v>125</v>
       </c>
       <c r="D61">
-        <v>96.5</v>
+        <v>0.5</v>
       </c>
       <c r="E61">
         <v>0.49352</v>
       </c>
       <c r="F61">
-        <v>-1.636897285266562</v>
+        <v>2.612351797098031</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="100" customHeight="1">
@@ -4593,13 +4593,13 @@
         <v>127</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="E62">
         <v>0.49352</v>
       </c>
       <c r="F62">
-        <v>2.267783548438423</v>
+        <v>-0.3273489621763136</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="100" customHeight="1">
@@ -4610,13 +4610,13 @@
         <v>129</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E63">
         <v>0.49352</v>
       </c>
       <c r="F63">
-        <v>2.267783548438423</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="100" customHeight="1">
@@ -4627,13 +4627,13 @@
         <v>131</v>
       </c>
       <c r="D64">
-        <v>98.5</v>
+        <v>2.5</v>
       </c>
       <c r="E64">
         <v>0.49352</v>
       </c>
       <c r="F64">
-        <v>-2.065179567503288</v>
+        <v>1.808040943597903</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="100" customHeight="1">
@@ -4644,13 +4644,13 @@
         <v>133</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>90.5</v>
       </c>
       <c r="E65">
         <v>0.49352</v>
       </c>
       <c r="F65">
-        <v>1.920691153523556</v>
+        <v>-1.112422729872088</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="100" customHeight="1">
@@ -4661,13 +4661,13 @@
         <v>135</v>
       </c>
       <c r="D66">
-        <v>0.5</v>
+        <v>68</v>
       </c>
       <c r="E66">
         <v>0.49352</v>
       </c>
       <c r="F66">
-        <v>2.612351797098031</v>
+        <v>-0.3720014599087911</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="100" customHeight="1">
@@ -4678,13 +4678,13 @@
         <v>137</v>
       </c>
       <c r="D67">
-        <v>0.5</v>
+        <v>39.5</v>
       </c>
       <c r="E67">
         <v>0.49352</v>
       </c>
       <c r="F67">
-        <v>2.612351797098031</v>
+        <v>0.2104086459133793</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="100" customHeight="1">
@@ -4695,13 +4695,13 @@
         <v>139</v>
       </c>
       <c r="D68">
-        <v>0.5</v>
+        <v>41.5</v>
       </c>
       <c r="E68">
         <v>0.49352</v>
       </c>
       <c r="F68">
-        <v>2.612351797098031</v>
+        <v>0.1694418635416117</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="100" customHeight="1">
@@ -4712,13 +4712,13 @@
         <v>141</v>
       </c>
       <c r="D69">
-        <v>41.5</v>
+        <v>36</v>
       </c>
       <c r="E69">
         <v>0.49352</v>
       </c>
       <c r="F69">
-        <v>0.1694418635416117</v>
+        <v>0.2839537127928058</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="100" customHeight="1">
@@ -4729,13 +4729,13 @@
         <v>143</v>
       </c>
       <c r="D70">
-        <v>36</v>
+        <v>23.5</v>
       </c>
       <c r="E70">
         <v>0.49352</v>
       </c>
       <c r="F70">
-        <v>0.2839537127928058</v>
+        <v>0.5824968785696466</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="100" customHeight="1">
@@ -4746,13 +4746,13 @@
         <v>145</v>
       </c>
       <c r="D71">
-        <v>23.5</v>
+        <v>1</v>
       </c>
       <c r="E71">
-        <v>0.49352</v>
+        <v>0.58904</v>
       </c>
       <c r="F71">
-        <v>0.5824968785696466</v>
+        <v>2.706709396523279</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="100" customHeight="1">

--- a/arranged_dataset/DIP-chloride.xlsx
+++ b/arranged_dataset/DIP-chloride.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>smiles</t>
   </si>
@@ -106,12 +106,6 @@
     <t>FNENWZWNOPCZGK-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>BrCC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>LIGACIXOYTUXAW-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>c1cc(Br)ccc1C(=O)C</t>
   </si>
   <si>
@@ -130,12 +124,6 @@
     <t>ADCYRBXQAJXJTD-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>ClCC(=O)c1c(Cl)cc(Cl)cc1</t>
-  </si>
-  <si>
-    <t>VYWPPRLJNVHPEU-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>c1cc(Br)ccc1c2cc(Cl)ccc2C(=O)CCC</t>
   </si>
   <si>
@@ -226,6 +214,12 @@
     <t>IQZLUWLMQNGTIW-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>COc1cccc(OC)c1C(=O)C</t>
+  </si>
+  <si>
+    <t>XEUGKOFTNAYMMX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>COc1ccc(OC)cc1C(=O)C</t>
   </si>
   <si>
@@ -268,36 +262,6 @@
     <t>HXAOUYGZEOZTJO-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>ClC(Cl)C(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>CERJZAHSUZVMCH-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>ClC(Cl)(Cl)C(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>OAMHTTBNEJBIKA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>ClCC(=O)C</t>
-  </si>
-  <si>
-    <t>BULLHNJGPPOUOX-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>ClC(Cl)C(=O)C</t>
-  </si>
-  <si>
-    <t>CSVFWMMPUJDVKH-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>ClC(Cl)(Cl)C(=O)C</t>
-  </si>
-  <si>
-    <t>SMZHKGXSEAGRTI-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>COCC(=O)c1ccccc1</t>
   </si>
   <si>
@@ -404,12 +368,6 @@
   </si>
   <si>
     <t>KWOLFJPFCHCOCG-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>ClCC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>IMACFCSSMIZSPP-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>c1ccccc1/C=C/C(=O)C</t>
@@ -2973,272 +2931,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="81267300"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="Picture 66" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="82534125"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="Picture 67" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="83800950"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="Picture 68" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="85067775"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="Picture 69" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="86334600"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="Picture 70" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="87601425"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="Picture 71" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="88868250"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="Picture 72" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="90135075"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3536,7 +3228,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3777,13 +3469,13 @@
         <v>31</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>98.5</v>
       </c>
       <c r="E14">
         <v>0.49352</v>
       </c>
       <c r="F14">
-        <v>1.276582925099217</v>
+        <v>-2.065179567503288</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="100" customHeight="1">
@@ -3811,13 +3503,13 @@
         <v>35</v>
       </c>
       <c r="D16">
-        <v>98.5</v>
+        <v>99</v>
       </c>
       <c r="E16">
         <v>0.49352</v>
       </c>
       <c r="F16">
-        <v>-2.065179567503288</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="100" customHeight="1">
@@ -3845,13 +3537,13 @@
         <v>39</v>
       </c>
       <c r="D18">
-        <v>3.5</v>
+        <v>63</v>
       </c>
       <c r="E18">
         <v>0.49352</v>
       </c>
       <c r="F18">
-        <v>1.636897285266561</v>
+        <v>-0.2626596419205717</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="100" customHeight="1">
@@ -3862,13 +3554,13 @@
         <v>41</v>
       </c>
       <c r="D19">
-        <v>99</v>
+        <v>61.5</v>
       </c>
       <c r="E19">
         <v>0.49352</v>
       </c>
       <c r="F19">
-        <v>-2.26778354843842</v>
+        <v>-0.2311543712701655</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="100" customHeight="1">
@@ -3879,13 +3571,13 @@
         <v>43</v>
       </c>
       <c r="D20">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E20">
         <v>0.49352</v>
       </c>
       <c r="F20">
-        <v>-0.2626596419205717</v>
+        <v>-0.3948748769913301</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="100" customHeight="1">
@@ -3896,13 +3588,13 @@
         <v>45</v>
       </c>
       <c r="D21">
-        <v>61.5</v>
+        <v>72.5</v>
       </c>
       <c r="E21">
         <v>0.49352</v>
       </c>
       <c r="F21">
-        <v>-0.2311543712701655</v>
+        <v>-0.4784185629834727</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="100" customHeight="1">
@@ -3913,13 +3605,13 @@
         <v>47</v>
       </c>
       <c r="D22">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>0.49352</v>
+        <v>0.38805</v>
       </c>
       <c r="F22">
-        <v>-0.3948748769913301</v>
+        <v>1.23324378886652</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="100" customHeight="1">
@@ -3930,13 +3622,13 @@
         <v>49</v>
       </c>
       <c r="D23">
-        <v>72.5</v>
+        <v>5.5</v>
       </c>
       <c r="E23">
-        <v>0.49352</v>
+        <v>0.38805</v>
       </c>
       <c r="F23">
-        <v>-0.4784185629834727</v>
+        <v>1.103556668584487</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="100" customHeight="1">
@@ -3947,13 +3639,13 @@
         <v>51</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="E24">
         <v>0.38805</v>
       </c>
       <c r="F24">
-        <v>1.23324378886652</v>
+        <v>-0.8978060342685433</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="100" customHeight="1">
@@ -3964,13 +3656,13 @@
         <v>53</v>
       </c>
       <c r="D25">
-        <v>5.5</v>
+        <v>99.5</v>
       </c>
       <c r="E25">
-        <v>0.38805</v>
+        <v>0.49352</v>
       </c>
       <c r="F25">
-        <v>1.103556668584487</v>
+        <v>-2.61235179709804</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="100" customHeight="1">
@@ -3981,13 +3673,13 @@
         <v>55</v>
       </c>
       <c r="D26">
-        <v>91</v>
+        <v>36.5</v>
       </c>
       <c r="E26">
-        <v>0.38805</v>
+        <v>0.49352</v>
       </c>
       <c r="F26">
-        <v>-0.8978060342685433</v>
+        <v>0.2732756675134899</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="100" customHeight="1">
@@ -3998,13 +3690,13 @@
         <v>57</v>
       </c>
       <c r="D27">
-        <v>99.5</v>
+        <v>99</v>
       </c>
       <c r="E27">
         <v>0.49352</v>
       </c>
       <c r="F27">
-        <v>-2.61235179709804</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="100" customHeight="1">
@@ -4015,13 +3707,13 @@
         <v>59</v>
       </c>
       <c r="D28">
-        <v>36.5</v>
+        <v>98.5</v>
       </c>
       <c r="E28">
         <v>0.49352</v>
       </c>
       <c r="F28">
-        <v>0.2732756675134899</v>
+        <v>-2.065179567503288</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="100" customHeight="1">
@@ -4032,13 +3724,13 @@
         <v>61</v>
       </c>
       <c r="D29">
-        <v>99</v>
+        <v>97.5</v>
       </c>
       <c r="E29">
         <v>0.49352</v>
       </c>
       <c r="F29">
-        <v>-2.26778354843842</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="100" customHeight="1">
@@ -4049,13 +3741,13 @@
         <v>63</v>
       </c>
       <c r="D30">
-        <v>98.5</v>
+        <v>93.5</v>
       </c>
       <c r="E30">
         <v>0.49352</v>
       </c>
       <c r="F30">
-        <v>-2.065179567503288</v>
+        <v>-1.315802917695658</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="100" customHeight="1">
@@ -4066,13 +3758,13 @@
         <v>65</v>
       </c>
       <c r="D31">
-        <v>97.5</v>
+        <v>97</v>
       </c>
       <c r="E31">
         <v>0.49352</v>
       </c>
       <c r="F31">
-        <v>-1.808040943597905</v>
+        <v>-1.715524225407506</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="100" customHeight="1">
@@ -4083,13 +3775,13 @@
         <v>67</v>
       </c>
       <c r="D32">
-        <v>93.5</v>
+        <v>40</v>
       </c>
       <c r="E32">
         <v>0.49352</v>
       </c>
       <c r="F32">
-        <v>-1.315802917695658</v>
+        <v>0.2001051401535413</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="100" customHeight="1">
@@ -4100,13 +3792,13 @@
         <v>69</v>
       </c>
       <c r="D33">
-        <v>97</v>
+        <v>96.5</v>
       </c>
       <c r="E33">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F33">
-        <v>-1.715524225407506</v>
+        <v>-1.801907092249079</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="100" customHeight="1">
@@ -4117,13 +3809,13 @@
         <v>71</v>
       </c>
       <c r="D34">
-        <v>96.5</v>
+        <v>97.5</v>
       </c>
       <c r="E34">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F34">
-        <v>-1.801907092249079</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="100" customHeight="1">
@@ -4134,13 +3826,13 @@
         <v>73</v>
       </c>
       <c r="D35">
-        <v>97.5</v>
+        <v>97</v>
       </c>
       <c r="E35">
         <v>0.49352</v>
       </c>
       <c r="F35">
-        <v>-1.808040943597905</v>
+        <v>-1.715524225407506</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="100" customHeight="1">
@@ -4168,13 +3860,13 @@
         <v>77</v>
       </c>
       <c r="D37">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="E37">
         <v>0.49352</v>
       </c>
       <c r="F37">
-        <v>-1.715524225407506</v>
+        <v>-0.2001051401535412</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="100" customHeight="1">
@@ -4185,13 +3877,13 @@
         <v>79</v>
       </c>
       <c r="D38">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="E38">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F38">
-        <v>-0.2001051401535412</v>
+        <v>-2.269203661219362</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="100" customHeight="1">
@@ -4202,13 +3894,13 @@
         <v>81</v>
       </c>
       <c r="D39">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E39">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F39">
-        <v>-2.269203661219362</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="100" customHeight="1">
@@ -4219,13 +3911,13 @@
         <v>83</v>
       </c>
       <c r="D40">
-        <v>99</v>
+        <v>2.5</v>
       </c>
       <c r="E40">
         <v>0.49352</v>
       </c>
       <c r="F40">
-        <v>-2.26778354843842</v>
+        <v>1.808040943597903</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="100" customHeight="1">
@@ -4236,13 +3928,13 @@
         <v>85</v>
       </c>
       <c r="D41">
-        <v>9</v>
+        <v>99.5</v>
       </c>
       <c r="E41">
         <v>0.49352</v>
       </c>
       <c r="F41">
-        <v>1.141825110249225</v>
+        <v>-2.61235179709804</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="100" customHeight="1">
@@ -4253,13 +3945,13 @@
         <v>87</v>
       </c>
       <c r="D42">
-        <v>95.5</v>
+        <v>99</v>
       </c>
       <c r="E42">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F42">
-        <v>-1.781307333383719</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="100" customHeight="1">
@@ -4270,13 +3962,13 @@
         <v>89</v>
       </c>
       <c r="D43">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="E43">
         <v>0.49352</v>
       </c>
       <c r="F43">
-        <v>0.1796241929564407</v>
+        <v>-1.920691153523556</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="100" customHeight="1">
@@ -4287,13 +3979,13 @@
         <v>91</v>
       </c>
       <c r="D44">
-        <v>42.5</v>
+        <v>97.5</v>
       </c>
       <c r="E44">
         <v>0.49352</v>
       </c>
       <c r="F44">
-        <v>0.1491816558867302</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="100" customHeight="1">
@@ -4304,13 +3996,13 @@
         <v>93</v>
       </c>
       <c r="D45">
-        <v>95.5</v>
+        <v>91</v>
       </c>
       <c r="E45">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F45">
-        <v>-1.781307333383719</v>
+        <v>-1.141825110249225</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="100" customHeight="1">
@@ -4321,13 +4013,13 @@
         <v>95</v>
       </c>
       <c r="D46">
-        <v>2.5</v>
+        <v>99</v>
       </c>
       <c r="E46">
         <v>0.49352</v>
       </c>
       <c r="F46">
-        <v>1.808040943597903</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="100" customHeight="1">
@@ -4338,13 +4030,13 @@
         <v>97</v>
       </c>
       <c r="D47">
-        <v>99.5</v>
+        <v>96.5</v>
       </c>
       <c r="E47">
         <v>0.49352</v>
       </c>
       <c r="F47">
-        <v>-2.61235179709804</v>
+        <v>-1.636897285266562</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="100" customHeight="1">
@@ -4355,13 +4047,13 @@
         <v>99</v>
       </c>
       <c r="D48">
-        <v>99</v>
+        <v>95.5</v>
       </c>
       <c r="E48">
         <v>0.49352</v>
       </c>
       <c r="F48">
-        <v>-2.26778354843842</v>
+        <v>-1.507727708802602</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="100" customHeight="1">
@@ -4372,13 +4064,13 @@
         <v>101</v>
       </c>
       <c r="D49">
-        <v>98</v>
+        <v>97.5</v>
       </c>
       <c r="E49">
         <v>0.49352</v>
       </c>
       <c r="F49">
-        <v>-1.920691153523556</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="100" customHeight="1">
@@ -4389,13 +4081,13 @@
         <v>103</v>
       </c>
       <c r="D50">
-        <v>97.5</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>0.49352</v>
       </c>
       <c r="F50">
-        <v>-1.808040943597905</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="100" customHeight="1">
@@ -4406,13 +4098,13 @@
         <v>105</v>
       </c>
       <c r="D51">
-        <v>91</v>
+        <v>98.5</v>
       </c>
       <c r="E51">
         <v>0.49352</v>
       </c>
       <c r="F51">
-        <v>-1.141825110249225</v>
+        <v>-2.065179567503288</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="100" customHeight="1">
@@ -4423,13 +4115,13 @@
         <v>107</v>
       </c>
       <c r="D52">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="E52">
         <v>0.49352</v>
       </c>
       <c r="F52">
-        <v>-2.26778354843842</v>
+        <v>1.920691153523556</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="100" customHeight="1">
@@ -4440,13 +4132,13 @@
         <v>109</v>
       </c>
       <c r="D53">
-        <v>96.5</v>
+        <v>0.5</v>
       </c>
       <c r="E53">
         <v>0.49352</v>
       </c>
       <c r="F53">
-        <v>-1.636897285266562</v>
+        <v>2.612351797098031</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="100" customHeight="1">
@@ -4457,13 +4149,13 @@
         <v>111</v>
       </c>
       <c r="D54">
-        <v>95.5</v>
+        <v>0.5</v>
       </c>
       <c r="E54">
         <v>0.49352</v>
       </c>
       <c r="F54">
-        <v>-1.507727708802602</v>
+        <v>2.612351797098031</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="100" customHeight="1">
@@ -4474,13 +4166,13 @@
         <v>113</v>
       </c>
       <c r="D55">
-        <v>97.5</v>
+        <v>0.5</v>
       </c>
       <c r="E55">
         <v>0.49352</v>
       </c>
       <c r="F55">
-        <v>-1.808040943597905</v>
+        <v>2.612351797098031</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="100" customHeight="1">
@@ -4491,13 +4183,13 @@
         <v>115</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="E56">
         <v>0.49352</v>
       </c>
       <c r="F56">
-        <v>2.267783548438423</v>
+        <v>-0.3273489621763136</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="100" customHeight="1">
@@ -4508,13 +4200,13 @@
         <v>117</v>
       </c>
       <c r="D57">
-        <v>98.5</v>
+        <v>99</v>
       </c>
       <c r="E57">
         <v>0.49352</v>
       </c>
       <c r="F57">
-        <v>-2.065179567503288</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="100" customHeight="1">
@@ -4525,13 +4217,13 @@
         <v>119</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>90.5</v>
       </c>
       <c r="E58">
         <v>0.49352</v>
       </c>
       <c r="F58">
-        <v>1.920691153523556</v>
+        <v>-1.112422729872088</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="100" customHeight="1">
@@ -4542,13 +4234,13 @@
         <v>121</v>
       </c>
       <c r="D59">
-        <v>0.5</v>
+        <v>68</v>
       </c>
       <c r="E59">
         <v>0.49352</v>
       </c>
       <c r="F59">
-        <v>2.612351797098031</v>
+        <v>-0.3720014599087911</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="100" customHeight="1">
@@ -4559,13 +4251,13 @@
         <v>123</v>
       </c>
       <c r="D60">
-        <v>0.5</v>
+        <v>39.5</v>
       </c>
       <c r="E60">
         <v>0.49352</v>
       </c>
       <c r="F60">
-        <v>2.612351797098031</v>
+        <v>0.2104086459133793</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="100" customHeight="1">
@@ -4576,13 +4268,13 @@
         <v>125</v>
       </c>
       <c r="D61">
-        <v>0.5</v>
+        <v>41.5</v>
       </c>
       <c r="E61">
         <v>0.49352</v>
       </c>
       <c r="F61">
-        <v>2.612351797098031</v>
+        <v>0.1694418635416117</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="100" customHeight="1">
@@ -4593,13 +4285,13 @@
         <v>127</v>
       </c>
       <c r="D62">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E62">
         <v>0.49352</v>
       </c>
       <c r="F62">
-        <v>-0.3273489621763136</v>
+        <v>0.2839537127928058</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="100" customHeight="1">
@@ -4610,13 +4302,13 @@
         <v>129</v>
       </c>
       <c r="D63">
-        <v>99</v>
+        <v>23.5</v>
       </c>
       <c r="E63">
         <v>0.49352</v>
       </c>
       <c r="F63">
-        <v>-2.26778354843842</v>
+        <v>0.5824968785696466</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="100" customHeight="1">
@@ -4627,13 +4319,13 @@
         <v>131</v>
       </c>
       <c r="D64">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E64">
-        <v>0.49352</v>
+        <v>0.58904</v>
       </c>
       <c r="F64">
-        <v>1.808040943597903</v>
+        <v>2.706709396523279</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="100" customHeight="1">
@@ -4644,13 +4336,13 @@
         <v>133</v>
       </c>
       <c r="D65">
-        <v>90.5</v>
+        <v>30.5</v>
       </c>
       <c r="E65">
         <v>0.49352</v>
       </c>
       <c r="F65">
-        <v>-1.112422729872088</v>
+        <v>0.4064631060318465</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="100" customHeight="1">
@@ -4661,131 +4353,12 @@
         <v>135</v>
       </c>
       <c r="D66">
-        <v>68</v>
+        <v>1.5</v>
       </c>
       <c r="E66">
-        <v>0.49352</v>
+        <v>0.58904</v>
       </c>
       <c r="F66">
-        <v>-0.3720014599087911</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="100" customHeight="1">
-      <c r="A67" t="s">
-        <v>136</v>
-      </c>
-      <c r="C67" t="s">
-        <v>137</v>
-      </c>
-      <c r="D67">
-        <v>39.5</v>
-      </c>
-      <c r="E67">
-        <v>0.49352</v>
-      </c>
-      <c r="F67">
-        <v>0.2104086459133793</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="100" customHeight="1">
-      <c r="A68" t="s">
-        <v>138</v>
-      </c>
-      <c r="C68" t="s">
-        <v>139</v>
-      </c>
-      <c r="D68">
-        <v>41.5</v>
-      </c>
-      <c r="E68">
-        <v>0.49352</v>
-      </c>
-      <c r="F68">
-        <v>0.1694418635416117</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="100" customHeight="1">
-      <c r="A69" t="s">
-        <v>140</v>
-      </c>
-      <c r="C69" t="s">
-        <v>141</v>
-      </c>
-      <c r="D69">
-        <v>36</v>
-      </c>
-      <c r="E69">
-        <v>0.49352</v>
-      </c>
-      <c r="F69">
-        <v>0.2839537127928058</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="100" customHeight="1">
-      <c r="A70" t="s">
-        <v>142</v>
-      </c>
-      <c r="C70" t="s">
-        <v>143</v>
-      </c>
-      <c r="D70">
-        <v>23.5</v>
-      </c>
-      <c r="E70">
-        <v>0.49352</v>
-      </c>
-      <c r="F70">
-        <v>0.5824968785696466</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="100" customHeight="1">
-      <c r="A71" t="s">
-        <v>144</v>
-      </c>
-      <c r="C71" t="s">
-        <v>145</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>0.58904</v>
-      </c>
-      <c r="F71">
-        <v>2.706709396523279</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="100" customHeight="1">
-      <c r="A72" t="s">
-        <v>146</v>
-      </c>
-      <c r="C72" t="s">
-        <v>147</v>
-      </c>
-      <c r="D72">
-        <v>30.5</v>
-      </c>
-      <c r="E72">
-        <v>0.49352</v>
-      </c>
-      <c r="F72">
-        <v>0.4064631060318465</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="100" customHeight="1">
-      <c r="A73" t="s">
-        <v>148</v>
-      </c>
-      <c r="C73" t="s">
-        <v>149</v>
-      </c>
-      <c r="D73">
-        <v>1.5</v>
-      </c>
-      <c r="E73">
-        <v>0.58904</v>
-      </c>
-      <c r="F73">
         <v>2.464891741858761</v>
       </c>
     </row>

--- a/arranged_dataset/DIP-chloride.xlsx
+++ b/arranged_dataset/DIP-chloride.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t>smiles</t>
   </si>
@@ -94,6 +94,12 @@
     <t>XSAYZAUNJMRRIR-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>c1ncccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>WEGYGNROSJDEIW-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>s1cccc1C(=O)C</t>
   </si>
   <si>
@@ -266,6 +272,12 @@
   </si>
   <si>
     <t>YRNDGUSDBCARGC-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>c1cc([N+]([O-])=O)ccc1C(=O)CC</t>
+  </si>
+  <si>
+    <t>QHTSEJJUUBOESF-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>Brc1ccccc1C(=O)C</t>
@@ -2931,6 +2943,82 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="81267300"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 66" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="82534125"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 67" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="83800950"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3228,7 +3316,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3435,13 +3523,13 @@
         <v>27</v>
       </c>
       <c r="D12">
-        <v>95.65000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="E12">
         <v>0.49352</v>
       </c>
       <c r="F12">
-        <v>-1.525233356759745</v>
+        <v>-1.594774490144373</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="100" customHeight="1">
@@ -3452,13 +3540,13 @@
         <v>29</v>
       </c>
       <c r="D13">
-        <v>92</v>
+        <v>95.65000000000001</v>
       </c>
       <c r="E13">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="F13">
-        <v>-1.448360638914646</v>
+        <v>-1.525233356759745</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="100" customHeight="1">
@@ -3469,13 +3557,13 @@
         <v>31</v>
       </c>
       <c r="D14">
-        <v>98.5</v>
+        <v>92</v>
       </c>
       <c r="E14">
-        <v>0.49352</v>
+        <v>0.59302</v>
       </c>
       <c r="F14">
-        <v>-2.065179567503288</v>
+        <v>-1.448360638914646</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="100" customHeight="1">
@@ -3503,13 +3591,13 @@
         <v>35</v>
       </c>
       <c r="D16">
-        <v>99</v>
+        <v>98.5</v>
       </c>
       <c r="E16">
         <v>0.49352</v>
       </c>
       <c r="F16">
-        <v>-2.26778354843842</v>
+        <v>-2.065179567503288</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="100" customHeight="1">
@@ -3537,13 +3625,13 @@
         <v>39</v>
       </c>
       <c r="D18">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="E18">
         <v>0.49352</v>
       </c>
       <c r="F18">
-        <v>-0.2626596419205717</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="100" customHeight="1">
@@ -3554,13 +3642,13 @@
         <v>41</v>
       </c>
       <c r="D19">
-        <v>61.5</v>
+        <v>63</v>
       </c>
       <c r="E19">
         <v>0.49352</v>
       </c>
       <c r="F19">
-        <v>-0.2311543712701655</v>
+        <v>-0.2626596419205717</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="100" customHeight="1">
@@ -3571,13 +3659,13 @@
         <v>43</v>
       </c>
       <c r="D20">
-        <v>69</v>
+        <v>61.5</v>
       </c>
       <c r="E20">
         <v>0.49352</v>
       </c>
       <c r="F20">
-        <v>-0.3948748769913301</v>
+        <v>-0.2311543712701655</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="100" customHeight="1">
@@ -3588,13 +3676,13 @@
         <v>45</v>
       </c>
       <c r="D21">
-        <v>72.5</v>
+        <v>69</v>
       </c>
       <c r="E21">
         <v>0.49352</v>
       </c>
       <c r="F21">
-        <v>-0.4784185629834727</v>
+        <v>-0.3948748769913301</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="100" customHeight="1">
@@ -3605,13 +3693,13 @@
         <v>47</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>72.5</v>
       </c>
       <c r="E22">
-        <v>0.38805</v>
+        <v>0.49352</v>
       </c>
       <c r="F22">
-        <v>1.23324378886652</v>
+        <v>-0.4784185629834727</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="100" customHeight="1">
@@ -3622,13 +3710,13 @@
         <v>49</v>
       </c>
       <c r="D23">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="E23">
         <v>0.38805</v>
       </c>
       <c r="F23">
-        <v>1.103556668584487</v>
+        <v>1.23324378886652</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="100" customHeight="1">
@@ -3639,13 +3727,13 @@
         <v>51</v>
       </c>
       <c r="D24">
-        <v>91</v>
+        <v>5.5</v>
       </c>
       <c r="E24">
         <v>0.38805</v>
       </c>
       <c r="F24">
-        <v>-0.8978060342685433</v>
+        <v>1.103556668584487</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="100" customHeight="1">
@@ -3656,13 +3744,13 @@
         <v>53</v>
       </c>
       <c r="D25">
-        <v>99.5</v>
+        <v>91</v>
       </c>
       <c r="E25">
-        <v>0.49352</v>
+        <v>0.38805</v>
       </c>
       <c r="F25">
-        <v>-2.61235179709804</v>
+        <v>-0.8978060342685433</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="100" customHeight="1">
@@ -3673,13 +3761,13 @@
         <v>55</v>
       </c>
       <c r="D26">
-        <v>36.5</v>
+        <v>99.5</v>
       </c>
       <c r="E26">
         <v>0.49352</v>
       </c>
       <c r="F26">
-        <v>0.2732756675134899</v>
+        <v>-2.61235179709804</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="100" customHeight="1">
@@ -3690,13 +3778,13 @@
         <v>57</v>
       </c>
       <c r="D27">
-        <v>99</v>
+        <v>36.5</v>
       </c>
       <c r="E27">
         <v>0.49352</v>
       </c>
       <c r="F27">
-        <v>-2.26778354843842</v>
+        <v>0.2732756675134899</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="100" customHeight="1">
@@ -3707,13 +3795,13 @@
         <v>59</v>
       </c>
       <c r="D28">
-        <v>98.5</v>
+        <v>99</v>
       </c>
       <c r="E28">
         <v>0.49352</v>
       </c>
       <c r="F28">
-        <v>-2.065179567503288</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="100" customHeight="1">
@@ -3724,13 +3812,13 @@
         <v>61</v>
       </c>
       <c r="D29">
-        <v>97.5</v>
+        <v>98.5</v>
       </c>
       <c r="E29">
         <v>0.49352</v>
       </c>
       <c r="F29">
-        <v>-1.808040943597905</v>
+        <v>-2.065179567503288</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="100" customHeight="1">
@@ -3741,13 +3829,13 @@
         <v>63</v>
       </c>
       <c r="D30">
-        <v>93.5</v>
+        <v>97.5</v>
       </c>
       <c r="E30">
         <v>0.49352</v>
       </c>
       <c r="F30">
-        <v>-1.315802917695658</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="100" customHeight="1">
@@ -3758,13 +3846,13 @@
         <v>65</v>
       </c>
       <c r="D31">
-        <v>97</v>
+        <v>93.5</v>
       </c>
       <c r="E31">
         <v>0.49352</v>
       </c>
       <c r="F31">
-        <v>-1.715524225407506</v>
+        <v>-1.315802917695658</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="100" customHeight="1">
@@ -3775,13 +3863,13 @@
         <v>67</v>
       </c>
       <c r="D32">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="E32">
         <v>0.49352</v>
       </c>
       <c r="F32">
-        <v>0.2001051401535413</v>
+        <v>-1.715524225407506</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="100" customHeight="1">
@@ -3792,13 +3880,13 @@
         <v>69</v>
       </c>
       <c r="D33">
-        <v>96.5</v>
+        <v>40</v>
       </c>
       <c r="E33">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F33">
-        <v>-1.801907092249079</v>
+        <v>0.2001051401535413</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="100" customHeight="1">
@@ -3809,13 +3897,13 @@
         <v>71</v>
       </c>
       <c r="D34">
-        <v>97.5</v>
+        <v>96.5</v>
       </c>
       <c r="E34">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F34">
-        <v>-1.808040943597905</v>
+        <v>-1.801907092249079</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="100" customHeight="1">
@@ -3826,13 +3914,13 @@
         <v>73</v>
       </c>
       <c r="D35">
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="E35">
         <v>0.49352</v>
       </c>
       <c r="F35">
-        <v>-1.715524225407506</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="100" customHeight="1">
@@ -3860,13 +3948,13 @@
         <v>77</v>
       </c>
       <c r="D37">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="E37">
         <v>0.49352</v>
       </c>
       <c r="F37">
-        <v>-0.2001051401535412</v>
+        <v>-1.715524225407506</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="100" customHeight="1">
@@ -3877,13 +3965,13 @@
         <v>79</v>
       </c>
       <c r="D38">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="E38">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F38">
-        <v>-2.269203661219362</v>
+        <v>-0.2001051401535412</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="100" customHeight="1">
@@ -3894,13 +3982,13 @@
         <v>81</v>
       </c>
       <c r="D39">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E39">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F39">
-        <v>-2.26778354843842</v>
+        <v>-2.269203661219362</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="100" customHeight="1">
@@ -3911,13 +3999,13 @@
         <v>83</v>
       </c>
       <c r="D40">
-        <v>2.5</v>
+        <v>99</v>
       </c>
       <c r="E40">
         <v>0.49352</v>
       </c>
       <c r="F40">
-        <v>1.808040943597903</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="100" customHeight="1">
@@ -3928,13 +4016,13 @@
         <v>85</v>
       </c>
       <c r="D41">
-        <v>99.5</v>
+        <v>2.5</v>
       </c>
       <c r="E41">
         <v>0.49352</v>
       </c>
       <c r="F41">
-        <v>-2.61235179709804</v>
+        <v>1.808040943597903</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="100" customHeight="1">
@@ -3945,13 +4033,13 @@
         <v>87</v>
       </c>
       <c r="D42">
-        <v>99</v>
+        <v>98.5</v>
       </c>
       <c r="E42">
         <v>0.49352</v>
       </c>
       <c r="F42">
-        <v>-2.26778354843842</v>
+        <v>-2.065179567503288</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="100" customHeight="1">
@@ -3962,13 +4050,13 @@
         <v>89</v>
       </c>
       <c r="D43">
-        <v>98</v>
+        <v>99.5</v>
       </c>
       <c r="E43">
         <v>0.49352</v>
       </c>
       <c r="F43">
-        <v>-1.920691153523556</v>
+        <v>-2.61235179709804</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="100" customHeight="1">
@@ -3979,13 +4067,13 @@
         <v>91</v>
       </c>
       <c r="D44">
-        <v>97.5</v>
+        <v>99</v>
       </c>
       <c r="E44">
         <v>0.49352</v>
       </c>
       <c r="F44">
-        <v>-1.808040943597905</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="100" customHeight="1">
@@ -3996,13 +4084,13 @@
         <v>93</v>
       </c>
       <c r="D45">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E45">
         <v>0.49352</v>
       </c>
       <c r="F45">
-        <v>-1.141825110249225</v>
+        <v>-1.920691153523556</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="100" customHeight="1">
@@ -4013,13 +4101,13 @@
         <v>95</v>
       </c>
       <c r="D46">
-        <v>99</v>
+        <v>97.5</v>
       </c>
       <c r="E46">
         <v>0.49352</v>
       </c>
       <c r="F46">
-        <v>-2.26778354843842</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="100" customHeight="1">
@@ -4030,13 +4118,13 @@
         <v>97</v>
       </c>
       <c r="D47">
-        <v>96.5</v>
+        <v>91</v>
       </c>
       <c r="E47">
         <v>0.49352</v>
       </c>
       <c r="F47">
-        <v>-1.636897285266562</v>
+        <v>-1.141825110249225</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="100" customHeight="1">
@@ -4047,13 +4135,13 @@
         <v>99</v>
       </c>
       <c r="D48">
-        <v>95.5</v>
+        <v>99</v>
       </c>
       <c r="E48">
         <v>0.49352</v>
       </c>
       <c r="F48">
-        <v>-1.507727708802602</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="100" customHeight="1">
@@ -4064,13 +4152,13 @@
         <v>101</v>
       </c>
       <c r="D49">
-        <v>97.5</v>
+        <v>96.5</v>
       </c>
       <c r="E49">
         <v>0.49352</v>
       </c>
       <c r="F49">
-        <v>-1.808040943597905</v>
+        <v>-1.636897285266562</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="100" customHeight="1">
@@ -4081,13 +4169,13 @@
         <v>103</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>95.5</v>
       </c>
       <c r="E50">
         <v>0.49352</v>
       </c>
       <c r="F50">
-        <v>2.267783548438423</v>
+        <v>-1.507727708802602</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="100" customHeight="1">
@@ -4098,13 +4186,13 @@
         <v>105</v>
       </c>
       <c r="D51">
-        <v>98.5</v>
+        <v>97.5</v>
       </c>
       <c r="E51">
         <v>0.49352</v>
       </c>
       <c r="F51">
-        <v>-2.065179567503288</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="100" customHeight="1">
@@ -4115,13 +4203,13 @@
         <v>107</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52">
         <v>0.49352</v>
       </c>
       <c r="F52">
-        <v>1.920691153523556</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="100" customHeight="1">
@@ -4132,13 +4220,13 @@
         <v>109</v>
       </c>
       <c r="D53">
-        <v>0.5</v>
+        <v>98.5</v>
       </c>
       <c r="E53">
         <v>0.49352</v>
       </c>
       <c r="F53">
-        <v>2.612351797098031</v>
+        <v>-2.065179567503288</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="100" customHeight="1">
@@ -4149,13 +4237,13 @@
         <v>111</v>
       </c>
       <c r="D54">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E54">
         <v>0.49352</v>
       </c>
       <c r="F54">
-        <v>2.612351797098031</v>
+        <v>1.920691153523556</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="100" customHeight="1">
@@ -4183,13 +4271,13 @@
         <v>115</v>
       </c>
       <c r="D56">
-        <v>66</v>
+        <v>0.5</v>
       </c>
       <c r="E56">
         <v>0.49352</v>
       </c>
       <c r="F56">
-        <v>-0.3273489621763136</v>
+        <v>2.612351797098031</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="100" customHeight="1">
@@ -4200,13 +4288,13 @@
         <v>117</v>
       </c>
       <c r="D57">
-        <v>99</v>
+        <v>0.5</v>
       </c>
       <c r="E57">
         <v>0.49352</v>
       </c>
       <c r="F57">
-        <v>-2.26778354843842</v>
+        <v>2.612351797098031</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="100" customHeight="1">
@@ -4217,13 +4305,13 @@
         <v>119</v>
       </c>
       <c r="D58">
-        <v>90.5</v>
+        <v>66</v>
       </c>
       <c r="E58">
         <v>0.49352</v>
       </c>
       <c r="F58">
-        <v>-1.112422729872088</v>
+        <v>-0.3273489621763136</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="100" customHeight="1">
@@ -4234,13 +4322,13 @@
         <v>121</v>
       </c>
       <c r="D59">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="E59">
         <v>0.49352</v>
       </c>
       <c r="F59">
-        <v>-0.3720014599087911</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="100" customHeight="1">
@@ -4251,13 +4339,13 @@
         <v>123</v>
       </c>
       <c r="D60">
-        <v>39.5</v>
+        <v>90.5</v>
       </c>
       <c r="E60">
         <v>0.49352</v>
       </c>
       <c r="F60">
-        <v>0.2104086459133793</v>
+        <v>-1.112422729872088</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="100" customHeight="1">
@@ -4268,13 +4356,13 @@
         <v>125</v>
       </c>
       <c r="D61">
-        <v>41.5</v>
+        <v>68</v>
       </c>
       <c r="E61">
         <v>0.49352</v>
       </c>
       <c r="F61">
-        <v>0.1694418635416117</v>
+        <v>-0.3720014599087911</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="100" customHeight="1">
@@ -4285,13 +4373,13 @@
         <v>127</v>
       </c>
       <c r="D62">
-        <v>36</v>
+        <v>39.5</v>
       </c>
       <c r="E62">
         <v>0.49352</v>
       </c>
       <c r="F62">
-        <v>0.2839537127928058</v>
+        <v>0.2104086459133793</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="100" customHeight="1">
@@ -4302,13 +4390,13 @@
         <v>129</v>
       </c>
       <c r="D63">
-        <v>23.5</v>
+        <v>41.5</v>
       </c>
       <c r="E63">
         <v>0.49352</v>
       </c>
       <c r="F63">
-        <v>0.5824968785696466</v>
+        <v>0.1694418635416117</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="100" customHeight="1">
@@ -4319,13 +4407,13 @@
         <v>131</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="E64">
-        <v>0.58904</v>
+        <v>0.49352</v>
       </c>
       <c r="F64">
-        <v>2.706709396523279</v>
+        <v>0.2839537127928058</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="100" customHeight="1">
@@ -4336,13 +4424,13 @@
         <v>133</v>
       </c>
       <c r="D65">
-        <v>30.5</v>
+        <v>23.5</v>
       </c>
       <c r="E65">
         <v>0.49352</v>
       </c>
       <c r="F65">
-        <v>0.4064631060318465</v>
+        <v>0.5824968785696466</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="100" customHeight="1">
@@ -4353,12 +4441,46 @@
         <v>135</v>
       </c>
       <c r="D66">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E66">
         <v>0.58904</v>
       </c>
       <c r="F66">
+        <v>2.706709396523279</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="100" customHeight="1">
+      <c r="A67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67">
+        <v>30.5</v>
+      </c>
+      <c r="E67">
+        <v>0.49352</v>
+      </c>
+      <c r="F67">
+        <v>0.4064631060318465</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="100" customHeight="1">
+      <c r="A68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" t="s">
+        <v>139</v>
+      </c>
+      <c r="D68">
+        <v>1.5</v>
+      </c>
+      <c r="E68">
+        <v>0.58904</v>
+      </c>
+      <c r="F68">
         <v>2.464891741858761</v>
       </c>
     </row>

--- a/arranged_dataset/DIP-chloride.xlsx
+++ b/arranged_dataset/DIP-chloride.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t>smiles</t>
   </si>
@@ -112,6 +112,12 @@
     <t>FNENWZWNOPCZGK-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>BrCC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>LIGACIXOYTUXAW-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>c1cc(Br)ccc1C(=O)C</t>
   </si>
   <si>
@@ -130,6 +136,12 @@
     <t>ADCYRBXQAJXJTD-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>ClCC(=O)c1c(Cl)cc(Cl)cc1</t>
+  </si>
+  <si>
+    <t>VYWPPRLJNVHPEU-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>c1cc(Br)ccc1c2cc(Cl)ccc2C(=O)CCC</t>
   </si>
   <si>
@@ -220,6 +232,48 @@
     <t>IQZLUWLMQNGTIW-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>Oc1ccccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>JECYUBVRTQDVAT-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>Oc1cccc(OC)c1C(=O)C</t>
+  </si>
+  <si>
+    <t>UENLHUMCIOWYQN-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>Oc1ccc(OC)cc1C(=O)C</t>
+  </si>
+  <si>
+    <t>MLIBGOFSXXWRIY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>Oc1ccc(C)cc1C(=O)C</t>
+  </si>
+  <si>
+    <t>YNPDFBFVMJNGKZ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>Oc1ccc(F)cc1C(=O)C</t>
+  </si>
+  <si>
+    <t>KOFFXZYMDLWRHX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>Oc1c(Cl)cc(Cl)cc1C(=O)C</t>
+  </si>
+  <si>
+    <t>CJFYGRLJDKWMDI-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>Oc1cc(OC)cc(C(=O)OC)c1C(=O)C</t>
+  </si>
+  <si>
+    <t>WRYKPYJMRHQDBM-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>COc1cccc(OC)c1C(=O)C</t>
   </si>
   <si>
@@ -268,6 +322,36 @@
     <t>HXAOUYGZEOZTJO-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>ClC(Cl)C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>CERJZAHSUZVMCH-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>ClC(Cl)(Cl)C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>OAMHTTBNEJBIKA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>ClCC(=O)C</t>
+  </si>
+  <si>
+    <t>BULLHNJGPPOUOX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>ClC(Cl)C(=O)C</t>
+  </si>
+  <si>
+    <t>CSVFWMMPUJDVKH-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>ClC(Cl)(Cl)C(=O)C</t>
+  </si>
+  <si>
+    <t>SMZHKGXSEAGRTI-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>COCC(=O)c1ccccc1</t>
   </si>
   <si>
@@ -380,6 +464,12 @@
   </si>
   <si>
     <t>KWOLFJPFCHCOCG-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>ClCC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>IMACFCSSMIZSPP-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>c1ccccc1/C=C/C(=O)C</t>
@@ -3019,6 +3109,576 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="83800950"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Picture 68" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="85067775"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Picture 69" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="86334600"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Picture 70" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="87601425"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Picture 71" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="88868250"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Picture 72" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="90135075"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Picture 73" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="91401900"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Picture 74" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="92668725"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Picture 75" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="93935550"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="Picture 76" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="95202375"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Picture 77" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="96469200"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Picture 78" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="97736025"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Picture 79" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="99002850"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="Picture 80" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="100269675"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Picture 81" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="101536500"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="Picture 82" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="102803325"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3316,7 +3976,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3574,13 +4234,13 @@
         <v>33</v>
       </c>
       <c r="D15">
-        <v>98.5</v>
+        <v>7</v>
       </c>
       <c r="E15">
         <v>0.49352</v>
       </c>
       <c r="F15">
-        <v>-2.065179567503288</v>
+        <v>1.276582925099217</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="100" customHeight="1">
@@ -3608,13 +4268,13 @@
         <v>37</v>
       </c>
       <c r="D17">
-        <v>99</v>
+        <v>98.5</v>
       </c>
       <c r="E17">
         <v>0.49352</v>
       </c>
       <c r="F17">
-        <v>-2.26778354843842</v>
+        <v>-2.065179567503288</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="100" customHeight="1">
@@ -3642,13 +4302,13 @@
         <v>41</v>
       </c>
       <c r="D19">
-        <v>63</v>
+        <v>3.5</v>
       </c>
       <c r="E19">
         <v>0.49352</v>
       </c>
       <c r="F19">
-        <v>-0.2626596419205717</v>
+        <v>1.636897285266561</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="100" customHeight="1">
@@ -3659,13 +4319,13 @@
         <v>43</v>
       </c>
       <c r="D20">
-        <v>61.5</v>
+        <v>99</v>
       </c>
       <c r="E20">
         <v>0.49352</v>
       </c>
       <c r="F20">
-        <v>-0.2311543712701655</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="100" customHeight="1">
@@ -3676,13 +4336,13 @@
         <v>45</v>
       </c>
       <c r="D21">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E21">
         <v>0.49352</v>
       </c>
       <c r="F21">
-        <v>-0.3948748769913301</v>
+        <v>-0.2626596419205717</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="100" customHeight="1">
@@ -3693,13 +4353,13 @@
         <v>47</v>
       </c>
       <c r="D22">
-        <v>72.5</v>
+        <v>61.5</v>
       </c>
       <c r="E22">
         <v>0.49352</v>
       </c>
       <c r="F22">
-        <v>-0.4784185629834727</v>
+        <v>-0.2311543712701655</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="100" customHeight="1">
@@ -3710,13 +4370,13 @@
         <v>49</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="E23">
-        <v>0.38805</v>
+        <v>0.49352</v>
       </c>
       <c r="F23">
-        <v>1.23324378886652</v>
+        <v>-0.3948748769913301</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="100" customHeight="1">
@@ -3727,13 +4387,13 @@
         <v>51</v>
       </c>
       <c r="D24">
-        <v>5.5</v>
+        <v>72.5</v>
       </c>
       <c r="E24">
-        <v>0.38805</v>
+        <v>0.49352</v>
       </c>
       <c r="F24">
-        <v>1.103556668584487</v>
+        <v>-0.4784185629834727</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="100" customHeight="1">
@@ -3744,13 +4404,13 @@
         <v>53</v>
       </c>
       <c r="D25">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="E25">
         <v>0.38805</v>
       </c>
       <c r="F25">
-        <v>-0.8978060342685433</v>
+        <v>1.23324378886652</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="100" customHeight="1">
@@ -3761,13 +4421,13 @@
         <v>55</v>
       </c>
       <c r="D26">
-        <v>99.5</v>
+        <v>5.5</v>
       </c>
       <c r="E26">
-        <v>0.49352</v>
+        <v>0.38805</v>
       </c>
       <c r="F26">
-        <v>-2.61235179709804</v>
+        <v>1.103556668584487</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="100" customHeight="1">
@@ -3778,13 +4438,13 @@
         <v>57</v>
       </c>
       <c r="D27">
-        <v>36.5</v>
+        <v>91</v>
       </c>
       <c r="E27">
-        <v>0.49352</v>
+        <v>0.38805</v>
       </c>
       <c r="F27">
-        <v>0.2732756675134899</v>
+        <v>-0.8978060342685433</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="100" customHeight="1">
@@ -3795,13 +4455,13 @@
         <v>59</v>
       </c>
       <c r="D28">
-        <v>99</v>
+        <v>99.5</v>
       </c>
       <c r="E28">
         <v>0.49352</v>
       </c>
       <c r="F28">
-        <v>-2.26778354843842</v>
+        <v>-2.61235179709804</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="100" customHeight="1">
@@ -3812,13 +4472,13 @@
         <v>61</v>
       </c>
       <c r="D29">
-        <v>98.5</v>
+        <v>36.5</v>
       </c>
       <c r="E29">
         <v>0.49352</v>
       </c>
       <c r="F29">
-        <v>-2.065179567503288</v>
+        <v>0.2732756675134899</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="100" customHeight="1">
@@ -3829,13 +4489,13 @@
         <v>63</v>
       </c>
       <c r="D30">
-        <v>97.5</v>
+        <v>99</v>
       </c>
       <c r="E30">
         <v>0.49352</v>
       </c>
       <c r="F30">
-        <v>-1.808040943597905</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="100" customHeight="1">
@@ -3846,13 +4506,13 @@
         <v>65</v>
       </c>
       <c r="D31">
-        <v>93.5</v>
+        <v>98.5</v>
       </c>
       <c r="E31">
         <v>0.49352</v>
       </c>
       <c r="F31">
-        <v>-1.315802917695658</v>
+        <v>-2.065179567503288</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="100" customHeight="1">
@@ -3863,13 +4523,13 @@
         <v>67</v>
       </c>
       <c r="D32">
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="E32">
         <v>0.49352</v>
       </c>
       <c r="F32">
-        <v>-1.715524225407506</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="100" customHeight="1">
@@ -3880,13 +4540,13 @@
         <v>69</v>
       </c>
       <c r="D33">
-        <v>40</v>
+        <v>93.5</v>
       </c>
       <c r="E33">
         <v>0.49352</v>
       </c>
       <c r="F33">
-        <v>0.2001051401535413</v>
+        <v>-1.315802917695658</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="100" customHeight="1">
@@ -3897,13 +4557,13 @@
         <v>71</v>
       </c>
       <c r="D34">
-        <v>96.5</v>
+        <v>97</v>
       </c>
       <c r="E34">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F34">
-        <v>-1.801907092249079</v>
+        <v>-1.715524225407506</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="100" customHeight="1">
@@ -3914,13 +4574,13 @@
         <v>73</v>
       </c>
       <c r="D35">
-        <v>97.5</v>
+        <v>5</v>
       </c>
       <c r="E35">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F35">
-        <v>-1.808040943597905</v>
+        <v>1.716814035582576</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="100" customHeight="1">
@@ -3931,13 +4591,13 @@
         <v>75</v>
       </c>
       <c r="D36">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="E36">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F36">
-        <v>-1.715524225407506</v>
+        <v>2.269203661219363</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="100" customHeight="1">
@@ -3948,13 +4608,13 @@
         <v>77</v>
       </c>
       <c r="D37">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E37">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F37">
-        <v>-1.715524225407506</v>
+        <v>1.34901111815735</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="100" customHeight="1">
@@ -3965,13 +4625,13 @@
         <v>79</v>
       </c>
       <c r="D38">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E38">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F38">
-        <v>-0.2001051401535412</v>
+        <v>1.34901111815735</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="100" customHeight="1">
@@ -3982,13 +4642,13 @@
         <v>81</v>
       </c>
       <c r="D39">
-        <v>98</v>
+        <v>10.5</v>
       </c>
       <c r="E39">
         <v>0.58307</v>
       </c>
       <c r="F39">
-        <v>-2.269203661219362</v>
+        <v>1.249439344048173</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="100" customHeight="1">
@@ -3999,13 +4659,13 @@
         <v>83</v>
       </c>
       <c r="D40">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="E40">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F40">
-        <v>-2.26778354843842</v>
+        <v>1.135836915731209</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="100" customHeight="1">
@@ -4016,13 +4676,13 @@
         <v>85</v>
       </c>
       <c r="D41">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="E41">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F41">
-        <v>1.808040943597903</v>
+        <v>1.716814035582576</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="100" customHeight="1">
@@ -4033,13 +4693,13 @@
         <v>87</v>
       </c>
       <c r="D42">
-        <v>98.5</v>
+        <v>40</v>
       </c>
       <c r="E42">
         <v>0.49352</v>
       </c>
       <c r="F42">
-        <v>-2.065179567503288</v>
+        <v>0.2001051401535413</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="100" customHeight="1">
@@ -4050,13 +4710,13 @@
         <v>89</v>
       </c>
       <c r="D43">
-        <v>99.5</v>
+        <v>96.5</v>
       </c>
       <c r="E43">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F43">
-        <v>-2.61235179709804</v>
+        <v>-1.801907092249079</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="100" customHeight="1">
@@ -4067,13 +4727,13 @@
         <v>91</v>
       </c>
       <c r="D44">
-        <v>99</v>
+        <v>97.5</v>
       </c>
       <c r="E44">
         <v>0.49352</v>
       </c>
       <c r="F44">
-        <v>-2.26778354843842</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="100" customHeight="1">
@@ -4084,13 +4744,13 @@
         <v>93</v>
       </c>
       <c r="D45">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E45">
         <v>0.49352</v>
       </c>
       <c r="F45">
-        <v>-1.920691153523556</v>
+        <v>-1.715524225407506</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="100" customHeight="1">
@@ -4101,13 +4761,13 @@
         <v>95</v>
       </c>
       <c r="D46">
-        <v>97.5</v>
+        <v>97</v>
       </c>
       <c r="E46">
         <v>0.49352</v>
       </c>
       <c r="F46">
-        <v>-1.808040943597905</v>
+        <v>-1.715524225407506</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="100" customHeight="1">
@@ -4118,13 +4778,13 @@
         <v>97</v>
       </c>
       <c r="D47">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="E47">
         <v>0.49352</v>
       </c>
       <c r="F47">
-        <v>-1.141825110249225</v>
+        <v>-0.2001051401535412</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="100" customHeight="1">
@@ -4135,13 +4795,13 @@
         <v>99</v>
       </c>
       <c r="D48">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E48">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F48">
-        <v>-2.26778354843842</v>
+        <v>-2.269203661219362</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="100" customHeight="1">
@@ -4152,13 +4812,13 @@
         <v>101</v>
       </c>
       <c r="D49">
-        <v>96.5</v>
+        <v>99</v>
       </c>
       <c r="E49">
         <v>0.49352</v>
       </c>
       <c r="F49">
-        <v>-1.636897285266562</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="100" customHeight="1">
@@ -4169,13 +4829,13 @@
         <v>103</v>
       </c>
       <c r="D50">
-        <v>95.5</v>
+        <v>9</v>
       </c>
       <c r="E50">
         <v>0.49352</v>
       </c>
       <c r="F50">
-        <v>-1.507727708802602</v>
+        <v>1.141825110249225</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="100" customHeight="1">
@@ -4186,13 +4846,13 @@
         <v>105</v>
       </c>
       <c r="D51">
-        <v>97.5</v>
+        <v>95.5</v>
       </c>
       <c r="E51">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F51">
-        <v>-1.808040943597905</v>
+        <v>-1.781307333383719</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="100" customHeight="1">
@@ -4203,13 +4863,13 @@
         <v>107</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="E52">
         <v>0.49352</v>
       </c>
       <c r="F52">
-        <v>2.267783548438423</v>
+        <v>0.1796241929564407</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="100" customHeight="1">
@@ -4220,13 +4880,13 @@
         <v>109</v>
       </c>
       <c r="D53">
-        <v>98.5</v>
+        <v>42.5</v>
       </c>
       <c r="E53">
         <v>0.49352</v>
       </c>
       <c r="F53">
-        <v>-2.065179567503288</v>
+        <v>0.1491816558867302</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="100" customHeight="1">
@@ -4237,13 +4897,13 @@
         <v>111</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>95.5</v>
       </c>
       <c r="E54">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F54">
-        <v>1.920691153523556</v>
+        <v>-1.781307333383719</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="100" customHeight="1">
@@ -4254,13 +4914,13 @@
         <v>113</v>
       </c>
       <c r="D55">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="E55">
         <v>0.49352</v>
       </c>
       <c r="F55">
-        <v>2.612351797098031</v>
+        <v>1.808040943597903</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="100" customHeight="1">
@@ -4271,13 +4931,13 @@
         <v>115</v>
       </c>
       <c r="D56">
-        <v>0.5</v>
+        <v>98.5</v>
       </c>
       <c r="E56">
         <v>0.49352</v>
       </c>
       <c r="F56">
-        <v>2.612351797098031</v>
+        <v>-2.065179567503288</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="100" customHeight="1">
@@ -4288,13 +4948,13 @@
         <v>117</v>
       </c>
       <c r="D57">
-        <v>0.5</v>
+        <v>99.5</v>
       </c>
       <c r="E57">
         <v>0.49352</v>
       </c>
       <c r="F57">
-        <v>2.612351797098031</v>
+        <v>-2.61235179709804</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="100" customHeight="1">
@@ -4305,13 +4965,13 @@
         <v>119</v>
       </c>
       <c r="D58">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="E58">
         <v>0.49352</v>
       </c>
       <c r="F58">
-        <v>-0.3273489621763136</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="100" customHeight="1">
@@ -4322,13 +4982,13 @@
         <v>121</v>
       </c>
       <c r="D59">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E59">
         <v>0.49352</v>
       </c>
       <c r="F59">
-        <v>-2.26778354843842</v>
+        <v>-1.920691153523556</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="100" customHeight="1">
@@ -4339,13 +4999,13 @@
         <v>123</v>
       </c>
       <c r="D60">
-        <v>90.5</v>
+        <v>97.5</v>
       </c>
       <c r="E60">
         <v>0.49352</v>
       </c>
       <c r="F60">
-        <v>-1.112422729872088</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="100" customHeight="1">
@@ -4356,13 +5016,13 @@
         <v>125</v>
       </c>
       <c r="D61">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="E61">
         <v>0.49352</v>
       </c>
       <c r="F61">
-        <v>-0.3720014599087911</v>
+        <v>-1.141825110249225</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="100" customHeight="1">
@@ -4373,13 +5033,13 @@
         <v>127</v>
       </c>
       <c r="D62">
-        <v>39.5</v>
+        <v>99</v>
       </c>
       <c r="E62">
         <v>0.49352</v>
       </c>
       <c r="F62">
-        <v>0.2104086459133793</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="100" customHeight="1">
@@ -4390,13 +5050,13 @@
         <v>129</v>
       </c>
       <c r="D63">
-        <v>41.5</v>
+        <v>96.5</v>
       </c>
       <c r="E63">
         <v>0.49352</v>
       </c>
       <c r="F63">
-        <v>0.1694418635416117</v>
+        <v>-1.636897285266562</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="100" customHeight="1">
@@ -4407,13 +5067,13 @@
         <v>131</v>
       </c>
       <c r="D64">
-        <v>36</v>
+        <v>95.5</v>
       </c>
       <c r="E64">
         <v>0.49352</v>
       </c>
       <c r="F64">
-        <v>0.2839537127928058</v>
+        <v>-1.507727708802602</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="100" customHeight="1">
@@ -4424,13 +5084,13 @@
         <v>133</v>
       </c>
       <c r="D65">
-        <v>23.5</v>
+        <v>97.5</v>
       </c>
       <c r="E65">
         <v>0.49352</v>
       </c>
       <c r="F65">
-        <v>0.5824968785696466</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="100" customHeight="1">
@@ -4444,10 +5104,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>0.58904</v>
+        <v>0.49352</v>
       </c>
       <c r="F66">
-        <v>2.706709396523279</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="100" customHeight="1">
@@ -4458,13 +5118,13 @@
         <v>137</v>
       </c>
       <c r="D67">
-        <v>30.5</v>
+        <v>98.5</v>
       </c>
       <c r="E67">
         <v>0.49352</v>
       </c>
       <c r="F67">
-        <v>0.4064631060318465</v>
+        <v>-2.065179567503288</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="100" customHeight="1">
@@ -4475,12 +5135,267 @@
         <v>139</v>
       </c>
       <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>0.49352</v>
+      </c>
+      <c r="F68">
+        <v>1.920691153523556</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="100" customHeight="1">
+      <c r="A69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" t="s">
+        <v>141</v>
+      </c>
+      <c r="D69">
+        <v>0.5</v>
+      </c>
+      <c r="E69">
+        <v>0.49352</v>
+      </c>
+      <c r="F69">
+        <v>2.612351797098031</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="100" customHeight="1">
+      <c r="A70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70">
+        <v>0.5</v>
+      </c>
+      <c r="E70">
+        <v>0.49352</v>
+      </c>
+      <c r="F70">
+        <v>2.612351797098031</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="100" customHeight="1">
+      <c r="A71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71">
+        <v>0.5</v>
+      </c>
+      <c r="E71">
+        <v>0.49352</v>
+      </c>
+      <c r="F71">
+        <v>2.612351797098031</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="100" customHeight="1">
+      <c r="A72" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" t="s">
+        <v>147</v>
+      </c>
+      <c r="D72">
+        <v>66</v>
+      </c>
+      <c r="E72">
+        <v>0.49352</v>
+      </c>
+      <c r="F72">
+        <v>-0.3273489621763136</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="100" customHeight="1">
+      <c r="A73" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" t="s">
+        <v>149</v>
+      </c>
+      <c r="D73">
+        <v>99</v>
+      </c>
+      <c r="E73">
+        <v>0.49352</v>
+      </c>
+      <c r="F73">
+        <v>-2.26778354843842</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="100" customHeight="1">
+      <c r="A74" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" t="s">
+        <v>151</v>
+      </c>
+      <c r="D74">
+        <v>2.5</v>
+      </c>
+      <c r="E74">
+        <v>0.49352</v>
+      </c>
+      <c r="F74">
+        <v>1.808040943597903</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="100" customHeight="1">
+      <c r="A75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" t="s">
+        <v>153</v>
+      </c>
+      <c r="D75">
+        <v>90.5</v>
+      </c>
+      <c r="E75">
+        <v>0.49352</v>
+      </c>
+      <c r="F75">
+        <v>-1.112422729872088</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="100" customHeight="1">
+      <c r="A76" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" t="s">
+        <v>155</v>
+      </c>
+      <c r="D76">
+        <v>68</v>
+      </c>
+      <c r="E76">
+        <v>0.49352</v>
+      </c>
+      <c r="F76">
+        <v>-0.3720014599087911</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="100" customHeight="1">
+      <c r="A77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" t="s">
+        <v>157</v>
+      </c>
+      <c r="D77">
+        <v>39.5</v>
+      </c>
+      <c r="E77">
+        <v>0.49352</v>
+      </c>
+      <c r="F77">
+        <v>0.2104086459133793</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="100" customHeight="1">
+      <c r="A78" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" t="s">
+        <v>159</v>
+      </c>
+      <c r="D78">
+        <v>41.5</v>
+      </c>
+      <c r="E78">
+        <v>0.49352</v>
+      </c>
+      <c r="F78">
+        <v>0.1694418635416117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="100" customHeight="1">
+      <c r="A79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" t="s">
+        <v>161</v>
+      </c>
+      <c r="D79">
+        <v>36</v>
+      </c>
+      <c r="E79">
+        <v>0.49352</v>
+      </c>
+      <c r="F79">
+        <v>0.2839537127928058</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="100" customHeight="1">
+      <c r="A80" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80" t="s">
+        <v>163</v>
+      </c>
+      <c r="D80">
+        <v>23.5</v>
+      </c>
+      <c r="E80">
+        <v>0.49352</v>
+      </c>
+      <c r="F80">
+        <v>0.5824968785696466</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="100" customHeight="1">
+      <c r="A81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81" t="s">
+        <v>165</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>0.58904</v>
+      </c>
+      <c r="F81">
+        <v>2.706709396523279</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="100" customHeight="1">
+      <c r="A82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" t="s">
+        <v>167</v>
+      </c>
+      <c r="D82">
+        <v>30.5</v>
+      </c>
+      <c r="E82">
+        <v>0.49352</v>
+      </c>
+      <c r="F82">
+        <v>0.4064631060318465</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="100" customHeight="1">
+      <c r="A83" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83" t="s">
+        <v>169</v>
+      </c>
+      <c r="D83">
         <v>1.5</v>
       </c>
-      <c r="E68">
+      <c r="E83">
         <v>0.58904</v>
       </c>
-      <c r="F68">
+      <c r="F83">
         <v>2.464891741858761</v>
       </c>
     </row>

--- a/arranged_dataset/DIP-chloride.xlsx
+++ b/arranged_dataset/DIP-chloride.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t>smiles</t>
   </si>
@@ -136,12 +136,6 @@
     <t>ADCYRBXQAJXJTD-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>ClCC(=O)c1c(Cl)cc(Cl)cc1</t>
-  </si>
-  <si>
-    <t>VYWPPRLJNVHPEU-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>c1cc(Br)ccc1c2cc(Cl)ccc2C(=O)CCC</t>
   </si>
   <si>
@@ -232,54 +226,6 @@
     <t>IQZLUWLMQNGTIW-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>Oc1ccccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>JECYUBVRTQDVAT-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>Oc1cccc(OC)c1C(=O)C</t>
-  </si>
-  <si>
-    <t>UENLHUMCIOWYQN-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>Oc1ccc(OC)cc1C(=O)C</t>
-  </si>
-  <si>
-    <t>MLIBGOFSXXWRIY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>Oc1ccc(C)cc1C(=O)C</t>
-  </si>
-  <si>
-    <t>YNPDFBFVMJNGKZ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>Oc1ccc(F)cc1C(=O)C</t>
-  </si>
-  <si>
-    <t>KOFFXZYMDLWRHX-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>Oc1c(Cl)cc(Cl)cc1C(=O)C</t>
-  </si>
-  <si>
-    <t>CJFYGRLJDKWMDI-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>Oc1cc(OC)cc(C(=O)OC)c1C(=O)C</t>
-  </si>
-  <si>
-    <t>WRYKPYJMRHQDBM-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc1cccc(OC)c1C(=O)C</t>
-  </si>
-  <si>
-    <t>XEUGKOFTNAYMMX-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>COc1ccc(OC)cc1C(=O)C</t>
   </si>
   <si>
@@ -322,36 +268,6 @@
     <t>HXAOUYGZEOZTJO-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>ClC(Cl)C(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>CERJZAHSUZVMCH-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>ClC(Cl)(Cl)C(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>OAMHTTBNEJBIKA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>ClCC(=O)C</t>
-  </si>
-  <si>
-    <t>BULLHNJGPPOUOX-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>ClC(Cl)C(=O)C</t>
-  </si>
-  <si>
-    <t>CSVFWMMPUJDVKH-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>ClC(Cl)(Cl)C(=O)C</t>
-  </si>
-  <si>
-    <t>SMZHKGXSEAGRTI-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>COCC(=O)c1ccccc1</t>
   </si>
   <si>
@@ -464,12 +380,6 @@
   </si>
   <si>
     <t>KWOLFJPFCHCOCG-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>ClCC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>IMACFCSSMIZSPP-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>c1ccccc1/C=C/C(=O)C</t>
@@ -3109,576 +3019,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="83800950"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="Picture 68" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="85067775"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="Picture 69" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="86334600"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="Picture 70" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="87601425"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="Picture 71" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="88868250"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="Picture 72" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="90135075"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="Picture 73" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="91401900"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="Picture 74" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="92668725"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="Picture 75" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="93935550"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="Picture 76" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="95202375"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="Picture 77" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="96469200"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="Picture 78" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="97736025"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="Picture 79" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="99002850"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="Picture 80" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="100269675"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="82" name="Picture 81" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="101536500"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="83" name="Picture 82" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="102803325"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3976,7 +3316,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4302,13 +3642,13 @@
         <v>41</v>
       </c>
       <c r="D19">
-        <v>3.5</v>
+        <v>99</v>
       </c>
       <c r="E19">
         <v>0.49352</v>
       </c>
       <c r="F19">
-        <v>1.636897285266561</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="100" customHeight="1">
@@ -4319,13 +3659,13 @@
         <v>43</v>
       </c>
       <c r="D20">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="E20">
         <v>0.49352</v>
       </c>
       <c r="F20">
-        <v>-2.26778354843842</v>
+        <v>-0.2626596419205717</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="100" customHeight="1">
@@ -4336,13 +3676,13 @@
         <v>45</v>
       </c>
       <c r="D21">
-        <v>63</v>
+        <v>61.5</v>
       </c>
       <c r="E21">
         <v>0.49352</v>
       </c>
       <c r="F21">
-        <v>-0.2626596419205717</v>
+        <v>-0.2311543712701655</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="100" customHeight="1">
@@ -4353,13 +3693,13 @@
         <v>47</v>
       </c>
       <c r="D22">
-        <v>61.5</v>
+        <v>69</v>
       </c>
       <c r="E22">
         <v>0.49352</v>
       </c>
       <c r="F22">
-        <v>-0.2311543712701655</v>
+        <v>-0.3948748769913301</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="100" customHeight="1">
@@ -4370,13 +3710,13 @@
         <v>49</v>
       </c>
       <c r="D23">
-        <v>69</v>
+        <v>72.5</v>
       </c>
       <c r="E23">
         <v>0.49352</v>
       </c>
       <c r="F23">
-        <v>-0.3948748769913301</v>
+        <v>-0.4784185629834727</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="100" customHeight="1">
@@ -4387,13 +3727,13 @@
         <v>51</v>
       </c>
       <c r="D24">
-        <v>72.5</v>
+        <v>4</v>
       </c>
       <c r="E24">
-        <v>0.49352</v>
+        <v>0.38805</v>
       </c>
       <c r="F24">
-        <v>-0.4784185629834727</v>
+        <v>1.23324378886652</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="100" customHeight="1">
@@ -4404,13 +3744,13 @@
         <v>53</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E25">
         <v>0.38805</v>
       </c>
       <c r="F25">
-        <v>1.23324378886652</v>
+        <v>1.103556668584487</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="100" customHeight="1">
@@ -4421,13 +3761,13 @@
         <v>55</v>
       </c>
       <c r="D26">
-        <v>5.5</v>
+        <v>91</v>
       </c>
       <c r="E26">
         <v>0.38805</v>
       </c>
       <c r="F26">
-        <v>1.103556668584487</v>
+        <v>-0.8978060342685433</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="100" customHeight="1">
@@ -4438,13 +3778,13 @@
         <v>57</v>
       </c>
       <c r="D27">
-        <v>91</v>
+        <v>99.5</v>
       </c>
       <c r="E27">
-        <v>0.38805</v>
+        <v>0.49352</v>
       </c>
       <c r="F27">
-        <v>-0.8978060342685433</v>
+        <v>-2.61235179709804</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="100" customHeight="1">
@@ -4455,13 +3795,13 @@
         <v>59</v>
       </c>
       <c r="D28">
-        <v>99.5</v>
+        <v>36.5</v>
       </c>
       <c r="E28">
         <v>0.49352</v>
       </c>
       <c r="F28">
-        <v>-2.61235179709804</v>
+        <v>0.2732756675134899</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="100" customHeight="1">
@@ -4472,13 +3812,13 @@
         <v>61</v>
       </c>
       <c r="D29">
-        <v>36.5</v>
+        <v>99</v>
       </c>
       <c r="E29">
         <v>0.49352</v>
       </c>
       <c r="F29">
-        <v>0.2732756675134899</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="100" customHeight="1">
@@ -4489,13 +3829,13 @@
         <v>63</v>
       </c>
       <c r="D30">
-        <v>99</v>
+        <v>98.5</v>
       </c>
       <c r="E30">
         <v>0.49352</v>
       </c>
       <c r="F30">
-        <v>-2.26778354843842</v>
+        <v>-2.065179567503288</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="100" customHeight="1">
@@ -4506,13 +3846,13 @@
         <v>65</v>
       </c>
       <c r="D31">
-        <v>98.5</v>
+        <v>97.5</v>
       </c>
       <c r="E31">
         <v>0.49352</v>
       </c>
       <c r="F31">
-        <v>-2.065179567503288</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="100" customHeight="1">
@@ -4523,13 +3863,13 @@
         <v>67</v>
       </c>
       <c r="D32">
-        <v>97.5</v>
+        <v>93.5</v>
       </c>
       <c r="E32">
         <v>0.49352</v>
       </c>
       <c r="F32">
-        <v>-1.808040943597905</v>
+        <v>-1.315802917695658</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="100" customHeight="1">
@@ -4540,13 +3880,13 @@
         <v>69</v>
       </c>
       <c r="D33">
-        <v>93.5</v>
+        <v>97</v>
       </c>
       <c r="E33">
         <v>0.49352</v>
       </c>
       <c r="F33">
-        <v>-1.315802917695658</v>
+        <v>-1.715524225407506</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="100" customHeight="1">
@@ -4557,13 +3897,13 @@
         <v>71</v>
       </c>
       <c r="D34">
-        <v>97</v>
+        <v>96.5</v>
       </c>
       <c r="E34">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F34">
-        <v>-1.715524225407506</v>
+        <v>-1.801907092249079</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="100" customHeight="1">
@@ -4574,13 +3914,13 @@
         <v>73</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>97.5</v>
       </c>
       <c r="E35">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F35">
-        <v>1.716814035582576</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="100" customHeight="1">
@@ -4591,13 +3931,13 @@
         <v>75</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="E36">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F36">
-        <v>2.269203661219363</v>
+        <v>-1.715524225407506</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="100" customHeight="1">
@@ -4608,13 +3948,13 @@
         <v>77</v>
       </c>
       <c r="D37">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="E37">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F37">
-        <v>1.34901111815735</v>
+        <v>-1.715524225407506</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="100" customHeight="1">
@@ -4625,13 +3965,13 @@
         <v>79</v>
       </c>
       <c r="D38">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E38">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F38">
-        <v>1.34901111815735</v>
+        <v>-0.2001051401535412</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="100" customHeight="1">
@@ -4642,13 +3982,13 @@
         <v>81</v>
       </c>
       <c r="D39">
-        <v>10.5</v>
+        <v>98</v>
       </c>
       <c r="E39">
         <v>0.58307</v>
       </c>
       <c r="F39">
-        <v>1.249439344048173</v>
+        <v>-2.269203661219362</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="100" customHeight="1">
@@ -4659,13 +3999,13 @@
         <v>83</v>
       </c>
       <c r="D40">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="E40">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F40">
-        <v>1.135836915731209</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="100" customHeight="1">
@@ -4676,13 +4016,13 @@
         <v>85</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E41">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F41">
-        <v>1.716814035582576</v>
+        <v>1.808040943597903</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="100" customHeight="1">
@@ -4693,13 +4033,13 @@
         <v>87</v>
       </c>
       <c r="D42">
-        <v>40</v>
+        <v>98.5</v>
       </c>
       <c r="E42">
         <v>0.49352</v>
       </c>
       <c r="F42">
-        <v>0.2001051401535413</v>
+        <v>-2.065179567503288</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="100" customHeight="1">
@@ -4710,13 +4050,13 @@
         <v>89</v>
       </c>
       <c r="D43">
-        <v>96.5</v>
+        <v>99.5</v>
       </c>
       <c r="E43">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F43">
-        <v>-1.801907092249079</v>
+        <v>-2.61235179709804</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="100" customHeight="1">
@@ -4727,13 +4067,13 @@
         <v>91</v>
       </c>
       <c r="D44">
-        <v>97.5</v>
+        <v>99</v>
       </c>
       <c r="E44">
         <v>0.49352</v>
       </c>
       <c r="F44">
-        <v>-1.808040943597905</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="100" customHeight="1">
@@ -4744,13 +4084,13 @@
         <v>93</v>
       </c>
       <c r="D45">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E45">
         <v>0.49352</v>
       </c>
       <c r="F45">
-        <v>-1.715524225407506</v>
+        <v>-1.920691153523556</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="100" customHeight="1">
@@ -4761,13 +4101,13 @@
         <v>95</v>
       </c>
       <c r="D46">
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="E46">
         <v>0.49352</v>
       </c>
       <c r="F46">
-        <v>-1.715524225407506</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="100" customHeight="1">
@@ -4778,13 +4118,13 @@
         <v>97</v>
       </c>
       <c r="D47">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="E47">
         <v>0.49352</v>
       </c>
       <c r="F47">
-        <v>-0.2001051401535412</v>
+        <v>-1.141825110249225</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="100" customHeight="1">
@@ -4795,13 +4135,13 @@
         <v>99</v>
       </c>
       <c r="D48">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E48">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F48">
-        <v>-2.269203661219362</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="100" customHeight="1">
@@ -4812,13 +4152,13 @@
         <v>101</v>
       </c>
       <c r="D49">
-        <v>99</v>
+        <v>96.5</v>
       </c>
       <c r="E49">
         <v>0.49352</v>
       </c>
       <c r="F49">
-        <v>-2.26778354843842</v>
+        <v>-1.636897285266562</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="100" customHeight="1">
@@ -4829,13 +4169,13 @@
         <v>103</v>
       </c>
       <c r="D50">
-        <v>9</v>
+        <v>95.5</v>
       </c>
       <c r="E50">
         <v>0.49352</v>
       </c>
       <c r="F50">
-        <v>1.141825110249225</v>
+        <v>-1.507727708802602</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="100" customHeight="1">
@@ -4846,13 +4186,13 @@
         <v>105</v>
       </c>
       <c r="D51">
-        <v>95.5</v>
+        <v>97.5</v>
       </c>
       <c r="E51">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F51">
-        <v>-1.781307333383719</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="100" customHeight="1">
@@ -4863,13 +4203,13 @@
         <v>107</v>
       </c>
       <c r="D52">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="E52">
         <v>0.49352</v>
       </c>
       <c r="F52">
-        <v>0.1796241929564407</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="100" customHeight="1">
@@ -4880,13 +4220,13 @@
         <v>109</v>
       </c>
       <c r="D53">
-        <v>42.5</v>
+        <v>98.5</v>
       </c>
       <c r="E53">
         <v>0.49352</v>
       </c>
       <c r="F53">
-        <v>0.1491816558867302</v>
+        <v>-2.065179567503288</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="100" customHeight="1">
@@ -4897,13 +4237,13 @@
         <v>111</v>
       </c>
       <c r="D54">
-        <v>95.5</v>
+        <v>2</v>
       </c>
       <c r="E54">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F54">
-        <v>-1.781307333383719</v>
+        <v>1.920691153523556</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="100" customHeight="1">
@@ -4914,13 +4254,13 @@
         <v>113</v>
       </c>
       <c r="D55">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="E55">
         <v>0.49352</v>
       </c>
       <c r="F55">
-        <v>1.808040943597903</v>
+        <v>2.612351797098031</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="100" customHeight="1">
@@ -4931,13 +4271,13 @@
         <v>115</v>
       </c>
       <c r="D56">
-        <v>98.5</v>
+        <v>0.5</v>
       </c>
       <c r="E56">
         <v>0.49352</v>
       </c>
       <c r="F56">
-        <v>-2.065179567503288</v>
+        <v>2.612351797098031</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="100" customHeight="1">
@@ -4948,13 +4288,13 @@
         <v>117</v>
       </c>
       <c r="D57">
-        <v>99.5</v>
+        <v>0.5</v>
       </c>
       <c r="E57">
         <v>0.49352</v>
       </c>
       <c r="F57">
-        <v>-2.61235179709804</v>
+        <v>2.612351797098031</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="100" customHeight="1">
@@ -4965,13 +4305,13 @@
         <v>119</v>
       </c>
       <c r="D58">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="E58">
         <v>0.49352</v>
       </c>
       <c r="F58">
-        <v>-2.26778354843842</v>
+        <v>-0.3273489621763136</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="100" customHeight="1">
@@ -4982,13 +4322,13 @@
         <v>121</v>
       </c>
       <c r="D59">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E59">
         <v>0.49352</v>
       </c>
       <c r="F59">
-        <v>-1.920691153523556</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="100" customHeight="1">
@@ -4999,13 +4339,13 @@
         <v>123</v>
       </c>
       <c r="D60">
-        <v>97.5</v>
+        <v>90.5</v>
       </c>
       <c r="E60">
         <v>0.49352</v>
       </c>
       <c r="F60">
-        <v>-1.808040943597905</v>
+        <v>-1.112422729872088</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="100" customHeight="1">
@@ -5016,13 +4356,13 @@
         <v>125</v>
       </c>
       <c r="D61">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="E61">
         <v>0.49352</v>
       </c>
       <c r="F61">
-        <v>-1.141825110249225</v>
+        <v>-0.3720014599087911</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="100" customHeight="1">
@@ -5033,13 +4373,13 @@
         <v>127</v>
       </c>
       <c r="D62">
-        <v>99</v>
+        <v>39.5</v>
       </c>
       <c r="E62">
         <v>0.49352</v>
       </c>
       <c r="F62">
-        <v>-2.26778354843842</v>
+        <v>0.2104086459133793</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="100" customHeight="1">
@@ -5050,13 +4390,13 @@
         <v>129</v>
       </c>
       <c r="D63">
-        <v>96.5</v>
+        <v>41.5</v>
       </c>
       <c r="E63">
         <v>0.49352</v>
       </c>
       <c r="F63">
-        <v>-1.636897285266562</v>
+        <v>0.1694418635416117</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="100" customHeight="1">
@@ -5067,13 +4407,13 @@
         <v>131</v>
       </c>
       <c r="D64">
-        <v>95.5</v>
+        <v>36</v>
       </c>
       <c r="E64">
         <v>0.49352</v>
       </c>
       <c r="F64">
-        <v>-1.507727708802602</v>
+        <v>0.2839537127928058</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="100" customHeight="1">
@@ -5084,13 +4424,13 @@
         <v>133</v>
       </c>
       <c r="D65">
-        <v>97.5</v>
+        <v>23.5</v>
       </c>
       <c r="E65">
         <v>0.49352</v>
       </c>
       <c r="F65">
-        <v>-1.808040943597905</v>
+        <v>0.5824968785696466</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="100" customHeight="1">
@@ -5104,10 +4444,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>0.49352</v>
+        <v>0.58904</v>
       </c>
       <c r="F66">
-        <v>2.267783548438423</v>
+        <v>2.706709396523279</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="100" customHeight="1">
@@ -5118,13 +4458,13 @@
         <v>137</v>
       </c>
       <c r="D67">
-        <v>98.5</v>
+        <v>30.5</v>
       </c>
       <c r="E67">
         <v>0.49352</v>
       </c>
       <c r="F67">
-        <v>-2.065179567503288</v>
+        <v>0.4064631060318465</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="100" customHeight="1">
@@ -5135,267 +4475,12 @@
         <v>139</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E68">
-        <v>0.49352</v>
+        <v>0.58904</v>
       </c>
       <c r="F68">
-        <v>1.920691153523556</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="100" customHeight="1">
-      <c r="A69" t="s">
-        <v>140</v>
-      </c>
-      <c r="C69" t="s">
-        <v>141</v>
-      </c>
-      <c r="D69">
-        <v>0.5</v>
-      </c>
-      <c r="E69">
-        <v>0.49352</v>
-      </c>
-      <c r="F69">
-        <v>2.612351797098031</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="100" customHeight="1">
-      <c r="A70" t="s">
-        <v>142</v>
-      </c>
-      <c r="C70" t="s">
-        <v>143</v>
-      </c>
-      <c r="D70">
-        <v>0.5</v>
-      </c>
-      <c r="E70">
-        <v>0.49352</v>
-      </c>
-      <c r="F70">
-        <v>2.612351797098031</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="100" customHeight="1">
-      <c r="A71" t="s">
-        <v>144</v>
-      </c>
-      <c r="C71" t="s">
-        <v>145</v>
-      </c>
-      <c r="D71">
-        <v>0.5</v>
-      </c>
-      <c r="E71">
-        <v>0.49352</v>
-      </c>
-      <c r="F71">
-        <v>2.612351797098031</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="100" customHeight="1">
-      <c r="A72" t="s">
-        <v>146</v>
-      </c>
-      <c r="C72" t="s">
-        <v>147</v>
-      </c>
-      <c r="D72">
-        <v>66</v>
-      </c>
-      <c r="E72">
-        <v>0.49352</v>
-      </c>
-      <c r="F72">
-        <v>-0.3273489621763136</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="100" customHeight="1">
-      <c r="A73" t="s">
-        <v>148</v>
-      </c>
-      <c r="C73" t="s">
-        <v>149</v>
-      </c>
-      <c r="D73">
-        <v>99</v>
-      </c>
-      <c r="E73">
-        <v>0.49352</v>
-      </c>
-      <c r="F73">
-        <v>-2.26778354843842</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="100" customHeight="1">
-      <c r="A74" t="s">
-        <v>150</v>
-      </c>
-      <c r="C74" t="s">
-        <v>151</v>
-      </c>
-      <c r="D74">
-        <v>2.5</v>
-      </c>
-      <c r="E74">
-        <v>0.49352</v>
-      </c>
-      <c r="F74">
-        <v>1.808040943597903</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="100" customHeight="1">
-      <c r="A75" t="s">
-        <v>152</v>
-      </c>
-      <c r="C75" t="s">
-        <v>153</v>
-      </c>
-      <c r="D75">
-        <v>90.5</v>
-      </c>
-      <c r="E75">
-        <v>0.49352</v>
-      </c>
-      <c r="F75">
-        <v>-1.112422729872088</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="100" customHeight="1">
-      <c r="A76" t="s">
-        <v>154</v>
-      </c>
-      <c r="C76" t="s">
-        <v>155</v>
-      </c>
-      <c r="D76">
-        <v>68</v>
-      </c>
-      <c r="E76">
-        <v>0.49352</v>
-      </c>
-      <c r="F76">
-        <v>-0.3720014599087911</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="100" customHeight="1">
-      <c r="A77" t="s">
-        <v>156</v>
-      </c>
-      <c r="C77" t="s">
-        <v>157</v>
-      </c>
-      <c r="D77">
-        <v>39.5</v>
-      </c>
-      <c r="E77">
-        <v>0.49352</v>
-      </c>
-      <c r="F77">
-        <v>0.2104086459133793</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="100" customHeight="1">
-      <c r="A78" t="s">
-        <v>158</v>
-      </c>
-      <c r="C78" t="s">
-        <v>159</v>
-      </c>
-      <c r="D78">
-        <v>41.5</v>
-      </c>
-      <c r="E78">
-        <v>0.49352</v>
-      </c>
-      <c r="F78">
-        <v>0.1694418635416117</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="100" customHeight="1">
-      <c r="A79" t="s">
-        <v>160</v>
-      </c>
-      <c r="C79" t="s">
-        <v>161</v>
-      </c>
-      <c r="D79">
-        <v>36</v>
-      </c>
-      <c r="E79">
-        <v>0.49352</v>
-      </c>
-      <c r="F79">
-        <v>0.2839537127928058</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="100" customHeight="1">
-      <c r="A80" t="s">
-        <v>162</v>
-      </c>
-      <c r="C80" t="s">
-        <v>163</v>
-      </c>
-      <c r="D80">
-        <v>23.5</v>
-      </c>
-      <c r="E80">
-        <v>0.49352</v>
-      </c>
-      <c r="F80">
-        <v>0.5824968785696466</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="100" customHeight="1">
-      <c r="A81" t="s">
-        <v>164</v>
-      </c>
-      <c r="C81" t="s">
-        <v>165</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <v>0.58904</v>
-      </c>
-      <c r="F81">
-        <v>2.706709396523279</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="100" customHeight="1">
-      <c r="A82" t="s">
-        <v>166</v>
-      </c>
-      <c r="C82" t="s">
-        <v>167</v>
-      </c>
-      <c r="D82">
-        <v>30.5</v>
-      </c>
-      <c r="E82">
-        <v>0.49352</v>
-      </c>
-      <c r="F82">
-        <v>0.4064631060318465</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="100" customHeight="1">
-      <c r="A83" t="s">
-        <v>168</v>
-      </c>
-      <c r="C83" t="s">
-        <v>169</v>
-      </c>
-      <c r="D83">
-        <v>1.5</v>
-      </c>
-      <c r="E83">
-        <v>0.58904</v>
-      </c>
-      <c r="F83">
         <v>2.464891741858761</v>
       </c>
     </row>

--- a/arranged_dataset/DIP-chloride.xlsx
+++ b/arranged_dataset/DIP-chloride.xlsx
@@ -112,12 +112,6 @@
     <t>FNENWZWNOPCZGK-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>BrCC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>LIGACIXOYTUXAW-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>c1cc(Br)ccc1C(=O)C</t>
   </si>
   <si>
@@ -224,6 +218,12 @@
   </si>
   <si>
     <t>IQZLUWLMQNGTIW-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COc1cccc(OC)c1C(=O)C</t>
+  </si>
+  <si>
+    <t>XEUGKOFTNAYMMX-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>COc1ccc(OC)cc1C(=O)C</t>
@@ -3574,13 +3574,13 @@
         <v>33</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>98.5</v>
       </c>
       <c r="E15">
         <v>0.49352</v>
       </c>
       <c r="F15">
-        <v>1.276582925099217</v>
+        <v>-2.065179567503288</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="100" customHeight="1">
@@ -3608,13 +3608,13 @@
         <v>37</v>
       </c>
       <c r="D17">
-        <v>98.5</v>
+        <v>99</v>
       </c>
       <c r="E17">
         <v>0.49352</v>
       </c>
       <c r="F17">
-        <v>-2.065179567503288</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="100" customHeight="1">
@@ -3642,13 +3642,13 @@
         <v>41</v>
       </c>
       <c r="D19">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="E19">
         <v>0.49352</v>
       </c>
       <c r="F19">
-        <v>-2.26778354843842</v>
+        <v>-0.2626596419205717</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="100" customHeight="1">
@@ -3659,13 +3659,13 @@
         <v>43</v>
       </c>
       <c r="D20">
-        <v>63</v>
+        <v>61.5</v>
       </c>
       <c r="E20">
         <v>0.49352</v>
       </c>
       <c r="F20">
-        <v>-0.2626596419205717</v>
+        <v>-0.2311543712701655</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="100" customHeight="1">
@@ -3676,13 +3676,13 @@
         <v>45</v>
       </c>
       <c r="D21">
-        <v>61.5</v>
+        <v>69</v>
       </c>
       <c r="E21">
         <v>0.49352</v>
       </c>
       <c r="F21">
-        <v>-0.2311543712701655</v>
+        <v>-0.3948748769913301</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="100" customHeight="1">
@@ -3693,13 +3693,13 @@
         <v>47</v>
       </c>
       <c r="D22">
-        <v>69</v>
+        <v>72.5</v>
       </c>
       <c r="E22">
         <v>0.49352</v>
       </c>
       <c r="F22">
-        <v>-0.3948748769913301</v>
+        <v>-0.4784185629834727</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="100" customHeight="1">
@@ -3710,13 +3710,13 @@
         <v>49</v>
       </c>
       <c r="D23">
-        <v>72.5</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>0.49352</v>
+        <v>0.38805</v>
       </c>
       <c r="F23">
-        <v>-0.4784185629834727</v>
+        <v>1.23324378886652</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="100" customHeight="1">
@@ -3727,13 +3727,13 @@
         <v>51</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E24">
         <v>0.38805</v>
       </c>
       <c r="F24">
-        <v>1.23324378886652</v>
+        <v>1.103556668584487</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="100" customHeight="1">
@@ -3744,13 +3744,13 @@
         <v>53</v>
       </c>
       <c r="D25">
-        <v>5.5</v>
+        <v>91</v>
       </c>
       <c r="E25">
         <v>0.38805</v>
       </c>
       <c r="F25">
-        <v>1.103556668584487</v>
+        <v>-0.8978060342685433</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="100" customHeight="1">
@@ -3761,13 +3761,13 @@
         <v>55</v>
       </c>
       <c r="D26">
-        <v>91</v>
+        <v>99.5</v>
       </c>
       <c r="E26">
-        <v>0.38805</v>
+        <v>0.49352</v>
       </c>
       <c r="F26">
-        <v>-0.8978060342685433</v>
+        <v>-2.61235179709804</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="100" customHeight="1">
@@ -3778,13 +3778,13 @@
         <v>57</v>
       </c>
       <c r="D27">
-        <v>99.5</v>
+        <v>36.5</v>
       </c>
       <c r="E27">
         <v>0.49352</v>
       </c>
       <c r="F27">
-        <v>-2.61235179709804</v>
+        <v>0.2732756675134899</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="100" customHeight="1">
@@ -3795,13 +3795,13 @@
         <v>59</v>
       </c>
       <c r="D28">
-        <v>36.5</v>
+        <v>99</v>
       </c>
       <c r="E28">
         <v>0.49352</v>
       </c>
       <c r="F28">
-        <v>0.2732756675134899</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="100" customHeight="1">
@@ -3812,13 +3812,13 @@
         <v>61</v>
       </c>
       <c r="D29">
-        <v>99</v>
+        <v>98.5</v>
       </c>
       <c r="E29">
         <v>0.49352</v>
       </c>
       <c r="F29">
-        <v>-2.26778354843842</v>
+        <v>-2.065179567503288</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="100" customHeight="1">
@@ -3829,13 +3829,13 @@
         <v>63</v>
       </c>
       <c r="D30">
-        <v>98.5</v>
+        <v>97.5</v>
       </c>
       <c r="E30">
         <v>0.49352</v>
       </c>
       <c r="F30">
-        <v>-2.065179567503288</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="100" customHeight="1">
@@ -3846,13 +3846,13 @@
         <v>65</v>
       </c>
       <c r="D31">
-        <v>97.5</v>
+        <v>93.5</v>
       </c>
       <c r="E31">
         <v>0.49352</v>
       </c>
       <c r="F31">
-        <v>-1.808040943597905</v>
+        <v>-1.315802917695658</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="100" customHeight="1">
@@ -3863,13 +3863,13 @@
         <v>67</v>
       </c>
       <c r="D32">
-        <v>93.5</v>
+        <v>97</v>
       </c>
       <c r="E32">
         <v>0.49352</v>
       </c>
       <c r="F32">
-        <v>-1.315802917695658</v>
+        <v>-1.715524225407506</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="100" customHeight="1">
@@ -3880,13 +3880,13 @@
         <v>69</v>
       </c>
       <c r="D33">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="E33">
         <v>0.49352</v>
       </c>
       <c r="F33">
-        <v>-1.715524225407506</v>
+        <v>0.2001051401535413</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="100" customHeight="1">

--- a/arranged_dataset/DIP-chloride.xlsx
+++ b/arranged_dataset/DIP-chloride.xlsx
@@ -112,6 +112,12 @@
     <t>FNENWZWNOPCZGK-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>BrCC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>LIGACIXOYTUXAW-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>c1cc(Br)ccc1C(=O)C</t>
   </si>
   <si>
@@ -218,12 +224,6 @@
   </si>
   <si>
     <t>IQZLUWLMQNGTIW-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc1cccc(OC)c1C(=O)C</t>
-  </si>
-  <si>
-    <t>XEUGKOFTNAYMMX-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>COc1ccc(OC)cc1C(=O)C</t>
@@ -3574,13 +3574,13 @@
         <v>33</v>
       </c>
       <c r="D15">
-        <v>98.5</v>
+        <v>7</v>
       </c>
       <c r="E15">
         <v>0.49352</v>
       </c>
       <c r="F15">
-        <v>-2.065179567503288</v>
+        <v>1.276582925099217</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="100" customHeight="1">
@@ -3608,13 +3608,13 @@
         <v>37</v>
       </c>
       <c r="D17">
-        <v>99</v>
+        <v>98.5</v>
       </c>
       <c r="E17">
         <v>0.49352</v>
       </c>
       <c r="F17">
-        <v>-2.26778354843842</v>
+        <v>-2.065179567503288</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="100" customHeight="1">
@@ -3642,13 +3642,13 @@
         <v>41</v>
       </c>
       <c r="D19">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="E19">
         <v>0.49352</v>
       </c>
       <c r="F19">
-        <v>-0.2626596419205717</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="100" customHeight="1">
@@ -3659,13 +3659,13 @@
         <v>43</v>
       </c>
       <c r="D20">
-        <v>61.5</v>
+        <v>63</v>
       </c>
       <c r="E20">
         <v>0.49352</v>
       </c>
       <c r="F20">
-        <v>-0.2311543712701655</v>
+        <v>-0.2626596419205717</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="100" customHeight="1">
@@ -3676,13 +3676,13 @@
         <v>45</v>
       </c>
       <c r="D21">
-        <v>69</v>
+        <v>61.5</v>
       </c>
       <c r="E21">
         <v>0.49352</v>
       </c>
       <c r="F21">
-        <v>-0.3948748769913301</v>
+        <v>-0.2311543712701655</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="100" customHeight="1">
@@ -3693,13 +3693,13 @@
         <v>47</v>
       </c>
       <c r="D22">
-        <v>72.5</v>
+        <v>69</v>
       </c>
       <c r="E22">
         <v>0.49352</v>
       </c>
       <c r="F22">
-        <v>-0.4784185629834727</v>
+        <v>-0.3948748769913301</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="100" customHeight="1">
@@ -3710,13 +3710,13 @@
         <v>49</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>72.5</v>
       </c>
       <c r="E23">
-        <v>0.38805</v>
+        <v>0.49352</v>
       </c>
       <c r="F23">
-        <v>1.23324378886652</v>
+        <v>-0.4784185629834727</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="100" customHeight="1">
@@ -3727,13 +3727,13 @@
         <v>51</v>
       </c>
       <c r="D24">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="E24">
         <v>0.38805</v>
       </c>
       <c r="F24">
-        <v>1.103556668584487</v>
+        <v>1.23324378886652</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="100" customHeight="1">
@@ -3744,13 +3744,13 @@
         <v>53</v>
       </c>
       <c r="D25">
-        <v>91</v>
+        <v>5.5</v>
       </c>
       <c r="E25">
         <v>0.38805</v>
       </c>
       <c r="F25">
-        <v>-0.8978060342685433</v>
+        <v>1.103556668584487</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="100" customHeight="1">
@@ -3761,13 +3761,13 @@
         <v>55</v>
       </c>
       <c r="D26">
-        <v>99.5</v>
+        <v>91</v>
       </c>
       <c r="E26">
-        <v>0.49352</v>
+        <v>0.38805</v>
       </c>
       <c r="F26">
-        <v>-2.61235179709804</v>
+        <v>-0.8978060342685433</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="100" customHeight="1">
@@ -3778,13 +3778,13 @@
         <v>57</v>
       </c>
       <c r="D27">
-        <v>36.5</v>
+        <v>99.5</v>
       </c>
       <c r="E27">
         <v>0.49352</v>
       </c>
       <c r="F27">
-        <v>0.2732756675134899</v>
+        <v>-2.61235179709804</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="100" customHeight="1">
@@ -3795,13 +3795,13 @@
         <v>59</v>
       </c>
       <c r="D28">
-        <v>99</v>
+        <v>36.5</v>
       </c>
       <c r="E28">
         <v>0.49352</v>
       </c>
       <c r="F28">
-        <v>-2.26778354843842</v>
+        <v>0.2732756675134899</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="100" customHeight="1">
@@ -3812,13 +3812,13 @@
         <v>61</v>
       </c>
       <c r="D29">
-        <v>98.5</v>
+        <v>99</v>
       </c>
       <c r="E29">
         <v>0.49352</v>
       </c>
       <c r="F29">
-        <v>-2.065179567503288</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="100" customHeight="1">
@@ -3829,13 +3829,13 @@
         <v>63</v>
       </c>
       <c r="D30">
-        <v>97.5</v>
+        <v>98.5</v>
       </c>
       <c r="E30">
         <v>0.49352</v>
       </c>
       <c r="F30">
-        <v>-1.808040943597905</v>
+        <v>-2.065179567503288</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="100" customHeight="1">
@@ -3846,13 +3846,13 @@
         <v>65</v>
       </c>
       <c r="D31">
-        <v>93.5</v>
+        <v>97.5</v>
       </c>
       <c r="E31">
         <v>0.49352</v>
       </c>
       <c r="F31">
-        <v>-1.315802917695658</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="100" customHeight="1">
@@ -3863,13 +3863,13 @@
         <v>67</v>
       </c>
       <c r="D32">
-        <v>97</v>
+        <v>93.5</v>
       </c>
       <c r="E32">
         <v>0.49352</v>
       </c>
       <c r="F32">
-        <v>-1.715524225407506</v>
+        <v>-1.315802917695658</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="100" customHeight="1">
@@ -3880,13 +3880,13 @@
         <v>69</v>
       </c>
       <c r="D33">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="E33">
         <v>0.49352</v>
       </c>
       <c r="F33">
-        <v>0.2001051401535413</v>
+        <v>-1.715524225407506</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="100" customHeight="1">

--- a/arranged_dataset/DIP-chloride.xlsx
+++ b/arranged_dataset/DIP-chloride.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>smiles</t>
   </si>
@@ -94,12 +94,6 @@
     <t>XSAYZAUNJMRRIR-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>c1ncccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>WEGYGNROSJDEIW-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>s1cccc1C(=O)C</t>
   </si>
   <si>
@@ -272,12 +266,6 @@
   </si>
   <si>
     <t>YRNDGUSDBCARGC-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1cc([N+]([O-])=O)ccc1C(=O)CC</t>
-  </si>
-  <si>
-    <t>QHTSEJJUUBOESF-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>Brc1ccccc1C(=O)C</t>
@@ -2943,82 +2931,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="81267300"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="Picture 66" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="82534125"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="Picture 67" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="83800950"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3316,7 +3228,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3523,13 +3435,13 @@
         <v>27</v>
       </c>
       <c r="D12">
-        <v>96.2</v>
+        <v>95.65000000000001</v>
       </c>
       <c r="E12">
         <v>0.49352</v>
       </c>
       <c r="F12">
-        <v>-1.594774490144373</v>
+        <v>-1.525233356759745</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="100" customHeight="1">
@@ -3540,13 +3452,13 @@
         <v>29</v>
       </c>
       <c r="D13">
-        <v>95.65000000000001</v>
+        <v>92</v>
       </c>
       <c r="E13">
-        <v>0.49352</v>
+        <v>0.59302</v>
       </c>
       <c r="F13">
-        <v>-1.525233356759745</v>
+        <v>-1.448360638914646</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="100" customHeight="1">
@@ -3557,13 +3469,13 @@
         <v>31</v>
       </c>
       <c r="D14">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="F14">
-        <v>-1.448360638914646</v>
+        <v>1.276582925099217</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="100" customHeight="1">
@@ -3574,13 +3486,13 @@
         <v>33</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>98.5</v>
       </c>
       <c r="E15">
         <v>0.49352</v>
       </c>
       <c r="F15">
-        <v>1.276582925099217</v>
+        <v>-2.065179567503288</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="100" customHeight="1">
@@ -3608,13 +3520,13 @@
         <v>37</v>
       </c>
       <c r="D17">
-        <v>98.5</v>
+        <v>99</v>
       </c>
       <c r="E17">
         <v>0.49352</v>
       </c>
       <c r="F17">
-        <v>-2.065179567503288</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="100" customHeight="1">
@@ -3642,13 +3554,13 @@
         <v>41</v>
       </c>
       <c r="D19">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="E19">
         <v>0.49352</v>
       </c>
       <c r="F19">
-        <v>-2.26778354843842</v>
+        <v>-0.2626596419205717</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="100" customHeight="1">
@@ -3659,13 +3571,13 @@
         <v>43</v>
       </c>
       <c r="D20">
-        <v>63</v>
+        <v>61.5</v>
       </c>
       <c r="E20">
         <v>0.49352</v>
       </c>
       <c r="F20">
-        <v>-0.2626596419205717</v>
+        <v>-0.2311543712701655</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="100" customHeight="1">
@@ -3676,13 +3588,13 @@
         <v>45</v>
       </c>
       <c r="D21">
-        <v>61.5</v>
+        <v>69</v>
       </c>
       <c r="E21">
         <v>0.49352</v>
       </c>
       <c r="F21">
-        <v>-0.2311543712701655</v>
+        <v>-0.3948748769913301</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="100" customHeight="1">
@@ -3693,13 +3605,13 @@
         <v>47</v>
       </c>
       <c r="D22">
-        <v>69</v>
+        <v>72.5</v>
       </c>
       <c r="E22">
         <v>0.49352</v>
       </c>
       <c r="F22">
-        <v>-0.3948748769913301</v>
+        <v>-0.4784185629834727</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="100" customHeight="1">
@@ -3710,13 +3622,13 @@
         <v>49</v>
       </c>
       <c r="D23">
-        <v>72.5</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>0.49352</v>
+        <v>0.38805</v>
       </c>
       <c r="F23">
-        <v>-0.4784185629834727</v>
+        <v>1.23324378886652</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="100" customHeight="1">
@@ -3727,13 +3639,13 @@
         <v>51</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E24">
         <v>0.38805</v>
       </c>
       <c r="F24">
-        <v>1.23324378886652</v>
+        <v>1.103556668584487</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="100" customHeight="1">
@@ -3744,13 +3656,13 @@
         <v>53</v>
       </c>
       <c r="D25">
-        <v>5.5</v>
+        <v>91</v>
       </c>
       <c r="E25">
         <v>0.38805</v>
       </c>
       <c r="F25">
-        <v>1.103556668584487</v>
+        <v>-0.8978060342685433</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="100" customHeight="1">
@@ -3761,13 +3673,13 @@
         <v>55</v>
       </c>
       <c r="D26">
-        <v>91</v>
+        <v>99.5</v>
       </c>
       <c r="E26">
-        <v>0.38805</v>
+        <v>0.49352</v>
       </c>
       <c r="F26">
-        <v>-0.8978060342685433</v>
+        <v>-2.61235179709804</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="100" customHeight="1">
@@ -3778,13 +3690,13 @@
         <v>57</v>
       </c>
       <c r="D27">
-        <v>99.5</v>
+        <v>36.5</v>
       </c>
       <c r="E27">
         <v>0.49352</v>
       </c>
       <c r="F27">
-        <v>-2.61235179709804</v>
+        <v>0.2732756675134899</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="100" customHeight="1">
@@ -3795,13 +3707,13 @@
         <v>59</v>
       </c>
       <c r="D28">
-        <v>36.5</v>
+        <v>99</v>
       </c>
       <c r="E28">
         <v>0.49352</v>
       </c>
       <c r="F28">
-        <v>0.2732756675134899</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="100" customHeight="1">
@@ -3812,13 +3724,13 @@
         <v>61</v>
       </c>
       <c r="D29">
-        <v>99</v>
+        <v>98.5</v>
       </c>
       <c r="E29">
         <v>0.49352</v>
       </c>
       <c r="F29">
-        <v>-2.26778354843842</v>
+        <v>-2.065179567503288</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="100" customHeight="1">
@@ -3829,13 +3741,13 @@
         <v>63</v>
       </c>
       <c r="D30">
-        <v>98.5</v>
+        <v>97.5</v>
       </c>
       <c r="E30">
         <v>0.49352</v>
       </c>
       <c r="F30">
-        <v>-2.065179567503288</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="100" customHeight="1">
@@ -3846,13 +3758,13 @@
         <v>65</v>
       </c>
       <c r="D31">
-        <v>97.5</v>
+        <v>93.5</v>
       </c>
       <c r="E31">
         <v>0.49352</v>
       </c>
       <c r="F31">
-        <v>-1.808040943597905</v>
+        <v>-1.315802917695658</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="100" customHeight="1">
@@ -3863,13 +3775,13 @@
         <v>67</v>
       </c>
       <c r="D32">
-        <v>93.5</v>
+        <v>97</v>
       </c>
       <c r="E32">
         <v>0.49352</v>
       </c>
       <c r="F32">
-        <v>-1.315802917695658</v>
+        <v>-1.715524225407506</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="100" customHeight="1">
@@ -3880,13 +3792,13 @@
         <v>69</v>
       </c>
       <c r="D33">
-        <v>97</v>
+        <v>96.5</v>
       </c>
       <c r="E33">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F33">
-        <v>-1.715524225407506</v>
+        <v>-1.801907092249079</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="100" customHeight="1">
@@ -3897,13 +3809,13 @@
         <v>71</v>
       </c>
       <c r="D34">
-        <v>96.5</v>
+        <v>97.5</v>
       </c>
       <c r="E34">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F34">
-        <v>-1.801907092249079</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="100" customHeight="1">
@@ -3914,13 +3826,13 @@
         <v>73</v>
       </c>
       <c r="D35">
-        <v>97.5</v>
+        <v>97</v>
       </c>
       <c r="E35">
         <v>0.49352</v>
       </c>
       <c r="F35">
-        <v>-1.808040943597905</v>
+        <v>-1.715524225407506</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="100" customHeight="1">
@@ -3948,13 +3860,13 @@
         <v>77</v>
       </c>
       <c r="D37">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="E37">
         <v>0.49352</v>
       </c>
       <c r="F37">
-        <v>-1.715524225407506</v>
+        <v>-0.2001051401535412</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="100" customHeight="1">
@@ -3965,13 +3877,13 @@
         <v>79</v>
       </c>
       <c r="D38">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="E38">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F38">
-        <v>-0.2001051401535412</v>
+        <v>-2.269203661219362</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="100" customHeight="1">
@@ -3982,13 +3894,13 @@
         <v>81</v>
       </c>
       <c r="D39">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E39">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F39">
-        <v>-2.269203661219362</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="100" customHeight="1">
@@ -3999,13 +3911,13 @@
         <v>83</v>
       </c>
       <c r="D40">
-        <v>99</v>
+        <v>2.5</v>
       </c>
       <c r="E40">
         <v>0.49352</v>
       </c>
       <c r="F40">
-        <v>-2.26778354843842</v>
+        <v>1.808040943597903</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="100" customHeight="1">
@@ -4016,13 +3928,13 @@
         <v>85</v>
       </c>
       <c r="D41">
-        <v>2.5</v>
+        <v>99.5</v>
       </c>
       <c r="E41">
         <v>0.49352</v>
       </c>
       <c r="F41">
-        <v>1.808040943597903</v>
+        <v>-2.61235179709804</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="100" customHeight="1">
@@ -4033,13 +3945,13 @@
         <v>87</v>
       </c>
       <c r="D42">
-        <v>98.5</v>
+        <v>99</v>
       </c>
       <c r="E42">
         <v>0.49352</v>
       </c>
       <c r="F42">
-        <v>-2.065179567503288</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="100" customHeight="1">
@@ -4050,13 +3962,13 @@
         <v>89</v>
       </c>
       <c r="D43">
-        <v>99.5</v>
+        <v>98</v>
       </c>
       <c r="E43">
         <v>0.49352</v>
       </c>
       <c r="F43">
-        <v>-2.61235179709804</v>
+        <v>-1.920691153523556</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="100" customHeight="1">
@@ -4067,13 +3979,13 @@
         <v>91</v>
       </c>
       <c r="D44">
-        <v>99</v>
+        <v>97.5</v>
       </c>
       <c r="E44">
         <v>0.49352</v>
       </c>
       <c r="F44">
-        <v>-2.26778354843842</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="100" customHeight="1">
@@ -4084,13 +3996,13 @@
         <v>93</v>
       </c>
       <c r="D45">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E45">
         <v>0.49352</v>
       </c>
       <c r="F45">
-        <v>-1.920691153523556</v>
+        <v>-1.141825110249225</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="100" customHeight="1">
@@ -4101,13 +4013,13 @@
         <v>95</v>
       </c>
       <c r="D46">
-        <v>97.5</v>
+        <v>99</v>
       </c>
       <c r="E46">
         <v>0.49352</v>
       </c>
       <c r="F46">
-        <v>-1.808040943597905</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="100" customHeight="1">
@@ -4118,13 +4030,13 @@
         <v>97</v>
       </c>
       <c r="D47">
-        <v>91</v>
+        <v>96.5</v>
       </c>
       <c r="E47">
         <v>0.49352</v>
       </c>
       <c r="F47">
-        <v>-1.141825110249225</v>
+        <v>-1.636897285266562</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="100" customHeight="1">
@@ -4135,13 +4047,13 @@
         <v>99</v>
       </c>
       <c r="D48">
-        <v>99</v>
+        <v>95.5</v>
       </c>
       <c r="E48">
         <v>0.49352</v>
       </c>
       <c r="F48">
-        <v>-2.26778354843842</v>
+        <v>-1.507727708802602</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="100" customHeight="1">
@@ -4152,13 +4064,13 @@
         <v>101</v>
       </c>
       <c r="D49">
-        <v>96.5</v>
+        <v>97.5</v>
       </c>
       <c r="E49">
         <v>0.49352</v>
       </c>
       <c r="F49">
-        <v>-1.636897285266562</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="100" customHeight="1">
@@ -4169,13 +4081,13 @@
         <v>103</v>
       </c>
       <c r="D50">
-        <v>95.5</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>0.49352</v>
       </c>
       <c r="F50">
-        <v>-1.507727708802602</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="100" customHeight="1">
@@ -4186,13 +4098,13 @@
         <v>105</v>
       </c>
       <c r="D51">
-        <v>97.5</v>
+        <v>98.5</v>
       </c>
       <c r="E51">
         <v>0.49352</v>
       </c>
       <c r="F51">
-        <v>-1.808040943597905</v>
+        <v>-2.065179567503288</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="100" customHeight="1">
@@ -4203,13 +4115,13 @@
         <v>107</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52">
         <v>0.49352</v>
       </c>
       <c r="F52">
-        <v>2.267783548438423</v>
+        <v>1.920691153523556</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="100" customHeight="1">
@@ -4220,13 +4132,13 @@
         <v>109</v>
       </c>
       <c r="D53">
-        <v>98.5</v>
+        <v>0.5</v>
       </c>
       <c r="E53">
         <v>0.49352</v>
       </c>
       <c r="F53">
-        <v>-2.065179567503288</v>
+        <v>2.612351797098031</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="100" customHeight="1">
@@ -4237,13 +4149,13 @@
         <v>111</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E54">
         <v>0.49352</v>
       </c>
       <c r="F54">
-        <v>1.920691153523556</v>
+        <v>2.612351797098031</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="100" customHeight="1">
@@ -4271,13 +4183,13 @@
         <v>115</v>
       </c>
       <c r="D56">
-        <v>0.5</v>
+        <v>66</v>
       </c>
       <c r="E56">
         <v>0.49352</v>
       </c>
       <c r="F56">
-        <v>2.612351797098031</v>
+        <v>-0.3273489621763136</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="100" customHeight="1">
@@ -4288,13 +4200,13 @@
         <v>117</v>
       </c>
       <c r="D57">
-        <v>0.5</v>
+        <v>99</v>
       </c>
       <c r="E57">
         <v>0.49352</v>
       </c>
       <c r="F57">
-        <v>2.612351797098031</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="100" customHeight="1">
@@ -4305,13 +4217,13 @@
         <v>119</v>
       </c>
       <c r="D58">
-        <v>66</v>
+        <v>90.5</v>
       </c>
       <c r="E58">
         <v>0.49352</v>
       </c>
       <c r="F58">
-        <v>-0.3273489621763136</v>
+        <v>-1.112422729872088</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="100" customHeight="1">
@@ -4322,13 +4234,13 @@
         <v>121</v>
       </c>
       <c r="D59">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="E59">
         <v>0.49352</v>
       </c>
       <c r="F59">
-        <v>-2.26778354843842</v>
+        <v>-0.3720014599087911</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="100" customHeight="1">
@@ -4339,13 +4251,13 @@
         <v>123</v>
       </c>
       <c r="D60">
-        <v>90.5</v>
+        <v>39.5</v>
       </c>
       <c r="E60">
         <v>0.49352</v>
       </c>
       <c r="F60">
-        <v>-1.112422729872088</v>
+        <v>0.2104086459133793</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="100" customHeight="1">
@@ -4356,13 +4268,13 @@
         <v>125</v>
       </c>
       <c r="D61">
-        <v>68</v>
+        <v>41.5</v>
       </c>
       <c r="E61">
         <v>0.49352</v>
       </c>
       <c r="F61">
-        <v>-0.3720014599087911</v>
+        <v>0.1694418635416117</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="100" customHeight="1">
@@ -4373,13 +4285,13 @@
         <v>127</v>
       </c>
       <c r="D62">
-        <v>39.5</v>
+        <v>36</v>
       </c>
       <c r="E62">
         <v>0.49352</v>
       </c>
       <c r="F62">
-        <v>0.2104086459133793</v>
+        <v>0.2839537127928058</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="100" customHeight="1">
@@ -4390,13 +4302,13 @@
         <v>129</v>
       </c>
       <c r="D63">
-        <v>41.5</v>
+        <v>23.5</v>
       </c>
       <c r="E63">
         <v>0.49352</v>
       </c>
       <c r="F63">
-        <v>0.1694418635416117</v>
+        <v>0.5824968785696466</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="100" customHeight="1">
@@ -4407,13 +4319,13 @@
         <v>131</v>
       </c>
       <c r="D64">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E64">
-        <v>0.49352</v>
+        <v>0.58904</v>
       </c>
       <c r="F64">
-        <v>0.2839537127928058</v>
+        <v>2.706709396523279</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="100" customHeight="1">
@@ -4424,13 +4336,13 @@
         <v>133</v>
       </c>
       <c r="D65">
-        <v>23.5</v>
+        <v>30.5</v>
       </c>
       <c r="E65">
         <v>0.49352</v>
       </c>
       <c r="F65">
-        <v>0.5824968785696466</v>
+        <v>0.4064631060318465</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="100" customHeight="1">
@@ -4441,46 +4353,12 @@
         <v>135</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E66">
         <v>0.58904</v>
       </c>
       <c r="F66">
-        <v>2.706709396523279</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="100" customHeight="1">
-      <c r="A67" t="s">
-        <v>136</v>
-      </c>
-      <c r="C67" t="s">
-        <v>137</v>
-      </c>
-      <c r="D67">
-        <v>30.5</v>
-      </c>
-      <c r="E67">
-        <v>0.49352</v>
-      </c>
-      <c r="F67">
-        <v>0.4064631060318465</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="100" customHeight="1">
-      <c r="A68" t="s">
-        <v>138</v>
-      </c>
-      <c r="C68" t="s">
-        <v>139</v>
-      </c>
-      <c r="D68">
-        <v>1.5</v>
-      </c>
-      <c r="E68">
-        <v>0.58904</v>
-      </c>
-      <c r="F68">
         <v>2.464891741858761</v>
       </c>
     </row>

--- a/arranged_dataset/DIP-chloride.xlsx
+++ b/arranged_dataset/DIP-chloride.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t>smiles</t>
   </si>
@@ -94,6 +94,12 @@
     <t>XSAYZAUNJMRRIR-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>c1ncccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>WEGYGNROSJDEIW-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>s1cccc1C(=O)C</t>
   </si>
   <si>
@@ -268,6 +274,12 @@
     <t>YRNDGUSDBCARGC-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>c1cc([N+]([O-])=O)ccc1C(=O)CC</t>
+  </si>
+  <si>
+    <t>QHTSEJJUUBOESF-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>Brc1ccccc1C(=O)C</t>
   </si>
   <si>
@@ -422,6 +434,96 @@
   </si>
   <si>
     <t>MSRORZBOBVAASL-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(N)cccc1)c2ccccc2</t>
+  </si>
+  <si>
+    <t>MAOBFOXLCJIFLV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(OC)cccc1)c2ccccc2</t>
+  </si>
+  <si>
+    <t>CSUUDNFYSFENAE-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(F)cccc1)c2ccccc2</t>
+  </si>
+  <si>
+    <t>DWFDQVMFSLLMPE-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(Cl)cccc1)c2ccccc2</t>
+  </si>
+  <si>
+    <t>VMHYWKBKHMYRNF-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(C)cccc1)c2ccccc2</t>
+  </si>
+  <si>
+    <t>CKGKXGQVRVAKEA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(N)cccc1)C</t>
+  </si>
+  <si>
+    <t>GTDQGKWDWVUKTI-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(NC)cccc1)C</t>
+  </si>
+  <si>
+    <t>CUHJQPWOSWMIAU-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(NC)cccc1)c2ccccc2</t>
+  </si>
+  <si>
+    <t>AGKPGIOZNCJFTQ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(N[Li])cccc1)C</t>
+  </si>
+  <si>
+    <t>CSTLTPVBEIHLSJ-UHFFFAOYSA-M</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(N[Li])cccc1)c2ccccc2</t>
+  </si>
+  <si>
+    <t>SPRHFJUTDVJMMS-UHFFFAOYSA-M</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(C(=O)OC)cccc1)C</t>
+  </si>
+  <si>
+    <t>UFOAYTOVTNNRKJ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(C(=O)O)cccc1)C</t>
+  </si>
+  <si>
+    <t>QDAWXRKTSATEOP-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(C(=O)OC)cccc1)CC</t>
+  </si>
+  <si>
+    <t>PJVVSYKDAYJZCV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(C(=O)OC)cccc1)CCCC</t>
+  </si>
+  <si>
+    <t>QTUYJWKFWYJIOM-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(C(=O)OC)cccc1)c2ccccc2</t>
+  </si>
+  <si>
+    <t>NQSMEZJWJJVYOI-UHFFFAOYSA-N</t>
   </si>
 </sst>
 </file>
@@ -2931,6 +3033,652 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="81267300"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 66" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="82534125"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 67" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="83800950"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Picture 68" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="85067775"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Picture 69" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="86334600"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Picture 70" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="87601425"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Picture 71" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="88868250"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Picture 72" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="90135075"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Picture 73" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="91401900"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Picture 74" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="92668725"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Picture 75" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="93935550"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="Picture 76" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="95202375"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Picture 77" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="96469200"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Picture 78" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="97736025"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Picture 79" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="99002850"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="Picture 80" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="100269675"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Picture 81" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="101536500"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="Picture 82" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="102803325"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3228,7 +3976,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3265,13 +4013,13 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E2">
         <v>0.49352</v>
       </c>
       <c r="F2">
-        <v>-0.03950267709104367</v>
+        <v>0.03950267709104377</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="100" customHeight="1">
@@ -3282,13 +4030,13 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>46.5</v>
+        <v>53.5</v>
       </c>
       <c r="E3">
         <v>0.49352</v>
       </c>
       <c r="F3">
-        <v>0.06920598452264501</v>
+        <v>-0.06920598452264508</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="100" customHeight="1">
@@ -3299,13 +4047,13 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>98.65000000000001</v>
+        <v>1.350000000000001</v>
       </c>
       <c r="E4">
         <v>0.49352</v>
       </c>
       <c r="F4">
-        <v>-2.117928070821831</v>
+        <v>2.117928070821824</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="100" customHeight="1">
@@ -3316,13 +4064,13 @@
         <v>13</v>
       </c>
       <c r="D5">
-        <v>99.09999999999999</v>
+        <v>0.8999999999999986</v>
       </c>
       <c r="E5">
         <v>0.49352</v>
       </c>
       <c r="F5">
-        <v>-2.320279323575567</v>
+        <v>2.320279323575566</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="100" customHeight="1">
@@ -3333,13 +4081,13 @@
         <v>15</v>
       </c>
       <c r="D6">
-        <v>97.5</v>
+        <v>2.5</v>
       </c>
       <c r="E6">
         <v>0.49352</v>
       </c>
       <c r="F6">
-        <v>-1.808040943597905</v>
+        <v>1.808040943597903</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="100" customHeight="1">
@@ -3350,13 +4098,13 @@
         <v>17</v>
       </c>
       <c r="D7">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>0.49352</v>
       </c>
       <c r="F7">
-        <v>-1.453139524998222</v>
+        <v>1.453139524998222</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="100" customHeight="1">
@@ -3367,13 +4115,13 @@
         <v>19</v>
       </c>
       <c r="D8">
-        <v>10.35</v>
+        <v>89.65000000000001</v>
       </c>
       <c r="E8">
         <v>0.49352</v>
       </c>
       <c r="F8">
-        <v>1.06547349528128</v>
+        <v>-1.06547349528128</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="100" customHeight="1">
@@ -3384,13 +4132,13 @@
         <v>21</v>
       </c>
       <c r="D9">
-        <v>98.7</v>
+        <v>1.299999999999997</v>
       </c>
       <c r="E9">
         <v>0.49352</v>
       </c>
       <c r="F9">
-        <v>-2.136803750966791</v>
+        <v>2.136803750966795</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="100" customHeight="1">
@@ -3401,13 +4149,13 @@
         <v>23</v>
       </c>
       <c r="D10">
-        <v>93.7</v>
+        <v>6.299999999999997</v>
       </c>
       <c r="E10">
         <v>0.49352</v>
       </c>
       <c r="F10">
-        <v>-1.332281203281558</v>
+        <v>1.332281203281557</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="100" customHeight="1">
@@ -3418,13 +4166,13 @@
         <v>25</v>
       </c>
       <c r="D11">
-        <v>99.05</v>
+        <v>0.9500000000000028</v>
       </c>
       <c r="E11">
         <v>0.49352</v>
       </c>
       <c r="F11">
-        <v>-2.293347004688449</v>
+        <v>2.293347004688446</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="100" customHeight="1">
@@ -3435,13 +4183,13 @@
         <v>27</v>
       </c>
       <c r="D12">
-        <v>95.65000000000001</v>
+        <v>3.799999999999997</v>
       </c>
       <c r="E12">
         <v>0.49352</v>
       </c>
       <c r="F12">
-        <v>-1.525233356759745</v>
+        <v>1.594774490144374</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="100" customHeight="1">
@@ -3452,13 +4200,13 @@
         <v>29</v>
       </c>
       <c r="D13">
-        <v>92</v>
+        <v>4.350000000000001</v>
       </c>
       <c r="E13">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="F13">
-        <v>-1.448360638914646</v>
+        <v>1.525233356759743</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="100" customHeight="1">
@@ -3469,13 +4217,13 @@
         <v>31</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14">
-        <v>0.49352</v>
+        <v>0.59302</v>
       </c>
       <c r="F14">
-        <v>1.276582925099217</v>
+        <v>1.448360638914646</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="100" customHeight="1">
@@ -3486,13 +4234,13 @@
         <v>33</v>
       </c>
       <c r="D15">
-        <v>98.5</v>
+        <v>93</v>
       </c>
       <c r="E15">
         <v>0.49352</v>
       </c>
       <c r="F15">
-        <v>-2.065179567503288</v>
+        <v>-1.276582925099217</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="100" customHeight="1">
@@ -3503,13 +4251,13 @@
         <v>35</v>
       </c>
       <c r="D16">
-        <v>98.5</v>
+        <v>1.5</v>
       </c>
       <c r="E16">
         <v>0.49352</v>
       </c>
       <c r="F16">
-        <v>-2.065179567503288</v>
+        <v>2.065179567503287</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="100" customHeight="1">
@@ -3520,13 +4268,13 @@
         <v>37</v>
       </c>
       <c r="D17">
-        <v>99</v>
+        <v>1.5</v>
       </c>
       <c r="E17">
         <v>0.49352</v>
       </c>
       <c r="F17">
-        <v>-2.26778354843842</v>
+        <v>2.065179567503287</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="100" customHeight="1">
@@ -3537,13 +4285,13 @@
         <v>39</v>
       </c>
       <c r="D18">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0.49352</v>
       </c>
       <c r="F18">
-        <v>-2.26778354843842</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="100" customHeight="1">
@@ -3554,13 +4302,13 @@
         <v>41</v>
       </c>
       <c r="D19">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0.49352</v>
       </c>
       <c r="F19">
-        <v>-0.2626596419205717</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="100" customHeight="1">
@@ -3571,13 +4319,13 @@
         <v>43</v>
       </c>
       <c r="D20">
-        <v>61.5</v>
+        <v>37</v>
       </c>
       <c r="E20">
         <v>0.49352</v>
       </c>
       <c r="F20">
-        <v>-0.2311543712701655</v>
+        <v>0.2626596419205716</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="100" customHeight="1">
@@ -3588,13 +4336,13 @@
         <v>45</v>
       </c>
       <c r="D21">
-        <v>69</v>
+        <v>38.5</v>
       </c>
       <c r="E21">
         <v>0.49352</v>
       </c>
       <c r="F21">
-        <v>-0.3948748769913301</v>
+        <v>0.2311543712701654</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="100" customHeight="1">
@@ -3605,13 +4353,13 @@
         <v>47</v>
       </c>
       <c r="D22">
-        <v>72.5</v>
+        <v>31</v>
       </c>
       <c r="E22">
         <v>0.49352</v>
       </c>
       <c r="F22">
-        <v>-0.4784185629834727</v>
+        <v>0.3948748769913301</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="100" customHeight="1">
@@ -3622,13 +4370,13 @@
         <v>49</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>27.5</v>
       </c>
       <c r="E23">
-        <v>0.38805</v>
+        <v>0.49352</v>
       </c>
       <c r="F23">
-        <v>1.23324378886652</v>
+        <v>0.4784185629834729</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="100" customHeight="1">
@@ -3639,13 +4387,13 @@
         <v>51</v>
       </c>
       <c r="D24">
-        <v>5.5</v>
+        <v>96</v>
       </c>
       <c r="E24">
         <v>0.38805</v>
       </c>
       <c r="F24">
-        <v>1.103556668584487</v>
+        <v>-1.23324378886652</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="100" customHeight="1">
@@ -3656,13 +4404,13 @@
         <v>53</v>
       </c>
       <c r="D25">
-        <v>91</v>
+        <v>94.5</v>
       </c>
       <c r="E25">
         <v>0.38805</v>
       </c>
       <c r="F25">
-        <v>-0.8978060342685433</v>
+        <v>-1.103556668584487</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="100" customHeight="1">
@@ -3673,13 +4421,13 @@
         <v>55</v>
       </c>
       <c r="D26">
-        <v>99.5</v>
+        <v>9</v>
       </c>
       <c r="E26">
-        <v>0.49352</v>
+        <v>0.38805</v>
       </c>
       <c r="F26">
-        <v>-2.61235179709804</v>
+        <v>0.8978060342685438</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="100" customHeight="1">
@@ -3690,13 +4438,13 @@
         <v>57</v>
       </c>
       <c r="D27">
-        <v>36.5</v>
+        <v>0.5</v>
       </c>
       <c r="E27">
         <v>0.49352</v>
       </c>
       <c r="F27">
-        <v>0.2732756675134899</v>
+        <v>2.612351797098031</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="100" customHeight="1">
@@ -3707,13 +4455,13 @@
         <v>59</v>
       </c>
       <c r="D28">
-        <v>99</v>
+        <v>63.5</v>
       </c>
       <c r="E28">
         <v>0.49352</v>
       </c>
       <c r="F28">
-        <v>-2.26778354843842</v>
+        <v>-0.2732756675134899</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="100" customHeight="1">
@@ -3724,13 +4472,13 @@
         <v>61</v>
       </c>
       <c r="D29">
-        <v>98.5</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>0.49352</v>
       </c>
       <c r="F29">
-        <v>-2.065179567503288</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="100" customHeight="1">
@@ -3741,13 +4489,13 @@
         <v>63</v>
       </c>
       <c r="D30">
-        <v>97.5</v>
+        <v>1.5</v>
       </c>
       <c r="E30">
         <v>0.49352</v>
       </c>
       <c r="F30">
-        <v>-1.808040943597905</v>
+        <v>2.065179567503287</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="100" customHeight="1">
@@ -3758,13 +4506,13 @@
         <v>65</v>
       </c>
       <c r="D31">
-        <v>93.5</v>
+        <v>2.5</v>
       </c>
       <c r="E31">
         <v>0.49352</v>
       </c>
       <c r="F31">
-        <v>-1.315802917695658</v>
+        <v>1.808040943597903</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="100" customHeight="1">
@@ -3775,13 +4523,13 @@
         <v>67</v>
       </c>
       <c r="D32">
-        <v>97</v>
+        <v>6.5</v>
       </c>
       <c r="E32">
         <v>0.49352</v>
       </c>
       <c r="F32">
-        <v>-1.715524225407506</v>
+        <v>1.315802917695658</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="100" customHeight="1">
@@ -3792,13 +4540,13 @@
         <v>69</v>
       </c>
       <c r="D33">
-        <v>96.5</v>
+        <v>3</v>
       </c>
       <c r="E33">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F33">
-        <v>-1.801907092249079</v>
+        <v>1.715524225407504</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="100" customHeight="1">
@@ -3809,13 +4557,13 @@
         <v>71</v>
       </c>
       <c r="D34">
-        <v>97.5</v>
+        <v>3.5</v>
       </c>
       <c r="E34">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F34">
-        <v>-1.808040943597905</v>
+        <v>1.801907092249077</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="100" customHeight="1">
@@ -3826,13 +4574,13 @@
         <v>73</v>
       </c>
       <c r="D35">
-        <v>97</v>
+        <v>2.5</v>
       </c>
       <c r="E35">
         <v>0.49352</v>
       </c>
       <c r="F35">
-        <v>-1.715524225407506</v>
+        <v>1.808040943597903</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="100" customHeight="1">
@@ -3843,13 +4591,13 @@
         <v>75</v>
       </c>
       <c r="D36">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="E36">
         <v>0.49352</v>
       </c>
       <c r="F36">
-        <v>-1.715524225407506</v>
+        <v>1.715524225407504</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="100" customHeight="1">
@@ -3860,13 +4608,13 @@
         <v>77</v>
       </c>
       <c r="D37">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="E37">
         <v>0.49352</v>
       </c>
       <c r="F37">
-        <v>-0.2001051401535412</v>
+        <v>1.715524225407504</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="100" customHeight="1">
@@ -3877,13 +4625,13 @@
         <v>79</v>
       </c>
       <c r="D38">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="E38">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F38">
-        <v>-2.269203661219362</v>
+        <v>0.2001051401535413</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="100" customHeight="1">
@@ -3894,13 +4642,13 @@
         <v>81</v>
       </c>
       <c r="D39">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="E39">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F39">
-        <v>-2.26778354843842</v>
+        <v>2.269203661219363</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="100" customHeight="1">
@@ -3911,13 +4659,13 @@
         <v>83</v>
       </c>
       <c r="D40">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <v>0.49352</v>
       </c>
       <c r="F40">
-        <v>1.808040943597903</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="100" customHeight="1">
@@ -3928,13 +4676,13 @@
         <v>85</v>
       </c>
       <c r="D41">
-        <v>99.5</v>
+        <v>97.5</v>
       </c>
       <c r="E41">
         <v>0.49352</v>
       </c>
       <c r="F41">
-        <v>-2.61235179709804</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="100" customHeight="1">
@@ -3945,13 +4693,13 @@
         <v>87</v>
       </c>
       <c r="D42">
-        <v>99</v>
+        <v>1.5</v>
       </c>
       <c r="E42">
         <v>0.49352</v>
       </c>
       <c r="F42">
-        <v>-2.26778354843842</v>
+        <v>2.065179567503287</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="100" customHeight="1">
@@ -3962,13 +4710,13 @@
         <v>89</v>
       </c>
       <c r="D43">
-        <v>98</v>
+        <v>0.5</v>
       </c>
       <c r="E43">
         <v>0.49352</v>
       </c>
       <c r="F43">
-        <v>-1.920691153523556</v>
+        <v>2.612351797098031</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="100" customHeight="1">
@@ -3979,13 +4727,13 @@
         <v>91</v>
       </c>
       <c r="D44">
-        <v>97.5</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>0.49352</v>
       </c>
       <c r="F44">
-        <v>-1.808040943597905</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="100" customHeight="1">
@@ -3996,13 +4744,13 @@
         <v>93</v>
       </c>
       <c r="D45">
-        <v>91</v>
+        <v>2</v>
       </c>
       <c r="E45">
         <v>0.49352</v>
       </c>
       <c r="F45">
-        <v>-1.141825110249225</v>
+        <v>1.920691153523556</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="100" customHeight="1">
@@ -4013,13 +4761,13 @@
         <v>95</v>
       </c>
       <c r="D46">
-        <v>99</v>
+        <v>2.5</v>
       </c>
       <c r="E46">
         <v>0.49352</v>
       </c>
       <c r="F46">
-        <v>-2.26778354843842</v>
+        <v>1.808040943597903</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="100" customHeight="1">
@@ -4030,13 +4778,13 @@
         <v>97</v>
       </c>
       <c r="D47">
-        <v>96.5</v>
+        <v>9</v>
       </c>
       <c r="E47">
         <v>0.49352</v>
       </c>
       <c r="F47">
-        <v>-1.636897285266562</v>
+        <v>1.141825110249225</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="100" customHeight="1">
@@ -4047,13 +4795,13 @@
         <v>99</v>
       </c>
       <c r="D48">
-        <v>95.5</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>0.49352</v>
       </c>
       <c r="F48">
-        <v>-1.507727708802602</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="100" customHeight="1">
@@ -4064,13 +4812,13 @@
         <v>101</v>
       </c>
       <c r="D49">
-        <v>97.5</v>
+        <v>3.5</v>
       </c>
       <c r="E49">
         <v>0.49352</v>
       </c>
       <c r="F49">
-        <v>-1.808040943597905</v>
+        <v>1.636897285266561</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="100" customHeight="1">
@@ -4081,13 +4829,13 @@
         <v>103</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="E50">
         <v>0.49352</v>
       </c>
       <c r="F50">
-        <v>2.267783548438423</v>
+        <v>1.507727708802602</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="100" customHeight="1">
@@ -4098,13 +4846,13 @@
         <v>105</v>
       </c>
       <c r="D51">
-        <v>98.5</v>
+        <v>2.5</v>
       </c>
       <c r="E51">
         <v>0.49352</v>
       </c>
       <c r="F51">
-        <v>-2.065179567503288</v>
+        <v>1.808040943597903</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="100" customHeight="1">
@@ -4115,13 +4863,13 @@
         <v>107</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="E52">
         <v>0.49352</v>
       </c>
       <c r="F52">
-        <v>1.920691153523556</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="100" customHeight="1">
@@ -4132,13 +4880,13 @@
         <v>109</v>
       </c>
       <c r="D53">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="E53">
         <v>0.49352</v>
       </c>
       <c r="F53">
-        <v>2.612351797098031</v>
+        <v>2.065179567503287</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="100" customHeight="1">
@@ -4149,13 +4897,13 @@
         <v>111</v>
       </c>
       <c r="D54">
-        <v>0.5</v>
+        <v>98</v>
       </c>
       <c r="E54">
         <v>0.49352</v>
       </c>
       <c r="F54">
-        <v>2.612351797098031</v>
+        <v>-1.920691153523556</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="100" customHeight="1">
@@ -4166,13 +4914,13 @@
         <v>113</v>
       </c>
       <c r="D55">
-        <v>0.5</v>
+        <v>99.5</v>
       </c>
       <c r="E55">
         <v>0.49352</v>
       </c>
       <c r="F55">
-        <v>2.612351797098031</v>
+        <v>-2.61235179709804</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="100" customHeight="1">
@@ -4183,13 +4931,13 @@
         <v>115</v>
       </c>
       <c r="D56">
-        <v>66</v>
+        <v>99.5</v>
       </c>
       <c r="E56">
         <v>0.49352</v>
       </c>
       <c r="F56">
-        <v>-0.3273489621763136</v>
+        <v>-2.61235179709804</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="100" customHeight="1">
@@ -4200,13 +4948,13 @@
         <v>117</v>
       </c>
       <c r="D57">
-        <v>99</v>
+        <v>99.5</v>
       </c>
       <c r="E57">
         <v>0.49352</v>
       </c>
       <c r="F57">
-        <v>-2.26778354843842</v>
+        <v>-2.61235179709804</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="100" customHeight="1">
@@ -4217,13 +4965,13 @@
         <v>119</v>
       </c>
       <c r="D58">
-        <v>90.5</v>
+        <v>34</v>
       </c>
       <c r="E58">
         <v>0.49352</v>
       </c>
       <c r="F58">
-        <v>-1.112422729872088</v>
+        <v>0.3273489621763137</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="100" customHeight="1">
@@ -4234,13 +4982,13 @@
         <v>121</v>
       </c>
       <c r="D59">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="E59">
         <v>0.49352</v>
       </c>
       <c r="F59">
-        <v>-0.3720014599087911</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="100" customHeight="1">
@@ -4251,13 +4999,13 @@
         <v>123</v>
       </c>
       <c r="D60">
-        <v>39.5</v>
+        <v>9.5</v>
       </c>
       <c r="E60">
         <v>0.49352</v>
       </c>
       <c r="F60">
-        <v>0.2104086459133793</v>
+        <v>1.112422729872089</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="100" customHeight="1">
@@ -4268,13 +5016,13 @@
         <v>125</v>
       </c>
       <c r="D61">
-        <v>41.5</v>
+        <v>32</v>
       </c>
       <c r="E61">
         <v>0.49352</v>
       </c>
       <c r="F61">
-        <v>0.1694418635416117</v>
+        <v>0.3720014599087912</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="100" customHeight="1">
@@ -4285,13 +5033,13 @@
         <v>127</v>
       </c>
       <c r="D62">
-        <v>36</v>
+        <v>60.5</v>
       </c>
       <c r="E62">
         <v>0.49352</v>
       </c>
       <c r="F62">
-        <v>0.2839537127928058</v>
+        <v>-0.2104086459133792</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="100" customHeight="1">
@@ -4302,13 +5050,13 @@
         <v>129</v>
       </c>
       <c r="D63">
-        <v>23.5</v>
+        <v>58.5</v>
       </c>
       <c r="E63">
         <v>0.49352</v>
       </c>
       <c r="F63">
-        <v>0.5824968785696466</v>
+        <v>-0.1694418635416117</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="100" customHeight="1">
@@ -4319,13 +5067,13 @@
         <v>131</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="E64">
-        <v>0.58904</v>
+        <v>0.49352</v>
       </c>
       <c r="F64">
-        <v>2.706709396523279</v>
+        <v>-0.2839537127928058</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="100" customHeight="1">
@@ -4336,13 +5084,13 @@
         <v>133</v>
       </c>
       <c r="D65">
-        <v>30.5</v>
+        <v>76.5</v>
       </c>
       <c r="E65">
         <v>0.49352</v>
       </c>
       <c r="F65">
-        <v>0.4064631060318465</v>
+        <v>-0.5824968785696466</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="100" customHeight="1">
@@ -4353,13 +5101,302 @@
         <v>135</v>
       </c>
       <c r="D66">
-        <v>1.5</v>
+        <v>99</v>
       </c>
       <c r="E66">
         <v>0.58904</v>
       </c>
       <c r="F66">
-        <v>2.464891741858761</v>
+        <v>-2.706709396523275</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="100" customHeight="1">
+      <c r="A67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67">
+        <v>69.5</v>
+      </c>
+      <c r="E67">
+        <v>0.49352</v>
+      </c>
+      <c r="F67">
+        <v>-0.4064631060318465</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="100" customHeight="1">
+      <c r="A68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" t="s">
+        <v>139</v>
+      </c>
+      <c r="D68">
+        <v>98.5</v>
+      </c>
+      <c r="E68">
+        <v>0.58904</v>
+      </c>
+      <c r="F68">
+        <v>-2.464891741858764</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="100" customHeight="1">
+      <c r="A69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" t="s">
+        <v>141</v>
+      </c>
+      <c r="D69">
+        <v>94</v>
+      </c>
+      <c r="E69">
+        <v>0.59302</v>
+      </c>
+      <c r="F69">
+        <v>-1.631715471340137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="100" customHeight="1">
+      <c r="A70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70">
+        <v>50</v>
+      </c>
+      <c r="E70">
+        <v>0.59302</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="100" customHeight="1">
+      <c r="A71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71">
+        <v>64</v>
+      </c>
+      <c r="E71">
+        <v>0.59302</v>
+      </c>
+      <c r="F71">
+        <v>-0.3412024452107102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="100" customHeight="1">
+      <c r="A72" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" t="s">
+        <v>147</v>
+      </c>
+      <c r="D72">
+        <v>57.5</v>
+      </c>
+      <c r="E72">
+        <v>0.59302</v>
+      </c>
+      <c r="F72">
+        <v>-0.1792586026380871</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="100" customHeight="1">
+      <c r="A73" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" t="s">
+        <v>149</v>
+      </c>
+      <c r="D73">
+        <v>50</v>
+      </c>
+      <c r="E73">
+        <v>0.59302</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="100" customHeight="1">
+      <c r="A74" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" t="s">
+        <v>151</v>
+      </c>
+      <c r="D74">
+        <v>98.5</v>
+      </c>
+      <c r="E74">
+        <v>0.59302</v>
+      </c>
+      <c r="F74">
+        <v>-2.481546415790242</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="100" customHeight="1">
+      <c r="A75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" t="s">
+        <v>153</v>
+      </c>
+      <c r="D75">
+        <v>84.5</v>
+      </c>
+      <c r="E75">
+        <v>0.59302</v>
+      </c>
+      <c r="F75">
+        <v>-1.005709443919899</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="100" customHeight="1">
+      <c r="A76" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" t="s">
+        <v>155</v>
+      </c>
+      <c r="D76">
+        <v>82</v>
+      </c>
+      <c r="E76">
+        <v>0.59302</v>
+      </c>
+      <c r="F76">
+        <v>-0.8992243881450639</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="100" customHeight="1">
+      <c r="A77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" t="s">
+        <v>157</v>
+      </c>
+      <c r="D77">
+        <v>98</v>
+      </c>
+      <c r="E77">
+        <v>0.59302</v>
+      </c>
+      <c r="F77">
+        <v>-2.307927273185563</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="100" customHeight="1">
+      <c r="A78" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" t="s">
+        <v>159</v>
+      </c>
+      <c r="D78">
+        <v>83</v>
+      </c>
+      <c r="E78">
+        <v>0.59302</v>
+      </c>
+      <c r="F78">
+        <v>-0.940308679943321</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="100" customHeight="1">
+      <c r="A79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" t="s">
+        <v>161</v>
+      </c>
+      <c r="D79">
+        <v>1.5</v>
+      </c>
+      <c r="E79">
+        <v>0.49352</v>
+      </c>
+      <c r="F79">
+        <v>2.065179567503287</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="100" customHeight="1">
+      <c r="A80" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80" t="s">
+        <v>163</v>
+      </c>
+      <c r="D80">
+        <v>90</v>
+      </c>
+      <c r="E80">
+        <v>0.59302</v>
+      </c>
+      <c r="F80">
+        <v>-1.302998118851925</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="100" customHeight="1">
+      <c r="A81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81" t="s">
+        <v>165</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>0.49352</v>
+      </c>
+      <c r="F81">
+        <v>2.267783548438423</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="100" customHeight="1">
+      <c r="A82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" t="s">
+        <v>167</v>
+      </c>
+      <c r="D82">
+        <v>0.5</v>
+      </c>
+      <c r="E82">
+        <v>0.49352</v>
+      </c>
+      <c r="F82">
+        <v>2.612351797098031</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="100" customHeight="1">
+      <c r="A83" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83" t="s">
+        <v>169</v>
+      </c>
+      <c r="D83">
+        <v>65</v>
+      </c>
+      <c r="E83">
+        <v>0.59302</v>
+      </c>
+      <c r="F83">
+        <v>-0.3671026313690585</v>
       </c>
     </row>
   </sheetData>

--- a/arranged_dataset/DIP-chloride.xlsx
+++ b/arranged_dataset/DIP-chloride.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t>smiles</t>
   </si>
@@ -94,12 +94,6 @@
     <t>XSAYZAUNJMRRIR-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>c1ncccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>WEGYGNROSJDEIW-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>s1cccc1C(=O)C</t>
   </si>
   <si>
@@ -436,12 +430,6 @@
     <t>MSRORZBOBVAASL-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1c(N)cccc1)c2ccccc2</t>
-  </si>
-  <si>
-    <t>MAOBFOXLCJIFLV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>C(=O)(c1c(OC)cccc1)c2ccccc2</t>
   </si>
   <si>
@@ -466,46 +454,10 @@
     <t>CKGKXGQVRVAKEA-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>C(=O)(c1c(N)cccc1)C</t>
-  </si>
-  <si>
-    <t>GTDQGKWDWVUKTI-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1c(NC)cccc1)C</t>
-  </si>
-  <si>
-    <t>CUHJQPWOSWMIAU-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1c(NC)cccc1)c2ccccc2</t>
-  </si>
-  <si>
-    <t>AGKPGIOZNCJFTQ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1c(N[Li])cccc1)C</t>
-  </si>
-  <si>
-    <t>CSTLTPVBEIHLSJ-UHFFFAOYSA-M</t>
-  </si>
-  <si>
-    <t>C(=O)(c1c(N[Li])cccc1)c2ccccc2</t>
-  </si>
-  <si>
-    <t>SPRHFJUTDVJMMS-UHFFFAOYSA-M</t>
-  </si>
-  <si>
     <t>C(=O)(c1c(C(=O)OC)cccc1)C</t>
   </si>
   <si>
     <t>UFOAYTOVTNNRKJ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1c(C(=O)O)cccc1)C</t>
-  </si>
-  <si>
-    <t>QDAWXRKTSATEOP-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>C(=O)(c1c(C(=O)OC)cccc1)CC</t>
@@ -3375,310 +3327,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="92668725"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="Picture 75" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="93935550"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="Picture 76" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="95202375"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="Picture 77" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="96469200"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="Picture 78" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="97736025"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="Picture 79" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="99002850"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="Picture 80" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="100269675"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="82" name="Picture 81" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="101536500"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="83" name="Picture 82" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="102803325"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3976,7 +3624,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4183,13 +3831,13 @@
         <v>27</v>
       </c>
       <c r="D12">
-        <v>3.799999999999997</v>
+        <v>4.350000000000001</v>
       </c>
       <c r="E12">
         <v>0.49352</v>
       </c>
       <c r="F12">
-        <v>1.594774490144374</v>
+        <v>1.525233356759743</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="100" customHeight="1">
@@ -4200,13 +3848,13 @@
         <v>29</v>
       </c>
       <c r="D13">
-        <v>4.350000000000001</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>0.49352</v>
+        <v>0.59302</v>
       </c>
       <c r="F13">
-        <v>1.525233356759743</v>
+        <v>1.448360638914646</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="100" customHeight="1">
@@ -4217,13 +3865,13 @@
         <v>31</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="E14">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="F14">
-        <v>1.448360638914646</v>
+        <v>-1.276582925099217</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="100" customHeight="1">
@@ -4234,13 +3882,13 @@
         <v>33</v>
       </c>
       <c r="D15">
-        <v>93</v>
+        <v>1.5</v>
       </c>
       <c r="E15">
         <v>0.49352</v>
       </c>
       <c r="F15">
-        <v>-1.276582925099217</v>
+        <v>2.065179567503287</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="100" customHeight="1">
@@ -4268,13 +3916,13 @@
         <v>37</v>
       </c>
       <c r="D17">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0.49352</v>
       </c>
       <c r="F17">
-        <v>2.065179567503287</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="100" customHeight="1">
@@ -4302,13 +3950,13 @@
         <v>41</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E19">
         <v>0.49352</v>
       </c>
       <c r="F19">
-        <v>2.267783548438423</v>
+        <v>0.2626596419205716</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="100" customHeight="1">
@@ -4319,13 +3967,13 @@
         <v>43</v>
       </c>
       <c r="D20">
-        <v>37</v>
+        <v>38.5</v>
       </c>
       <c r="E20">
         <v>0.49352</v>
       </c>
       <c r="F20">
-        <v>0.2626596419205716</v>
+        <v>0.2311543712701654</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="100" customHeight="1">
@@ -4336,13 +3984,13 @@
         <v>45</v>
       </c>
       <c r="D21">
-        <v>38.5</v>
+        <v>31</v>
       </c>
       <c r="E21">
         <v>0.49352</v>
       </c>
       <c r="F21">
-        <v>0.2311543712701654</v>
+        <v>0.3948748769913301</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="100" customHeight="1">
@@ -4353,13 +4001,13 @@
         <v>47</v>
       </c>
       <c r="D22">
-        <v>31</v>
+        <v>27.5</v>
       </c>
       <c r="E22">
         <v>0.49352</v>
       </c>
       <c r="F22">
-        <v>0.3948748769913301</v>
+        <v>0.4784185629834729</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="100" customHeight="1">
@@ -4370,13 +4018,13 @@
         <v>49</v>
       </c>
       <c r="D23">
-        <v>27.5</v>
+        <v>96</v>
       </c>
       <c r="E23">
-        <v>0.49352</v>
+        <v>0.38805</v>
       </c>
       <c r="F23">
-        <v>0.4784185629834729</v>
+        <v>-1.23324378886652</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="100" customHeight="1">
@@ -4387,13 +4035,13 @@
         <v>51</v>
       </c>
       <c r="D24">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="E24">
         <v>0.38805</v>
       </c>
       <c r="F24">
-        <v>-1.23324378886652</v>
+        <v>-1.103556668584487</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="100" customHeight="1">
@@ -4404,13 +4052,13 @@
         <v>53</v>
       </c>
       <c r="D25">
-        <v>94.5</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>0.38805</v>
       </c>
       <c r="F25">
-        <v>-1.103556668584487</v>
+        <v>0.8978060342685438</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="100" customHeight="1">
@@ -4421,13 +4069,13 @@
         <v>55</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="E26">
-        <v>0.38805</v>
+        <v>0.49352</v>
       </c>
       <c r="F26">
-        <v>0.8978060342685438</v>
+        <v>2.612351797098031</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="100" customHeight="1">
@@ -4438,13 +4086,13 @@
         <v>57</v>
       </c>
       <c r="D27">
-        <v>0.5</v>
+        <v>63.5</v>
       </c>
       <c r="E27">
         <v>0.49352</v>
       </c>
       <c r="F27">
-        <v>2.612351797098031</v>
+        <v>-0.2732756675134899</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="100" customHeight="1">
@@ -4455,13 +4103,13 @@
         <v>59</v>
       </c>
       <c r="D28">
-        <v>63.5</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>0.49352</v>
       </c>
       <c r="F28">
-        <v>-0.2732756675134899</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="100" customHeight="1">
@@ -4472,13 +4120,13 @@
         <v>61</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E29">
         <v>0.49352</v>
       </c>
       <c r="F29">
-        <v>2.267783548438423</v>
+        <v>2.065179567503287</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="100" customHeight="1">
@@ -4489,13 +4137,13 @@
         <v>63</v>
       </c>
       <c r="D30">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E30">
         <v>0.49352</v>
       </c>
       <c r="F30">
-        <v>2.065179567503287</v>
+        <v>1.808040943597903</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="100" customHeight="1">
@@ -4506,13 +4154,13 @@
         <v>65</v>
       </c>
       <c r="D31">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="E31">
         <v>0.49352</v>
       </c>
       <c r="F31">
-        <v>1.808040943597903</v>
+        <v>1.315802917695658</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="100" customHeight="1">
@@ -4523,13 +4171,13 @@
         <v>67</v>
       </c>
       <c r="D32">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="E32">
         <v>0.49352</v>
       </c>
       <c r="F32">
-        <v>1.315802917695658</v>
+        <v>1.715524225407504</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="100" customHeight="1">
@@ -4540,13 +4188,13 @@
         <v>69</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E33">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F33">
-        <v>1.715524225407504</v>
+        <v>1.801907092249077</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="100" customHeight="1">
@@ -4557,13 +4205,13 @@
         <v>71</v>
       </c>
       <c r="D34">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="E34">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F34">
-        <v>1.801907092249077</v>
+        <v>1.808040943597903</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="100" customHeight="1">
@@ -4574,13 +4222,13 @@
         <v>73</v>
       </c>
       <c r="D35">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E35">
         <v>0.49352</v>
       </c>
       <c r="F35">
-        <v>1.808040943597903</v>
+        <v>1.715524225407504</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="100" customHeight="1">
@@ -4608,13 +4256,13 @@
         <v>77</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E37">
         <v>0.49352</v>
       </c>
       <c r="F37">
-        <v>1.715524225407504</v>
+        <v>0.2001051401535413</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="100" customHeight="1">
@@ -4625,13 +4273,13 @@
         <v>79</v>
       </c>
       <c r="D38">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="E38">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F38">
-        <v>0.2001051401535413</v>
+        <v>2.269203661219363</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="100" customHeight="1">
@@ -4642,13 +4290,13 @@
         <v>81</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F39">
-        <v>2.269203661219363</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="100" customHeight="1">
@@ -4659,13 +4307,13 @@
         <v>83</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>97.5</v>
       </c>
       <c r="E40">
         <v>0.49352</v>
       </c>
       <c r="F40">
-        <v>2.267783548438423</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="100" customHeight="1">
@@ -4676,13 +4324,13 @@
         <v>85</v>
       </c>
       <c r="D41">
-        <v>97.5</v>
+        <v>1.5</v>
       </c>
       <c r="E41">
         <v>0.49352</v>
       </c>
       <c r="F41">
-        <v>-1.808040943597905</v>
+        <v>2.065179567503287</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="100" customHeight="1">
@@ -4693,13 +4341,13 @@
         <v>87</v>
       </c>
       <c r="D42">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="E42">
         <v>0.49352</v>
       </c>
       <c r="F42">
-        <v>2.065179567503287</v>
+        <v>2.612351797098031</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="100" customHeight="1">
@@ -4710,13 +4358,13 @@
         <v>89</v>
       </c>
       <c r="D43">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>0.49352</v>
       </c>
       <c r="F43">
-        <v>2.612351797098031</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="100" customHeight="1">
@@ -4727,13 +4375,13 @@
         <v>91</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <v>0.49352</v>
       </c>
       <c r="F44">
-        <v>2.267783548438423</v>
+        <v>1.920691153523556</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="100" customHeight="1">
@@ -4744,13 +4392,13 @@
         <v>93</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E45">
         <v>0.49352</v>
       </c>
       <c r="F45">
-        <v>1.920691153523556</v>
+        <v>1.808040943597903</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="100" customHeight="1">
@@ -4761,13 +4409,13 @@
         <v>95</v>
       </c>
       <c r="D46">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="E46">
         <v>0.49352</v>
       </c>
       <c r="F46">
-        <v>1.808040943597903</v>
+        <v>1.141825110249225</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="100" customHeight="1">
@@ -4778,13 +4426,13 @@
         <v>97</v>
       </c>
       <c r="D47">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <v>0.49352</v>
       </c>
       <c r="F47">
-        <v>1.141825110249225</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="100" customHeight="1">
@@ -4795,13 +4443,13 @@
         <v>99</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="E48">
         <v>0.49352</v>
       </c>
       <c r="F48">
-        <v>2.267783548438423</v>
+        <v>1.636897285266561</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="100" customHeight="1">
@@ -4812,13 +4460,13 @@
         <v>101</v>
       </c>
       <c r="D49">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="E49">
         <v>0.49352</v>
       </c>
       <c r="F49">
-        <v>1.636897285266561</v>
+        <v>1.507727708802602</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="100" customHeight="1">
@@ -4829,13 +4477,13 @@
         <v>103</v>
       </c>
       <c r="D50">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="E50">
         <v>0.49352</v>
       </c>
       <c r="F50">
-        <v>1.507727708802602</v>
+        <v>1.808040943597903</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="100" customHeight="1">
@@ -4846,13 +4494,13 @@
         <v>105</v>
       </c>
       <c r="D51">
-        <v>2.5</v>
+        <v>99</v>
       </c>
       <c r="E51">
         <v>0.49352</v>
       </c>
       <c r="F51">
-        <v>1.808040943597903</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="100" customHeight="1">
@@ -4863,13 +4511,13 @@
         <v>107</v>
       </c>
       <c r="D52">
-        <v>99</v>
+        <v>1.5</v>
       </c>
       <c r="E52">
         <v>0.49352</v>
       </c>
       <c r="F52">
-        <v>-2.26778354843842</v>
+        <v>2.065179567503287</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="100" customHeight="1">
@@ -4880,13 +4528,13 @@
         <v>109</v>
       </c>
       <c r="D53">
-        <v>1.5</v>
+        <v>98</v>
       </c>
       <c r="E53">
         <v>0.49352</v>
       </c>
       <c r="F53">
-        <v>2.065179567503287</v>
+        <v>-1.920691153523556</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="100" customHeight="1">
@@ -4897,13 +4545,13 @@
         <v>111</v>
       </c>
       <c r="D54">
-        <v>98</v>
+        <v>99.5</v>
       </c>
       <c r="E54">
         <v>0.49352</v>
       </c>
       <c r="F54">
-        <v>-1.920691153523556</v>
+        <v>-2.61235179709804</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="100" customHeight="1">
@@ -4948,13 +4596,13 @@
         <v>117</v>
       </c>
       <c r="D57">
-        <v>99.5</v>
+        <v>34</v>
       </c>
       <c r="E57">
         <v>0.49352</v>
       </c>
       <c r="F57">
-        <v>-2.61235179709804</v>
+        <v>0.3273489621763137</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="100" customHeight="1">
@@ -4965,13 +4613,13 @@
         <v>119</v>
       </c>
       <c r="D58">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E58">
         <v>0.49352</v>
       </c>
       <c r="F58">
-        <v>0.3273489621763137</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="100" customHeight="1">
@@ -4982,13 +4630,13 @@
         <v>121</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>9.5</v>
       </c>
       <c r="E59">
         <v>0.49352</v>
       </c>
       <c r="F59">
-        <v>2.267783548438423</v>
+        <v>1.112422729872089</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="100" customHeight="1">
@@ -4999,13 +4647,13 @@
         <v>123</v>
       </c>
       <c r="D60">
-        <v>9.5</v>
+        <v>32</v>
       </c>
       <c r="E60">
         <v>0.49352</v>
       </c>
       <c r="F60">
-        <v>1.112422729872089</v>
+        <v>0.3720014599087912</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="100" customHeight="1">
@@ -5016,13 +4664,13 @@
         <v>125</v>
       </c>
       <c r="D61">
-        <v>32</v>
+        <v>60.5</v>
       </c>
       <c r="E61">
         <v>0.49352</v>
       </c>
       <c r="F61">
-        <v>0.3720014599087912</v>
+        <v>-0.2104086459133792</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="100" customHeight="1">
@@ -5033,13 +4681,13 @@
         <v>127</v>
       </c>
       <c r="D62">
-        <v>60.5</v>
+        <v>58.5</v>
       </c>
       <c r="E62">
         <v>0.49352</v>
       </c>
       <c r="F62">
-        <v>-0.2104086459133792</v>
+        <v>-0.1694418635416117</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="100" customHeight="1">
@@ -5050,13 +4698,13 @@
         <v>129</v>
       </c>
       <c r="D63">
-        <v>58.5</v>
+        <v>64</v>
       </c>
       <c r="E63">
         <v>0.49352</v>
       </c>
       <c r="F63">
-        <v>-0.1694418635416117</v>
+        <v>-0.2839537127928058</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="100" customHeight="1">
@@ -5067,13 +4715,13 @@
         <v>131</v>
       </c>
       <c r="D64">
-        <v>64</v>
+        <v>76.5</v>
       </c>
       <c r="E64">
         <v>0.49352</v>
       </c>
       <c r="F64">
-        <v>-0.2839537127928058</v>
+        <v>-0.5824968785696466</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="100" customHeight="1">
@@ -5084,13 +4732,13 @@
         <v>133</v>
       </c>
       <c r="D65">
-        <v>76.5</v>
+        <v>99</v>
       </c>
       <c r="E65">
-        <v>0.49352</v>
+        <v>0.58904</v>
       </c>
       <c r="F65">
-        <v>-0.5824968785696466</v>
+        <v>-2.706709396523275</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="100" customHeight="1">
@@ -5101,13 +4749,13 @@
         <v>135</v>
       </c>
       <c r="D66">
-        <v>99</v>
+        <v>69.5</v>
       </c>
       <c r="E66">
-        <v>0.58904</v>
+        <v>0.49352</v>
       </c>
       <c r="F66">
-        <v>-2.706709396523275</v>
+        <v>-0.4064631060318465</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="100" customHeight="1">
@@ -5118,13 +4766,13 @@
         <v>137</v>
       </c>
       <c r="D67">
-        <v>69.5</v>
+        <v>98.5</v>
       </c>
       <c r="E67">
-        <v>0.49352</v>
+        <v>0.58904</v>
       </c>
       <c r="F67">
-        <v>-0.4064631060318465</v>
+        <v>-2.464891741858764</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="100" customHeight="1">
@@ -5135,13 +4783,13 @@
         <v>139</v>
       </c>
       <c r="D68">
-        <v>98.5</v>
+        <v>50</v>
       </c>
       <c r="E68">
-        <v>0.58904</v>
+        <v>0.59302</v>
       </c>
       <c r="F68">
-        <v>-2.464891741858764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="100" customHeight="1">
@@ -5152,13 +4800,13 @@
         <v>141</v>
       </c>
       <c r="D69">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="E69">
         <v>0.59302</v>
       </c>
       <c r="F69">
-        <v>-1.631715471340137</v>
+        <v>-0.3412024452107102</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="100" customHeight="1">
@@ -5169,13 +4817,13 @@
         <v>143</v>
       </c>
       <c r="D70">
-        <v>50</v>
+        <v>57.5</v>
       </c>
       <c r="E70">
         <v>0.59302</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>-0.1792586026380871</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="100" customHeight="1">
@@ -5186,13 +4834,13 @@
         <v>145</v>
       </c>
       <c r="D71">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E71">
         <v>0.59302</v>
       </c>
       <c r="F71">
-        <v>-0.3412024452107102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="100" customHeight="1">
@@ -5203,13 +4851,13 @@
         <v>147</v>
       </c>
       <c r="D72">
-        <v>57.5</v>
+        <v>1.5</v>
       </c>
       <c r="E72">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="F72">
-        <v>-0.1792586026380871</v>
+        <v>2.065179567503287</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="100" customHeight="1">
@@ -5220,13 +4868,13 @@
         <v>149</v>
       </c>
       <c r="D73">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E73">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="100" customHeight="1">
@@ -5237,13 +4885,13 @@
         <v>151</v>
       </c>
       <c r="D74">
-        <v>98.5</v>
+        <v>0.5</v>
       </c>
       <c r="E74">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="F74">
-        <v>-2.481546415790242</v>
+        <v>2.612351797098031</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="100" customHeight="1">
@@ -5254,148 +4902,12 @@
         <v>153</v>
       </c>
       <c r="D75">
-        <v>84.5</v>
+        <v>65</v>
       </c>
       <c r="E75">
         <v>0.59302</v>
       </c>
       <c r="F75">
-        <v>-1.005709443919899</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="100" customHeight="1">
-      <c r="A76" t="s">
-        <v>154</v>
-      </c>
-      <c r="C76" t="s">
-        <v>155</v>
-      </c>
-      <c r="D76">
-        <v>82</v>
-      </c>
-      <c r="E76">
-        <v>0.59302</v>
-      </c>
-      <c r="F76">
-        <v>-0.8992243881450639</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="100" customHeight="1">
-      <c r="A77" t="s">
-        <v>156</v>
-      </c>
-      <c r="C77" t="s">
-        <v>157</v>
-      </c>
-      <c r="D77">
-        <v>98</v>
-      </c>
-      <c r="E77">
-        <v>0.59302</v>
-      </c>
-      <c r="F77">
-        <v>-2.307927273185563</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="100" customHeight="1">
-      <c r="A78" t="s">
-        <v>158</v>
-      </c>
-      <c r="C78" t="s">
-        <v>159</v>
-      </c>
-      <c r="D78">
-        <v>83</v>
-      </c>
-      <c r="E78">
-        <v>0.59302</v>
-      </c>
-      <c r="F78">
-        <v>-0.940308679943321</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="100" customHeight="1">
-      <c r="A79" t="s">
-        <v>160</v>
-      </c>
-      <c r="C79" t="s">
-        <v>161</v>
-      </c>
-      <c r="D79">
-        <v>1.5</v>
-      </c>
-      <c r="E79">
-        <v>0.49352</v>
-      </c>
-      <c r="F79">
-        <v>2.065179567503287</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="100" customHeight="1">
-      <c r="A80" t="s">
-        <v>162</v>
-      </c>
-      <c r="C80" t="s">
-        <v>163</v>
-      </c>
-      <c r="D80">
-        <v>90</v>
-      </c>
-      <c r="E80">
-        <v>0.59302</v>
-      </c>
-      <c r="F80">
-        <v>-1.302998118851925</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="100" customHeight="1">
-      <c r="A81" t="s">
-        <v>164</v>
-      </c>
-      <c r="C81" t="s">
-        <v>165</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <v>0.49352</v>
-      </c>
-      <c r="F81">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="100" customHeight="1">
-      <c r="A82" t="s">
-        <v>166</v>
-      </c>
-      <c r="C82" t="s">
-        <v>167</v>
-      </c>
-      <c r="D82">
-        <v>0.5</v>
-      </c>
-      <c r="E82">
-        <v>0.49352</v>
-      </c>
-      <c r="F82">
-        <v>2.612351797098031</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="100" customHeight="1">
-      <c r="A83" t="s">
-        <v>168</v>
-      </c>
-      <c r="C83" t="s">
-        <v>169</v>
-      </c>
-      <c r="D83">
-        <v>65</v>
-      </c>
-      <c r="E83">
-        <v>0.59302</v>
-      </c>
-      <c r="F83">
         <v>-0.3671026313690585</v>
       </c>
     </row>

--- a/arranged_dataset/DIP-chloride.xlsx
+++ b/arranged_dataset/DIP-chloride.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>smiles</t>
   </si>
@@ -100,12 +100,6 @@
     <t>WYJOVVXUZNRJQY-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>CCOC(=O)C(C)C(=O)C</t>
-  </si>
-  <si>
-    <t>FNENWZWNOPCZGK-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>BrCC(=O)c1ccccc1</t>
   </si>
   <si>
@@ -196,12 +190,6 @@
     <t>XBYIXIAOQPIYHO-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>COc1ccccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>DWPLEOPKBWNPQV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>COc(c1)cccc1C(=O)C</t>
   </si>
   <si>
@@ -220,36 +208,6 @@
     <t>IQZLUWLMQNGTIW-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>COc1ccc(OC)cc1C(=O)C</t>
-  </si>
-  <si>
-    <t>FAXUIYJKGGUCBO-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc1ccc(C)cc1C(=O)C</t>
-  </si>
-  <si>
-    <t>FHIOYMGCAXTUGF-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc1ccc(F)cc1C(=O)C</t>
-  </si>
-  <si>
-    <t>CNVGMLMIQIPAFY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc1c(Cl)cc(Cl)cc1C(=O)C</t>
-  </si>
-  <si>
-    <t>MLXBLQUBVDCARQ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc1cc(OC)cc(C(=O)OC)c1C(=O)C</t>
-  </si>
-  <si>
-    <t>LUWXCCCGOWDRJL-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>c1ccccc1C2(c1ccccc1)C(=O)CCC2</t>
   </si>
   <si>
@@ -286,36 +244,18 @@
     <t>SYWQQEVHZPPLNQ-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>COc1ccc(OC)cc1C(=O)CC</t>
-  </si>
-  <si>
-    <t>DKVCHMQHUMLKPO-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>CC(C)(C)C(=O)C</t>
   </si>
   <si>
     <t>PJGSXYOJTGTZAV-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>CC(C(=O)OCC)(C)C(=O)C</t>
-  </si>
-  <si>
-    <t>NVAHZHOCRQCUBY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>CC1(C)C(=O)CCC1</t>
   </si>
   <si>
     <t>FTGZMZBYOHMEPS-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>COC(=O)[C@@]1(C)C(=O)CCC1</t>
-  </si>
-  <si>
-    <t>TZHZMYGNHVTEFA-MRVPVSSYSA-N</t>
-  </si>
-  <si>
     <t>CC1(C)C(=O)CCCC1</t>
   </si>
   <si>
@@ -428,12 +368,6 @@
   </si>
   <si>
     <t>MSRORZBOBVAASL-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1c(OC)cccc1)c2ccccc2</t>
-  </si>
-  <si>
-    <t>CSUUDNFYSFENAE-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>C(=O)(c1c(F)cccc1)c2ccccc2</t>
@@ -2909,424 +2843,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="78733650"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="Picture 64" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="80000475"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="Picture 65" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="81267300"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="Picture 66" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="82534125"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="Picture 67" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="83800950"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="Picture 68" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="85067775"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="Picture 69" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="86334600"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="Picture 70" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="87601425"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="Picture 71" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="88868250"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="Picture 72" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="90135075"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="Picture 73" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="91401900"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="Picture 74" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="92668725"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3624,7 +3140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3848,13 +3364,13 @@
         <v>29</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="E13">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="F13">
-        <v>1.448360638914646</v>
+        <v>-1.276582925099217</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="100" customHeight="1">
@@ -3865,13 +3381,13 @@
         <v>31</v>
       </c>
       <c r="D14">
-        <v>93</v>
+        <v>1.5</v>
       </c>
       <c r="E14">
         <v>0.49352</v>
       </c>
       <c r="F14">
-        <v>-1.276582925099217</v>
+        <v>2.065179567503287</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="100" customHeight="1">
@@ -3899,13 +3415,13 @@
         <v>35</v>
       </c>
       <c r="D16">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0.49352</v>
       </c>
       <c r="F16">
-        <v>2.065179567503287</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="100" customHeight="1">
@@ -3933,13 +3449,13 @@
         <v>39</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E18">
         <v>0.49352</v>
       </c>
       <c r="F18">
-        <v>2.267783548438423</v>
+        <v>0.2626596419205716</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="100" customHeight="1">
@@ -3950,13 +3466,13 @@
         <v>41</v>
       </c>
       <c r="D19">
-        <v>37</v>
+        <v>38.5</v>
       </c>
       <c r="E19">
         <v>0.49352</v>
       </c>
       <c r="F19">
-        <v>0.2626596419205716</v>
+        <v>0.2311543712701654</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="100" customHeight="1">
@@ -3967,13 +3483,13 @@
         <v>43</v>
       </c>
       <c r="D20">
-        <v>38.5</v>
+        <v>31</v>
       </c>
       <c r="E20">
         <v>0.49352</v>
       </c>
       <c r="F20">
-        <v>0.2311543712701654</v>
+        <v>0.3948748769913301</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="100" customHeight="1">
@@ -3984,13 +3500,13 @@
         <v>45</v>
       </c>
       <c r="D21">
-        <v>31</v>
+        <v>27.5</v>
       </c>
       <c r="E21">
         <v>0.49352</v>
       </c>
       <c r="F21">
-        <v>0.3948748769913301</v>
+        <v>0.4784185629834729</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="100" customHeight="1">
@@ -4001,13 +3517,13 @@
         <v>47</v>
       </c>
       <c r="D22">
-        <v>27.5</v>
+        <v>96</v>
       </c>
       <c r="E22">
-        <v>0.49352</v>
+        <v>0.38805</v>
       </c>
       <c r="F22">
-        <v>0.4784185629834729</v>
+        <v>-1.23324378886652</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="100" customHeight="1">
@@ -4018,13 +3534,13 @@
         <v>49</v>
       </c>
       <c r="D23">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="E23">
         <v>0.38805</v>
       </c>
       <c r="F23">
-        <v>-1.23324378886652</v>
+        <v>-1.103556668584487</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="100" customHeight="1">
@@ -4035,13 +3551,13 @@
         <v>51</v>
       </c>
       <c r="D24">
-        <v>94.5</v>
+        <v>9</v>
       </c>
       <c r="E24">
         <v>0.38805</v>
       </c>
       <c r="F24">
-        <v>-1.103556668584487</v>
+        <v>0.8978060342685438</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="100" customHeight="1">
@@ -4052,13 +3568,13 @@
         <v>53</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="E25">
-        <v>0.38805</v>
+        <v>0.49352</v>
       </c>
       <c r="F25">
-        <v>0.8978060342685438</v>
+        <v>2.612351797098031</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="100" customHeight="1">
@@ -4069,13 +3585,13 @@
         <v>55</v>
       </c>
       <c r="D26">
-        <v>0.5</v>
+        <v>63.5</v>
       </c>
       <c r="E26">
         <v>0.49352</v>
       </c>
       <c r="F26">
-        <v>2.612351797098031</v>
+        <v>-0.2732756675134899</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="100" customHeight="1">
@@ -4086,13 +3602,13 @@
         <v>57</v>
       </c>
       <c r="D27">
-        <v>63.5</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>0.49352</v>
       </c>
       <c r="F27">
-        <v>-0.2732756675134899</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="100" customHeight="1">
@@ -4103,13 +3619,13 @@
         <v>59</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E28">
         <v>0.49352</v>
       </c>
       <c r="F28">
-        <v>2.267783548438423</v>
+        <v>1.808040943597903</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="100" customHeight="1">
@@ -4120,13 +3636,13 @@
         <v>61</v>
       </c>
       <c r="D29">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="E29">
         <v>0.49352</v>
       </c>
       <c r="F29">
-        <v>2.065179567503287</v>
+        <v>1.315802917695658</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="100" customHeight="1">
@@ -4137,13 +3653,13 @@
         <v>63</v>
       </c>
       <c r="D30">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E30">
         <v>0.49352</v>
       </c>
       <c r="F30">
-        <v>1.808040943597903</v>
+        <v>1.715524225407504</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="100" customHeight="1">
@@ -4154,13 +3670,13 @@
         <v>65</v>
       </c>
       <c r="D31">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F31">
-        <v>1.315802917695658</v>
+        <v>2.269203661219363</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="100" customHeight="1">
@@ -4171,13 +3687,13 @@
         <v>67</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>0.49352</v>
       </c>
       <c r="F32">
-        <v>1.715524225407504</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="100" customHeight="1">
@@ -4188,13 +3704,13 @@
         <v>69</v>
       </c>
       <c r="D33">
-        <v>3.5</v>
+        <v>97.5</v>
       </c>
       <c r="E33">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F33">
-        <v>1.801907092249077</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="100" customHeight="1">
@@ -4205,13 +3721,13 @@
         <v>71</v>
       </c>
       <c r="D34">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="E34">
         <v>0.49352</v>
       </c>
       <c r="F34">
-        <v>1.808040943597903</v>
+        <v>2.065179567503287</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="100" customHeight="1">
@@ -4222,13 +3738,13 @@
         <v>73</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="E35">
         <v>0.49352</v>
       </c>
       <c r="F35">
-        <v>1.715524225407504</v>
+        <v>2.612351797098031</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="100" customHeight="1">
@@ -4239,13 +3755,13 @@
         <v>75</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>0.49352</v>
       </c>
       <c r="F36">
-        <v>1.715524225407504</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="100" customHeight="1">
@@ -4256,13 +3772,13 @@
         <v>77</v>
       </c>
       <c r="D37">
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="E37">
         <v>0.49352</v>
       </c>
       <c r="F37">
-        <v>0.2001051401535413</v>
+        <v>1.808040943597903</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="100" customHeight="1">
@@ -4273,13 +3789,13 @@
         <v>79</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F38">
-        <v>2.269203661219363</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="100" customHeight="1">
@@ -4290,13 +3806,13 @@
         <v>81</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="E39">
         <v>0.49352</v>
       </c>
       <c r="F39">
-        <v>2.267783548438423</v>
+        <v>1.507727708802602</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="100" customHeight="1">
@@ -4307,13 +3823,13 @@
         <v>83</v>
       </c>
       <c r="D40">
-        <v>97.5</v>
+        <v>2.5</v>
       </c>
       <c r="E40">
         <v>0.49352</v>
       </c>
       <c r="F40">
-        <v>-1.808040943597905</v>
+        <v>1.808040943597903</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="100" customHeight="1">
@@ -4324,13 +3840,13 @@
         <v>85</v>
       </c>
       <c r="D41">
-        <v>1.5</v>
+        <v>99</v>
       </c>
       <c r="E41">
         <v>0.49352</v>
       </c>
       <c r="F41">
-        <v>2.065179567503287</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="100" customHeight="1">
@@ -4341,13 +3857,13 @@
         <v>87</v>
       </c>
       <c r="D42">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="E42">
         <v>0.49352</v>
       </c>
       <c r="F42">
-        <v>2.612351797098031</v>
+        <v>2.065179567503287</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="100" customHeight="1">
@@ -4358,13 +3874,13 @@
         <v>89</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="E43">
         <v>0.49352</v>
       </c>
       <c r="F43">
-        <v>2.267783548438423</v>
+        <v>-1.920691153523556</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="100" customHeight="1">
@@ -4375,13 +3891,13 @@
         <v>91</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>99.5</v>
       </c>
       <c r="E44">
         <v>0.49352</v>
       </c>
       <c r="F44">
-        <v>1.920691153523556</v>
+        <v>-2.61235179709804</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="100" customHeight="1">
@@ -4392,13 +3908,13 @@
         <v>93</v>
       </c>
       <c r="D45">
-        <v>2.5</v>
+        <v>99.5</v>
       </c>
       <c r="E45">
         <v>0.49352</v>
       </c>
       <c r="F45">
-        <v>1.808040943597903</v>
+        <v>-2.61235179709804</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="100" customHeight="1">
@@ -4409,13 +3925,13 @@
         <v>95</v>
       </c>
       <c r="D46">
-        <v>9</v>
+        <v>99.5</v>
       </c>
       <c r="E46">
         <v>0.49352</v>
       </c>
       <c r="F46">
-        <v>1.141825110249225</v>
+        <v>-2.61235179709804</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="100" customHeight="1">
@@ -4426,13 +3942,13 @@
         <v>97</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E47">
         <v>0.49352</v>
       </c>
       <c r="F47">
-        <v>2.267783548438423</v>
+        <v>0.3273489621763137</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="100" customHeight="1">
@@ -4443,13 +3959,13 @@
         <v>99</v>
       </c>
       <c r="D48">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>0.49352</v>
       </c>
       <c r="F48">
-        <v>1.636897285266561</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="100" customHeight="1">
@@ -4460,13 +3976,13 @@
         <v>101</v>
       </c>
       <c r="D49">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="E49">
         <v>0.49352</v>
       </c>
       <c r="F49">
-        <v>1.507727708802602</v>
+        <v>1.112422729872089</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="100" customHeight="1">
@@ -4477,13 +3993,13 @@
         <v>103</v>
       </c>
       <c r="D50">
-        <v>2.5</v>
+        <v>32</v>
       </c>
       <c r="E50">
         <v>0.49352</v>
       </c>
       <c r="F50">
-        <v>1.808040943597903</v>
+        <v>0.3720014599087912</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="100" customHeight="1">
@@ -4494,13 +4010,13 @@
         <v>105</v>
       </c>
       <c r="D51">
-        <v>99</v>
+        <v>60.5</v>
       </c>
       <c r="E51">
         <v>0.49352</v>
       </c>
       <c r="F51">
-        <v>-2.26778354843842</v>
+        <v>-0.2104086459133792</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="100" customHeight="1">
@@ -4511,13 +4027,13 @@
         <v>107</v>
       </c>
       <c r="D52">
-        <v>1.5</v>
+        <v>58.5</v>
       </c>
       <c r="E52">
         <v>0.49352</v>
       </c>
       <c r="F52">
-        <v>2.065179567503287</v>
+        <v>-0.1694418635416117</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="100" customHeight="1">
@@ -4528,13 +4044,13 @@
         <v>109</v>
       </c>
       <c r="D53">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="E53">
         <v>0.49352</v>
       </c>
       <c r="F53">
-        <v>-1.920691153523556</v>
+        <v>-0.2839537127928058</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="100" customHeight="1">
@@ -4545,13 +4061,13 @@
         <v>111</v>
       </c>
       <c r="D54">
-        <v>99.5</v>
+        <v>76.5</v>
       </c>
       <c r="E54">
         <v>0.49352</v>
       </c>
       <c r="F54">
-        <v>-2.61235179709804</v>
+        <v>-0.5824968785696466</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="100" customHeight="1">
@@ -4562,13 +4078,13 @@
         <v>113</v>
       </c>
       <c r="D55">
-        <v>99.5</v>
+        <v>99</v>
       </c>
       <c r="E55">
-        <v>0.49352</v>
+        <v>0.58904</v>
       </c>
       <c r="F55">
-        <v>-2.61235179709804</v>
+        <v>-2.706709396523275</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="100" customHeight="1">
@@ -4579,13 +4095,13 @@
         <v>115</v>
       </c>
       <c r="D56">
-        <v>99.5</v>
+        <v>69.5</v>
       </c>
       <c r="E56">
         <v>0.49352</v>
       </c>
       <c r="F56">
-        <v>-2.61235179709804</v>
+        <v>-0.4064631060318465</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="100" customHeight="1">
@@ -4596,13 +4112,13 @@
         <v>117</v>
       </c>
       <c r="D57">
-        <v>34</v>
+        <v>98.5</v>
       </c>
       <c r="E57">
-        <v>0.49352</v>
+        <v>0.58904</v>
       </c>
       <c r="F57">
-        <v>0.3273489621763137</v>
+        <v>-2.464891741858764</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="100" customHeight="1">
@@ -4613,13 +4129,13 @@
         <v>119</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="E58">
-        <v>0.49352</v>
+        <v>0.59302</v>
       </c>
       <c r="F58">
-        <v>2.267783548438423</v>
+        <v>-0.3412024452107102</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="100" customHeight="1">
@@ -4630,13 +4146,13 @@
         <v>121</v>
       </c>
       <c r="D59">
-        <v>9.5</v>
+        <v>57.5</v>
       </c>
       <c r="E59">
-        <v>0.49352</v>
+        <v>0.59302</v>
       </c>
       <c r="F59">
-        <v>1.112422729872089</v>
+        <v>-0.1792586026380871</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="100" customHeight="1">
@@ -4647,13 +4163,13 @@
         <v>123</v>
       </c>
       <c r="D60">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E60">
-        <v>0.49352</v>
+        <v>0.59302</v>
       </c>
       <c r="F60">
-        <v>0.3720014599087912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="100" customHeight="1">
@@ -4664,13 +4180,13 @@
         <v>125</v>
       </c>
       <c r="D61">
-        <v>60.5</v>
+        <v>1.5</v>
       </c>
       <c r="E61">
         <v>0.49352</v>
       </c>
       <c r="F61">
-        <v>-0.2104086459133792</v>
+        <v>2.065179567503287</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="100" customHeight="1">
@@ -4681,13 +4197,13 @@
         <v>127</v>
       </c>
       <c r="D62">
-        <v>58.5</v>
+        <v>1</v>
       </c>
       <c r="E62">
         <v>0.49352</v>
       </c>
       <c r="F62">
-        <v>-0.1694418635416117</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="100" customHeight="1">
@@ -4698,13 +4214,13 @@
         <v>129</v>
       </c>
       <c r="D63">
-        <v>64</v>
+        <v>0.5</v>
       </c>
       <c r="E63">
         <v>0.49352</v>
       </c>
       <c r="F63">
-        <v>-0.2839537127928058</v>
+        <v>2.612351797098031</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="100" customHeight="1">
@@ -4715,199 +4231,12 @@
         <v>131</v>
       </c>
       <c r="D64">
-        <v>76.5</v>
+        <v>65</v>
       </c>
       <c r="E64">
-        <v>0.49352</v>
+        <v>0.59302</v>
       </c>
       <c r="F64">
-        <v>-0.5824968785696466</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="100" customHeight="1">
-      <c r="A65" t="s">
-        <v>132</v>
-      </c>
-      <c r="C65" t="s">
-        <v>133</v>
-      </c>
-      <c r="D65">
-        <v>99</v>
-      </c>
-      <c r="E65">
-        <v>0.58904</v>
-      </c>
-      <c r="F65">
-        <v>-2.706709396523275</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="100" customHeight="1">
-      <c r="A66" t="s">
-        <v>134</v>
-      </c>
-      <c r="C66" t="s">
-        <v>135</v>
-      </c>
-      <c r="D66">
-        <v>69.5</v>
-      </c>
-      <c r="E66">
-        <v>0.49352</v>
-      </c>
-      <c r="F66">
-        <v>-0.4064631060318465</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="100" customHeight="1">
-      <c r="A67" t="s">
-        <v>136</v>
-      </c>
-      <c r="C67" t="s">
-        <v>137</v>
-      </c>
-      <c r="D67">
-        <v>98.5</v>
-      </c>
-      <c r="E67">
-        <v>0.58904</v>
-      </c>
-      <c r="F67">
-        <v>-2.464891741858764</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="100" customHeight="1">
-      <c r="A68" t="s">
-        <v>138</v>
-      </c>
-      <c r="C68" t="s">
-        <v>139</v>
-      </c>
-      <c r="D68">
-        <v>50</v>
-      </c>
-      <c r="E68">
-        <v>0.59302</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="100" customHeight="1">
-      <c r="A69" t="s">
-        <v>140</v>
-      </c>
-      <c r="C69" t="s">
-        <v>141</v>
-      </c>
-      <c r="D69">
-        <v>64</v>
-      </c>
-      <c r="E69">
-        <v>0.59302</v>
-      </c>
-      <c r="F69">
-        <v>-0.3412024452107102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="100" customHeight="1">
-      <c r="A70" t="s">
-        <v>142</v>
-      </c>
-      <c r="C70" t="s">
-        <v>143</v>
-      </c>
-      <c r="D70">
-        <v>57.5</v>
-      </c>
-      <c r="E70">
-        <v>0.59302</v>
-      </c>
-      <c r="F70">
-        <v>-0.1792586026380871</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="100" customHeight="1">
-      <c r="A71" t="s">
-        <v>144</v>
-      </c>
-      <c r="C71" t="s">
-        <v>145</v>
-      </c>
-      <c r="D71">
-        <v>50</v>
-      </c>
-      <c r="E71">
-        <v>0.59302</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="100" customHeight="1">
-      <c r="A72" t="s">
-        <v>146</v>
-      </c>
-      <c r="C72" t="s">
-        <v>147</v>
-      </c>
-      <c r="D72">
-        <v>1.5</v>
-      </c>
-      <c r="E72">
-        <v>0.49352</v>
-      </c>
-      <c r="F72">
-        <v>2.065179567503287</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="100" customHeight="1">
-      <c r="A73" t="s">
-        <v>148</v>
-      </c>
-      <c r="C73" t="s">
-        <v>149</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>0.49352</v>
-      </c>
-      <c r="F73">
-        <v>2.267783548438423</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="100" customHeight="1">
-      <c r="A74" t="s">
-        <v>150</v>
-      </c>
-      <c r="C74" t="s">
-        <v>151</v>
-      </c>
-      <c r="D74">
-        <v>0.5</v>
-      </c>
-      <c r="E74">
-        <v>0.49352</v>
-      </c>
-      <c r="F74">
-        <v>2.612351797098031</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="100" customHeight="1">
-      <c r="A75" t="s">
-        <v>152</v>
-      </c>
-      <c r="C75" t="s">
-        <v>153</v>
-      </c>
-      <c r="D75">
-        <v>65</v>
-      </c>
-      <c r="E75">
-        <v>0.59302</v>
-      </c>
-      <c r="F75">
         <v>-0.3671026313690585</v>
       </c>
     </row>

--- a/arranged_dataset/DIP-chloride.xlsx
+++ b/arranged_dataset/DIP-chloride.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t>smiles</t>
   </si>
@@ -100,6 +100,12 @@
     <t>WYJOVVXUZNRJQY-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>CCOC(=O)C(C)C(=O)C</t>
+  </si>
+  <si>
+    <t>FNENWZWNOPCZGK-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>BrCC(=O)c1ccccc1</t>
   </si>
   <si>
@@ -190,6 +196,12 @@
     <t>XBYIXIAOQPIYHO-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>COc1ccccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>DWPLEOPKBWNPQV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>COc(c1)cccc1C(=O)C</t>
   </si>
   <si>
@@ -208,6 +220,36 @@
     <t>IQZLUWLMQNGTIW-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>COc1ccc(OC)cc1C(=O)C</t>
+  </si>
+  <si>
+    <t>FAXUIYJKGGUCBO-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COc1ccc(C)cc1C(=O)C</t>
+  </si>
+  <si>
+    <t>FHIOYMGCAXTUGF-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COc1ccc(F)cc1C(=O)C</t>
+  </si>
+  <si>
+    <t>CNVGMLMIQIPAFY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COc1c(Cl)cc(Cl)cc1C(=O)C</t>
+  </si>
+  <si>
+    <t>MLXBLQUBVDCARQ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COc1cc(OC)cc(C(=O)OC)c1C(=O)C</t>
+  </si>
+  <si>
+    <t>LUWXCCCGOWDRJL-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>c1ccccc1C2(c1ccccc1)C(=O)CCC2</t>
   </si>
   <si>
@@ -244,18 +286,36 @@
     <t>SYWQQEVHZPPLNQ-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>COc1ccc(OC)cc1C(=O)CC</t>
+  </si>
+  <si>
+    <t>DKVCHMQHUMLKPO-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>CC(C)(C)C(=O)C</t>
   </si>
   <si>
     <t>PJGSXYOJTGTZAV-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>CC(C(=O)OCC)(C)C(=O)C</t>
+  </si>
+  <si>
+    <t>NVAHZHOCRQCUBY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>CC1(C)C(=O)CCC1</t>
   </si>
   <si>
     <t>FTGZMZBYOHMEPS-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>COC(=O)[C@@]1(C)C(=O)CCC1</t>
+  </si>
+  <si>
+    <t>TZHZMYGNHVTEFA-MRVPVSSYSA-N</t>
+  </si>
+  <si>
     <t>CC1(C)C(=O)CCCC1</t>
   </si>
   <si>
@@ -368,6 +428,12 @@
   </si>
   <si>
     <t>MSRORZBOBVAASL-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(OC)cccc1)c2ccccc2</t>
+  </si>
+  <si>
+    <t>CSUUDNFYSFENAE-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>C(=O)(c1c(F)cccc1)c2ccccc2</t>
@@ -2843,6 +2909,424 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="78733650"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 64" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="80000475"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Picture 65" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="81267300"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 66" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="82534125"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 67" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="83800950"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Picture 68" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="85067775"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Picture 69" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="86334600"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Picture 70" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="87601425"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Picture 71" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="88868250"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Picture 72" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="90135075"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Picture 73" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="91401900"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Picture 74" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="92668725"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3140,7 +3624,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3364,13 +3848,13 @@
         <v>29</v>
       </c>
       <c r="D13">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>0.49352</v>
+        <v>0.59302</v>
       </c>
       <c r="F13">
-        <v>-1.276582925099217</v>
+        <v>1.448360638914646</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="100" customHeight="1">
@@ -3381,13 +3865,13 @@
         <v>31</v>
       </c>
       <c r="D14">
-        <v>1.5</v>
+        <v>93</v>
       </c>
       <c r="E14">
         <v>0.49352</v>
       </c>
       <c r="F14">
-        <v>2.065179567503287</v>
+        <v>-1.276582925099217</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="100" customHeight="1">
@@ -3415,13 +3899,13 @@
         <v>35</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E16">
         <v>0.49352</v>
       </c>
       <c r="F16">
-        <v>2.267783548438423</v>
+        <v>2.065179567503287</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="100" customHeight="1">
@@ -3449,13 +3933,13 @@
         <v>39</v>
       </c>
       <c r="D18">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0.49352</v>
       </c>
       <c r="F18">
-        <v>0.2626596419205716</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="100" customHeight="1">
@@ -3466,13 +3950,13 @@
         <v>41</v>
       </c>
       <c r="D19">
-        <v>38.5</v>
+        <v>37</v>
       </c>
       <c r="E19">
         <v>0.49352</v>
       </c>
       <c r="F19">
-        <v>0.2311543712701654</v>
+        <v>0.2626596419205716</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="100" customHeight="1">
@@ -3483,13 +3967,13 @@
         <v>43</v>
       </c>
       <c r="D20">
-        <v>31</v>
+        <v>38.5</v>
       </c>
       <c r="E20">
         <v>0.49352</v>
       </c>
       <c r="F20">
-        <v>0.3948748769913301</v>
+        <v>0.2311543712701654</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="100" customHeight="1">
@@ -3500,13 +3984,13 @@
         <v>45</v>
       </c>
       <c r="D21">
-        <v>27.5</v>
+        <v>31</v>
       </c>
       <c r="E21">
         <v>0.49352</v>
       </c>
       <c r="F21">
-        <v>0.4784185629834729</v>
+        <v>0.3948748769913301</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="100" customHeight="1">
@@ -3517,13 +4001,13 @@
         <v>47</v>
       </c>
       <c r="D22">
-        <v>96</v>
+        <v>27.5</v>
       </c>
       <c r="E22">
-        <v>0.38805</v>
+        <v>0.49352</v>
       </c>
       <c r="F22">
-        <v>-1.23324378886652</v>
+        <v>0.4784185629834729</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="100" customHeight="1">
@@ -3534,13 +4018,13 @@
         <v>49</v>
       </c>
       <c r="D23">
-        <v>94.5</v>
+        <v>96</v>
       </c>
       <c r="E23">
         <v>0.38805</v>
       </c>
       <c r="F23">
-        <v>-1.103556668584487</v>
+        <v>-1.23324378886652</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="100" customHeight="1">
@@ -3551,13 +4035,13 @@
         <v>51</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>94.5</v>
       </c>
       <c r="E24">
         <v>0.38805</v>
       </c>
       <c r="F24">
-        <v>0.8978060342685438</v>
+        <v>-1.103556668584487</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="100" customHeight="1">
@@ -3568,13 +4052,13 @@
         <v>53</v>
       </c>
       <c r="D25">
-        <v>0.5</v>
+        <v>9</v>
       </c>
       <c r="E25">
-        <v>0.49352</v>
+        <v>0.38805</v>
       </c>
       <c r="F25">
-        <v>2.612351797098031</v>
+        <v>0.8978060342685438</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="100" customHeight="1">
@@ -3585,13 +4069,13 @@
         <v>55</v>
       </c>
       <c r="D26">
-        <v>63.5</v>
+        <v>0.5</v>
       </c>
       <c r="E26">
         <v>0.49352</v>
       </c>
       <c r="F26">
-        <v>-0.2732756675134899</v>
+        <v>2.612351797098031</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="100" customHeight="1">
@@ -3602,13 +4086,13 @@
         <v>57</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>63.5</v>
       </c>
       <c r="E27">
         <v>0.49352</v>
       </c>
       <c r="F27">
-        <v>2.267783548438423</v>
+        <v>-0.2732756675134899</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="100" customHeight="1">
@@ -3619,13 +4103,13 @@
         <v>59</v>
       </c>
       <c r="D28">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>0.49352</v>
       </c>
       <c r="F28">
-        <v>1.808040943597903</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="100" customHeight="1">
@@ -3636,13 +4120,13 @@
         <v>61</v>
       </c>
       <c r="D29">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="E29">
         <v>0.49352</v>
       </c>
       <c r="F29">
-        <v>1.315802917695658</v>
+        <v>2.065179567503287</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="100" customHeight="1">
@@ -3653,13 +4137,13 @@
         <v>63</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E30">
         <v>0.49352</v>
       </c>
       <c r="F30">
-        <v>1.715524225407504</v>
+        <v>1.808040943597903</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="100" customHeight="1">
@@ -3670,13 +4154,13 @@
         <v>65</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="E31">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F31">
-        <v>2.269203661219363</v>
+        <v>1.315802917695658</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="100" customHeight="1">
@@ -3687,13 +4171,13 @@
         <v>67</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E32">
         <v>0.49352</v>
       </c>
       <c r="F32">
-        <v>2.267783548438423</v>
+        <v>1.715524225407504</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="100" customHeight="1">
@@ -3704,13 +4188,13 @@
         <v>69</v>
       </c>
       <c r="D33">
-        <v>97.5</v>
+        <v>3.5</v>
       </c>
       <c r="E33">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F33">
-        <v>-1.808040943597905</v>
+        <v>1.801907092249077</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="100" customHeight="1">
@@ -3721,13 +4205,13 @@
         <v>71</v>
       </c>
       <c r="D34">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E34">
         <v>0.49352</v>
       </c>
       <c r="F34">
-        <v>2.065179567503287</v>
+        <v>1.808040943597903</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="100" customHeight="1">
@@ -3738,13 +4222,13 @@
         <v>73</v>
       </c>
       <c r="D35">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E35">
         <v>0.49352</v>
       </c>
       <c r="F35">
-        <v>2.612351797098031</v>
+        <v>1.715524225407504</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="100" customHeight="1">
@@ -3755,13 +4239,13 @@
         <v>75</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E36">
         <v>0.49352</v>
       </c>
       <c r="F36">
-        <v>2.267783548438423</v>
+        <v>1.715524225407504</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="100" customHeight="1">
@@ -3772,13 +4256,13 @@
         <v>77</v>
       </c>
       <c r="D37">
-        <v>2.5</v>
+        <v>40</v>
       </c>
       <c r="E37">
         <v>0.49352</v>
       </c>
       <c r="F37">
-        <v>1.808040943597903</v>
+        <v>0.2001051401535413</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="100" customHeight="1">
@@ -3789,13 +4273,13 @@
         <v>79</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F38">
-        <v>2.267783548438423</v>
+        <v>2.269203661219363</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="100" customHeight="1">
@@ -3806,13 +4290,13 @@
         <v>81</v>
       </c>
       <c r="D39">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <v>0.49352</v>
       </c>
       <c r="F39">
-        <v>1.507727708802602</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="100" customHeight="1">
@@ -3823,13 +4307,13 @@
         <v>83</v>
       </c>
       <c r="D40">
-        <v>2.5</v>
+        <v>97.5</v>
       </c>
       <c r="E40">
         <v>0.49352</v>
       </c>
       <c r="F40">
-        <v>1.808040943597903</v>
+        <v>-1.808040943597905</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="100" customHeight="1">
@@ -3840,13 +4324,13 @@
         <v>85</v>
       </c>
       <c r="D41">
-        <v>99</v>
+        <v>1.5</v>
       </c>
       <c r="E41">
         <v>0.49352</v>
       </c>
       <c r="F41">
-        <v>-2.26778354843842</v>
+        <v>2.065179567503287</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="100" customHeight="1">
@@ -3857,13 +4341,13 @@
         <v>87</v>
       </c>
       <c r="D42">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="E42">
         <v>0.49352</v>
       </c>
       <c r="F42">
-        <v>2.065179567503287</v>
+        <v>2.612351797098031</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="100" customHeight="1">
@@ -3874,13 +4358,13 @@
         <v>89</v>
       </c>
       <c r="D43">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>0.49352</v>
       </c>
       <c r="F43">
-        <v>-1.920691153523556</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="100" customHeight="1">
@@ -3891,13 +4375,13 @@
         <v>91</v>
       </c>
       <c r="D44">
-        <v>99.5</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <v>0.49352</v>
       </c>
       <c r="F44">
-        <v>-2.61235179709804</v>
+        <v>1.920691153523556</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="100" customHeight="1">
@@ -3908,13 +4392,13 @@
         <v>93</v>
       </c>
       <c r="D45">
-        <v>99.5</v>
+        <v>2.5</v>
       </c>
       <c r="E45">
         <v>0.49352</v>
       </c>
       <c r="F45">
-        <v>-2.61235179709804</v>
+        <v>1.808040943597903</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="100" customHeight="1">
@@ -3925,13 +4409,13 @@
         <v>95</v>
       </c>
       <c r="D46">
-        <v>99.5</v>
+        <v>9</v>
       </c>
       <c r="E46">
         <v>0.49352</v>
       </c>
       <c r="F46">
-        <v>-2.61235179709804</v>
+        <v>1.141825110249225</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="100" customHeight="1">
@@ -3942,13 +4426,13 @@
         <v>97</v>
       </c>
       <c r="D47">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <v>0.49352</v>
       </c>
       <c r="F47">
-        <v>0.3273489621763137</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="100" customHeight="1">
@@ -3959,13 +4443,13 @@
         <v>99</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="E48">
         <v>0.49352</v>
       </c>
       <c r="F48">
-        <v>2.267783548438423</v>
+        <v>1.636897285266561</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="100" customHeight="1">
@@ -3976,13 +4460,13 @@
         <v>101</v>
       </c>
       <c r="D49">
-        <v>9.5</v>
+        <v>4.5</v>
       </c>
       <c r="E49">
         <v>0.49352</v>
       </c>
       <c r="F49">
-        <v>1.112422729872089</v>
+        <v>1.507727708802602</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="100" customHeight="1">
@@ -3993,13 +4477,13 @@
         <v>103</v>
       </c>
       <c r="D50">
-        <v>32</v>
+        <v>2.5</v>
       </c>
       <c r="E50">
         <v>0.49352</v>
       </c>
       <c r="F50">
-        <v>0.3720014599087912</v>
+        <v>1.808040943597903</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="100" customHeight="1">
@@ -4010,13 +4494,13 @@
         <v>105</v>
       </c>
       <c r="D51">
-        <v>60.5</v>
+        <v>99</v>
       </c>
       <c r="E51">
         <v>0.49352</v>
       </c>
       <c r="F51">
-        <v>-0.2104086459133792</v>
+        <v>-2.26778354843842</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="100" customHeight="1">
@@ -4027,13 +4511,13 @@
         <v>107</v>
       </c>
       <c r="D52">
-        <v>58.5</v>
+        <v>1.5</v>
       </c>
       <c r="E52">
         <v>0.49352</v>
       </c>
       <c r="F52">
-        <v>-0.1694418635416117</v>
+        <v>2.065179567503287</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="100" customHeight="1">
@@ -4044,13 +4528,13 @@
         <v>109</v>
       </c>
       <c r="D53">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="E53">
         <v>0.49352</v>
       </c>
       <c r="F53">
-        <v>-0.2839537127928058</v>
+        <v>-1.920691153523556</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="100" customHeight="1">
@@ -4061,13 +4545,13 @@
         <v>111</v>
       </c>
       <c r="D54">
-        <v>76.5</v>
+        <v>99.5</v>
       </c>
       <c r="E54">
         <v>0.49352</v>
       </c>
       <c r="F54">
-        <v>-0.5824968785696466</v>
+        <v>-2.61235179709804</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="100" customHeight="1">
@@ -4078,13 +4562,13 @@
         <v>113</v>
       </c>
       <c r="D55">
-        <v>99</v>
+        <v>99.5</v>
       </c>
       <c r="E55">
-        <v>0.58904</v>
+        <v>0.49352</v>
       </c>
       <c r="F55">
-        <v>-2.706709396523275</v>
+        <v>-2.61235179709804</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="100" customHeight="1">
@@ -4095,13 +4579,13 @@
         <v>115</v>
       </c>
       <c r="D56">
-        <v>69.5</v>
+        <v>99.5</v>
       </c>
       <c r="E56">
         <v>0.49352</v>
       </c>
       <c r="F56">
-        <v>-0.4064631060318465</v>
+        <v>-2.61235179709804</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="100" customHeight="1">
@@ -4112,13 +4596,13 @@
         <v>117</v>
       </c>
       <c r="D57">
-        <v>98.5</v>
+        <v>34</v>
       </c>
       <c r="E57">
-        <v>0.58904</v>
+        <v>0.49352</v>
       </c>
       <c r="F57">
-        <v>-2.464891741858764</v>
+        <v>0.3273489621763137</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="100" customHeight="1">
@@ -4129,13 +4613,13 @@
         <v>119</v>
       </c>
       <c r="D58">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="E58">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="F58">
-        <v>-0.3412024452107102</v>
+        <v>2.267783548438423</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="100" customHeight="1">
@@ -4146,13 +4630,13 @@
         <v>121</v>
       </c>
       <c r="D59">
-        <v>57.5</v>
+        <v>9.5</v>
       </c>
       <c r="E59">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="F59">
-        <v>-0.1792586026380871</v>
+        <v>1.112422729872089</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="100" customHeight="1">
@@ -4163,13 +4647,13 @@
         <v>123</v>
       </c>
       <c r="D60">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E60">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>0.3720014599087912</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="100" customHeight="1">
@@ -4180,13 +4664,13 @@
         <v>125</v>
       </c>
       <c r="D61">
-        <v>1.5</v>
+        <v>60.5</v>
       </c>
       <c r="E61">
         <v>0.49352</v>
       </c>
       <c r="F61">
-        <v>2.065179567503287</v>
+        <v>-0.2104086459133792</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="100" customHeight="1">
@@ -4197,13 +4681,13 @@
         <v>127</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>58.5</v>
       </c>
       <c r="E62">
         <v>0.49352</v>
       </c>
       <c r="F62">
-        <v>2.267783548438423</v>
+        <v>-0.1694418635416117</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="100" customHeight="1">
@@ -4214,13 +4698,13 @@
         <v>129</v>
       </c>
       <c r="D63">
-        <v>0.5</v>
+        <v>64</v>
       </c>
       <c r="E63">
         <v>0.49352</v>
       </c>
       <c r="F63">
-        <v>2.612351797098031</v>
+        <v>-0.2839537127928058</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="100" customHeight="1">
@@ -4231,12 +4715,199 @@
         <v>131</v>
       </c>
       <c r="D64">
+        <v>76.5</v>
+      </c>
+      <c r="E64">
+        <v>0.49352</v>
+      </c>
+      <c r="F64">
+        <v>-0.5824968785696466</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="100" customHeight="1">
+      <c r="A65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65">
+        <v>99</v>
+      </c>
+      <c r="E65">
+        <v>0.58904</v>
+      </c>
+      <c r="F65">
+        <v>-2.706709396523275</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="100" customHeight="1">
+      <c r="A66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66">
+        <v>69.5</v>
+      </c>
+      <c r="E66">
+        <v>0.49352</v>
+      </c>
+      <c r="F66">
+        <v>-0.4064631060318465</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="100" customHeight="1">
+      <c r="A67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67">
+        <v>98.5</v>
+      </c>
+      <c r="E67">
+        <v>0.58904</v>
+      </c>
+      <c r="F67">
+        <v>-2.464891741858764</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="100" customHeight="1">
+      <c r="A68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" t="s">
+        <v>139</v>
+      </c>
+      <c r="D68">
+        <v>50</v>
+      </c>
+      <c r="E68">
+        <v>0.59302</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="100" customHeight="1">
+      <c r="A69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" t="s">
+        <v>141</v>
+      </c>
+      <c r="D69">
+        <v>64</v>
+      </c>
+      <c r="E69">
+        <v>0.59302</v>
+      </c>
+      <c r="F69">
+        <v>-0.3412024452107102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="100" customHeight="1">
+      <c r="A70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70">
+        <v>57.5</v>
+      </c>
+      <c r="E70">
+        <v>0.59302</v>
+      </c>
+      <c r="F70">
+        <v>-0.1792586026380871</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="100" customHeight="1">
+      <c r="A71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71">
+        <v>50</v>
+      </c>
+      <c r="E71">
+        <v>0.59302</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="100" customHeight="1">
+      <c r="A72" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" t="s">
+        <v>147</v>
+      </c>
+      <c r="D72">
+        <v>1.5</v>
+      </c>
+      <c r="E72">
+        <v>0.49352</v>
+      </c>
+      <c r="F72">
+        <v>2.065179567503287</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="100" customHeight="1">
+      <c r="A73" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" t="s">
+        <v>149</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>0.49352</v>
+      </c>
+      <c r="F73">
+        <v>2.267783548438423</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="100" customHeight="1">
+      <c r="A74" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" t="s">
+        <v>151</v>
+      </c>
+      <c r="D74">
+        <v>0.5</v>
+      </c>
+      <c r="E74">
+        <v>0.49352</v>
+      </c>
+      <c r="F74">
+        <v>2.612351797098031</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="100" customHeight="1">
+      <c r="A75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" t="s">
+        <v>153</v>
+      </c>
+      <c r="D75">
         <v>65</v>
       </c>
-      <c r="E64">
+      <c r="E75">
         <v>0.59302</v>
       </c>
-      <c r="F64">
+      <c r="F75">
         <v>-0.3671026313690585</v>
       </c>
     </row>

--- a/arranged_dataset/DIP-chloride.xlsx
+++ b/arranged_dataset/DIP-chloride.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="167">
   <si>
     <t>smiles</t>
   </si>
@@ -34,12 +34,18 @@
     <t>ΔΔG.expt.</t>
   </si>
   <si>
+    <t>Reference url</t>
+  </si>
+  <si>
     <t>CCC(=O)C</t>
   </si>
   <si>
     <t>ZWEHNKRNPOVVGH-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>https://pubs.acs.org/doi/10.1021/ja00213a030</t>
+  </si>
+  <si>
     <t>CCCCCCC(=O)C</t>
   </si>
   <si>
@@ -112,6 +118,9 @@
     <t>LIGACIXOYTUXAW-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>https://pubs.acs.org/doi/10.1021/jo00248a005</t>
+  </si>
+  <si>
     <t>c1cc(Br)ccc1C(=O)C</t>
   </si>
   <si>
@@ -142,6 +151,9 @@
     <t>RIFKADJTWUGDOV-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>https://pubs.acs.org/doi/10.1021/jo00280a013</t>
+  </si>
+  <si>
     <t>C1CCCCC1C(=O)CC</t>
   </si>
   <si>
@@ -166,6 +178,9 @@
     <t>YLHXLHGIAMFFBU-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>https://pubs.acs.org/doi/full/10.1021/jo025594y</t>
+  </si>
+  <si>
     <t>CCOC(=O)C(=O)c1ccccc1</t>
   </si>
   <si>
@@ -202,6 +217,9 @@
     <t>DWPLEOPKBWNPQV-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0040403997004401?via%3Dihub</t>
+  </si>
+  <si>
     <t>COc(c1)cccc1C(=O)C</t>
   </si>
   <si>
@@ -226,6 +244,9 @@
     <t>FAXUIYJKGGUCBO-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0040403900767803</t>
+  </si>
+  <si>
     <t>COc1ccc(C)cc1C(=O)C</t>
   </si>
   <si>
@@ -256,18 +277,27 @@
     <t>CBOPQVXWIKRPKD-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>https://pubs.acs.org/doi/abs/10.1021/ja00165a036</t>
+  </si>
+  <si>
     <t>c1cc(F)ccc1C(=O)CCCCl</t>
   </si>
   <si>
     <t>HXAOUYGZEOZTJO-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0957416600822089</t>
+  </si>
+  <si>
     <t>COCC(=O)c1ccccc1</t>
   </si>
   <si>
     <t>YRNDGUSDBCARGC-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>https://pubs.acs.org/doi/10.1021/ar00013a003</t>
+  </si>
+  <si>
     <t>c1cc([N+]([O-])=O)ccc1C(=O)CC</t>
   </si>
   <si>
@@ -400,6 +430,9 @@
     <t>XRGPFNGLRSIPSA-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>https://pubs.acs.org/doi/epdf/10.1021/jo00034a034</t>
+  </si>
+  <si>
     <t>c1ccccc1C#CC(=O)CC</t>
   </si>
   <si>
@@ -436,6 +469,9 @@
     <t>CSUUDNFYSFENAE-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>nan</t>
+  </si>
+  <si>
     <t>C(=O)(c1c(F)cccc1)c2ccccc2</t>
   </si>
   <si>
@@ -458,6 +494,9 @@
   </si>
   <si>
     <t>UFOAYTOVTNNRKJ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/0040403996002602?via%3Dihub</t>
   </si>
   <si>
     <t>C(=O)(c1c(C(=O)OC)cccc1)CC</t>
@@ -3624,7 +3663,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3633,7 +3672,7 @@
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3652,13 +3691,16 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="100" customHeight="1">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="100" customHeight="1">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>48</v>
@@ -3669,13 +3711,16 @@
       <c r="F2">
         <v>0.03950267709104377</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="100" customHeight="1">
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="100" customHeight="1">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>53.5</v>
@@ -3686,13 +3731,16 @@
       <c r="F3">
         <v>-0.06920598452264508</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="100" customHeight="1">
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="100" customHeight="1">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>1.350000000000001</v>
@@ -3703,13 +3751,16 @@
       <c r="F4">
         <v>2.117928070821824</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="100" customHeight="1">
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="100" customHeight="1">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>0.8999999999999986</v>
@@ -3720,13 +3771,16 @@
       <c r="F5">
         <v>2.320279323575566</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="100" customHeight="1">
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="100" customHeight="1">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>2.5</v>
@@ -3737,13 +3791,16 @@
       <c r="F6">
         <v>1.808040943597903</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="100" customHeight="1">
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="100" customHeight="1">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -3754,13 +3811,16 @@
       <c r="F7">
         <v>1.453139524998222</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="100" customHeight="1">
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="100" customHeight="1">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>89.65000000000001</v>
@@ -3771,13 +3831,16 @@
       <c r="F8">
         <v>-1.06547349528128</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="100" customHeight="1">
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="100" customHeight="1">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>1.299999999999997</v>
@@ -3788,13 +3851,16 @@
       <c r="F9">
         <v>2.136803750966795</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="100" customHeight="1">
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="100" customHeight="1">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <v>6.299999999999997</v>
@@ -3805,13 +3871,16 @@
       <c r="F10">
         <v>1.332281203281557</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="100" customHeight="1">
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="100" customHeight="1">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>0.9500000000000028</v>
@@ -3822,13 +3891,16 @@
       <c r="F11">
         <v>2.293347004688446</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="100" customHeight="1">
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="100" customHeight="1">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12">
         <v>4.350000000000001</v>
@@ -3839,13 +3911,16 @@
       <c r="F12">
         <v>1.525233356759743</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="100" customHeight="1">
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="100" customHeight="1">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D13">
         <v>8</v>
@@ -3856,13 +3931,16 @@
       <c r="F13">
         <v>1.448360638914646</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="100" customHeight="1">
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="100" customHeight="1">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14">
         <v>93</v>
@@ -3873,13 +3951,16 @@
       <c r="F14">
         <v>-1.276582925099217</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="100" customHeight="1">
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="100" customHeight="1">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D15">
         <v>1.5</v>
@@ -3890,13 +3971,16 @@
       <c r="F15">
         <v>2.065179567503287</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="100" customHeight="1">
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="100" customHeight="1">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D16">
         <v>1.5</v>
@@ -3907,13 +3991,16 @@
       <c r="F16">
         <v>2.065179567503287</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="100" customHeight="1">
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="100" customHeight="1">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -3924,13 +4011,16 @@
       <c r="F17">
         <v>2.267783548438423</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="100" customHeight="1">
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="100" customHeight="1">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -3941,13 +4031,16 @@
       <c r="F18">
         <v>2.267783548438423</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="100" customHeight="1">
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="100" customHeight="1">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D19">
         <v>37</v>
@@ -3958,13 +4051,16 @@
       <c r="F19">
         <v>0.2626596419205716</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="100" customHeight="1">
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="100" customHeight="1">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D20">
         <v>38.5</v>
@@ -3975,13 +4071,16 @@
       <c r="F20">
         <v>0.2311543712701654</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="100" customHeight="1">
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="100" customHeight="1">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D21">
         <v>31</v>
@@ -3992,13 +4091,16 @@
       <c r="F21">
         <v>0.3948748769913301</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="100" customHeight="1">
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="100" customHeight="1">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D22">
         <v>27.5</v>
@@ -4009,13 +4111,16 @@
       <c r="F22">
         <v>0.4784185629834729</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="100" customHeight="1">
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="100" customHeight="1">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D23">
         <v>96</v>
@@ -4026,13 +4131,16 @@
       <c r="F23">
         <v>-1.23324378886652</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="100" customHeight="1">
+      <c r="G23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="100" customHeight="1">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D24">
         <v>94.5</v>
@@ -4043,13 +4151,16 @@
       <c r="F24">
         <v>-1.103556668584487</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="100" customHeight="1">
+      <c r="G24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="100" customHeight="1">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D25">
         <v>9</v>
@@ -4060,13 +4171,16 @@
       <c r="F25">
         <v>0.8978060342685438</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="100" customHeight="1">
+      <c r="G25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="100" customHeight="1">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D26">
         <v>0.5</v>
@@ -4077,13 +4191,16 @@
       <c r="F26">
         <v>2.612351797098031</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="100" customHeight="1">
+      <c r="G26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="100" customHeight="1">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D27">
         <v>63.5</v>
@@ -4094,13 +4211,16 @@
       <c r="F27">
         <v>-0.2732756675134899</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="100" customHeight="1">
+      <c r="G27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="100" customHeight="1">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -4111,13 +4231,16 @@
       <c r="F28">
         <v>2.267783548438423</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="100" customHeight="1">
+      <c r="G28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="100" customHeight="1">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D29">
         <v>1.5</v>
@@ -4128,13 +4251,16 @@
       <c r="F29">
         <v>2.065179567503287</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="100" customHeight="1">
+      <c r="G29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="100" customHeight="1">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D30">
         <v>2.5</v>
@@ -4145,13 +4271,16 @@
       <c r="F30">
         <v>1.808040943597903</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="100" customHeight="1">
+      <c r="G30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="100" customHeight="1">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D31">
         <v>6.5</v>
@@ -4162,13 +4291,16 @@
       <c r="F31">
         <v>1.315802917695658</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="100" customHeight="1">
+      <c r="G31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="100" customHeight="1">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -4179,13 +4311,16 @@
       <c r="F32">
         <v>1.715524225407504</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="100" customHeight="1">
+      <c r="G32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="100" customHeight="1">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D33">
         <v>3.5</v>
@@ -4196,13 +4331,16 @@
       <c r="F33">
         <v>1.801907092249077</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="100" customHeight="1">
+      <c r="G33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="100" customHeight="1">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D34">
         <v>2.5</v>
@@ -4213,13 +4351,16 @@
       <c r="F34">
         <v>1.808040943597903</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="100" customHeight="1">
+      <c r="G34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="100" customHeight="1">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -4230,13 +4371,16 @@
       <c r="F35">
         <v>1.715524225407504</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="100" customHeight="1">
+      <c r="G35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="100" customHeight="1">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -4247,13 +4391,16 @@
       <c r="F36">
         <v>1.715524225407504</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="100" customHeight="1">
+      <c r="G36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="100" customHeight="1">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D37">
         <v>40</v>
@@ -4264,13 +4411,16 @@
       <c r="F37">
         <v>0.2001051401535413</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="100" customHeight="1">
+      <c r="G37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="100" customHeight="1">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -4281,13 +4431,16 @@
       <c r="F38">
         <v>2.269203661219363</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="100" customHeight="1">
+      <c r="G38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="100" customHeight="1">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -4298,13 +4451,16 @@
       <c r="F39">
         <v>2.267783548438423</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="100" customHeight="1">
+      <c r="G39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="100" customHeight="1">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D40">
         <v>97.5</v>
@@ -4315,13 +4471,16 @@
       <c r="F40">
         <v>-1.808040943597905</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="100" customHeight="1">
+      <c r="G40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="100" customHeight="1">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D41">
         <v>1.5</v>
@@ -4332,13 +4491,16 @@
       <c r="F41">
         <v>2.065179567503287</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="100" customHeight="1">
+      <c r="G41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="100" customHeight="1">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D42">
         <v>0.5</v>
@@ -4349,13 +4511,16 @@
       <c r="F42">
         <v>2.612351797098031</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="100" customHeight="1">
+      <c r="G42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="100" customHeight="1">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -4366,13 +4531,16 @@
       <c r="F43">
         <v>2.267783548438423</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="100" customHeight="1">
+      <c r="G43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="100" customHeight="1">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -4383,13 +4551,16 @@
       <c r="F44">
         <v>1.920691153523556</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="100" customHeight="1">
+      <c r="G44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="100" customHeight="1">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D45">
         <v>2.5</v>
@@ -4400,13 +4571,16 @@
       <c r="F45">
         <v>1.808040943597903</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="100" customHeight="1">
+      <c r="G45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="100" customHeight="1">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D46">
         <v>9</v>
@@ -4417,13 +4591,16 @@
       <c r="F46">
         <v>1.141825110249225</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="100" customHeight="1">
+      <c r="G46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="100" customHeight="1">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -4434,13 +4611,16 @@
       <c r="F47">
         <v>2.267783548438423</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="100" customHeight="1">
+      <c r="G47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="100" customHeight="1">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D48">
         <v>3.5</v>
@@ -4451,13 +4631,16 @@
       <c r="F48">
         <v>1.636897285266561</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="100" customHeight="1">
+      <c r="G48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="100" customHeight="1">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D49">
         <v>4.5</v>
@@ -4468,13 +4651,16 @@
       <c r="F49">
         <v>1.507727708802602</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="100" customHeight="1">
+      <c r="G49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="100" customHeight="1">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D50">
         <v>2.5</v>
@@ -4485,13 +4671,16 @@
       <c r="F50">
         <v>1.808040943597903</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="100" customHeight="1">
+      <c r="G50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="100" customHeight="1">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C51" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D51">
         <v>99</v>
@@ -4502,13 +4691,16 @@
       <c r="F51">
         <v>-2.26778354843842</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="100" customHeight="1">
+      <c r="G51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="100" customHeight="1">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D52">
         <v>1.5</v>
@@ -4519,13 +4711,16 @@
       <c r="F52">
         <v>2.065179567503287</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="100" customHeight="1">
+      <c r="G52" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="100" customHeight="1">
       <c r="A53" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D53">
         <v>98</v>
@@ -4536,13 +4731,16 @@
       <c r="F53">
         <v>-1.920691153523556</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="100" customHeight="1">
+      <c r="G53" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="100" customHeight="1">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C54" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D54">
         <v>99.5</v>
@@ -4553,13 +4751,16 @@
       <c r="F54">
         <v>-2.61235179709804</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="100" customHeight="1">
+      <c r="G54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="100" customHeight="1">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C55" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D55">
         <v>99.5</v>
@@ -4570,13 +4771,16 @@
       <c r="F55">
         <v>-2.61235179709804</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="100" customHeight="1">
+      <c r="G55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="100" customHeight="1">
       <c r="A56" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D56">
         <v>99.5</v>
@@ -4587,13 +4791,16 @@
       <c r="F56">
         <v>-2.61235179709804</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="100" customHeight="1">
+      <c r="G56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="100" customHeight="1">
       <c r="A57" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C57" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D57">
         <v>34</v>
@@ -4604,13 +4811,16 @@
       <c r="F57">
         <v>0.3273489621763137</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="100" customHeight="1">
+      <c r="G57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="100" customHeight="1">
       <c r="A58" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -4621,13 +4831,16 @@
       <c r="F58">
         <v>2.267783548438423</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="100" customHeight="1">
+      <c r="G58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="100" customHeight="1">
       <c r="A59" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C59" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D59">
         <v>9.5</v>
@@ -4638,13 +4851,16 @@
       <c r="F59">
         <v>1.112422729872089</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="100" customHeight="1">
+      <c r="G59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="100" customHeight="1">
       <c r="A60" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C60" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D60">
         <v>32</v>
@@ -4655,13 +4871,16 @@
       <c r="F60">
         <v>0.3720014599087912</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="100" customHeight="1">
+      <c r="G60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="100" customHeight="1">
       <c r="A61" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C61" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D61">
         <v>60.5</v>
@@ -4672,13 +4891,16 @@
       <c r="F61">
         <v>-0.2104086459133792</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="100" customHeight="1">
+      <c r="G61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="100" customHeight="1">
       <c r="A62" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C62" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D62">
         <v>58.5</v>
@@ -4689,13 +4911,16 @@
       <c r="F62">
         <v>-0.1694418635416117</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="100" customHeight="1">
+      <c r="G62" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="100" customHeight="1">
       <c r="A63" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="C63" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D63">
         <v>64</v>
@@ -4706,13 +4931,16 @@
       <c r="F63">
         <v>-0.2839537127928058</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="100" customHeight="1">
+      <c r="G63" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="100" customHeight="1">
       <c r="A64" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C64" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="D64">
         <v>76.5</v>
@@ -4723,13 +4951,16 @@
       <c r="F64">
         <v>-0.5824968785696466</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="100" customHeight="1">
+      <c r="G64" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="100" customHeight="1">
       <c r="A65" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C65" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="D65">
         <v>99</v>
@@ -4740,13 +4971,16 @@
       <c r="F65">
         <v>-2.706709396523275</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="100" customHeight="1">
+      <c r="G65" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="100" customHeight="1">
       <c r="A66" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C66" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D66">
         <v>69.5</v>
@@ -4757,13 +4991,16 @@
       <c r="F66">
         <v>-0.4064631060318465</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="100" customHeight="1">
+      <c r="G66" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="100" customHeight="1">
       <c r="A67" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D67">
         <v>98.5</v>
@@ -4774,13 +5011,16 @@
       <c r="F67">
         <v>-2.464891741858764</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="100" customHeight="1">
+      <c r="G67" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="100" customHeight="1">
       <c r="A68" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C68" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D68">
         <v>50</v>
@@ -4791,13 +5031,16 @@
       <c r="F68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="100" customHeight="1">
+      <c r="G68" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="100" customHeight="1">
       <c r="A69" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C69" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="D69">
         <v>64</v>
@@ -4808,13 +5051,16 @@
       <c r="F69">
         <v>-0.3412024452107102</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="100" customHeight="1">
+      <c r="G69" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="100" customHeight="1">
       <c r="A70" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="C70" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="D70">
         <v>57.5</v>
@@ -4825,13 +5071,16 @@
       <c r="F70">
         <v>-0.1792586026380871</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="100" customHeight="1">
+      <c r="G70" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="100" customHeight="1">
       <c r="A71" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="C71" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="D71">
         <v>50</v>
@@ -4842,13 +5091,16 @@
       <c r="F71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="100" customHeight="1">
+      <c r="G71" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="100" customHeight="1">
       <c r="A72" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C72" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="D72">
         <v>1.5</v>
@@ -4859,13 +5111,16 @@
       <c r="F72">
         <v>2.065179567503287</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="100" customHeight="1">
+      <c r="G72" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="100" customHeight="1">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="C73" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -4876,13 +5131,16 @@
       <c r="F73">
         <v>2.267783548438423</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="100" customHeight="1">
+      <c r="G73" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="100" customHeight="1">
       <c r="A74" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C74" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="D74">
         <v>0.5</v>
@@ -4893,13 +5151,16 @@
       <c r="F74">
         <v>2.612351797098031</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="100" customHeight="1">
+      <c r="G74" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="100" customHeight="1">
       <c r="A75" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C75" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="D75">
         <v>65</v>
@@ -4909,6 +5170,9 @@
       </c>
       <c r="F75">
         <v>-0.3671026313690585</v>
+      </c>
+      <c r="G75" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/arranged_dataset/DIP-chloride.xlsx
+++ b/arranged_dataset/DIP-chloride.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="182">
   <si>
     <t>smiles</t>
   </si>
@@ -139,6 +139,12 @@
     <t>ADCYRBXQAJXJTD-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>ClCC(=O)c1c(Cl)cc(Cl)cc1</t>
+  </si>
+  <si>
+    <t>VYWPPRLJNVHPEU-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>c1cc(Br)ccc1c2cc(Cl)ccc2C(=O)CCC</t>
   </si>
   <si>
@@ -289,6 +295,39 @@
     <t>https://www.sciencedirect.com/science/article/pii/S0957416600822089</t>
   </si>
   <si>
+    <t>ClC(Cl)C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>CERJZAHSUZVMCH-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022113907001601</t>
+  </si>
+  <si>
+    <t>ClC(Cl)(Cl)C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>OAMHTTBNEJBIKA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>ClCC(=O)C</t>
+  </si>
+  <si>
+    <t>BULLHNJGPPOUOX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>ClC(Cl)C(=O)C</t>
+  </si>
+  <si>
+    <t>CSVFWMMPUJDVKH-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>ClC(Cl)(Cl)C(=O)C</t>
+  </si>
+  <si>
+    <t>SMZHKGXSEAGRTI-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>COCC(=O)c1ccccc1</t>
   </si>
   <si>
@@ -404,6 +443,12 @@
   </si>
   <si>
     <t>KWOLFJPFCHCOCG-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>ClCC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>IMACFCSSMIZSPP-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>c1ccccc1/C=C/C(=O)C</t>
@@ -3366,6 +3411,272 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="92668725"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Picture 75" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="93935550"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="Picture 76" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="95202375"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Picture 77" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="96469200"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Picture 78" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="97736025"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Picture 79" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="99002850"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="Picture 80" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="100269675"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Picture 81" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="101536500"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3663,7 +3974,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4023,13 +4334,13 @@
         <v>42</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>96.5</v>
       </c>
       <c r="E18">
         <v>0.49352</v>
       </c>
       <c r="F18">
-        <v>2.267783548438423</v>
+        <v>-1.636897285266562</v>
       </c>
       <c r="G18" t="s">
         <v>34</v>
@@ -4043,36 +4354,36 @@
         <v>44</v>
       </c>
       <c r="D19">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0.49352</v>
       </c>
       <c r="F19">
-        <v>0.2626596419205716</v>
+        <v>2.267783548438423</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="100" customHeight="1">
       <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
         <v>46</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20">
+        <v>37</v>
+      </c>
+      <c r="E20">
+        <v>0.49352</v>
+      </c>
+      <c r="F20">
+        <v>0.2626596419205716</v>
+      </c>
+      <c r="G20" t="s">
         <v>47</v>
-      </c>
-      <c r="D20">
-        <v>38.5</v>
-      </c>
-      <c r="E20">
-        <v>0.49352</v>
-      </c>
-      <c r="F20">
-        <v>0.2311543712701654</v>
-      </c>
-      <c r="G20" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="100" customHeight="1">
@@ -4083,16 +4394,16 @@
         <v>49</v>
       </c>
       <c r="D21">
-        <v>31</v>
+        <v>38.5</v>
       </c>
       <c r="E21">
         <v>0.49352</v>
       </c>
       <c r="F21">
-        <v>0.3948748769913301</v>
+        <v>0.2311543712701654</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="100" customHeight="1">
@@ -4103,16 +4414,16 @@
         <v>51</v>
       </c>
       <c r="D22">
-        <v>27.5</v>
+        <v>31</v>
       </c>
       <c r="E22">
         <v>0.49352</v>
       </c>
       <c r="F22">
-        <v>0.4784185629834729</v>
+        <v>0.3948748769913301</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="100" customHeight="1">
@@ -4123,36 +4434,36 @@
         <v>53</v>
       </c>
       <c r="D23">
-        <v>96</v>
+        <v>27.5</v>
       </c>
       <c r="E23">
-        <v>0.38805</v>
+        <v>0.49352</v>
       </c>
       <c r="F23">
-        <v>-1.23324378886652</v>
+        <v>0.4784185629834729</v>
       </c>
       <c r="G23" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="100" customHeight="1">
       <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
         <v>55</v>
       </c>
-      <c r="C24" t="s">
-        <v>56</v>
-      </c>
       <c r="D24">
-        <v>94.5</v>
+        <v>96</v>
       </c>
       <c r="E24">
         <v>0.38805</v>
       </c>
       <c r="F24">
-        <v>-1.103556668584487</v>
+        <v>-1.23324378886652</v>
       </c>
       <c r="G24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="100" customHeight="1">
@@ -4163,16 +4474,16 @@
         <v>58</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>94.5</v>
       </c>
       <c r="E25">
         <v>0.38805</v>
       </c>
       <c r="F25">
-        <v>0.8978060342685438</v>
+        <v>-1.103556668584487</v>
       </c>
       <c r="G25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="100" customHeight="1">
@@ -4183,16 +4494,16 @@
         <v>60</v>
       </c>
       <c r="D26">
-        <v>0.5</v>
+        <v>9</v>
       </c>
       <c r="E26">
-        <v>0.49352</v>
+        <v>0.38805</v>
       </c>
       <c r="F26">
-        <v>2.612351797098031</v>
+        <v>0.8978060342685438</v>
       </c>
       <c r="G26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="100" customHeight="1">
@@ -4203,16 +4514,16 @@
         <v>62</v>
       </c>
       <c r="D27">
-        <v>63.5</v>
+        <v>0.5</v>
       </c>
       <c r="E27">
         <v>0.49352</v>
       </c>
       <c r="F27">
-        <v>-0.2732756675134899</v>
+        <v>2.612351797098031</v>
       </c>
       <c r="G27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="100" customHeight="1">
@@ -4223,16 +4534,16 @@
         <v>64</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>63.5</v>
       </c>
       <c r="E28">
         <v>0.49352</v>
       </c>
       <c r="F28">
-        <v>2.267783548438423</v>
+        <v>-0.2732756675134899</v>
       </c>
       <c r="G28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="100" customHeight="1">
@@ -4243,36 +4554,36 @@
         <v>66</v>
       </c>
       <c r="D29">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>0.49352</v>
       </c>
       <c r="F29">
-        <v>2.065179567503287</v>
+        <v>2.267783548438423</v>
       </c>
       <c r="G29" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="100" customHeight="1">
       <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
         <v>68</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30">
+        <v>1.5</v>
+      </c>
+      <c r="E30">
+        <v>0.49352</v>
+      </c>
+      <c r="F30">
+        <v>2.065179567503287</v>
+      </c>
+      <c r="G30" t="s">
         <v>69</v>
-      </c>
-      <c r="D30">
-        <v>2.5</v>
-      </c>
-      <c r="E30">
-        <v>0.49352</v>
-      </c>
-      <c r="F30">
-        <v>1.808040943597903</v>
-      </c>
-      <c r="G30" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="100" customHeight="1">
@@ -4283,16 +4594,16 @@
         <v>71</v>
       </c>
       <c r="D31">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="E31">
         <v>0.49352</v>
       </c>
       <c r="F31">
-        <v>1.315802917695658</v>
+        <v>1.808040943597903</v>
       </c>
       <c r="G31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="100" customHeight="1">
@@ -4303,16 +4614,16 @@
         <v>73</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="E32">
         <v>0.49352</v>
       </c>
       <c r="F32">
-        <v>1.715524225407504</v>
+        <v>1.315802917695658</v>
       </c>
       <c r="G32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="100" customHeight="1">
@@ -4323,36 +4634,36 @@
         <v>75</v>
       </c>
       <c r="D33">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E33">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F33">
-        <v>1.801907092249077</v>
+        <v>1.715524225407504</v>
       </c>
       <c r="G33" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="100" customHeight="1">
       <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
         <v>77</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34">
+        <v>3.5</v>
+      </c>
+      <c r="E34">
+        <v>0.54327</v>
+      </c>
+      <c r="F34">
+        <v>1.801907092249077</v>
+      </c>
+      <c r="G34" t="s">
         <v>78</v>
-      </c>
-      <c r="D34">
-        <v>2.5</v>
-      </c>
-      <c r="E34">
-        <v>0.49352</v>
-      </c>
-      <c r="F34">
-        <v>1.808040943597903</v>
-      </c>
-      <c r="G34" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="100" customHeight="1">
@@ -4363,16 +4674,16 @@
         <v>80</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E35">
         <v>0.49352</v>
       </c>
       <c r="F35">
-        <v>1.715524225407504</v>
+        <v>1.808040943597903</v>
       </c>
       <c r="G35" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="100" customHeight="1">
@@ -4392,7 +4703,7 @@
         <v>1.715524225407504</v>
       </c>
       <c r="G36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="100" customHeight="1">
@@ -4403,16 +4714,16 @@
         <v>84</v>
       </c>
       <c r="D37">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E37">
         <v>0.49352</v>
       </c>
       <c r="F37">
-        <v>0.2001051401535413</v>
+        <v>1.715524225407504</v>
       </c>
       <c r="G37" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="100" customHeight="1">
@@ -4423,76 +4734,76 @@
         <v>86</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E38">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F38">
-        <v>2.269203661219363</v>
+        <v>0.2001051401535413</v>
       </c>
       <c r="G38" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="100" customHeight="1">
       <c r="A39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" t="s">
         <v>88</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>0.58307</v>
+      </c>
+      <c r="F39">
+        <v>2.269203661219363</v>
+      </c>
+      <c r="G39" t="s">
         <v>89</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>0.49352</v>
-      </c>
-      <c r="F39">
-        <v>2.267783548438423</v>
-      </c>
-      <c r="G39" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="100" customHeight="1">
       <c r="A40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" t="s">
         <v>91</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0.49352</v>
+      </c>
+      <c r="F40">
+        <v>2.267783548438423</v>
+      </c>
+      <c r="G40" t="s">
         <v>92</v>
-      </c>
-      <c r="D40">
-        <v>97.5</v>
-      </c>
-      <c r="E40">
-        <v>0.49352</v>
-      </c>
-      <c r="F40">
-        <v>-1.808040943597905</v>
-      </c>
-      <c r="G40" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="100" customHeight="1">
       <c r="A41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" t="s">
         <v>94</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41">
+        <v>91</v>
+      </c>
+      <c r="E41">
+        <v>0.49352</v>
+      </c>
+      <c r="F41">
+        <v>-1.141825110249225</v>
+      </c>
+      <c r="G41" t="s">
         <v>95</v>
-      </c>
-      <c r="D41">
-        <v>1.5</v>
-      </c>
-      <c r="E41">
-        <v>0.49352</v>
-      </c>
-      <c r="F41">
-        <v>2.065179567503287</v>
-      </c>
-      <c r="G41" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="100" customHeight="1">
@@ -4503,16 +4814,16 @@
         <v>97</v>
       </c>
       <c r="D42">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="E42">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F42">
-        <v>2.612351797098031</v>
+        <v>1.781307333383719</v>
       </c>
       <c r="G42" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="100" customHeight="1">
@@ -4523,16 +4834,16 @@
         <v>99</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E43">
         <v>0.49352</v>
       </c>
       <c r="F43">
-        <v>2.267783548438423</v>
+        <v>-0.1796241929564407</v>
       </c>
       <c r="G43" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="100" customHeight="1">
@@ -4543,16 +4854,16 @@
         <v>101</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>57.5</v>
       </c>
       <c r="E44">
         <v>0.49352</v>
       </c>
       <c r="F44">
-        <v>1.920691153523556</v>
+        <v>-0.1491816558867302</v>
       </c>
       <c r="G44" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="100" customHeight="1">
@@ -4563,16 +4874,16 @@
         <v>103</v>
       </c>
       <c r="D45">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="E45">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F45">
-        <v>1.808040943597903</v>
+        <v>1.781307333383719</v>
       </c>
       <c r="G45" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="100" customHeight="1">
@@ -4583,336 +4894,336 @@
         <v>105</v>
       </c>
       <c r="D46">
-        <v>9</v>
+        <v>97.5</v>
       </c>
       <c r="E46">
         <v>0.49352</v>
       </c>
       <c r="F46">
-        <v>1.141825110249225</v>
+        <v>-1.808040943597905</v>
       </c>
       <c r="G46" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="100" customHeight="1">
       <c r="A47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47">
+        <v>1.5</v>
+      </c>
+      <c r="E47">
+        <v>0.49352</v>
+      </c>
+      <c r="F47">
+        <v>2.065179567503287</v>
+      </c>
+      <c r="G47" t="s">
         <v>106</v>
-      </c>
-      <c r="C47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>0.49352</v>
-      </c>
-      <c r="F47">
-        <v>2.267783548438423</v>
-      </c>
-      <c r="G47" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="100" customHeight="1">
       <c r="A48" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C48" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D48">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="E48">
         <v>0.49352</v>
       </c>
       <c r="F48">
-        <v>1.636897285266561</v>
+        <v>2.612351797098031</v>
       </c>
       <c r="G48" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="100" customHeight="1">
       <c r="A49" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C49" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D49">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <v>0.49352</v>
       </c>
       <c r="F49">
-        <v>1.507727708802602</v>
+        <v>2.267783548438423</v>
       </c>
       <c r="G49" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="100" customHeight="1">
       <c r="A50" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C50" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D50">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E50">
         <v>0.49352</v>
       </c>
       <c r="F50">
-        <v>1.808040943597903</v>
+        <v>1.920691153523556</v>
       </c>
       <c r="G50" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="100" customHeight="1">
       <c r="A51" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C51" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D51">
-        <v>99</v>
+        <v>2.5</v>
       </c>
       <c r="E51">
         <v>0.49352</v>
       </c>
       <c r="F51">
-        <v>-2.26778354843842</v>
+        <v>1.808040943597903</v>
       </c>
       <c r="G51" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="100" customHeight="1">
       <c r="A52" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C52" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D52">
-        <v>1.5</v>
+        <v>9</v>
       </c>
       <c r="E52">
         <v>0.49352</v>
       </c>
       <c r="F52">
-        <v>2.065179567503287</v>
+        <v>1.141825110249225</v>
       </c>
       <c r="G52" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="100" customHeight="1">
       <c r="A53" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C53" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D53">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="E53">
         <v>0.49352</v>
       </c>
       <c r="F53">
-        <v>-1.920691153523556</v>
+        <v>2.267783548438423</v>
       </c>
       <c r="G53" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="100" customHeight="1">
       <c r="A54" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C54" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D54">
-        <v>99.5</v>
+        <v>3.5</v>
       </c>
       <c r="E54">
         <v>0.49352</v>
       </c>
       <c r="F54">
-        <v>-2.61235179709804</v>
+        <v>1.636897285266561</v>
       </c>
       <c r="G54" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="100" customHeight="1">
       <c r="A55" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C55" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D55">
-        <v>99.5</v>
+        <v>4.5</v>
       </c>
       <c r="E55">
         <v>0.49352</v>
       </c>
       <c r="F55">
-        <v>-2.61235179709804</v>
+        <v>1.507727708802602</v>
       </c>
       <c r="G55" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="100" customHeight="1">
       <c r="A56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C56" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D56">
-        <v>99.5</v>
+        <v>2.5</v>
       </c>
       <c r="E56">
         <v>0.49352</v>
       </c>
       <c r="F56">
-        <v>-2.61235179709804</v>
+        <v>1.808040943597903</v>
       </c>
       <c r="G56" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="100" customHeight="1">
       <c r="A57" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C57" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D57">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="E57">
         <v>0.49352</v>
       </c>
       <c r="F57">
-        <v>0.3273489621763137</v>
+        <v>-2.26778354843842</v>
       </c>
       <c r="G57" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="100" customHeight="1">
       <c r="A58" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C58" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E58">
         <v>0.49352</v>
       </c>
       <c r="F58">
-        <v>2.267783548438423</v>
+        <v>2.065179567503287</v>
       </c>
       <c r="G58" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="100" customHeight="1">
       <c r="A59" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C59" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D59">
-        <v>9.5</v>
+        <v>98</v>
       </c>
       <c r="E59">
         <v>0.49352</v>
       </c>
       <c r="F59">
-        <v>1.112422729872089</v>
+        <v>-1.920691153523556</v>
       </c>
       <c r="G59" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="100" customHeight="1">
       <c r="A60" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C60" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D60">
-        <v>32</v>
+        <v>99.5</v>
       </c>
       <c r="E60">
         <v>0.49352</v>
       </c>
       <c r="F60">
-        <v>0.3720014599087912</v>
+        <v>-2.61235179709804</v>
       </c>
       <c r="G60" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="100" customHeight="1">
       <c r="A61" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C61" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D61">
-        <v>60.5</v>
+        <v>99.5</v>
       </c>
       <c r="E61">
         <v>0.49352</v>
       </c>
       <c r="F61">
-        <v>-0.2104086459133792</v>
+        <v>-2.61235179709804</v>
       </c>
       <c r="G61" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="100" customHeight="1">
       <c r="A62" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C62" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D62">
-        <v>58.5</v>
+        <v>99.5</v>
       </c>
       <c r="E62">
         <v>0.49352</v>
       </c>
       <c r="F62">
-        <v>-0.1694418635416117</v>
+        <v>-2.61235179709804</v>
       </c>
       <c r="G62" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="100" customHeight="1">
@@ -4923,16 +5234,16 @@
         <v>140</v>
       </c>
       <c r="D63">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="E63">
         <v>0.49352</v>
       </c>
       <c r="F63">
-        <v>-0.2839537127928058</v>
+        <v>0.3273489621763137</v>
       </c>
       <c r="G63" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="100" customHeight="1">
@@ -4943,16 +5254,16 @@
         <v>142</v>
       </c>
       <c r="D64">
-        <v>76.5</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <v>0.49352</v>
       </c>
       <c r="F64">
-        <v>-0.5824968785696466</v>
+        <v>2.267783548438423</v>
       </c>
       <c r="G64" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="100" customHeight="1">
@@ -4963,16 +5274,16 @@
         <v>144</v>
       </c>
       <c r="D65">
-        <v>99</v>
+        <v>97.5</v>
       </c>
       <c r="E65">
-        <v>0.58904</v>
+        <v>0.49352</v>
       </c>
       <c r="F65">
-        <v>-2.706709396523275</v>
+        <v>-1.808040943597905</v>
       </c>
       <c r="G65" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="100" customHeight="1">
@@ -4983,16 +5294,16 @@
         <v>146</v>
       </c>
       <c r="D66">
-        <v>69.5</v>
+        <v>9.5</v>
       </c>
       <c r="E66">
         <v>0.49352</v>
       </c>
       <c r="F66">
-        <v>-0.4064631060318465</v>
+        <v>1.112422729872089</v>
       </c>
       <c r="G66" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="100" customHeight="1">
@@ -5003,16 +5314,16 @@
         <v>148</v>
       </c>
       <c r="D67">
-        <v>98.5</v>
+        <v>32</v>
       </c>
       <c r="E67">
-        <v>0.58904</v>
+        <v>0.49352</v>
       </c>
       <c r="F67">
-        <v>-2.464891741858764</v>
+        <v>0.3720014599087912</v>
       </c>
       <c r="G67" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="100" customHeight="1">
@@ -5023,36 +5334,36 @@
         <v>150</v>
       </c>
       <c r="D68">
-        <v>50</v>
+        <v>60.5</v>
       </c>
       <c r="E68">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>-0.2104086459133792</v>
       </c>
       <c r="G68" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="100" customHeight="1">
       <c r="A69" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" t="s">
         <v>152</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69">
+        <v>58.5</v>
+      </c>
+      <c r="E69">
+        <v>0.49352</v>
+      </c>
+      <c r="F69">
+        <v>-0.1694418635416117</v>
+      </c>
+      <c r="G69" t="s">
         <v>153</v>
-      </c>
-      <c r="D69">
-        <v>64</v>
-      </c>
-      <c r="E69">
-        <v>0.59302</v>
-      </c>
-      <c r="F69">
-        <v>-0.3412024452107102</v>
-      </c>
-      <c r="G69" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="100" customHeight="1">
@@ -5063,16 +5374,16 @@
         <v>155</v>
       </c>
       <c r="D70">
-        <v>57.5</v>
+        <v>64</v>
       </c>
       <c r="E70">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="F70">
-        <v>-0.1792586026380871</v>
+        <v>-0.2839537127928058</v>
       </c>
       <c r="G70" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="100" customHeight="1">
@@ -5083,16 +5394,16 @@
         <v>157</v>
       </c>
       <c r="D71">
-        <v>50</v>
+        <v>76.5</v>
       </c>
       <c r="E71">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>-0.5824968785696466</v>
       </c>
       <c r="G71" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="100" customHeight="1">
@@ -5103,76 +5414,216 @@
         <v>159</v>
       </c>
       <c r="D72">
-        <v>1.5</v>
+        <v>99</v>
       </c>
       <c r="E72">
-        <v>0.49352</v>
+        <v>0.58904</v>
       </c>
       <c r="F72">
-        <v>2.065179567503287</v>
+        <v>-2.706709396523275</v>
       </c>
       <c r="G72" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="100" customHeight="1">
       <c r="A73" t="s">
+        <v>160</v>
+      </c>
+      <c r="C73" t="s">
         <v>161</v>
       </c>
-      <c r="C73" t="s">
-        <v>162</v>
-      </c>
       <c r="D73">
-        <v>1</v>
+        <v>69.5</v>
       </c>
       <c r="E73">
         <v>0.49352</v>
       </c>
       <c r="F73">
-        <v>2.267783548438423</v>
+        <v>-0.4064631060318465</v>
       </c>
       <c r="G73" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="100" customHeight="1">
       <c r="A74" t="s">
+        <v>162</v>
+      </c>
+      <c r="C74" t="s">
         <v>163</v>
       </c>
-      <c r="C74" t="s">
-        <v>164</v>
-      </c>
       <c r="D74">
-        <v>0.5</v>
+        <v>98.5</v>
       </c>
       <c r="E74">
-        <v>0.49352</v>
+        <v>0.58904</v>
       </c>
       <c r="F74">
-        <v>2.612351797098031</v>
+        <v>-2.464891741858764</v>
       </c>
       <c r="G74" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="100" customHeight="1">
       <c r="A75" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" t="s">
         <v>165</v>
       </c>
-      <c r="C75" t="s">
-        <v>166</v>
-      </c>
       <c r="D75">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E75">
         <v>0.59302</v>
       </c>
       <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="100" customHeight="1">
+      <c r="A76" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76" t="s">
+        <v>168</v>
+      </c>
+      <c r="D76">
+        <v>64</v>
+      </c>
+      <c r="E76">
+        <v>0.59302</v>
+      </c>
+      <c r="F76">
+        <v>-0.3412024452107102</v>
+      </c>
+      <c r="G76" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="100" customHeight="1">
+      <c r="A77" t="s">
+        <v>169</v>
+      </c>
+      <c r="C77" t="s">
+        <v>170</v>
+      </c>
+      <c r="D77">
+        <v>57.5</v>
+      </c>
+      <c r="E77">
+        <v>0.59302</v>
+      </c>
+      <c r="F77">
+        <v>-0.1792586026380871</v>
+      </c>
+      <c r="G77" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="100" customHeight="1">
+      <c r="A78" t="s">
+        <v>171</v>
+      </c>
+      <c r="C78" t="s">
+        <v>172</v>
+      </c>
+      <c r="D78">
+        <v>50</v>
+      </c>
+      <c r="E78">
+        <v>0.59302</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="100" customHeight="1">
+      <c r="A79" t="s">
+        <v>173</v>
+      </c>
+      <c r="C79" t="s">
+        <v>174</v>
+      </c>
+      <c r="D79">
+        <v>1.5</v>
+      </c>
+      <c r="E79">
+        <v>0.49352</v>
+      </c>
+      <c r="F79">
+        <v>2.065179567503287</v>
+      </c>
+      <c r="G79" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="100" customHeight="1">
+      <c r="A80" t="s">
+        <v>176</v>
+      </c>
+      <c r="C80" t="s">
+        <v>177</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>0.49352</v>
+      </c>
+      <c r="F80">
+        <v>2.267783548438423</v>
+      </c>
+      <c r="G80" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="100" customHeight="1">
+      <c r="A81" t="s">
+        <v>178</v>
+      </c>
+      <c r="C81" t="s">
+        <v>179</v>
+      </c>
+      <c r="D81">
+        <v>0.5</v>
+      </c>
+      <c r="E81">
+        <v>0.49352</v>
+      </c>
+      <c r="F81">
+        <v>2.612351797098031</v>
+      </c>
+      <c r="G81" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="100" customHeight="1">
+      <c r="A82" t="s">
+        <v>180</v>
+      </c>
+      <c r="C82" t="s">
+        <v>181</v>
+      </c>
+      <c r="D82">
+        <v>65</v>
+      </c>
+      <c r="E82">
+        <v>0.59302</v>
+      </c>
+      <c r="F82">
         <v>-0.3671026313690585</v>
       </c>
-      <c r="G75" t="s">
-        <v>151</v>
+      <c r="G82" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/arranged_dataset/DIP-chloride.xlsx
+++ b/arranged_dataset/DIP-chloride.xlsx
@@ -4054,13 +4054,13 @@
         <v>13</v>
       </c>
       <c r="D4">
-        <v>1.350000000000001</v>
+        <v>1.35</v>
       </c>
       <c r="E4">
         <v>0.49352</v>
       </c>
       <c r="F4">
-        <v>2.117928070821824</v>
+        <v>2.117928070821825</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -4074,7 +4074,7 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>0.8999999999999986</v>
+        <v>0.899999999999999</v>
       </c>
       <c r="E5">
         <v>0.49352</v>
@@ -4154,13 +4154,13 @@
         <v>23</v>
       </c>
       <c r="D9">
-        <v>1.299999999999997</v>
+        <v>1.3</v>
       </c>
       <c r="E9">
         <v>0.49352</v>
       </c>
       <c r="F9">
-        <v>2.136803750966795</v>
+        <v>2.136803750966794</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
@@ -4174,7 +4174,7 @@
         <v>25</v>
       </c>
       <c r="D10">
-        <v>6.299999999999997</v>
+        <v>6.3</v>
       </c>
       <c r="E10">
         <v>0.49352</v>
@@ -4194,7 +4194,7 @@
         <v>27</v>
       </c>
       <c r="D11">
-        <v>0.9500000000000028</v>
+        <v>0.950000000000003</v>
       </c>
       <c r="E11">
         <v>0.49352</v>
@@ -4214,7 +4214,7 @@
         <v>29</v>
       </c>
       <c r="D12">
-        <v>4.350000000000001</v>
+        <v>4.35</v>
       </c>
       <c r="E12">
         <v>0.49352</v>
@@ -4817,10 +4817,10 @@
         <v>4.5</v>
       </c>
       <c r="E42">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F42">
-        <v>1.781307333383719</v>
+        <v>1.507727708802602</v>
       </c>
       <c r="G42" t="s">
         <v>95</v>

--- a/arranged_dataset/DIP-chloride.xlsx
+++ b/arranged_dataset/DIP-chloride.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="235">
   <si>
     <t>smiles</t>
   </si>
@@ -52,6 +52,12 @@
     <t>ZPVFWPFBNIEHGJ-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>c1ccccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>KWOLFJPFCHCOCG-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>c1ccccc1C(=O)CC</t>
   </si>
   <si>
@@ -244,15 +250,21 @@
     <t>IQZLUWLMQNGTIW-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>COc1cccc(OC)c1C(=O)C</t>
+  </si>
+  <si>
+    <t>XEUGKOFTNAYMMX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0040403900767803</t>
+  </si>
+  <si>
     <t>COc1ccc(OC)cc1C(=O)C</t>
   </si>
   <si>
     <t>FAXUIYJKGGUCBO-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>https://www.sciencedirect.com/science/article/pii/S0040403900767803</t>
-  </si>
-  <si>
     <t>COc1ccc(C)cc1C(=O)C</t>
   </si>
   <si>
@@ -328,6 +340,42 @@
     <t>SMZHKGXSEAGRTI-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>FCC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>YOMBUJAFGMOIGS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>FC(F)C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>OLYKCPDTXVZOQF-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>FC(F)(F)C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>KZJRKRQSDZGHEC-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>FCC(=O)C</t>
+  </si>
+  <si>
+    <t>MSWVMWGCNZQPIA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>FC(F)C(=O)C</t>
+  </si>
+  <si>
+    <t>XHILZHAQBOLGFD-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>FC(F)(F)C(=O)C</t>
+  </si>
+  <si>
+    <t>FHUDAMLDXFJHJE-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>COCC(=O)c1ccccc1</t>
   </si>
   <si>
@@ -439,12 +487,6 @@
     <t>SYBYTAAJFKOIEJ-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>c1ccccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>KWOLFJPFCHCOCG-UHFFFAOYSA-N</t>
-  </si>
-  <si>
     <t>ClCC(=O)c1ccccc1</t>
   </si>
   <si>
@@ -560,6 +602,123 @@
   </si>
   <si>
     <t>NQSMEZJWJJVYOI-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)F)c1c2ccccc2ccc1</t>
+  </si>
+  <si>
+    <t>VQCWOGKZDGCRES-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)F)c1cc2ccccc2cc1</t>
+  </si>
+  <si>
+    <t>JWQLBVFFLIHXHA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(C(F)(F)F)c1c(cccc2)c2cc3c1cccc3</t>
+  </si>
+  <si>
+    <t>MNCMBBIFTVWHIP-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)C(F)(F)F)c1ccccc1</t>
+  </si>
+  <si>
+    <t>VUBUXALTYMBEQO-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)C(F)(F)C(F)(F)F)c1ccccc1</t>
+  </si>
+  <si>
+    <t>UKYZDGAVBNKBPQ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)F)CCCCCCC</t>
+  </si>
+  <si>
+    <t>NDQOKFMZSIKVBG-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)F)CCCCCCCC</t>
+  </si>
+  <si>
+    <t>OQHGRUHRHLFMBX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)F)C1CCCCC1</t>
+  </si>
+  <si>
+    <t>RPTSLLGEWZGTHJ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)F)C#Cc1ccccc1</t>
+  </si>
+  <si>
+    <t>LISOVATZGSPQOC-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(CF)C#Cc1ccccc1</t>
+  </si>
+  <si>
+    <t>KXSOGUNMZUFDEV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)F)C#Cc1ccccc1</t>
+  </si>
+  <si>
+    <t>PWFHYGISSIMQKI-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)C(F)(F)F)C#Cc1ccccc1</t>
+  </si>
+  <si>
+    <t>VCARCPYEXCPAJO-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)C(F)(F)C(F)(F)F)C#Cc1ccccc1</t>
+  </si>
+  <si>
+    <t>JLQHDTDAQBOUBB-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(CF)C#CCCCC</t>
+  </si>
+  <si>
+    <t>RRJHAIWETICRET-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)F)C#CCCCC</t>
+  </si>
+  <si>
+    <t>CDGZCBOPYKCCLD-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)F)C#CCCCC</t>
+  </si>
+  <si>
+    <t>XAXKYUYIYBKVHR-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)C(F)(F)F)C#CCCCC</t>
+  </si>
+  <si>
+    <t>MKMFBYKRUQCCTG-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)C(F)(F)C(F)(F)F)C#CCCCC</t>
+  </si>
+  <si>
+    <t>DPQDBEUDQJLCFS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(CBr)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>ONZQYZKCUHFORE-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/doi/epdf/10.1021/jo00106a012</t>
   </si>
 </sst>
 </file>
@@ -3677,6 +3836,994 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="101536500"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="Picture 82" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="102803325"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Picture 83" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="104070150"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="Picture 84" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="105336975"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Picture 85" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="106603800"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="Picture 86" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="107870625"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="Picture 87" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="109137450"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="Picture 88" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="110404275"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="Picture 89" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="111671100"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="Picture 90" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId90"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="112937925"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="Picture 91" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="114204750"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="Picture 92" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId92"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="115471575"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="Picture 93" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId93"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="116738400"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="Picture 94" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId94"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="118005225"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="Picture 95" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId95"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="119272050"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="Picture 96" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="120538875"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="Picture 97" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId97"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="121805700"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="99" name="Picture 98" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId98"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="123072525"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="Picture 99" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId99"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="124339350"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="Picture 100" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId100"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="125606175"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="Picture 101" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId101"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="126873000"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="Picture 102" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId102"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="128139825"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="Picture 103" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId103"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="129406650"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="105" name="Picture 104" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId104"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="130673475"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="106" name="Picture 105" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId105"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="131940300"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="107" name="Picture 106" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId106"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="133207125"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="Picture 107" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId107"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="134473950"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3974,7 +5121,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4054,13 +5201,13 @@
         <v>13</v>
       </c>
       <c r="D4">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="E4">
         <v>0.49352</v>
       </c>
       <c r="F4">
-        <v>2.117928070821825</v>
+        <v>2.136803750966794</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -4074,13 +5221,13 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>0.899999999999999</v>
+        <v>1.35</v>
       </c>
       <c r="E5">
         <v>0.49352</v>
       </c>
       <c r="F5">
-        <v>2.320279323575566</v>
+        <v>2.117928070821825</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -4094,13 +5241,13 @@
         <v>17</v>
       </c>
       <c r="D6">
-        <v>2.5</v>
+        <v>0.899999999999999</v>
       </c>
       <c r="E6">
         <v>0.49352</v>
       </c>
       <c r="F6">
-        <v>1.808040943597903</v>
+        <v>2.320279323575566</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
@@ -4114,13 +5261,13 @@
         <v>19</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E7">
         <v>0.49352</v>
       </c>
       <c r="F7">
-        <v>1.453139524998222</v>
+        <v>1.808040943597903</v>
       </c>
       <c r="G7" t="s">
         <v>9</v>
@@ -4134,13 +5281,13 @@
         <v>21</v>
       </c>
       <c r="D8">
-        <v>89.65000000000001</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>0.49352</v>
       </c>
       <c r="F8">
-        <v>-1.06547349528128</v>
+        <v>1.453139524998222</v>
       </c>
       <c r="G8" t="s">
         <v>9</v>
@@ -4154,13 +5301,13 @@
         <v>23</v>
       </c>
       <c r="D9">
-        <v>1.3</v>
+        <v>89.65000000000001</v>
       </c>
       <c r="E9">
         <v>0.49352</v>
       </c>
       <c r="F9">
-        <v>2.136803750966794</v>
+        <v>-1.06547349528128</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
@@ -4174,13 +5321,13 @@
         <v>25</v>
       </c>
       <c r="D10">
-        <v>6.3</v>
+        <v>1.3</v>
       </c>
       <c r="E10">
         <v>0.49352</v>
       </c>
       <c r="F10">
-        <v>1.332281203281557</v>
+        <v>2.136803750966794</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
@@ -4194,13 +5341,13 @@
         <v>27</v>
       </c>
       <c r="D11">
-        <v>0.950000000000003</v>
+        <v>6.3</v>
       </c>
       <c r="E11">
         <v>0.49352</v>
       </c>
       <c r="F11">
-        <v>2.293347004688446</v>
+        <v>1.332281203281557</v>
       </c>
       <c r="G11" t="s">
         <v>9</v>
@@ -4214,13 +5361,13 @@
         <v>29</v>
       </c>
       <c r="D12">
-        <v>4.35</v>
+        <v>0.950000000000003</v>
       </c>
       <c r="E12">
         <v>0.49352</v>
       </c>
       <c r="F12">
-        <v>1.525233356759743</v>
+        <v>2.293347004688446</v>
       </c>
       <c r="G12" t="s">
         <v>9</v>
@@ -4234,13 +5381,13 @@
         <v>31</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>4.35</v>
       </c>
       <c r="E13">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="F13">
-        <v>1.448360638914646</v>
+        <v>1.525233356759743</v>
       </c>
       <c r="G13" t="s">
         <v>9</v>
@@ -4254,36 +5401,36 @@
         <v>33</v>
       </c>
       <c r="D14">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="E14">
-        <v>0.49352</v>
+        <v>0.59302</v>
       </c>
       <c r="F14">
-        <v>-1.276582925099217</v>
+        <v>1.448360638914646</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="100" customHeight="1">
       <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
         <v>35</v>
       </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
       <c r="D15">
-        <v>1.5</v>
+        <v>93</v>
       </c>
       <c r="E15">
         <v>0.49352</v>
       </c>
       <c r="F15">
-        <v>2.065179567503287</v>
+        <v>-1.276582925099217</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="100" customHeight="1">
@@ -4303,7 +5450,7 @@
         <v>2.065179567503287</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="100" customHeight="1">
@@ -4314,16 +5461,16 @@
         <v>40</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E17">
         <v>0.49352</v>
       </c>
       <c r="F17">
-        <v>2.267783548438423</v>
+        <v>2.065179567503287</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="100" customHeight="1">
@@ -4334,16 +5481,16 @@
         <v>42</v>
       </c>
       <c r="D18">
-        <v>96.5</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0.49352</v>
       </c>
       <c r="F18">
-        <v>-1.636897285266562</v>
+        <v>2.267783548438423</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="100" customHeight="1">
@@ -4354,16 +5501,16 @@
         <v>44</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>96.5</v>
       </c>
       <c r="E19">
         <v>0.49352</v>
       </c>
       <c r="F19">
-        <v>2.267783548438423</v>
+        <v>-1.636897285266562</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="100" customHeight="1">
@@ -4374,36 +5521,36 @@
         <v>46</v>
       </c>
       <c r="D20">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>0.49352</v>
       </c>
       <c r="F20">
-        <v>0.2626596419205716</v>
+        <v>2.267783548438423</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="100" customHeight="1">
       <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
         <v>48</v>
       </c>
-      <c r="C21" t="s">
-        <v>49</v>
-      </c>
       <c r="D21">
-        <v>38.5</v>
+        <v>37</v>
       </c>
       <c r="E21">
         <v>0.49352</v>
       </c>
       <c r="F21">
-        <v>0.2311543712701654</v>
+        <v>0.2626596419205716</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="100" customHeight="1">
@@ -4414,16 +5561,16 @@
         <v>51</v>
       </c>
       <c r="D22">
-        <v>31</v>
+        <v>38.5</v>
       </c>
       <c r="E22">
         <v>0.49352</v>
       </c>
       <c r="F22">
-        <v>0.3948748769913301</v>
+        <v>0.2311543712701654</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="100" customHeight="1">
@@ -4434,16 +5581,16 @@
         <v>53</v>
       </c>
       <c r="D23">
-        <v>27.5</v>
+        <v>31</v>
       </c>
       <c r="E23">
         <v>0.49352</v>
       </c>
       <c r="F23">
-        <v>0.4784185629834729</v>
+        <v>0.3948748769913301</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="100" customHeight="1">
@@ -4454,36 +5601,36 @@
         <v>55</v>
       </c>
       <c r="D24">
-        <v>96</v>
+        <v>27.5</v>
       </c>
       <c r="E24">
-        <v>0.38805</v>
+        <v>0.49352</v>
       </c>
       <c r="F24">
-        <v>-1.23324378886652</v>
+        <v>0.4784185629834729</v>
       </c>
       <c r="G24" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="100" customHeight="1">
       <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
         <v>57</v>
       </c>
-      <c r="C25" t="s">
-        <v>58</v>
-      </c>
       <c r="D25">
-        <v>94.5</v>
+        <v>96</v>
       </c>
       <c r="E25">
         <v>0.38805</v>
       </c>
       <c r="F25">
-        <v>-1.103556668584487</v>
+        <v>-1.23324378886652</v>
       </c>
       <c r="G25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="100" customHeight="1">
@@ -4494,16 +5641,16 @@
         <v>60</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>94.5</v>
       </c>
       <c r="E26">
         <v>0.38805</v>
       </c>
       <c r="F26">
-        <v>0.8978060342685438</v>
+        <v>-1.103556668584487</v>
       </c>
       <c r="G26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="100" customHeight="1">
@@ -4514,16 +5661,16 @@
         <v>62</v>
       </c>
       <c r="D27">
-        <v>0.5</v>
+        <v>9</v>
       </c>
       <c r="E27">
-        <v>0.49352</v>
+        <v>0.38805</v>
       </c>
       <c r="F27">
-        <v>2.612351797098031</v>
+        <v>0.8978060342685438</v>
       </c>
       <c r="G27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="100" customHeight="1">
@@ -4534,16 +5681,16 @@
         <v>64</v>
       </c>
       <c r="D28">
-        <v>63.5</v>
+        <v>0.5</v>
       </c>
       <c r="E28">
         <v>0.49352</v>
       </c>
       <c r="F28">
-        <v>-0.2732756675134899</v>
+        <v>2.612351797098031</v>
       </c>
       <c r="G28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="100" customHeight="1">
@@ -4554,16 +5701,16 @@
         <v>66</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>63.5</v>
       </c>
       <c r="E29">
         <v>0.49352</v>
       </c>
       <c r="F29">
-        <v>2.267783548438423</v>
+        <v>-0.2732756675134899</v>
       </c>
       <c r="G29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="100" customHeight="1">
@@ -4574,36 +5721,36 @@
         <v>68</v>
       </c>
       <c r="D30">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>0.49352</v>
       </c>
       <c r="F30">
-        <v>2.065179567503287</v>
+        <v>2.267783548438423</v>
       </c>
       <c r="G30" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="100" customHeight="1">
       <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
         <v>70</v>
       </c>
-      <c r="C31" t="s">
-        <v>71</v>
-      </c>
       <c r="D31">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="E31">
         <v>0.49352</v>
       </c>
       <c r="F31">
-        <v>1.808040943597903</v>
+        <v>2.065179567503287</v>
       </c>
       <c r="G31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="100" customHeight="1">
@@ -4614,16 +5761,16 @@
         <v>73</v>
       </c>
       <c r="D32">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="E32">
         <v>0.49352</v>
       </c>
       <c r="F32">
-        <v>1.315802917695658</v>
+        <v>1.808040943597903</v>
       </c>
       <c r="G32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="100" customHeight="1">
@@ -4634,16 +5781,16 @@
         <v>75</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="E33">
         <v>0.49352</v>
       </c>
       <c r="F33">
-        <v>1.715524225407504</v>
+        <v>1.315802917695658</v>
       </c>
       <c r="G33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="100" customHeight="1">
@@ -4654,36 +5801,36 @@
         <v>77</v>
       </c>
       <c r="D34">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>0.54327</v>
+        <v>0.49352</v>
       </c>
       <c r="F34">
-        <v>1.801907092249077</v>
+        <v>1.715524225407504</v>
       </c>
       <c r="G34" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="100" customHeight="1">
       <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
         <v>79</v>
       </c>
-      <c r="C35" t="s">
-        <v>80</v>
-      </c>
       <c r="D35">
-        <v>2.5</v>
+        <v>60</v>
       </c>
       <c r="E35">
         <v>0.49352</v>
       </c>
       <c r="F35">
-        <v>1.808040943597903</v>
+        <v>-0.2001051401535412</v>
       </c>
       <c r="G35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="100" customHeight="1">
@@ -4694,16 +5841,16 @@
         <v>82</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E36">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F36">
-        <v>1.715524225407504</v>
+        <v>1.801907092249077</v>
       </c>
       <c r="G36" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="100" customHeight="1">
@@ -4714,16 +5861,16 @@
         <v>84</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E37">
         <v>0.49352</v>
       </c>
       <c r="F37">
-        <v>1.715524225407504</v>
+        <v>1.808040943597903</v>
       </c>
       <c r="G37" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="100" customHeight="1">
@@ -4734,16 +5881,16 @@
         <v>86</v>
       </c>
       <c r="D38">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E38">
         <v>0.49352</v>
       </c>
       <c r="F38">
-        <v>0.2001051401535413</v>
+        <v>1.715524225407504</v>
       </c>
       <c r="G38" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="100" customHeight="1">
@@ -4754,96 +5901,96 @@
         <v>88</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F39">
-        <v>2.269203661219363</v>
+        <v>1.715524225407504</v>
       </c>
       <c r="G39" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="100" customHeight="1">
       <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" t="s">
         <v>90</v>
       </c>
-      <c r="C40" t="s">
-        <v>91</v>
-      </c>
       <c r="D40">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E40">
         <v>0.49352</v>
       </c>
       <c r="F40">
-        <v>2.267783548438423</v>
+        <v>0.2001051401535413</v>
       </c>
       <c r="G40" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="100" customHeight="1">
       <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>0.58307</v>
+      </c>
+      <c r="F41">
+        <v>2.269203661219363</v>
+      </c>
+      <c r="G41" t="s">
         <v>93</v>
-      </c>
-      <c r="C41" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41">
-        <v>91</v>
-      </c>
-      <c r="E41">
-        <v>0.49352</v>
-      </c>
-      <c r="F41">
-        <v>-1.141825110249225</v>
-      </c>
-      <c r="G41" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="100" customHeight="1">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D42">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="E42">
         <v>0.49352</v>
       </c>
       <c r="F42">
-        <v>1.507727708802602</v>
+        <v>2.267783548438423</v>
       </c>
       <c r="G42" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="100" customHeight="1">
       <c r="A43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" t="s">
         <v>98</v>
       </c>
-      <c r="C43" t="s">
-        <v>99</v>
-      </c>
       <c r="D43">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="E43">
         <v>0.49352</v>
       </c>
       <c r="F43">
-        <v>-0.1796241929564407</v>
+        <v>-1.141825110249225</v>
       </c>
       <c r="G43" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="100" customHeight="1">
@@ -4854,16 +6001,16 @@
         <v>101</v>
       </c>
       <c r="D44">
-        <v>57.5</v>
+        <v>4.5</v>
       </c>
       <c r="E44">
         <v>0.49352</v>
       </c>
       <c r="F44">
-        <v>-0.1491816558867302</v>
+        <v>1.507727708802602</v>
       </c>
       <c r="G44" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="100" customHeight="1">
@@ -4874,16 +6021,16 @@
         <v>103</v>
       </c>
       <c r="D45">
-        <v>4.5</v>
+        <v>59</v>
       </c>
       <c r="E45">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F45">
-        <v>1.781307333383719</v>
+        <v>-0.1796241929564407</v>
       </c>
       <c r="G45" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="100" customHeight="1">
@@ -4894,176 +6041,176 @@
         <v>105</v>
       </c>
       <c r="D46">
-        <v>97.5</v>
+        <v>57.5</v>
       </c>
       <c r="E46">
         <v>0.49352</v>
       </c>
       <c r="F46">
-        <v>-1.808040943597905</v>
+        <v>-0.1491816558867302</v>
       </c>
       <c r="G46" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="100" customHeight="1">
       <c r="A47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" t="s">
         <v>107</v>
       </c>
-      <c r="C47" t="s">
-        <v>108</v>
-      </c>
       <c r="D47">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="E47">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F47">
-        <v>2.065179567503287</v>
+        <v>1.781307333383719</v>
       </c>
       <c r="G47" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="100" customHeight="1">
       <c r="A48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" t="s">
         <v>109</v>
       </c>
-      <c r="C48" t="s">
-        <v>110</v>
-      </c>
       <c r="D48">
-        <v>0.5</v>
+        <v>97.5</v>
       </c>
       <c r="E48">
         <v>0.49352</v>
       </c>
       <c r="F48">
-        <v>2.612351797098031</v>
+        <v>-1.808040943597905</v>
       </c>
       <c r="G48" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="100" customHeight="1">
       <c r="A49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" t="s">
         <v>111</v>
       </c>
-      <c r="C49" t="s">
-        <v>112</v>
-      </c>
       <c r="D49">
-        <v>1</v>
+        <v>92.5</v>
       </c>
       <c r="E49">
         <v>0.49352</v>
       </c>
       <c r="F49">
-        <v>2.267783548438423</v>
+        <v>-1.239873071544692</v>
       </c>
       <c r="G49" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="100" customHeight="1">
       <c r="A50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" t="s">
         <v>113</v>
       </c>
-      <c r="C50" t="s">
-        <v>114</v>
-      </c>
       <c r="D50">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E50">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F50">
-        <v>1.920691153523556</v>
+        <v>1.716814035582576</v>
       </c>
       <c r="G50" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="100" customHeight="1">
       <c r="A51" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" t="s">
         <v>115</v>
       </c>
-      <c r="C51" t="s">
-        <v>116</v>
-      </c>
       <c r="D51">
-        <v>2.5</v>
+        <v>19.5</v>
       </c>
       <c r="E51">
         <v>0.49352</v>
       </c>
       <c r="F51">
-        <v>1.808040943597903</v>
+        <v>0.6997337386092292</v>
       </c>
       <c r="G51" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="100" customHeight="1">
       <c r="A52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" t="s">
         <v>117</v>
       </c>
-      <c r="C52" t="s">
-        <v>118</v>
-      </c>
       <c r="D52">
-        <v>9</v>
+        <v>52.5</v>
       </c>
       <c r="E52">
         <v>0.49352</v>
       </c>
       <c r="F52">
-        <v>1.141825110249225</v>
+        <v>-0.04939318846704208</v>
       </c>
       <c r="G52" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="100" customHeight="1">
       <c r="A53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" t="s">
         <v>119</v>
       </c>
-      <c r="C53" t="s">
-        <v>120</v>
-      </c>
       <c r="D53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F53">
-        <v>2.267783548438423</v>
+        <v>2.269203661219363</v>
       </c>
       <c r="G53" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="100" customHeight="1">
       <c r="A54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" t="s">
         <v>121</v>
       </c>
-      <c r="C54" t="s">
-        <v>122</v>
-      </c>
       <c r="D54">
-        <v>3.5</v>
+        <v>97.5</v>
       </c>
       <c r="E54">
         <v>0.49352</v>
       </c>
       <c r="F54">
-        <v>1.636897285266561</v>
+        <v>-1.808040943597905</v>
       </c>
       <c r="G54" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="100" customHeight="1">
@@ -5074,16 +6221,16 @@
         <v>124</v>
       </c>
       <c r="D55">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="E55">
         <v>0.49352</v>
       </c>
       <c r="F55">
-        <v>1.507727708802602</v>
+        <v>2.065179567503287</v>
       </c>
       <c r="G55" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="100" customHeight="1">
@@ -5094,16 +6241,16 @@
         <v>126</v>
       </c>
       <c r="D56">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="E56">
         <v>0.49352</v>
       </c>
       <c r="F56">
-        <v>1.808040943597903</v>
+        <v>2.612351797098031</v>
       </c>
       <c r="G56" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="100" customHeight="1">
@@ -5114,16 +6261,16 @@
         <v>128</v>
       </c>
       <c r="D57">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E57">
         <v>0.49352</v>
       </c>
       <c r="F57">
-        <v>-2.26778354843842</v>
+        <v>2.267783548438423</v>
       </c>
       <c r="G57" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="100" customHeight="1">
@@ -5134,16 +6281,16 @@
         <v>130</v>
       </c>
       <c r="D58">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E58">
         <v>0.49352</v>
       </c>
       <c r="F58">
-        <v>2.065179567503287</v>
+        <v>1.920691153523556</v>
       </c>
       <c r="G58" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="100" customHeight="1">
@@ -5154,16 +6301,16 @@
         <v>132</v>
       </c>
       <c r="D59">
-        <v>98</v>
+        <v>2.5</v>
       </c>
       <c r="E59">
         <v>0.49352</v>
       </c>
       <c r="F59">
-        <v>-1.920691153523556</v>
+        <v>1.808040943597903</v>
       </c>
       <c r="G59" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="100" customHeight="1">
@@ -5174,16 +6321,16 @@
         <v>134</v>
       </c>
       <c r="D60">
-        <v>99.5</v>
+        <v>9</v>
       </c>
       <c r="E60">
         <v>0.49352</v>
       </c>
       <c r="F60">
-        <v>-2.61235179709804</v>
+        <v>1.141825110249225</v>
       </c>
       <c r="G60" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="100" customHeight="1">
@@ -5194,16 +6341,16 @@
         <v>136</v>
       </c>
       <c r="D61">
-        <v>99.5</v>
+        <v>1</v>
       </c>
       <c r="E61">
         <v>0.49352</v>
       </c>
       <c r="F61">
-        <v>-2.61235179709804</v>
+        <v>2.267783548438423</v>
       </c>
       <c r="G61" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="100" customHeight="1">
@@ -5214,16 +6361,16 @@
         <v>138</v>
       </c>
       <c r="D62">
-        <v>99.5</v>
+        <v>3.5</v>
       </c>
       <c r="E62">
         <v>0.49352</v>
       </c>
       <c r="F62">
-        <v>-2.61235179709804</v>
+        <v>1.636897285266561</v>
       </c>
       <c r="G62" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="100" customHeight="1">
@@ -5234,16 +6381,16 @@
         <v>140</v>
       </c>
       <c r="D63">
-        <v>34</v>
+        <v>4.5</v>
       </c>
       <c r="E63">
         <v>0.49352</v>
       </c>
       <c r="F63">
-        <v>0.3273489621763137</v>
+        <v>1.507727708802602</v>
       </c>
       <c r="G63" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="100" customHeight="1">
@@ -5254,16 +6401,16 @@
         <v>142</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E64">
         <v>0.49352</v>
       </c>
       <c r="F64">
-        <v>2.267783548438423</v>
+        <v>1.808040943597903</v>
       </c>
       <c r="G64" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="100" customHeight="1">
@@ -5274,16 +6421,16 @@
         <v>144</v>
       </c>
       <c r="D65">
-        <v>97.5</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>0.49352</v>
       </c>
       <c r="F65">
-        <v>-1.808040943597905</v>
+        <v>-2.26778354843842</v>
       </c>
       <c r="G65" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="100" customHeight="1">
@@ -5294,16 +6441,16 @@
         <v>146</v>
       </c>
       <c r="D66">
-        <v>9.5</v>
+        <v>1.5</v>
       </c>
       <c r="E66">
         <v>0.49352</v>
       </c>
       <c r="F66">
-        <v>1.112422729872089</v>
+        <v>2.065179567503287</v>
       </c>
       <c r="G66" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="100" customHeight="1">
@@ -5314,16 +6461,16 @@
         <v>148</v>
       </c>
       <c r="D67">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="E67">
         <v>0.49352</v>
       </c>
       <c r="F67">
-        <v>0.3720014599087912</v>
+        <v>-1.920691153523556</v>
       </c>
       <c r="G67" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="100" customHeight="1">
@@ -5334,16 +6481,16 @@
         <v>150</v>
       </c>
       <c r="D68">
-        <v>60.5</v>
+        <v>99.5</v>
       </c>
       <c r="E68">
         <v>0.49352</v>
       </c>
       <c r="F68">
-        <v>-0.2104086459133792</v>
+        <v>-2.61235179709804</v>
       </c>
       <c r="G68" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="100" customHeight="1">
@@ -5354,276 +6501,796 @@
         <v>152</v>
       </c>
       <c r="D69">
-        <v>58.5</v>
+        <v>99.5</v>
       </c>
       <c r="E69">
         <v>0.49352</v>
       </c>
       <c r="F69">
-        <v>-0.1694418635416117</v>
+        <v>-2.61235179709804</v>
       </c>
       <c r="G69" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="100" customHeight="1">
       <c r="A70" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" t="s">
         <v>154</v>
       </c>
-      <c r="C70" t="s">
-        <v>155</v>
-      </c>
       <c r="D70">
-        <v>64</v>
+        <v>99.5</v>
       </c>
       <c r="E70">
         <v>0.49352</v>
       </c>
       <c r="F70">
-        <v>-0.2839537127928058</v>
+        <v>-2.61235179709804</v>
       </c>
       <c r="G70" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="100" customHeight="1">
       <c r="A71" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" t="s">
         <v>156</v>
       </c>
-      <c r="C71" t="s">
-        <v>157</v>
-      </c>
       <c r="D71">
-        <v>76.5</v>
+        <v>34</v>
       </c>
       <c r="E71">
         <v>0.49352</v>
       </c>
       <c r="F71">
-        <v>-0.5824968785696466</v>
+        <v>0.3273489621763137</v>
       </c>
       <c r="G71" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="100" customHeight="1">
       <c r="A72" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" t="s">
         <v>158</v>
       </c>
-      <c r="C72" t="s">
-        <v>159</v>
-      </c>
       <c r="D72">
-        <v>99</v>
+        <v>97.5</v>
       </c>
       <c r="E72">
-        <v>0.58904</v>
+        <v>0.49352</v>
       </c>
       <c r="F72">
-        <v>-2.706709396523275</v>
+        <v>-1.808040943597905</v>
       </c>
       <c r="G72" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="100" customHeight="1">
       <c r="A73" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" t="s">
         <v>160</v>
       </c>
-      <c r="C73" t="s">
-        <v>161</v>
-      </c>
       <c r="D73">
-        <v>69.5</v>
+        <v>9.5</v>
       </c>
       <c r="E73">
         <v>0.49352</v>
       </c>
       <c r="F73">
-        <v>-0.4064631060318465</v>
+        <v>1.112422729872089</v>
       </c>
       <c r="G73" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="100" customHeight="1">
       <c r="A74" t="s">
+        <v>161</v>
+      </c>
+      <c r="C74" t="s">
         <v>162</v>
       </c>
-      <c r="C74" t="s">
-        <v>163</v>
-      </c>
       <c r="D74">
-        <v>98.5</v>
+        <v>32</v>
       </c>
       <c r="E74">
-        <v>0.58904</v>
+        <v>0.49352</v>
       </c>
       <c r="F74">
-        <v>-2.464891741858764</v>
+        <v>0.3720014599087912</v>
       </c>
       <c r="G74" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="100" customHeight="1">
       <c r="A75" t="s">
+        <v>163</v>
+      </c>
+      <c r="C75" t="s">
         <v>164</v>
       </c>
-      <c r="C75" t="s">
-        <v>165</v>
-      </c>
       <c r="D75">
-        <v>50</v>
+        <v>60.5</v>
       </c>
       <c r="E75">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>-0.2104086459133792</v>
       </c>
       <c r="G75" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="100" customHeight="1">
       <c r="A76" t="s">
+        <v>165</v>
+      </c>
+      <c r="C76" t="s">
+        <v>166</v>
+      </c>
+      <c r="D76">
+        <v>58.5</v>
+      </c>
+      <c r="E76">
+        <v>0.49352</v>
+      </c>
+      <c r="F76">
+        <v>-0.1694418635416117</v>
+      </c>
+      <c r="G76" t="s">
         <v>167</v>
-      </c>
-      <c r="C76" t="s">
-        <v>168</v>
-      </c>
-      <c r="D76">
-        <v>64</v>
-      </c>
-      <c r="E76">
-        <v>0.59302</v>
-      </c>
-      <c r="F76">
-        <v>-0.3412024452107102</v>
-      </c>
-      <c r="G76" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="100" customHeight="1">
       <c r="A77" t="s">
+        <v>168</v>
+      </c>
+      <c r="C77" t="s">
         <v>169</v>
       </c>
-      <c r="C77" t="s">
-        <v>170</v>
-      </c>
       <c r="D77">
-        <v>57.5</v>
+        <v>64</v>
       </c>
       <c r="E77">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="F77">
-        <v>-0.1792586026380871</v>
+        <v>-0.2839537127928058</v>
       </c>
       <c r="G77" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="100" customHeight="1">
       <c r="A78" t="s">
+        <v>170</v>
+      </c>
+      <c r="C78" t="s">
         <v>171</v>
       </c>
-      <c r="C78" t="s">
-        <v>172</v>
-      </c>
       <c r="D78">
-        <v>50</v>
+        <v>76.5</v>
       </c>
       <c r="E78">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>-0.5824968785696466</v>
       </c>
       <c r="G78" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="100" customHeight="1">
       <c r="A79" t="s">
+        <v>172</v>
+      </c>
+      <c r="C79" t="s">
         <v>173</v>
       </c>
-      <c r="C79" t="s">
-        <v>174</v>
-      </c>
       <c r="D79">
-        <v>1.5</v>
+        <v>99</v>
       </c>
       <c r="E79">
-        <v>0.49352</v>
+        <v>0.58904</v>
       </c>
       <c r="F79">
-        <v>2.065179567503287</v>
+        <v>-2.706709396523275</v>
       </c>
       <c r="G79" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="100" customHeight="1">
       <c r="A80" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C80" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>69.5</v>
       </c>
       <c r="E80">
         <v>0.49352</v>
       </c>
       <c r="F80">
-        <v>2.267783548438423</v>
+        <v>-0.4064631060318465</v>
       </c>
       <c r="G80" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="100" customHeight="1">
       <c r="A81" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C81" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D81">
-        <v>0.5</v>
+        <v>98.5</v>
       </c>
       <c r="E81">
-        <v>0.49352</v>
+        <v>0.58904</v>
       </c>
       <c r="F81">
-        <v>2.612351797098031</v>
+        <v>-2.464891741858764</v>
       </c>
       <c r="G81" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="100" customHeight="1">
       <c r="A82" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C82" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D82">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E82">
         <v>0.59302</v>
       </c>
       <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="100" customHeight="1">
+      <c r="A83" t="s">
+        <v>181</v>
+      </c>
+      <c r="C83" t="s">
+        <v>182</v>
+      </c>
+      <c r="D83">
+        <v>64</v>
+      </c>
+      <c r="E83">
+        <v>0.59302</v>
+      </c>
+      <c r="F83">
+        <v>-0.3412024452107102</v>
+      </c>
+      <c r="G83" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="100" customHeight="1">
+      <c r="A84" t="s">
+        <v>183</v>
+      </c>
+      <c r="C84" t="s">
+        <v>184</v>
+      </c>
+      <c r="D84">
+        <v>57.5</v>
+      </c>
+      <c r="E84">
+        <v>0.59302</v>
+      </c>
+      <c r="F84">
+        <v>-0.1792586026380871</v>
+      </c>
+      <c r="G84" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="100" customHeight="1">
+      <c r="A85" t="s">
+        <v>185</v>
+      </c>
+      <c r="C85" t="s">
+        <v>186</v>
+      </c>
+      <c r="D85">
+        <v>50</v>
+      </c>
+      <c r="E85">
+        <v>0.59302</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="100" customHeight="1">
+      <c r="A86" t="s">
+        <v>187</v>
+      </c>
+      <c r="C86" t="s">
+        <v>188</v>
+      </c>
+      <c r="D86">
+        <v>1.5</v>
+      </c>
+      <c r="E86">
+        <v>0.49352</v>
+      </c>
+      <c r="F86">
+        <v>2.065179567503287</v>
+      </c>
+      <c r="G86" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="100" customHeight="1">
+      <c r="A87" t="s">
+        <v>190</v>
+      </c>
+      <c r="C87" t="s">
+        <v>191</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>0.49352</v>
+      </c>
+      <c r="F87">
+        <v>2.267783548438423</v>
+      </c>
+      <c r="G87" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="100" customHeight="1">
+      <c r="A88" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" t="s">
+        <v>193</v>
+      </c>
+      <c r="D88">
+        <v>0.5</v>
+      </c>
+      <c r="E88">
+        <v>0.49352</v>
+      </c>
+      <c r="F88">
+        <v>2.612351797098031</v>
+      </c>
+      <c r="G88" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="100" customHeight="1">
+      <c r="A89" t="s">
+        <v>194</v>
+      </c>
+      <c r="C89" t="s">
+        <v>195</v>
+      </c>
+      <c r="D89">
+        <v>65</v>
+      </c>
+      <c r="E89">
+        <v>0.59302</v>
+      </c>
+      <c r="F89">
         <v>-0.3671026313690585</v>
       </c>
-      <c r="G82" t="s">
-        <v>166</v>
+      <c r="G89" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="100" customHeight="1">
+      <c r="A90" t="s">
+        <v>196</v>
+      </c>
+      <c r="C90" t="s">
+        <v>197</v>
+      </c>
+      <c r="D90">
+        <v>11</v>
+      </c>
+      <c r="E90">
+        <v>0.59302</v>
+      </c>
+      <c r="F90">
+        <v>1.239851285303664</v>
+      </c>
+      <c r="G90" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="100" customHeight="1">
+      <c r="A91" t="s">
+        <v>198</v>
+      </c>
+      <c r="C91" t="s">
+        <v>199</v>
+      </c>
+      <c r="D91">
+        <v>4.5</v>
+      </c>
+      <c r="E91">
+        <v>0.59302</v>
+      </c>
+      <c r="F91">
+        <v>1.811705069448287</v>
+      </c>
+      <c r="G91" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="100" customHeight="1">
+      <c r="A92" t="s">
+        <v>200</v>
+      </c>
+      <c r="C92" t="s">
+        <v>201</v>
+      </c>
+      <c r="D92">
+        <v>9</v>
+      </c>
+      <c r="E92">
+        <v>0.59302</v>
+      </c>
+      <c r="F92">
+        <v>1.372031785702698</v>
+      </c>
+      <c r="G92" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="100" customHeight="1">
+      <c r="A93" t="s">
+        <v>202</v>
+      </c>
+      <c r="C93" t="s">
+        <v>203</v>
+      </c>
+      <c r="D93">
+        <v>4</v>
+      </c>
+      <c r="E93">
+        <v>0.59302</v>
+      </c>
+      <c r="F93">
+        <v>1.884649482472939</v>
+      </c>
+      <c r="G93" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="100" customHeight="1">
+      <c r="A94" t="s">
+        <v>204</v>
+      </c>
+      <c r="C94" t="s">
+        <v>205</v>
+      </c>
+      <c r="D94">
+        <v>6.5</v>
+      </c>
+      <c r="E94">
+        <v>0.59302</v>
+      </c>
+      <c r="F94">
+        <v>1.581085764005266</v>
+      </c>
+      <c r="G94" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="100" customHeight="1">
+      <c r="A95" t="s">
+        <v>206</v>
+      </c>
+      <c r="C95" t="s">
+        <v>207</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+      <c r="E95">
+        <v>0.59302</v>
+      </c>
+      <c r="F95">
+        <v>1.884649482472939</v>
+      </c>
+      <c r="G95" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="100" customHeight="1">
+      <c r="A96" t="s">
+        <v>208</v>
+      </c>
+      <c r="C96" t="s">
+        <v>209</v>
+      </c>
+      <c r="D96">
+        <v>4.5</v>
+      </c>
+      <c r="E96">
+        <v>0.59302</v>
+      </c>
+      <c r="F96">
+        <v>1.811705069448287</v>
+      </c>
+      <c r="G96" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="100" customHeight="1">
+      <c r="A97" t="s">
+        <v>210</v>
+      </c>
+      <c r="C97" t="s">
+        <v>211</v>
+      </c>
+      <c r="D97">
+        <v>6.5</v>
+      </c>
+      <c r="E97">
+        <v>0.59302</v>
+      </c>
+      <c r="F97">
+        <v>1.581085764005266</v>
+      </c>
+      <c r="G97" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="100" customHeight="1">
+      <c r="A98" t="s">
+        <v>212</v>
+      </c>
+      <c r="C98" t="s">
+        <v>213</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>0.49352</v>
+      </c>
+      <c r="F98">
+        <v>2.267783548438423</v>
+      </c>
+      <c r="G98" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="100" customHeight="1">
+      <c r="A99" t="s">
+        <v>214</v>
+      </c>
+      <c r="C99" t="s">
+        <v>215</v>
+      </c>
+      <c r="D99">
+        <v>64</v>
+      </c>
+      <c r="E99">
+        <v>0.59302</v>
+      </c>
+      <c r="F99">
+        <v>-0.3412024452107102</v>
+      </c>
+      <c r="G99" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="100" customHeight="1">
+      <c r="A100" t="s">
+        <v>216</v>
+      </c>
+      <c r="C100" t="s">
+        <v>217</v>
+      </c>
+      <c r="D100">
+        <v>31</v>
+      </c>
+      <c r="E100">
+        <v>0.59302</v>
+      </c>
+      <c r="F100">
+        <v>0.4744867473524853</v>
+      </c>
+      <c r="G100" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="100" customHeight="1">
+      <c r="A101" t="s">
+        <v>218</v>
+      </c>
+      <c r="C101" t="s">
+        <v>219</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="E101">
+        <v>0.59302</v>
+      </c>
+      <c r="F101">
+        <v>2.307927273185564</v>
+      </c>
+      <c r="G101" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="100" customHeight="1">
+      <c r="A102" t="s">
+        <v>220</v>
+      </c>
+      <c r="C102" t="s">
+        <v>221</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
+      <c r="E102">
+        <v>0.59302</v>
+      </c>
+      <c r="F102">
+        <v>2.061396045046114</v>
+      </c>
+      <c r="G102" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="100" customHeight="1">
+      <c r="A103" t="s">
+        <v>222</v>
+      </c>
+      <c r="C103" t="s">
+        <v>223</v>
+      </c>
+      <c r="D103">
+        <v>73</v>
+      </c>
+      <c r="E103">
+        <v>0.59302</v>
+      </c>
+      <c r="F103">
+        <v>-0.5898310795119318</v>
+      </c>
+      <c r="G103" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="100" customHeight="1">
+      <c r="A104" t="s">
+        <v>224</v>
+      </c>
+      <c r="C104" t="s">
+        <v>225</v>
+      </c>
+      <c r="D104">
+        <v>42.5</v>
+      </c>
+      <c r="E104">
+        <v>0.59302</v>
+      </c>
+      <c r="F104">
+        <v>0.1792586026380871</v>
+      </c>
+      <c r="G104" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="100" customHeight="1">
+      <c r="A105" t="s">
+        <v>226</v>
+      </c>
+      <c r="C105" t="s">
+        <v>227</v>
+      </c>
+      <c r="D105">
+        <v>0.5</v>
+      </c>
+      <c r="E105">
+        <v>0.59302</v>
+      </c>
+      <c r="F105">
+        <v>3.139035627158119</v>
+      </c>
+      <c r="G105" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="100" customHeight="1">
+      <c r="A106" t="s">
+        <v>228</v>
+      </c>
+      <c r="C106" t="s">
+        <v>229</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106">
+        <v>0.59302</v>
+      </c>
+      <c r="F106">
+        <v>2.307927273185564</v>
+      </c>
+      <c r="G106" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="100" customHeight="1">
+      <c r="A107" t="s">
+        <v>230</v>
+      </c>
+      <c r="C107" t="s">
+        <v>231</v>
+      </c>
+      <c r="D107">
+        <v>4</v>
+      </c>
+      <c r="E107">
+        <v>0.59302</v>
+      </c>
+      <c r="F107">
+        <v>1.884649482472939</v>
+      </c>
+      <c r="G107" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="100" customHeight="1">
+      <c r="A108" t="s">
+        <v>232</v>
+      </c>
+      <c r="C108" t="s">
+        <v>233</v>
+      </c>
+      <c r="D108">
+        <v>98</v>
+      </c>
+      <c r="E108">
+        <v>0.49352</v>
+      </c>
+      <c r="F108">
+        <v>-1.920691153523556</v>
+      </c>
+      <c r="G108" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
